--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>993300</v>
+        <v>768600</v>
       </c>
       <c r="E8" s="3">
-        <v>856000</v>
+        <v>816400</v>
       </c>
       <c r="F8" s="3">
-        <v>909800</v>
+        <v>787100</v>
       </c>
       <c r="G8" s="3">
-        <v>857300</v>
+        <v>678300</v>
       </c>
       <c r="H8" s="3">
-        <v>1006300</v>
+        <v>720900</v>
       </c>
       <c r="I8" s="3">
+        <v>679300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>797300</v>
+      </c>
+      <c r="K8" s="3">
         <v>842000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>782000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1002600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>934200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>813500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>817900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>817900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>703900</v>
+        <v>554600</v>
       </c>
       <c r="E9" s="3">
-        <v>622600</v>
+        <v>619700</v>
       </c>
       <c r="F9" s="3">
-        <v>637700</v>
+        <v>557700</v>
       </c>
       <c r="G9" s="3">
-        <v>667800</v>
+        <v>493300</v>
       </c>
       <c r="H9" s="3">
-        <v>807900</v>
+        <v>505300</v>
       </c>
       <c r="I9" s="3">
+        <v>529200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>640200</v>
+      </c>
+      <c r="K9" s="3">
         <v>635600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>574500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>802800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>729000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>627300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>556700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>776200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>289400</v>
+        <v>214000</v>
       </c>
       <c r="E10" s="3">
-        <v>233400</v>
+        <v>196700</v>
       </c>
       <c r="F10" s="3">
-        <v>272100</v>
+        <v>229300</v>
       </c>
       <c r="G10" s="3">
-        <v>189400</v>
+        <v>185000</v>
       </c>
       <c r="H10" s="3">
-        <v>198300</v>
+        <v>215600</v>
       </c>
       <c r="I10" s="3">
+        <v>150100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>157200</v>
+      </c>
+      <c r="K10" s="3">
         <v>206400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>207500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>199800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>205100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>186200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>261200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>41800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="G15" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="I15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>772500</v>
+        <v>608000</v>
       </c>
       <c r="E17" s="3">
-        <v>695700</v>
+        <v>688900</v>
       </c>
       <c r="F17" s="3">
-        <v>706800</v>
+        <v>612100</v>
       </c>
       <c r="G17" s="3">
-        <v>726100</v>
+        <v>551300</v>
       </c>
       <c r="H17" s="3">
-        <v>850300</v>
+        <v>560000</v>
       </c>
       <c r="I17" s="3">
+        <v>575300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>673700</v>
+      </c>
+      <c r="K17" s="3">
         <v>691200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>640300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>914100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>817300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>679400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>613800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>830600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>220800</v>
+        <v>160600</v>
       </c>
       <c r="E18" s="3">
-        <v>160300</v>
+        <v>127500</v>
       </c>
       <c r="F18" s="3">
-        <v>203000</v>
+        <v>175000</v>
       </c>
       <c r="G18" s="3">
-        <v>131200</v>
+        <v>127000</v>
       </c>
       <c r="H18" s="3">
-        <v>156000</v>
+        <v>160900</v>
       </c>
       <c r="I18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K18" s="3">
         <v>150900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>141700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>88500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>116900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>134100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>204200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21600</v>
+        <v>23000</v>
       </c>
       <c r="E20" s="3">
-        <v>24400</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>33800</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="H20" s="3">
-        <v>20000</v>
+        <v>26700</v>
       </c>
       <c r="I20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K20" s="3">
         <v>27500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>33500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>35700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>28800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-18800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>302200</v>
+        <v>236400</v>
       </c>
       <c r="E21" s="3">
-        <v>245600</v>
+        <v>207400</v>
       </c>
       <c r="F21" s="3">
-        <v>288800</v>
+        <v>239400</v>
       </c>
       <c r="G21" s="3">
-        <v>196900</v>
+        <v>194600</v>
       </c>
       <c r="H21" s="3">
-        <v>219700</v>
+        <v>228800</v>
       </c>
       <c r="I21" s="3">
+        <v>156000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>174100</v>
+      </c>
+      <c r="K21" s="3">
         <v>222800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>216600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>133100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>199300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>179400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>278400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52900</v>
+        <v>40500</v>
       </c>
       <c r="E22" s="3">
-        <v>54200</v>
+        <v>38000</v>
       </c>
       <c r="F22" s="3">
-        <v>56700</v>
+        <v>42000</v>
       </c>
       <c r="G22" s="3">
-        <v>52300</v>
+        <v>43000</v>
       </c>
       <c r="H22" s="3">
-        <v>49400</v>
+        <v>44900</v>
       </c>
       <c r="I22" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>49700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>58400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>61300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>65400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>67500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>71300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>189500</v>
+        <v>143100</v>
       </c>
       <c r="E23" s="3">
-        <v>130500</v>
+        <v>103800</v>
       </c>
       <c r="F23" s="3">
-        <v>180100</v>
+        <v>150100</v>
       </c>
       <c r="G23" s="3">
-        <v>99100</v>
+        <v>103400</v>
       </c>
       <c r="H23" s="3">
-        <v>126600</v>
+        <v>142700</v>
       </c>
       <c r="I23" s="3">
+        <v>78500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K23" s="3">
         <v>126400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>125400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>91300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>66900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>165500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-102700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46200</v>
+        <v>48500</v>
       </c>
       <c r="E24" s="3">
-        <v>49400</v>
+        <v>-6500</v>
       </c>
       <c r="F24" s="3">
+        <v>36600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>39200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>49100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>43400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>28200</v>
+      </c>
+      <c r="P24" s="3">
         <v>61900</v>
       </c>
-      <c r="G24" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>26000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>43400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>42300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>28200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>61900</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-36300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143300</v>
+        <v>94500</v>
       </c>
       <c r="E26" s="3">
-        <v>81000</v>
+        <v>110400</v>
       </c>
       <c r="F26" s="3">
-        <v>118200</v>
+        <v>113500</v>
       </c>
       <c r="G26" s="3">
-        <v>91300</v>
+        <v>64200</v>
       </c>
       <c r="H26" s="3">
-        <v>100600</v>
+        <v>93600</v>
       </c>
       <c r="I26" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K26" s="3">
         <v>83000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>83100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>34200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>106800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>38700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>103500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-66400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>133500</v>
+        <v>94800</v>
       </c>
       <c r="E27" s="3">
-        <v>81600</v>
+        <v>105600</v>
       </c>
       <c r="F27" s="3">
-        <v>116300</v>
+        <v>105800</v>
       </c>
       <c r="G27" s="3">
-        <v>87100</v>
+        <v>64600</v>
       </c>
       <c r="H27" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K27" s="3">
         <v>81700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>81400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>104900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>101800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-52400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21600</v>
+        <v>-23000</v>
       </c>
       <c r="E32" s="3">
-        <v>-24400</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-33800</v>
+        <v>-17100</v>
       </c>
       <c r="G32" s="3">
-        <v>-20200</v>
+        <v>-19300</v>
       </c>
       <c r="H32" s="3">
-        <v>-20000</v>
+        <v>-26700</v>
       </c>
       <c r="I32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-33500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-35700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-28800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>18800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>133500</v>
+        <v>94800</v>
       </c>
       <c r="E33" s="3">
-        <v>81600</v>
+        <v>105600</v>
       </c>
       <c r="F33" s="3">
-        <v>116300</v>
+        <v>105800</v>
       </c>
       <c r="G33" s="3">
-        <v>87100</v>
+        <v>64600</v>
       </c>
       <c r="H33" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K33" s="3">
         <v>81700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>81400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>104900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>101800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-52400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>133500</v>
+        <v>94800</v>
       </c>
       <c r="E35" s="3">
-        <v>81600</v>
+        <v>105600</v>
       </c>
       <c r="F35" s="3">
-        <v>116300</v>
+        <v>105800</v>
       </c>
       <c r="G35" s="3">
-        <v>87100</v>
+        <v>64600</v>
       </c>
       <c r="H35" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K35" s="3">
         <v>81700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>81400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>104900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>101800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-52400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>473200</v>
+        <v>557900</v>
       </c>
       <c r="E41" s="3">
-        <v>445300</v>
+        <v>544300</v>
       </c>
       <c r="F41" s="3">
-        <v>479600</v>
+        <v>374900</v>
       </c>
       <c r="G41" s="3">
-        <v>455000</v>
+        <v>352800</v>
       </c>
       <c r="H41" s="3">
-        <v>200300</v>
+        <v>380000</v>
       </c>
       <c r="I41" s="3">
+        <v>360500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K41" s="3">
         <v>398000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>396400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>266700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>334700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>365100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>234600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>243600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>107700</v>
+        <v>57900</v>
       </c>
       <c r="E42" s="3">
-        <v>122300</v>
+        <v>66400</v>
       </c>
       <c r="F42" s="3">
-        <v>133400</v>
+        <v>85300</v>
       </c>
       <c r="G42" s="3">
-        <v>127500</v>
+        <v>96900</v>
       </c>
       <c r="H42" s="3">
-        <v>95600</v>
+        <v>105700</v>
       </c>
       <c r="I42" s="3">
+        <v>101000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K42" s="3">
         <v>78300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>76700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>44300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>38300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>22100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>33900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>957700</v>
+        <v>802600</v>
       </c>
       <c r="E43" s="3">
-        <v>930500</v>
+        <v>822400</v>
       </c>
       <c r="F43" s="3">
-        <v>925400</v>
+        <v>758800</v>
       </c>
       <c r="G43" s="3">
-        <v>940200</v>
+        <v>737300</v>
       </c>
       <c r="H43" s="3">
-        <v>965700</v>
+        <v>733200</v>
       </c>
       <c r="I43" s="3">
+        <v>744900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K43" s="3">
         <v>897800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>887400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1097100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1115800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>895600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>808500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>731200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27800</v>
+        <v>25900</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>26400</v>
+        <v>22000</v>
       </c>
       <c r="G44" s="3">
-        <v>27200</v>
+        <v>22100</v>
       </c>
       <c r="H44" s="3">
-        <v>27300</v>
+        <v>20900</v>
       </c>
       <c r="I44" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K44" s="3">
         <v>26000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>24400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>28300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>29900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>31000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>31500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>32400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="N45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
-        <v>18100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>23200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>18100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>18300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>25400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>25600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>9500</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1575900</v>
+        <v>1462300</v>
       </c>
       <c r="E46" s="3">
-        <v>1544100</v>
+        <v>1463400</v>
       </c>
       <c r="F46" s="3">
-        <v>1588000</v>
+        <v>1248700</v>
       </c>
       <c r="G46" s="3">
-        <v>1559400</v>
+        <v>1223500</v>
       </c>
       <c r="H46" s="3">
-        <v>1314000</v>
+        <v>1258300</v>
       </c>
       <c r="I46" s="3">
+        <v>1235600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1418100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1403100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1461800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1544300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1315900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1106000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1051200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2149100</v>
+        <v>1988800</v>
       </c>
       <c r="E47" s="3">
-        <v>2022100</v>
+        <v>1968500</v>
       </c>
       <c r="F47" s="3">
-        <v>2024600</v>
+        <v>1881800</v>
       </c>
       <c r="G47" s="3">
-        <v>2217300</v>
+        <v>1796800</v>
       </c>
       <c r="H47" s="3">
-        <v>2091900</v>
+        <v>1777200</v>
       </c>
       <c r="I47" s="3">
+        <v>1757600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1658500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1984400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1901700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2179100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2122700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2046500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1961300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1862100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2764000</v>
+        <v>1949600</v>
       </c>
       <c r="E48" s="3">
-        <v>2787800</v>
+        <v>1977200</v>
       </c>
       <c r="F48" s="3">
-        <v>2760400</v>
+        <v>2011100</v>
       </c>
       <c r="G48" s="3">
-        <v>2532600</v>
+        <v>2014300</v>
       </c>
       <c r="H48" s="3">
-        <v>2508800</v>
+        <v>2014200</v>
       </c>
       <c r="I48" s="3">
+        <v>2006100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1986900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2438400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2373700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2521700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2477700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2397500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2252800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2235600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1460600</v>
+        <v>1175300</v>
       </c>
       <c r="E49" s="3">
-        <v>1445500</v>
+        <v>1171700</v>
       </c>
       <c r="F49" s="3">
-        <v>1420400</v>
+        <v>1157300</v>
       </c>
       <c r="G49" s="3">
-        <v>1407900</v>
+        <v>1145300</v>
       </c>
       <c r="H49" s="3">
-        <v>1537500</v>
+        <v>1125500</v>
       </c>
       <c r="I49" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1218200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1511800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1509600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1654400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1682400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1672400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1609700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1602600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>626500</v>
+        <v>510600</v>
       </c>
       <c r="E52" s="3">
-        <v>658300</v>
+        <v>508100</v>
       </c>
       <c r="F52" s="3">
-        <v>674800</v>
+        <v>496400</v>
       </c>
       <c r="G52" s="3">
-        <v>673100</v>
+        <v>521600</v>
       </c>
       <c r="H52" s="3">
-        <v>709700</v>
+        <v>534700</v>
       </c>
       <c r="I52" s="3">
+        <v>533300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>562300</v>
+      </c>
+      <c r="K52" s="3">
         <v>699000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>685900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>752600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>776100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>746000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>744600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>767400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8576100</v>
+        <v>7086700</v>
       </c>
       <c r="E54" s="3">
-        <v>8457800</v>
+        <v>7089000</v>
       </c>
       <c r="F54" s="3">
-        <v>8468200</v>
+        <v>6795300</v>
       </c>
       <c r="G54" s="3">
-        <v>8390400</v>
+        <v>6701500</v>
       </c>
       <c r="H54" s="3">
-        <v>8161800</v>
+        <v>6709800</v>
       </c>
       <c r="I54" s="3">
+        <v>6648100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6467100</v>
+      </c>
+      <c r="K54" s="3">
         <v>8051800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7873900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8502200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8603300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8178300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7674400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7518900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>388800</v>
+        <v>283700</v>
       </c>
       <c r="E57" s="3">
-        <v>339200</v>
+        <v>311800</v>
       </c>
       <c r="F57" s="3">
-        <v>357300</v>
+        <v>308100</v>
       </c>
       <c r="G57" s="3">
-        <v>331400</v>
+        <v>268800</v>
       </c>
       <c r="H57" s="3">
-        <v>500500</v>
+        <v>283100</v>
       </c>
       <c r="I57" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>396600</v>
+      </c>
+      <c r="K57" s="3">
         <v>390700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>324400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>431600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>557600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>391700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>283700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>311500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>395800</v>
+        <v>280000</v>
       </c>
       <c r="E58" s="3">
-        <v>643700</v>
+        <v>268900</v>
       </c>
       <c r="F58" s="3">
-        <v>837300</v>
+        <v>313600</v>
       </c>
       <c r="G58" s="3">
-        <v>770100</v>
+        <v>510000</v>
       </c>
       <c r="H58" s="3">
-        <v>772000</v>
+        <v>663400</v>
       </c>
       <c r="I58" s="3">
+        <v>610200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>611700</v>
+      </c>
+      <c r="K58" s="3">
         <v>925600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>619600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>840300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>755800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>681600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>645500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>352300</v>
+        <v>392500</v>
       </c>
       <c r="E59" s="3">
-        <v>352900</v>
+        <v>408400</v>
       </c>
       <c r="F59" s="3">
-        <v>413600</v>
+        <v>279200</v>
       </c>
       <c r="G59" s="3">
-        <v>461900</v>
+        <v>279600</v>
       </c>
       <c r="H59" s="3">
-        <v>429500</v>
+        <v>327700</v>
       </c>
       <c r="I59" s="3">
+        <v>366000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>340300</v>
+      </c>
+      <c r="K59" s="3">
         <v>487500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>455500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>515200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>567600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>528000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>475300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>446200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1136900</v>
+        <v>956200</v>
       </c>
       <c r="E60" s="3">
-        <v>1335800</v>
+        <v>989100</v>
       </c>
       <c r="F60" s="3">
-        <v>1608100</v>
+        <v>900900</v>
       </c>
       <c r="G60" s="3">
-        <v>1563400</v>
+        <v>1058500</v>
       </c>
       <c r="H60" s="3">
-        <v>1702000</v>
+        <v>1274200</v>
       </c>
       <c r="I60" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1348600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1803800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1380400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1566500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1965500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1675500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1440600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1403100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2183000</v>
+        <v>1811800</v>
       </c>
       <c r="E61" s="3">
-        <v>1998700</v>
+        <v>1890100</v>
       </c>
       <c r="F61" s="3">
-        <v>1826300</v>
+        <v>1729700</v>
       </c>
       <c r="G61" s="3">
-        <v>1930600</v>
+        <v>1583700</v>
       </c>
       <c r="H61" s="3">
-        <v>1551100</v>
+        <v>1447100</v>
       </c>
       <c r="I61" s="3">
+        <v>1529700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1452700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1826700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1900700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1602200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1672600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1530600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1546800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1101000</v>
+        <v>968000</v>
       </c>
       <c r="E62" s="3">
-        <v>1111000</v>
+        <v>953500</v>
       </c>
       <c r="F62" s="3">
-        <v>1101600</v>
+        <v>872400</v>
       </c>
       <c r="G62" s="3">
-        <v>1081500</v>
+        <v>880300</v>
       </c>
       <c r="H62" s="3">
-        <v>1048000</v>
+        <v>872800</v>
       </c>
       <c r="I62" s="3">
+        <v>856900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>830400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1016700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>969300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1058400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1005900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>903700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>885000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>848300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4500700</v>
+        <v>3799700</v>
       </c>
       <c r="E66" s="3">
-        <v>4515900</v>
+        <v>3896800</v>
       </c>
       <c r="F66" s="3">
-        <v>4607900</v>
+        <v>3566100</v>
       </c>
       <c r="G66" s="3">
-        <v>4646400</v>
+        <v>3578200</v>
       </c>
       <c r="H66" s="3">
-        <v>4372800</v>
+        <v>3651100</v>
       </c>
       <c r="I66" s="3">
+        <v>3681600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3464800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4345500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4248800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4603200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4639800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4320100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3919800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3863800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1381400</v>
+        <v>1182100</v>
       </c>
       <c r="E72" s="3">
-        <v>1244100</v>
+        <v>1084400</v>
       </c>
       <c r="F72" s="3">
-        <v>1833600</v>
+        <v>1094500</v>
       </c>
       <c r="G72" s="3">
-        <v>1713400</v>
+        <v>985700</v>
       </c>
       <c r="H72" s="3">
-        <v>1745500</v>
+        <v>1452800</v>
       </c>
       <c r="I72" s="3">
+        <v>1357600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1658700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1573800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1641400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1692200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1582700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1547600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1445100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4075400</v>
+        <v>3287000</v>
       </c>
       <c r="E76" s="3">
-        <v>3941900</v>
+        <v>3192200</v>
       </c>
       <c r="F76" s="3">
-        <v>3860300</v>
+        <v>3229100</v>
       </c>
       <c r="G76" s="3">
-        <v>3744000</v>
+        <v>3123400</v>
       </c>
       <c r="H76" s="3">
-        <v>3789100</v>
+        <v>3058700</v>
       </c>
       <c r="I76" s="3">
+        <v>2966600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3002300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3706200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3625200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3899000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3963500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3858200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3754600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3655100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>133500</v>
+        <v>94800</v>
       </c>
       <c r="E81" s="3">
-        <v>81600</v>
+        <v>105600</v>
       </c>
       <c r="F81" s="3">
-        <v>116300</v>
+        <v>105800</v>
       </c>
       <c r="G81" s="3">
-        <v>87100</v>
+        <v>64600</v>
       </c>
       <c r="H81" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K81" s="3">
         <v>81700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>81400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>104900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>101800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-52400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59800</v>
+        <v>52800</v>
       </c>
       <c r="E83" s="3">
-        <v>60900</v>
+        <v>65600</v>
       </c>
       <c r="F83" s="3">
-        <v>52000</v>
+        <v>47400</v>
       </c>
       <c r="G83" s="3">
-        <v>45500</v>
+        <v>48200</v>
       </c>
       <c r="H83" s="3">
-        <v>43800</v>
+        <v>41200</v>
       </c>
       <c r="I83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K83" s="3">
         <v>44400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>41400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>46700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>46700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>47200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>45400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>163600</v>
+        <v>153700</v>
       </c>
       <c r="E89" s="3">
-        <v>136000</v>
+        <v>159000</v>
       </c>
       <c r="F89" s="3">
-        <v>187500</v>
+        <v>129600</v>
       </c>
       <c r="G89" s="3">
-        <v>39500</v>
+        <v>107700</v>
       </c>
       <c r="H89" s="3">
-        <v>63400</v>
+        <v>148600</v>
       </c>
       <c r="I89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K89" s="3">
         <v>160800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>149800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-50000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>38100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>156000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>39800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25100</v>
+        <v>-19600</v>
       </c>
       <c r="E91" s="3">
-        <v>-37200</v>
+        <v>-30200</v>
       </c>
       <c r="F91" s="3">
-        <v>-26400</v>
+        <v>-19900</v>
       </c>
       <c r="G91" s="3">
-        <v>-68300</v>
+        <v>-29400</v>
       </c>
       <c r="H91" s="3">
-        <v>-83100</v>
+        <v>-21000</v>
       </c>
       <c r="I91" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-78800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-117500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-115900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-48500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-94000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-90500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-695800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76400</v>
+        <v>-63000</v>
       </c>
       <c r="E94" s="3">
-        <v>-95800</v>
+        <v>-104200</v>
       </c>
       <c r="F94" s="3">
-        <v>-84800</v>
+        <v>-60500</v>
       </c>
       <c r="G94" s="3">
-        <v>-158300</v>
+        <v>-75900</v>
       </c>
       <c r="H94" s="3">
-        <v>-125500</v>
+        <v>-67200</v>
       </c>
       <c r="I94" s="3">
+        <v>-125400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-115400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-102600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-52800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-105600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-144800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-98900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-148600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-85000</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2100</v>
+        <v>-300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3600</v>
+        <v>-67300</v>
       </c>
       <c r="H96" s="3">
-        <v>-62900</v>
+        <v>-1700</v>
       </c>
       <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-77600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-49900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-59200</v>
+        <v>-77100</v>
       </c>
       <c r="E100" s="3">
-        <v>-74500</v>
+        <v>114500</v>
       </c>
       <c r="F100" s="3">
-        <v>-78100</v>
+        <v>-46900</v>
       </c>
       <c r="G100" s="3">
-        <v>373400</v>
+        <v>-59100</v>
       </c>
       <c r="H100" s="3">
-        <v>-135500</v>
+        <v>-61800</v>
       </c>
       <c r="I100" s="3">
+        <v>295800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-43800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>106400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>34800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>37100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>111500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-16200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27900</v>
+        <v>13500</v>
       </c>
       <c r="E102" s="3">
-        <v>-34400</v>
+        <v>169400</v>
       </c>
       <c r="F102" s="3">
-        <v>24700</v>
+        <v>22100</v>
       </c>
       <c r="G102" s="3">
-        <v>254700</v>
+        <v>-27200</v>
       </c>
       <c r="H102" s="3">
-        <v>-197600</v>
+        <v>19500</v>
       </c>
       <c r="I102" s="3">
+        <v>201800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>153500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-30400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>122600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-108100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>768600</v>
+        <v>832600</v>
       </c>
       <c r="E8" s="3">
-        <v>816400</v>
+        <v>741100</v>
       </c>
       <c r="F8" s="3">
-        <v>787100</v>
+        <v>787200</v>
       </c>
       <c r="G8" s="3">
-        <v>678300</v>
+        <v>758900</v>
       </c>
       <c r="H8" s="3">
-        <v>720900</v>
+        <v>654000</v>
       </c>
       <c r="I8" s="3">
-        <v>679300</v>
+        <v>695000</v>
       </c>
       <c r="J8" s="3">
+        <v>654900</v>
+      </c>
+      <c r="K8" s="3">
         <v>797300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>842000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>782000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1002600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>934200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>813500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>817900</v>
       </c>
       <c r="Q8" s="3">
         <v>817900</v>
       </c>
       <c r="R8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="S8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>554600</v>
+        <v>508200</v>
       </c>
       <c r="E9" s="3">
-        <v>619700</v>
+        <v>534700</v>
       </c>
       <c r="F9" s="3">
-        <v>557700</v>
+        <v>597500</v>
       </c>
       <c r="G9" s="3">
-        <v>493300</v>
+        <v>537700</v>
       </c>
       <c r="H9" s="3">
-        <v>505300</v>
+        <v>475600</v>
       </c>
       <c r="I9" s="3">
-        <v>529200</v>
+        <v>487200</v>
       </c>
       <c r="J9" s="3">
+        <v>510200</v>
+      </c>
+      <c r="K9" s="3">
         <v>640200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>635600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>574500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>802800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>729000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>627300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>556700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>776200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214000</v>
+        <v>324400</v>
       </c>
       <c r="E10" s="3">
-        <v>196700</v>
+        <v>206300</v>
       </c>
       <c r="F10" s="3">
-        <v>229300</v>
+        <v>189700</v>
       </c>
       <c r="G10" s="3">
-        <v>185000</v>
+        <v>221100</v>
       </c>
       <c r="H10" s="3">
-        <v>215600</v>
+        <v>178300</v>
       </c>
       <c r="I10" s="3">
-        <v>150100</v>
+        <v>207900</v>
       </c>
       <c r="J10" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K10" s="3">
         <v>157200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>206400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>207500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>199800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>205100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>186200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,49 +1090,52 @@
         <v>2900</v>
       </c>
       <c r="E15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="F15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2800</v>
       </c>
       <c r="R15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>608000</v>
+        <v>562700</v>
       </c>
       <c r="E17" s="3">
-        <v>688900</v>
+        <v>586300</v>
       </c>
       <c r="F17" s="3">
-        <v>612100</v>
+        <v>664200</v>
       </c>
       <c r="G17" s="3">
-        <v>551300</v>
+        <v>590200</v>
       </c>
       <c r="H17" s="3">
-        <v>560000</v>
+        <v>531500</v>
       </c>
       <c r="I17" s="3">
-        <v>575300</v>
+        <v>540000</v>
       </c>
       <c r="J17" s="3">
+        <v>554700</v>
+      </c>
+      <c r="K17" s="3">
         <v>673700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>691200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>640300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>914100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>817300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>679400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>613800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>830600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>160600</v>
+        <v>270000</v>
       </c>
       <c r="E18" s="3">
-        <v>127500</v>
+        <v>154800</v>
       </c>
       <c r="F18" s="3">
-        <v>175000</v>
+        <v>123000</v>
       </c>
       <c r="G18" s="3">
-        <v>127000</v>
+        <v>168700</v>
       </c>
       <c r="H18" s="3">
-        <v>160900</v>
+        <v>122500</v>
       </c>
       <c r="I18" s="3">
-        <v>104000</v>
+        <v>155100</v>
       </c>
       <c r="J18" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K18" s="3">
         <v>123600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>150900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>141700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>116900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>134100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>204200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23000</v>
+        <v>185100</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>22200</v>
       </c>
       <c r="F20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>27500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>33500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>35700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>28800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="S20" s="3">
         <v>17100</v>
       </c>
-      <c r="G20" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>26700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>15800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>27500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>33500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>35700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>28800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>236400</v>
+        <v>505000</v>
       </c>
       <c r="E21" s="3">
-        <v>207400</v>
+        <v>228000</v>
       </c>
       <c r="F21" s="3">
-        <v>239400</v>
+        <v>199900</v>
       </c>
       <c r="G21" s="3">
-        <v>194600</v>
+        <v>230900</v>
       </c>
       <c r="H21" s="3">
-        <v>228800</v>
+        <v>187600</v>
       </c>
       <c r="I21" s="3">
-        <v>156000</v>
+        <v>220600</v>
       </c>
       <c r="J21" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K21" s="3">
         <v>174100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>222800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>216600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>199300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>179400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>278400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40500</v>
+        <v>23800</v>
       </c>
       <c r="E22" s="3">
-        <v>38000</v>
+        <v>39100</v>
       </c>
       <c r="F22" s="3">
-        <v>42000</v>
+        <v>36600</v>
       </c>
       <c r="G22" s="3">
-        <v>43000</v>
+        <v>40400</v>
       </c>
       <c r="H22" s="3">
-        <v>44900</v>
+        <v>41400</v>
       </c>
       <c r="I22" s="3">
-        <v>41500</v>
+        <v>43300</v>
       </c>
       <c r="J22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="3">
         <v>39100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>65400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>67500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>143100</v>
+        <v>431300</v>
       </c>
       <c r="E23" s="3">
-        <v>103800</v>
+        <v>137900</v>
       </c>
       <c r="F23" s="3">
-        <v>150100</v>
+        <v>100100</v>
       </c>
       <c r="G23" s="3">
-        <v>103400</v>
+        <v>144700</v>
       </c>
       <c r="H23" s="3">
-        <v>142700</v>
+        <v>99700</v>
       </c>
       <c r="I23" s="3">
-        <v>78500</v>
+        <v>137600</v>
       </c>
       <c r="J23" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K23" s="3">
         <v>100300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>126400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>125400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>91300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-102700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48500</v>
+        <v>146800</v>
       </c>
       <c r="E24" s="3">
-        <v>-6500</v>
+        <v>46800</v>
       </c>
       <c r="F24" s="3">
-        <v>36600</v>
+        <v>-6300</v>
       </c>
       <c r="G24" s="3">
-        <v>39200</v>
+        <v>35300</v>
       </c>
       <c r="H24" s="3">
-        <v>49100</v>
+        <v>37800</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>47300</v>
       </c>
       <c r="J24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K24" s="3">
         <v>20600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-36300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94500</v>
+        <v>284500</v>
       </c>
       <c r="E26" s="3">
-        <v>110400</v>
+        <v>91100</v>
       </c>
       <c r="F26" s="3">
-        <v>113500</v>
+        <v>106400</v>
       </c>
       <c r="G26" s="3">
-        <v>64200</v>
+        <v>109500</v>
       </c>
       <c r="H26" s="3">
-        <v>93600</v>
+        <v>61900</v>
       </c>
       <c r="I26" s="3">
-        <v>72300</v>
+        <v>90300</v>
       </c>
       <c r="J26" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K26" s="3">
         <v>79700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-66400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>94800</v>
+        <v>286900</v>
       </c>
       <c r="E27" s="3">
-        <v>105600</v>
+        <v>91400</v>
       </c>
       <c r="F27" s="3">
-        <v>105800</v>
+        <v>101900</v>
       </c>
       <c r="G27" s="3">
-        <v>64600</v>
+        <v>102000</v>
       </c>
       <c r="H27" s="3">
-        <v>92100</v>
+        <v>62300</v>
       </c>
       <c r="I27" s="3">
-        <v>69000</v>
+        <v>88800</v>
       </c>
       <c r="J27" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K27" s="3">
         <v>78600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-52400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23000</v>
+        <v>-185100</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-22200</v>
       </c>
       <c r="F32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="S32" s="3">
         <v>-17100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>18800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-17100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94800</v>
+        <v>286900</v>
       </c>
       <c r="E33" s="3">
-        <v>105600</v>
+        <v>91400</v>
       </c>
       <c r="F33" s="3">
-        <v>105800</v>
+        <v>101900</v>
       </c>
       <c r="G33" s="3">
-        <v>64600</v>
+        <v>102000</v>
       </c>
       <c r="H33" s="3">
-        <v>92100</v>
+        <v>62300</v>
       </c>
       <c r="I33" s="3">
-        <v>69000</v>
+        <v>88800</v>
       </c>
       <c r="J33" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K33" s="3">
         <v>78600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94800</v>
+        <v>286900</v>
       </c>
       <c r="E35" s="3">
-        <v>105600</v>
+        <v>91400</v>
       </c>
       <c r="F35" s="3">
-        <v>105800</v>
+        <v>101900</v>
       </c>
       <c r="G35" s="3">
-        <v>64600</v>
+        <v>102000</v>
       </c>
       <c r="H35" s="3">
-        <v>92100</v>
+        <v>62300</v>
       </c>
       <c r="I35" s="3">
-        <v>69000</v>
+        <v>88800</v>
       </c>
       <c r="J35" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K35" s="3">
         <v>78600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>557900</v>
+        <v>517700</v>
       </c>
       <c r="E41" s="3">
-        <v>544300</v>
+        <v>537900</v>
       </c>
       <c r="F41" s="3">
-        <v>374900</v>
+        <v>524800</v>
       </c>
       <c r="G41" s="3">
-        <v>352800</v>
+        <v>361500</v>
       </c>
       <c r="H41" s="3">
-        <v>380000</v>
+        <v>340200</v>
       </c>
       <c r="I41" s="3">
-        <v>360500</v>
+        <v>366400</v>
       </c>
       <c r="J41" s="3">
+        <v>347600</v>
+      </c>
+      <c r="K41" s="3">
         <v>158700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>398000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>396400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>266700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>334700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>365100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>234600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57900</v>
+        <v>95900</v>
       </c>
       <c r="E42" s="3">
-        <v>66400</v>
+        <v>55800</v>
       </c>
       <c r="F42" s="3">
-        <v>85300</v>
+        <v>64000</v>
       </c>
       <c r="G42" s="3">
-        <v>96900</v>
+        <v>82300</v>
       </c>
       <c r="H42" s="3">
-        <v>105700</v>
+        <v>93500</v>
       </c>
       <c r="I42" s="3">
-        <v>101000</v>
+        <v>101900</v>
       </c>
       <c r="J42" s="3">
+        <v>97400</v>
+      </c>
+      <c r="K42" s="3">
         <v>75800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>44300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>33900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>802600</v>
+        <v>891300</v>
       </c>
       <c r="E43" s="3">
-        <v>822400</v>
+        <v>773800</v>
       </c>
       <c r="F43" s="3">
-        <v>758800</v>
+        <v>792900</v>
       </c>
       <c r="G43" s="3">
-        <v>737300</v>
+        <v>731600</v>
       </c>
       <c r="H43" s="3">
-        <v>733200</v>
+        <v>710900</v>
       </c>
       <c r="I43" s="3">
-        <v>744900</v>
+        <v>706900</v>
       </c>
       <c r="J43" s="3">
+        <v>718300</v>
+      </c>
+      <c r="K43" s="3">
         <v>765200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>897800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>887400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1097100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1115800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>895600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>808500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>731200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="F44" s="3">
-        <v>22000</v>
+        <v>23300</v>
       </c>
       <c r="G44" s="3">
-        <v>22100</v>
+        <v>21200</v>
       </c>
       <c r="H44" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="I44" s="3">
-        <v>21500</v>
+        <v>20200</v>
       </c>
       <c r="J44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K44" s="3">
         <v>21600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>32400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>19800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>18100</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1462300</v>
+        <v>1549300</v>
       </c>
       <c r="E46" s="3">
-        <v>1463400</v>
+        <v>1409900</v>
       </c>
       <c r="F46" s="3">
-        <v>1248700</v>
+        <v>1411000</v>
       </c>
       <c r="G46" s="3">
-        <v>1223500</v>
+        <v>1203900</v>
       </c>
       <c r="H46" s="3">
-        <v>1258300</v>
+        <v>1179600</v>
       </c>
       <c r="I46" s="3">
-        <v>1235600</v>
+        <v>1213200</v>
       </c>
       <c r="J46" s="3">
+        <v>1191300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1041100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1418100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1403100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1461800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1544300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1315900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1051200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1988800</v>
+        <v>2871700</v>
       </c>
       <c r="E47" s="3">
-        <v>1968500</v>
+        <v>1917600</v>
       </c>
       <c r="F47" s="3">
-        <v>1881800</v>
+        <v>1898000</v>
       </c>
       <c r="G47" s="3">
-        <v>1796800</v>
+        <v>1814400</v>
       </c>
       <c r="H47" s="3">
-        <v>1777200</v>
+        <v>1732400</v>
       </c>
       <c r="I47" s="3">
-        <v>1757600</v>
+        <v>1713600</v>
       </c>
       <c r="J47" s="3">
+        <v>1694600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1658500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1984400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1901700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2179100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2122700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2046500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1961300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1862100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1949600</v>
+        <v>1855700</v>
       </c>
       <c r="E48" s="3">
-        <v>1977200</v>
+        <v>1879800</v>
       </c>
       <c r="F48" s="3">
-        <v>2011100</v>
+        <v>1906300</v>
       </c>
       <c r="G48" s="3">
-        <v>2014300</v>
+        <v>1939000</v>
       </c>
       <c r="H48" s="3">
-        <v>2014200</v>
+        <v>1942200</v>
       </c>
       <c r="I48" s="3">
-        <v>2006100</v>
+        <v>1942000</v>
       </c>
       <c r="J48" s="3">
+        <v>1934200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1986900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2438400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2373700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2521700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2477700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2397500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2252800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2235600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1175300</v>
+        <v>1147100</v>
       </c>
       <c r="E49" s="3">
-        <v>1171700</v>
+        <v>1133100</v>
       </c>
       <c r="F49" s="3">
-        <v>1157300</v>
+        <v>1129700</v>
       </c>
       <c r="G49" s="3">
-        <v>1145300</v>
+        <v>1115800</v>
       </c>
       <c r="H49" s="3">
-        <v>1125500</v>
+        <v>1104300</v>
       </c>
       <c r="I49" s="3">
-        <v>1115600</v>
+        <v>1085100</v>
       </c>
       <c r="J49" s="3">
+        <v>1075600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1218200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1511800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1509600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1654400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1682400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1672400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1609700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1602600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>510600</v>
+        <v>486700</v>
       </c>
       <c r="E52" s="3">
-        <v>508100</v>
+        <v>492300</v>
       </c>
       <c r="F52" s="3">
-        <v>496400</v>
+        <v>489900</v>
       </c>
       <c r="G52" s="3">
-        <v>521600</v>
+        <v>478600</v>
       </c>
       <c r="H52" s="3">
-        <v>534700</v>
+        <v>502900</v>
       </c>
       <c r="I52" s="3">
-        <v>533300</v>
+        <v>515500</v>
       </c>
       <c r="J52" s="3">
+        <v>514200</v>
+      </c>
+      <c r="K52" s="3">
         <v>562300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>699000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>685900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>752600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>776100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>746000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>744600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>767400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7086700</v>
+        <v>7910600</v>
       </c>
       <c r="E54" s="3">
-        <v>7089000</v>
+        <v>6832700</v>
       </c>
       <c r="F54" s="3">
-        <v>6795300</v>
+        <v>6835000</v>
       </c>
       <c r="G54" s="3">
-        <v>6701500</v>
+        <v>6551800</v>
       </c>
       <c r="H54" s="3">
-        <v>6709800</v>
+        <v>6461400</v>
       </c>
       <c r="I54" s="3">
-        <v>6648100</v>
+        <v>6469400</v>
       </c>
       <c r="J54" s="3">
+        <v>6409900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6467100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8051800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7873900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8502200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8603300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8178300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7674400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7518900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>273500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>297000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>259100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>272900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>396600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>390700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>324400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>431600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>557600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>391700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>283700</v>
       </c>
-      <c r="E57" s="3">
-        <v>311800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>308100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>268800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>283100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>262600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>396600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>390700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>324400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>431600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>557600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>391700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>283700</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>311500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>280000</v>
+        <v>228000</v>
       </c>
       <c r="E58" s="3">
-        <v>268900</v>
+        <v>269900</v>
       </c>
       <c r="F58" s="3">
-        <v>313600</v>
+        <v>259300</v>
       </c>
       <c r="G58" s="3">
-        <v>510000</v>
+        <v>302400</v>
       </c>
       <c r="H58" s="3">
-        <v>663400</v>
+        <v>491800</v>
       </c>
       <c r="I58" s="3">
-        <v>610200</v>
+        <v>639700</v>
       </c>
       <c r="J58" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K58" s="3">
         <v>611700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>925600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>619600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>840300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>755800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>681600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>645500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>392500</v>
+        <v>590200</v>
       </c>
       <c r="E59" s="3">
-        <v>408400</v>
+        <v>378500</v>
       </c>
       <c r="F59" s="3">
-        <v>279200</v>
+        <v>393700</v>
       </c>
       <c r="G59" s="3">
-        <v>279600</v>
+        <v>269200</v>
       </c>
       <c r="H59" s="3">
-        <v>327700</v>
+        <v>269600</v>
       </c>
       <c r="I59" s="3">
-        <v>366000</v>
+        <v>316000</v>
       </c>
       <c r="J59" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K59" s="3">
         <v>340300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>487500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>455500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>515200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>567600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>528000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>475300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>446200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>956200</v>
+        <v>1080700</v>
       </c>
       <c r="E60" s="3">
-        <v>989100</v>
+        <v>921900</v>
       </c>
       <c r="F60" s="3">
-        <v>900900</v>
+        <v>953700</v>
       </c>
       <c r="G60" s="3">
-        <v>1058500</v>
+        <v>868600</v>
       </c>
       <c r="H60" s="3">
-        <v>1274200</v>
+        <v>1020500</v>
       </c>
       <c r="I60" s="3">
-        <v>1238800</v>
+        <v>1228600</v>
       </c>
       <c r="J60" s="3">
+        <v>1194400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1348600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1803800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1380400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1566500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1965500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1675500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1440600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1403100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1811800</v>
+        <v>1716200</v>
       </c>
       <c r="E61" s="3">
-        <v>1890100</v>
+        <v>1746900</v>
       </c>
       <c r="F61" s="3">
-        <v>1729700</v>
+        <v>1822400</v>
       </c>
       <c r="G61" s="3">
-        <v>1583700</v>
+        <v>1667700</v>
       </c>
       <c r="H61" s="3">
-        <v>1447100</v>
+        <v>1526900</v>
       </c>
       <c r="I61" s="3">
-        <v>1529700</v>
+        <v>1395200</v>
       </c>
       <c r="J61" s="3">
+        <v>1474900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1229000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1452700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1826700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1602200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1672600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1530600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1546800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>968000</v>
+        <v>1608200</v>
       </c>
       <c r="E62" s="3">
-        <v>953500</v>
+        <v>933300</v>
       </c>
       <c r="F62" s="3">
-        <v>872400</v>
+        <v>919400</v>
       </c>
       <c r="G62" s="3">
-        <v>880300</v>
+        <v>841100</v>
       </c>
       <c r="H62" s="3">
-        <v>872800</v>
+        <v>848700</v>
       </c>
       <c r="I62" s="3">
-        <v>856900</v>
+        <v>841500</v>
       </c>
       <c r="J62" s="3">
+        <v>826200</v>
+      </c>
+      <c r="K62" s="3">
         <v>830400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1016700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>969300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1058400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1005900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>903700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>885000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>848300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3799700</v>
+        <v>4454500</v>
       </c>
       <c r="E66" s="3">
-        <v>3896800</v>
+        <v>3663500</v>
       </c>
       <c r="F66" s="3">
-        <v>3566100</v>
+        <v>3757100</v>
       </c>
       <c r="G66" s="3">
-        <v>3578200</v>
+        <v>3438400</v>
       </c>
       <c r="H66" s="3">
-        <v>3651100</v>
+        <v>3450000</v>
       </c>
       <c r="I66" s="3">
-        <v>3681600</v>
+        <v>3520300</v>
       </c>
       <c r="J66" s="3">
+        <v>3549700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3464800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4345500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4248800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4603200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4639800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4320100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3919800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3863800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1182100</v>
+        <v>1429300</v>
       </c>
       <c r="E72" s="3">
-        <v>1084400</v>
+        <v>1139800</v>
       </c>
       <c r="F72" s="3">
-        <v>1094500</v>
+        <v>1045500</v>
       </c>
       <c r="G72" s="3">
-        <v>985700</v>
+        <v>1055300</v>
       </c>
       <c r="H72" s="3">
-        <v>1452800</v>
+        <v>950400</v>
       </c>
       <c r="I72" s="3">
-        <v>1357600</v>
+        <v>1400800</v>
       </c>
       <c r="J72" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1383000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1658700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1573800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1641400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1692200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1582700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1547600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1445100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3287000</v>
+        <v>3456100</v>
       </c>
       <c r="E76" s="3">
-        <v>3192200</v>
+        <v>3169200</v>
       </c>
       <c r="F76" s="3">
-        <v>3229100</v>
+        <v>3077800</v>
       </c>
       <c r="G76" s="3">
-        <v>3123400</v>
+        <v>3113400</v>
       </c>
       <c r="H76" s="3">
-        <v>3058700</v>
+        <v>3011400</v>
       </c>
       <c r="I76" s="3">
-        <v>2966600</v>
+        <v>2949100</v>
       </c>
       <c r="J76" s="3">
+        <v>2860300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3002300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3706200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3625200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3899000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3963500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3858200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3754600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3655100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94800</v>
+        <v>286900</v>
       </c>
       <c r="E81" s="3">
-        <v>105600</v>
+        <v>91400</v>
       </c>
       <c r="F81" s="3">
-        <v>105800</v>
+        <v>101900</v>
       </c>
       <c r="G81" s="3">
-        <v>64600</v>
+        <v>102000</v>
       </c>
       <c r="H81" s="3">
-        <v>92100</v>
+        <v>62300</v>
       </c>
       <c r="I81" s="3">
-        <v>69000</v>
+        <v>88800</v>
       </c>
       <c r="J81" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K81" s="3">
         <v>78600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52800</v>
+        <v>50000</v>
       </c>
       <c r="E83" s="3">
-        <v>65600</v>
+        <v>50900</v>
       </c>
       <c r="F83" s="3">
-        <v>47400</v>
+        <v>63200</v>
       </c>
       <c r="G83" s="3">
-        <v>48200</v>
+        <v>45700</v>
       </c>
       <c r="H83" s="3">
-        <v>41200</v>
+        <v>46500</v>
       </c>
       <c r="I83" s="3">
-        <v>36000</v>
+        <v>39700</v>
       </c>
       <c r="J83" s="3">
         <v>34700</v>
       </c>
       <c r="K83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="L83" s="3">
         <v>44400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>46700</v>
       </c>
       <c r="N83" s="3">
         <v>46700</v>
       </c>
       <c r="O83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="P83" s="3">
         <v>47200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>153700</v>
+        <v>180700</v>
       </c>
       <c r="E89" s="3">
-        <v>159000</v>
+        <v>148200</v>
       </c>
       <c r="F89" s="3">
-        <v>129600</v>
+        <v>153300</v>
       </c>
       <c r="G89" s="3">
-        <v>107700</v>
+        <v>125000</v>
       </c>
       <c r="H89" s="3">
-        <v>148600</v>
+        <v>103900</v>
       </c>
       <c r="I89" s="3">
-        <v>31300</v>
+        <v>143300</v>
       </c>
       <c r="J89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K89" s="3">
         <v>50300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>149800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>156000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>106000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19600</v>
+        <v>-12500</v>
       </c>
       <c r="E91" s="3">
-        <v>-30200</v>
+        <v>-18900</v>
       </c>
       <c r="F91" s="3">
-        <v>-19900</v>
+        <v>-29100</v>
       </c>
       <c r="G91" s="3">
-        <v>-29400</v>
+        <v>-19200</v>
       </c>
       <c r="H91" s="3">
-        <v>-21000</v>
+        <v>-28400</v>
       </c>
       <c r="I91" s="3">
-        <v>-54100</v>
+        <v>-20200</v>
       </c>
       <c r="J91" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-65800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-115900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-94000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-90500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-695800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63000</v>
+        <v>-73400</v>
       </c>
       <c r="E94" s="3">
-        <v>-104200</v>
+        <v>-60700</v>
       </c>
       <c r="F94" s="3">
-        <v>-60500</v>
+        <v>-100400</v>
       </c>
       <c r="G94" s="3">
-        <v>-75900</v>
+        <v>-58400</v>
       </c>
       <c r="H94" s="3">
-        <v>-67200</v>
+        <v>-73200</v>
       </c>
       <c r="I94" s="3">
-        <v>-125400</v>
+        <v>-64800</v>
       </c>
       <c r="J94" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-99500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-105600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-144800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-148600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-53000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-67300</v>
-      </c>
       <c r="H96" s="3">
-        <v>-1700</v>
+        <v>-64900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2900</v>
+        <v>-1600</v>
       </c>
       <c r="J96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-49800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-49900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-77100</v>
+        <v>-127500</v>
       </c>
       <c r="E100" s="3">
-        <v>114500</v>
+        <v>-74400</v>
       </c>
       <c r="F100" s="3">
-        <v>-46900</v>
+        <v>110400</v>
       </c>
       <c r="G100" s="3">
-        <v>-59100</v>
+        <v>-45200</v>
       </c>
       <c r="H100" s="3">
-        <v>-61800</v>
+        <v>-56900</v>
       </c>
       <c r="I100" s="3">
-        <v>295800</v>
+        <v>-59600</v>
       </c>
       <c r="J100" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>106400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>34800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>111500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13500</v>
+        <v>-20200</v>
       </c>
       <c r="E102" s="3">
-        <v>169400</v>
+        <v>13100</v>
       </c>
       <c r="F102" s="3">
-        <v>22100</v>
+        <v>163300</v>
       </c>
       <c r="G102" s="3">
-        <v>-27200</v>
+        <v>21400</v>
       </c>
       <c r="H102" s="3">
-        <v>19500</v>
+        <v>-26300</v>
       </c>
       <c r="I102" s="3">
-        <v>201800</v>
+        <v>18800</v>
       </c>
       <c r="J102" s="3">
+        <v>194600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-156600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>153500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>122600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-108100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>832600</v>
+        <v>810200</v>
       </c>
       <c r="E8" s="3">
-        <v>741100</v>
+        <v>1618400</v>
       </c>
       <c r="F8" s="3">
-        <v>787200</v>
+        <v>777300</v>
       </c>
       <c r="G8" s="3">
-        <v>758900</v>
+        <v>825700</v>
       </c>
       <c r="H8" s="3">
-        <v>654000</v>
+        <v>782100</v>
       </c>
       <c r="I8" s="3">
-        <v>695000</v>
+        <v>1378400</v>
       </c>
       <c r="J8" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K8" s="3">
         <v>654900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>797300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>842000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>782000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1002600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>934200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>813500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>817900</v>
       </c>
       <c r="R8" s="3">
         <v>817900</v>
       </c>
       <c r="S8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="T8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>508200</v>
+        <v>584700</v>
       </c>
       <c r="E9" s="3">
-        <v>534700</v>
+        <v>1080300</v>
       </c>
       <c r="F9" s="3">
-        <v>597500</v>
+        <v>560900</v>
       </c>
       <c r="G9" s="3">
-        <v>537700</v>
+        <v>626700</v>
       </c>
       <c r="H9" s="3">
-        <v>475600</v>
+        <v>542500</v>
       </c>
       <c r="I9" s="3">
-        <v>487200</v>
+        <v>995400</v>
       </c>
       <c r="J9" s="3">
+        <v>511000</v>
+      </c>
+      <c r="K9" s="3">
         <v>510200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>640200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>635600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>574500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>802800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>729000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>627300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>556700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>776200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>324400</v>
+        <v>225600</v>
       </c>
       <c r="E10" s="3">
-        <v>206300</v>
+        <v>538100</v>
       </c>
       <c r="F10" s="3">
-        <v>189700</v>
+        <v>216400</v>
       </c>
       <c r="G10" s="3">
-        <v>221100</v>
+        <v>199000</v>
       </c>
       <c r="H10" s="3">
-        <v>178300</v>
+        <v>239600</v>
       </c>
       <c r="I10" s="3">
-        <v>207900</v>
+        <v>383000</v>
       </c>
       <c r="J10" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K10" s="3">
         <v>144700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>206400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>207500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>199800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>205100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>186200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="K15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2800</v>
       </c>
       <c r="S15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>562700</v>
+        <v>644100</v>
       </c>
       <c r="E17" s="3">
-        <v>586300</v>
+        <v>1183400</v>
       </c>
       <c r="F17" s="3">
-        <v>664200</v>
+        <v>614900</v>
       </c>
       <c r="G17" s="3">
-        <v>590200</v>
+        <v>696700</v>
       </c>
       <c r="H17" s="3">
-        <v>531500</v>
+        <v>587500</v>
       </c>
       <c r="I17" s="3">
-        <v>540000</v>
+        <v>1097600</v>
       </c>
       <c r="J17" s="3">
+        <v>566400</v>
+      </c>
+      <c r="K17" s="3">
         <v>554700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>673700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>691200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>640300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>914100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>817300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>679400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>613800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>830600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>270000</v>
+        <v>166200</v>
       </c>
       <c r="E18" s="3">
-        <v>154800</v>
+        <v>435000</v>
       </c>
       <c r="F18" s="3">
-        <v>123000</v>
+        <v>162400</v>
       </c>
       <c r="G18" s="3">
-        <v>168700</v>
+        <v>129000</v>
       </c>
       <c r="H18" s="3">
-        <v>122500</v>
+        <v>194500</v>
       </c>
       <c r="I18" s="3">
-        <v>155100</v>
+        <v>280800</v>
       </c>
       <c r="J18" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K18" s="3">
         <v>100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>150900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>141700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>116900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>134100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>204200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>185100</v>
+        <v>33500</v>
       </c>
       <c r="E20" s="3">
-        <v>22200</v>
+        <v>215500</v>
       </c>
       <c r="F20" s="3">
-        <v>13700</v>
+        <v>23300</v>
       </c>
       <c r="G20" s="3">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>18700</v>
+        <v>58700</v>
       </c>
       <c r="I20" s="3">
-        <v>25800</v>
+        <v>88900</v>
       </c>
       <c r="J20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K20" s="3">
         <v>15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>35700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>505000</v>
+        <v>232600</v>
       </c>
       <c r="E21" s="3">
-        <v>228000</v>
+        <v>756300</v>
       </c>
       <c r="F21" s="3">
-        <v>199900</v>
+        <v>239100</v>
       </c>
       <c r="G21" s="3">
-        <v>230900</v>
+        <v>209700</v>
       </c>
       <c r="H21" s="3">
-        <v>187600</v>
+        <v>301200</v>
       </c>
       <c r="I21" s="3">
-        <v>220600</v>
+        <v>460100</v>
       </c>
       <c r="J21" s="3">
+        <v>231400</v>
+      </c>
+      <c r="K21" s="3">
         <v>150400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>174100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>222800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>216600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>199300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>179400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>278400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="E22" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>38400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>82400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>127700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="L22" s="3">
         <v>39100</v>
       </c>
-      <c r="F22" s="3">
-        <v>36600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>41400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>65400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>67500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>431300</v>
+        <v>175000</v>
       </c>
       <c r="E23" s="3">
-        <v>137900</v>
+        <v>588600</v>
       </c>
       <c r="F23" s="3">
-        <v>100100</v>
+        <v>144700</v>
       </c>
       <c r="G23" s="3">
-        <v>144700</v>
+        <v>105000</v>
       </c>
       <c r="H23" s="3">
-        <v>99700</v>
+        <v>170800</v>
       </c>
       <c r="I23" s="3">
-        <v>137600</v>
+        <v>241900</v>
       </c>
       <c r="J23" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K23" s="3">
         <v>75700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>126400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>125400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>165500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-102700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>146800</v>
+        <v>50000</v>
       </c>
       <c r="E24" s="3">
-        <v>46800</v>
+        <v>199800</v>
       </c>
       <c r="F24" s="3">
-        <v>-6300</v>
+        <v>49100</v>
       </c>
       <c r="G24" s="3">
-        <v>35300</v>
+        <v>-6600</v>
       </c>
       <c r="H24" s="3">
-        <v>37800</v>
+        <v>43100</v>
       </c>
       <c r="I24" s="3">
-        <v>47300</v>
+        <v>86200</v>
       </c>
       <c r="J24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-36300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>284500</v>
+        <v>125000</v>
       </c>
       <c r="E26" s="3">
-        <v>91100</v>
+        <v>388800</v>
       </c>
       <c r="F26" s="3">
-        <v>106400</v>
+        <v>95600</v>
       </c>
       <c r="G26" s="3">
-        <v>109500</v>
+        <v>111600</v>
       </c>
       <c r="H26" s="3">
-        <v>61900</v>
+        <v>127700</v>
       </c>
       <c r="I26" s="3">
-        <v>90300</v>
+        <v>155700</v>
       </c>
       <c r="J26" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K26" s="3">
         <v>69700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>79700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>106800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-66400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>286900</v>
+        <v>125900</v>
       </c>
       <c r="E27" s="3">
-        <v>91400</v>
+        <v>391500</v>
       </c>
       <c r="F27" s="3">
-        <v>101900</v>
+        <v>95900</v>
       </c>
       <c r="G27" s="3">
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="H27" s="3">
-        <v>62300</v>
+        <v>119900</v>
       </c>
       <c r="I27" s="3">
-        <v>88800</v>
+        <v>154700</v>
       </c>
       <c r="J27" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K27" s="3">
         <v>66500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>78600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>101800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-52400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,31 +1814,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-12900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-185100</v>
+        <v>-33500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22200</v>
+        <v>-215500</v>
       </c>
       <c r="F32" s="3">
-        <v>-13700</v>
+        <v>-23300</v>
       </c>
       <c r="G32" s="3">
-        <v>-16500</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-18700</v>
+        <v>-58700</v>
       </c>
       <c r="I32" s="3">
-        <v>-25800</v>
+        <v>-88900</v>
       </c>
       <c r="J32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-35700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>286900</v>
+        <v>128300</v>
       </c>
       <c r="E33" s="3">
-        <v>91400</v>
+        <v>396800</v>
       </c>
       <c r="F33" s="3">
-        <v>101900</v>
+        <v>95900</v>
       </c>
       <c r="G33" s="3">
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="H33" s="3">
-        <v>62300</v>
+        <v>107000</v>
       </c>
       <c r="I33" s="3">
-        <v>88800</v>
+        <v>158600</v>
       </c>
       <c r="J33" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K33" s="3">
         <v>66500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>78600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>101800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>286900</v>
+        <v>128300</v>
       </c>
       <c r="E35" s="3">
-        <v>91400</v>
+        <v>396800</v>
       </c>
       <c r="F35" s="3">
-        <v>101900</v>
+        <v>95900</v>
       </c>
       <c r="G35" s="3">
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="H35" s="3">
-        <v>62300</v>
+        <v>107000</v>
       </c>
       <c r="I35" s="3">
-        <v>88800</v>
+        <v>158600</v>
       </c>
       <c r="J35" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K35" s="3">
         <v>66500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>78600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>101800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>517700</v>
+        <v>673600</v>
       </c>
       <c r="E41" s="3">
-        <v>537900</v>
+        <v>543100</v>
       </c>
       <c r="F41" s="3">
-        <v>524800</v>
+        <v>564200</v>
       </c>
       <c r="G41" s="3">
-        <v>361500</v>
+        <v>550500</v>
       </c>
       <c r="H41" s="3">
-        <v>340200</v>
+        <v>379200</v>
       </c>
       <c r="I41" s="3">
-        <v>366400</v>
+        <v>356800</v>
       </c>
       <c r="J41" s="3">
+        <v>384400</v>
+      </c>
+      <c r="K41" s="3">
         <v>347600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>398000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>396400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>266700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>334700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>365100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>234600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95900</v>
+        <v>2200</v>
       </c>
       <c r="E42" s="3">
-        <v>55800</v>
+        <v>100600</v>
       </c>
       <c r="F42" s="3">
-        <v>64000</v>
+        <v>58600</v>
       </c>
       <c r="G42" s="3">
-        <v>82300</v>
+        <v>67100</v>
       </c>
       <c r="H42" s="3">
-        <v>93500</v>
+        <v>86300</v>
       </c>
       <c r="I42" s="3">
-        <v>101900</v>
+        <v>98000</v>
       </c>
       <c r="J42" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K42" s="3">
         <v>97400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>78300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>33900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>891300</v>
+        <v>944400</v>
       </c>
       <c r="E43" s="3">
-        <v>773800</v>
+        <v>934900</v>
       </c>
       <c r="F43" s="3">
-        <v>792900</v>
+        <v>811700</v>
       </c>
       <c r="G43" s="3">
-        <v>731600</v>
+        <v>831700</v>
       </c>
       <c r="H43" s="3">
-        <v>710900</v>
+        <v>767400</v>
       </c>
       <c r="I43" s="3">
-        <v>706900</v>
+        <v>745700</v>
       </c>
       <c r="J43" s="3">
+        <v>741500</v>
+      </c>
+      <c r="K43" s="3">
         <v>718300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>765200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>897800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>887400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1097100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1115800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>895600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>808500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>731200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26900</v>
+        <v>27200</v>
       </c>
       <c r="E44" s="3">
-        <v>25000</v>
+        <v>28200</v>
       </c>
       <c r="F44" s="3">
-        <v>23300</v>
+        <v>26200</v>
       </c>
       <c r="G44" s="3">
+        <v>24400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J44" s="3">
         <v>21200</v>
       </c>
-      <c r="H44" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>32400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17500</v>
+        <v>242200</v>
       </c>
       <c r="E45" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>6000</v>
+        <v>18300</v>
       </c>
       <c r="G45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>17700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1549300</v>
+        <v>1889600</v>
       </c>
       <c r="E46" s="3">
-        <v>1409900</v>
+        <v>1625100</v>
       </c>
       <c r="F46" s="3">
-        <v>1411000</v>
+        <v>1478900</v>
       </c>
       <c r="G46" s="3">
-        <v>1203900</v>
+        <v>1480000</v>
       </c>
       <c r="H46" s="3">
-        <v>1179600</v>
+        <v>1262800</v>
       </c>
       <c r="I46" s="3">
-        <v>1213200</v>
+        <v>1237400</v>
       </c>
       <c r="J46" s="3">
+        <v>1272600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1191300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1041100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1418100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1403100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1461800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1544300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1315900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1106000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1051200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2871700</v>
+        <v>3027000</v>
       </c>
       <c r="E47" s="3">
-        <v>1917600</v>
+        <v>3012300</v>
       </c>
       <c r="F47" s="3">
-        <v>1898000</v>
+        <v>2011400</v>
       </c>
       <c r="G47" s="3">
-        <v>1814400</v>
+        <v>1990900</v>
       </c>
       <c r="H47" s="3">
-        <v>1732400</v>
+        <v>1903200</v>
       </c>
       <c r="I47" s="3">
-        <v>1713600</v>
+        <v>1817200</v>
       </c>
       <c r="J47" s="3">
+        <v>1797400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1694600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1658500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1984400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1901700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2179100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2122700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2046500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1961300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1862100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1855700</v>
+        <v>1789600</v>
       </c>
       <c r="E48" s="3">
-        <v>1879800</v>
+        <v>1946500</v>
       </c>
       <c r="F48" s="3">
-        <v>1906300</v>
+        <v>1971700</v>
       </c>
       <c r="G48" s="3">
-        <v>1939000</v>
+        <v>1999600</v>
       </c>
       <c r="H48" s="3">
-        <v>1942200</v>
+        <v>2033900</v>
       </c>
       <c r="I48" s="3">
-        <v>1942000</v>
+        <v>2037200</v>
       </c>
       <c r="J48" s="3">
+        <v>2037000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1934200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1986900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2438400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2373700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2521700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2477700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2397500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2252800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2235600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1147100</v>
+        <v>1217100</v>
       </c>
       <c r="E49" s="3">
-        <v>1133100</v>
+        <v>1203200</v>
       </c>
       <c r="F49" s="3">
-        <v>1129700</v>
+        <v>1188600</v>
       </c>
       <c r="G49" s="3">
-        <v>1115800</v>
+        <v>1185000</v>
       </c>
       <c r="H49" s="3">
-        <v>1104300</v>
+        <v>1170400</v>
       </c>
       <c r="I49" s="3">
-        <v>1085100</v>
+        <v>1158300</v>
       </c>
       <c r="J49" s="3">
+        <v>1138200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1075600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1218200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1511800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1509600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1654400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1682400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1672400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1609700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1602600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>486700</v>
+        <v>503200</v>
       </c>
       <c r="E52" s="3">
-        <v>492300</v>
+        <v>510600</v>
       </c>
       <c r="F52" s="3">
-        <v>489900</v>
+        <v>516400</v>
       </c>
       <c r="G52" s="3">
-        <v>478600</v>
+        <v>513900</v>
       </c>
       <c r="H52" s="3">
-        <v>502900</v>
+        <v>502000</v>
       </c>
       <c r="I52" s="3">
-        <v>515500</v>
+        <v>527500</v>
       </c>
       <c r="J52" s="3">
+        <v>540700</v>
+      </c>
+      <c r="K52" s="3">
         <v>514200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>562300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>699000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>685900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>752600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>776100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>746000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>744600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>767400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7910600</v>
+        <v>8426400</v>
       </c>
       <c r="E54" s="3">
-        <v>6832700</v>
+        <v>8297700</v>
       </c>
       <c r="F54" s="3">
-        <v>6835000</v>
+        <v>7167100</v>
       </c>
       <c r="G54" s="3">
-        <v>6551800</v>
+        <v>7169400</v>
       </c>
       <c r="H54" s="3">
-        <v>6461400</v>
+        <v>6872400</v>
       </c>
       <c r="I54" s="3">
-        <v>6469400</v>
+        <v>6777600</v>
       </c>
       <c r="J54" s="3">
+        <v>6785900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6409900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6467100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8051800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7873900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8502200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8603300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8178300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7674400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7518900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>262500</v>
+        <v>271600</v>
       </c>
       <c r="E57" s="3">
-        <v>273500</v>
+        <v>275300</v>
       </c>
       <c r="F57" s="3">
-        <v>300700</v>
+        <v>286900</v>
       </c>
       <c r="G57" s="3">
-        <v>297000</v>
+        <v>315400</v>
       </c>
       <c r="H57" s="3">
-        <v>259100</v>
+        <v>311600</v>
       </c>
       <c r="I57" s="3">
-        <v>272900</v>
+        <v>271800</v>
       </c>
       <c r="J57" s="3">
+        <v>286300</v>
+      </c>
+      <c r="K57" s="3">
         <v>253200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>396600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>390700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>324400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>431600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>557600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>391700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>283700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>311500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>228000</v>
+        <v>390600</v>
       </c>
       <c r="E58" s="3">
-        <v>269900</v>
+        <v>239100</v>
       </c>
       <c r="F58" s="3">
-        <v>259300</v>
+        <v>283100</v>
       </c>
       <c r="G58" s="3">
-        <v>302400</v>
+        <v>272000</v>
       </c>
       <c r="H58" s="3">
-        <v>491800</v>
+        <v>317200</v>
       </c>
       <c r="I58" s="3">
-        <v>639700</v>
+        <v>515800</v>
       </c>
       <c r="J58" s="3">
+        <v>671000</v>
+      </c>
+      <c r="K58" s="3">
         <v>588400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>611700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>925600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>619600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>840300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>755800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>681600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>645500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>590200</v>
+        <v>689800</v>
       </c>
       <c r="E59" s="3">
-        <v>378500</v>
+        <v>619100</v>
       </c>
       <c r="F59" s="3">
-        <v>393700</v>
+        <v>397000</v>
       </c>
       <c r="G59" s="3">
-        <v>269200</v>
+        <v>413000</v>
       </c>
       <c r="H59" s="3">
-        <v>269600</v>
+        <v>282300</v>
       </c>
       <c r="I59" s="3">
-        <v>316000</v>
+        <v>282800</v>
       </c>
       <c r="J59" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K59" s="3">
         <v>352900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>340300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>487500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>455500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>515200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>567600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>528000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>475300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>446200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1080700</v>
+        <v>1352000</v>
       </c>
       <c r="E60" s="3">
-        <v>921900</v>
+        <v>1133500</v>
       </c>
       <c r="F60" s="3">
-        <v>953700</v>
+        <v>967000</v>
       </c>
       <c r="G60" s="3">
-        <v>868600</v>
+        <v>1000300</v>
       </c>
       <c r="H60" s="3">
-        <v>1020500</v>
+        <v>911100</v>
       </c>
       <c r="I60" s="3">
-        <v>1228600</v>
+        <v>1070500</v>
       </c>
       <c r="J60" s="3">
+        <v>1288700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1194400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1348600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1803800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1380400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1566500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1965500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1675500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1440600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1403100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1716200</v>
+        <v>1563900</v>
       </c>
       <c r="E61" s="3">
-        <v>1746900</v>
+        <v>1800200</v>
       </c>
       <c r="F61" s="3">
-        <v>1822400</v>
+        <v>1832400</v>
       </c>
       <c r="G61" s="3">
-        <v>1667700</v>
+        <v>1911600</v>
       </c>
       <c r="H61" s="3">
-        <v>1526900</v>
+        <v>1749300</v>
       </c>
       <c r="I61" s="3">
-        <v>1395200</v>
+        <v>1601600</v>
       </c>
       <c r="J61" s="3">
+        <v>1463500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1474900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1229000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1452700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1826700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1602200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1672600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1530600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1546800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1608200</v>
+        <v>1706300</v>
       </c>
       <c r="E62" s="3">
-        <v>933300</v>
+        <v>1686900</v>
       </c>
       <c r="F62" s="3">
-        <v>919400</v>
+        <v>979000</v>
       </c>
       <c r="G62" s="3">
-        <v>841100</v>
+        <v>964400</v>
       </c>
       <c r="H62" s="3">
-        <v>848700</v>
+        <v>882300</v>
       </c>
       <c r="I62" s="3">
-        <v>841500</v>
+        <v>890300</v>
       </c>
       <c r="J62" s="3">
+        <v>882700</v>
+      </c>
+      <c r="K62" s="3">
         <v>826200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>830400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1016700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>969300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1058400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1005900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>903700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>885000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>848300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4454500</v>
+        <v>4673100</v>
       </c>
       <c r="E66" s="3">
-        <v>3663500</v>
+        <v>4672500</v>
       </c>
       <c r="F66" s="3">
-        <v>3757100</v>
+        <v>3842800</v>
       </c>
       <c r="G66" s="3">
-        <v>3438400</v>
+        <v>3941000</v>
       </c>
       <c r="H66" s="3">
-        <v>3450000</v>
+        <v>3606600</v>
       </c>
       <c r="I66" s="3">
-        <v>3520300</v>
+        <v>3618800</v>
       </c>
       <c r="J66" s="3">
+        <v>3692500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3549700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3464800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4345500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4248800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4603200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4639800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4320100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3919800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3863800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1429300</v>
+        <v>1630000</v>
       </c>
       <c r="E72" s="3">
-        <v>1139800</v>
+        <v>1499200</v>
       </c>
       <c r="F72" s="3">
-        <v>1045500</v>
+        <v>1195500</v>
       </c>
       <c r="G72" s="3">
-        <v>1055300</v>
+        <v>1096700</v>
       </c>
       <c r="H72" s="3">
-        <v>950400</v>
+        <v>1107000</v>
       </c>
       <c r="I72" s="3">
-        <v>1400800</v>
+        <v>996900</v>
       </c>
       <c r="J72" s="3">
+        <v>1469300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1309000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1383000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1658700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1573800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1641400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1692200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1582700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1547600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1445100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3456100</v>
+        <v>3753300</v>
       </c>
       <c r="E76" s="3">
-        <v>3169200</v>
+        <v>3625200</v>
       </c>
       <c r="F76" s="3">
-        <v>3077800</v>
+        <v>3324300</v>
       </c>
       <c r="G76" s="3">
-        <v>3113400</v>
+        <v>3228400</v>
       </c>
       <c r="H76" s="3">
-        <v>3011400</v>
+        <v>3265800</v>
       </c>
       <c r="I76" s="3">
-        <v>2949100</v>
+        <v>3158800</v>
       </c>
       <c r="J76" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2860300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3002300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3706200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3625200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3899000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3963500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3858200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3754600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3655100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>286900</v>
+        <v>128300</v>
       </c>
       <c r="E81" s="3">
-        <v>91400</v>
+        <v>396800</v>
       </c>
       <c r="F81" s="3">
-        <v>101900</v>
+        <v>95900</v>
       </c>
       <c r="G81" s="3">
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="H81" s="3">
-        <v>62300</v>
+        <v>107000</v>
       </c>
       <c r="I81" s="3">
-        <v>88800</v>
+        <v>158600</v>
       </c>
       <c r="J81" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K81" s="3">
         <v>66500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>78600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>101800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="E83" s="3">
-        <v>50900</v>
+        <v>105800</v>
       </c>
       <c r="F83" s="3">
-        <v>63200</v>
+        <v>53400</v>
       </c>
       <c r="G83" s="3">
-        <v>45700</v>
+        <v>66300</v>
       </c>
       <c r="H83" s="3">
-        <v>46500</v>
+        <v>47900</v>
       </c>
       <c r="I83" s="3">
-        <v>39700</v>
+        <v>90500</v>
       </c>
       <c r="J83" s="3">
-        <v>34700</v>
+        <v>41700</v>
       </c>
       <c r="K83" s="3">
         <v>34700</v>
       </c>
       <c r="L83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="M83" s="3">
         <v>44400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>46700</v>
       </c>
       <c r="O83" s="3">
         <v>46700</v>
       </c>
       <c r="P83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>47200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>180700</v>
+        <v>269200</v>
       </c>
       <c r="E89" s="3">
-        <v>148200</v>
+        <v>345000</v>
       </c>
       <c r="F89" s="3">
-        <v>153300</v>
+        <v>155400</v>
       </c>
       <c r="G89" s="3">
-        <v>125000</v>
+        <v>160800</v>
       </c>
       <c r="H89" s="3">
-        <v>103900</v>
+        <v>131100</v>
       </c>
       <c r="I89" s="3">
-        <v>143300</v>
+        <v>259200</v>
       </c>
       <c r="J89" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>149800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>156000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>106000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12500</v>
+        <v>500</v>
       </c>
       <c r="E91" s="3">
-        <v>-18900</v>
+        <v>-33000</v>
       </c>
       <c r="F91" s="3">
-        <v>-29100</v>
+        <v>-19800</v>
       </c>
       <c r="G91" s="3">
-        <v>-19200</v>
+        <v>-30500</v>
       </c>
       <c r="H91" s="3">
-        <v>-28400</v>
+        <v>-20100</v>
       </c>
       <c r="I91" s="3">
-        <v>-20200</v>
+        <v>-51000</v>
       </c>
       <c r="J91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-115900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-90500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-695800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73400</v>
+        <v>-73500</v>
       </c>
       <c r="E94" s="3">
-        <v>-60700</v>
+        <v>-140700</v>
       </c>
       <c r="F94" s="3">
-        <v>-100400</v>
+        <v>-63700</v>
       </c>
       <c r="G94" s="3">
-        <v>-58400</v>
+        <v>-105300</v>
       </c>
       <c r="H94" s="3">
-        <v>-73200</v>
+        <v>-61200</v>
       </c>
       <c r="I94" s="3">
-        <v>-64800</v>
+        <v>-144800</v>
       </c>
       <c r="J94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-120900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-105600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-144800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-148600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53000</v>
+        <v>-55700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-55600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-64900</v>
-      </c>
       <c r="I96" s="3">
-        <v>-1600</v>
+        <v>-69800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-49800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-127500</v>
+        <v>-22200</v>
       </c>
       <c r="E100" s="3">
-        <v>-74400</v>
+        <v>-211700</v>
       </c>
       <c r="F100" s="3">
-        <v>110400</v>
+        <v>-78000</v>
       </c>
       <c r="G100" s="3">
-        <v>-45200</v>
+        <v>115800</v>
       </c>
       <c r="H100" s="3">
-        <v>-56900</v>
+        <v>-47500</v>
       </c>
       <c r="I100" s="3">
-        <v>-59600</v>
+        <v>-122300</v>
       </c>
       <c r="J100" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="K100" s="3">
         <v>285200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>106400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>37100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>111500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20200</v>
+        <v>173500</v>
       </c>
       <c r="E102" s="3">
-        <v>13100</v>
+        <v>-7400</v>
       </c>
       <c r="F102" s="3">
-        <v>163300</v>
+        <v>13700</v>
       </c>
       <c r="G102" s="3">
-        <v>21400</v>
+        <v>171300</v>
       </c>
       <c r="H102" s="3">
-        <v>-26300</v>
+        <v>22400</v>
       </c>
       <c r="I102" s="3">
-        <v>18800</v>
+        <v>-7800</v>
       </c>
       <c r="J102" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K102" s="3">
         <v>194600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-156600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>153500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>122600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-108100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>810200</v>
+        <v>1001400</v>
       </c>
       <c r="E8" s="3">
-        <v>1618400</v>
+        <v>766700</v>
       </c>
       <c r="F8" s="3">
-        <v>777300</v>
+        <v>1531400</v>
       </c>
       <c r="G8" s="3">
-        <v>825700</v>
+        <v>735500</v>
       </c>
       <c r="H8" s="3">
-        <v>782100</v>
+        <v>765700</v>
       </c>
       <c r="I8" s="3">
-        <v>1378400</v>
+        <v>740000</v>
       </c>
       <c r="J8" s="3">
+        <v>1304300</v>
+      </c>
+      <c r="K8" s="3">
         <v>729100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>654900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>797300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>842000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>782000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1002600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>934200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>813500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>817900</v>
       </c>
       <c r="S8" s="3">
         <v>817900</v>
       </c>
       <c r="T8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="U8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>584700</v>
+        <v>788100</v>
       </c>
       <c r="E9" s="3">
-        <v>1080300</v>
+        <v>553200</v>
       </c>
       <c r="F9" s="3">
-        <v>560900</v>
+        <v>1022200</v>
       </c>
       <c r="G9" s="3">
-        <v>626700</v>
+        <v>530700</v>
       </c>
       <c r="H9" s="3">
-        <v>542500</v>
+        <v>574700</v>
       </c>
       <c r="I9" s="3">
-        <v>995400</v>
+        <v>513300</v>
       </c>
       <c r="J9" s="3">
+        <v>941900</v>
+      </c>
+      <c r="K9" s="3">
         <v>511000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>510200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>640200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>635600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>574500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>802800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>729000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>627300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>556700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>776200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225600</v>
+        <v>213300</v>
       </c>
       <c r="E10" s="3">
-        <v>538100</v>
+        <v>213500</v>
       </c>
       <c r="F10" s="3">
-        <v>216400</v>
+        <v>509200</v>
       </c>
       <c r="G10" s="3">
-        <v>199000</v>
+        <v>204800</v>
       </c>
       <c r="H10" s="3">
-        <v>239600</v>
+        <v>190900</v>
       </c>
       <c r="I10" s="3">
-        <v>383000</v>
+        <v>226700</v>
       </c>
       <c r="J10" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K10" s="3">
         <v>218100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>144700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>157200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>206400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>207500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>199800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>205100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>186200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S15" s="3">
         <v>3000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2800</v>
       </c>
       <c r="T15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>644100</v>
+        <v>817100</v>
       </c>
       <c r="E17" s="3">
-        <v>1183400</v>
+        <v>609400</v>
       </c>
       <c r="F17" s="3">
-        <v>614900</v>
+        <v>1119800</v>
       </c>
       <c r="G17" s="3">
-        <v>696700</v>
+        <v>581900</v>
       </c>
       <c r="H17" s="3">
-        <v>587500</v>
+        <v>630700</v>
       </c>
       <c r="I17" s="3">
-        <v>1097600</v>
+        <v>555900</v>
       </c>
       <c r="J17" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="K17" s="3">
         <v>566400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>554700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>673700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>691200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>640300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>914100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>817300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>679400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>613800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>830600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>166200</v>
+        <v>184300</v>
       </c>
       <c r="E18" s="3">
-        <v>435000</v>
+        <v>157200</v>
       </c>
       <c r="F18" s="3">
-        <v>162400</v>
+        <v>411600</v>
       </c>
       <c r="G18" s="3">
-        <v>129000</v>
+        <v>153700</v>
       </c>
       <c r="H18" s="3">
-        <v>194500</v>
+        <v>135000</v>
       </c>
       <c r="I18" s="3">
-        <v>280800</v>
+        <v>184100</v>
       </c>
       <c r="J18" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K18" s="3">
         <v>162700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>150900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>141700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>116900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>134100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>203900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>55600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>27500</v>
+      </c>
+      <c r="O20" s="3">
         <v>33500</v>
       </c>
-      <c r="E20" s="3">
-        <v>215500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>23300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>58700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>88900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>27000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>15400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>15800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>27500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>33500</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232600</v>
+        <v>257100</v>
       </c>
       <c r="E21" s="3">
-        <v>756300</v>
+        <v>220100</v>
       </c>
       <c r="F21" s="3">
-        <v>239100</v>
+        <v>715600</v>
       </c>
       <c r="G21" s="3">
-        <v>209700</v>
+        <v>226300</v>
       </c>
       <c r="H21" s="3">
-        <v>301200</v>
+        <v>246300</v>
       </c>
       <c r="I21" s="3">
-        <v>460100</v>
+        <v>285000</v>
       </c>
       <c r="J21" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K21" s="3">
         <v>231400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>174100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>222800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>216600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>199300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>179400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>278400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="E22" s="3">
-        <v>61900</v>
+        <v>23400</v>
       </c>
       <c r="F22" s="3">
-        <v>41000</v>
+        <v>58500</v>
       </c>
       <c r="G22" s="3">
-        <v>38400</v>
+        <v>38800</v>
       </c>
       <c r="H22" s="3">
-        <v>82400</v>
+        <v>70000</v>
       </c>
       <c r="I22" s="3">
-        <v>127700</v>
+        <v>78000</v>
       </c>
       <c r="J22" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K22" s="3">
         <v>45400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>65400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>175000</v>
+        <v>184000</v>
       </c>
       <c r="E23" s="3">
-        <v>588600</v>
+        <v>165600</v>
       </c>
       <c r="F23" s="3">
-        <v>144700</v>
+        <v>557000</v>
       </c>
       <c r="G23" s="3">
-        <v>105000</v>
+        <v>136900</v>
       </c>
       <c r="H23" s="3">
-        <v>170800</v>
+        <v>113500</v>
       </c>
       <c r="I23" s="3">
-        <v>241900</v>
+        <v>161600</v>
       </c>
       <c r="J23" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K23" s="3">
         <v>144300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>126400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>125400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>91300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>165500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-102700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50000</v>
+        <v>-8700</v>
       </c>
       <c r="E24" s="3">
-        <v>199800</v>
+        <v>47300</v>
       </c>
       <c r="F24" s="3">
-        <v>49100</v>
+        <v>189000</v>
       </c>
       <c r="G24" s="3">
-        <v>-6600</v>
+        <v>46400</v>
       </c>
       <c r="H24" s="3">
-        <v>43100</v>
+        <v>-2700</v>
       </c>
       <c r="I24" s="3">
-        <v>86200</v>
+        <v>40800</v>
       </c>
       <c r="J24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K24" s="3">
         <v>49600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>61900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-36300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>125000</v>
+        <v>192700</v>
       </c>
       <c r="E26" s="3">
-        <v>388800</v>
+        <v>118300</v>
       </c>
       <c r="F26" s="3">
-        <v>95600</v>
+        <v>367900</v>
       </c>
       <c r="G26" s="3">
-        <v>111600</v>
+        <v>90500</v>
       </c>
       <c r="H26" s="3">
-        <v>127700</v>
+        <v>116300</v>
       </c>
       <c r="I26" s="3">
-        <v>155700</v>
+        <v>120900</v>
       </c>
       <c r="J26" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K26" s="3">
         <v>94700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>106800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-66400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>125900</v>
+        <v>188300</v>
       </c>
       <c r="E27" s="3">
-        <v>391500</v>
+        <v>119200</v>
       </c>
       <c r="F27" s="3">
-        <v>95900</v>
+        <v>370500</v>
       </c>
       <c r="G27" s="3">
-        <v>106800</v>
+        <v>90700</v>
       </c>
       <c r="H27" s="3">
-        <v>119900</v>
+        <v>111800</v>
       </c>
       <c r="I27" s="3">
-        <v>154700</v>
+        <v>113400</v>
       </c>
       <c r="J27" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K27" s="3">
         <v>93200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>78600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>81400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>104900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-52400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,35 +1874,38 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2300</v>
+        <v>6200</v>
       </c>
       <c r="E29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>2200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-12900</v>
+        <v>-10700</v>
       </c>
       <c r="I29" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-12200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-33500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-215500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-58700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>128300</v>
+        <v>194500</v>
       </c>
       <c r="E33" s="3">
-        <v>396800</v>
+        <v>121400</v>
       </c>
       <c r="F33" s="3">
-        <v>95900</v>
+        <v>375500</v>
       </c>
       <c r="G33" s="3">
-        <v>106800</v>
+        <v>90700</v>
       </c>
       <c r="H33" s="3">
-        <v>107000</v>
+        <v>101100</v>
       </c>
       <c r="I33" s="3">
-        <v>158600</v>
+        <v>101200</v>
       </c>
       <c r="J33" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K33" s="3">
         <v>93200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>78600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>104900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>128300</v>
+        <v>194500</v>
       </c>
       <c r="E35" s="3">
-        <v>396800</v>
+        <v>121400</v>
       </c>
       <c r="F35" s="3">
-        <v>95900</v>
+        <v>375500</v>
       </c>
       <c r="G35" s="3">
-        <v>106800</v>
+        <v>90700</v>
       </c>
       <c r="H35" s="3">
-        <v>107000</v>
+        <v>101100</v>
       </c>
       <c r="I35" s="3">
-        <v>158600</v>
+        <v>101200</v>
       </c>
       <c r="J35" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K35" s="3">
         <v>93200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>78600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>104900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>673600</v>
+        <v>570700</v>
       </c>
       <c r="E41" s="3">
-        <v>543100</v>
+        <v>637300</v>
       </c>
       <c r="F41" s="3">
-        <v>564200</v>
+        <v>513900</v>
       </c>
       <c r="G41" s="3">
-        <v>550500</v>
+        <v>533900</v>
       </c>
       <c r="H41" s="3">
-        <v>379200</v>
+        <v>520900</v>
       </c>
       <c r="I41" s="3">
-        <v>356800</v>
+        <v>358800</v>
       </c>
       <c r="J41" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K41" s="3">
         <v>384400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>398000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>396400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>266700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>334700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>365100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>234600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>243600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2200</v>
+        <v>31000</v>
       </c>
       <c r="E42" s="3">
-        <v>100600</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3">
-        <v>58600</v>
+        <v>95200</v>
       </c>
       <c r="G42" s="3">
-        <v>67100</v>
+        <v>55400</v>
       </c>
       <c r="H42" s="3">
-        <v>86300</v>
+        <v>63500</v>
       </c>
       <c r="I42" s="3">
-        <v>98000</v>
+        <v>81700</v>
       </c>
       <c r="J42" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K42" s="3">
         <v>106900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>78300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>33900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>944400</v>
+        <v>1165000</v>
       </c>
       <c r="E43" s="3">
-        <v>934900</v>
+        <v>908000</v>
       </c>
       <c r="F43" s="3">
-        <v>811700</v>
+        <v>897500</v>
       </c>
       <c r="G43" s="3">
-        <v>831700</v>
+        <v>780600</v>
       </c>
       <c r="H43" s="3">
-        <v>767400</v>
+        <v>787000</v>
       </c>
       <c r="I43" s="3">
-        <v>745700</v>
+        <v>726200</v>
       </c>
       <c r="J43" s="3">
+        <v>705600</v>
+      </c>
+      <c r="K43" s="3">
         <v>741500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>718300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>765200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>897800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>887400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1097100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1115800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>895600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>808500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>731200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27200</v>
+        <v>28800</v>
       </c>
       <c r="E44" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="F44" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="G44" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>26000</v>
+      </c>
+      <c r="O44" s="3">
         <v>24400</v>
       </c>
-      <c r="H44" s="3">
-        <v>22300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>21200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>20700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>21600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>26000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>24400</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>32400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242200</v>
+        <v>224500</v>
       </c>
       <c r="E45" s="3">
+        <v>214800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="O45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>14500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>19800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>18100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>18300</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1889600</v>
+        <v>2019900</v>
       </c>
       <c r="E46" s="3">
-        <v>1625100</v>
+        <v>1788000</v>
       </c>
       <c r="F46" s="3">
-        <v>1478900</v>
+        <v>1537800</v>
       </c>
       <c r="G46" s="3">
-        <v>1480000</v>
+        <v>1399400</v>
       </c>
       <c r="H46" s="3">
-        <v>1262800</v>
+        <v>1400500</v>
       </c>
       <c r="I46" s="3">
-        <v>1237400</v>
+        <v>1194900</v>
       </c>
       <c r="J46" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1272600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1191300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1041100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1418100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1403100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1461800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1544300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1315900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1106000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1051200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3027000</v>
+        <v>2815900</v>
       </c>
       <c r="E47" s="3">
-        <v>3012300</v>
+        <v>2864200</v>
       </c>
       <c r="F47" s="3">
-        <v>2011400</v>
+        <v>2850300</v>
       </c>
       <c r="G47" s="3">
-        <v>1990900</v>
+        <v>1903300</v>
       </c>
       <c r="H47" s="3">
-        <v>1903200</v>
+        <v>1883800</v>
       </c>
       <c r="I47" s="3">
-        <v>1817200</v>
+        <v>1800900</v>
       </c>
       <c r="J47" s="3">
+        <v>1719500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1797400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1694600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1658500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1984400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1901700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2179100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2122700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2046500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1961300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1862100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1789600</v>
+        <v>1705000</v>
       </c>
       <c r="E48" s="3">
-        <v>1946500</v>
+        <v>1693400</v>
       </c>
       <c r="F48" s="3">
-        <v>1971700</v>
+        <v>1841900</v>
       </c>
       <c r="G48" s="3">
-        <v>1999600</v>
+        <v>1865700</v>
       </c>
       <c r="H48" s="3">
-        <v>2033900</v>
+        <v>1892100</v>
       </c>
       <c r="I48" s="3">
-        <v>2037200</v>
+        <v>1924600</v>
       </c>
       <c r="J48" s="3">
+        <v>1927700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2037000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1934200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1986900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2438400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2373700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2521700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2477700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2397500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2252800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2235600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1217100</v>
+        <v>1227000</v>
       </c>
       <c r="E49" s="3">
-        <v>1203200</v>
+        <v>1151600</v>
       </c>
       <c r="F49" s="3">
-        <v>1188600</v>
+        <v>1138600</v>
       </c>
       <c r="G49" s="3">
-        <v>1185000</v>
+        <v>1124700</v>
       </c>
       <c r="H49" s="3">
-        <v>1170400</v>
+        <v>1121300</v>
       </c>
       <c r="I49" s="3">
-        <v>1158300</v>
+        <v>1107500</v>
       </c>
       <c r="J49" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1138200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1075600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1218200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1511800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1509600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1654400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1682400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1672400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1609700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1602600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>503200</v>
+        <v>516400</v>
       </c>
       <c r="E52" s="3">
-        <v>510600</v>
+        <v>476100</v>
       </c>
       <c r="F52" s="3">
-        <v>516400</v>
+        <v>483100</v>
       </c>
       <c r="G52" s="3">
-        <v>513900</v>
+        <v>488700</v>
       </c>
       <c r="H52" s="3">
-        <v>502000</v>
+        <v>486200</v>
       </c>
       <c r="I52" s="3">
-        <v>527500</v>
+        <v>475100</v>
       </c>
       <c r="J52" s="3">
+        <v>499200</v>
+      </c>
+      <c r="K52" s="3">
         <v>540700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>514200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>562300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>699000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>685900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>752600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>776100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>746000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>744600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>767400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8426400</v>
+        <v>8284200</v>
       </c>
       <c r="E54" s="3">
-        <v>8297700</v>
+        <v>7973400</v>
       </c>
       <c r="F54" s="3">
-        <v>7167100</v>
+        <v>7851600</v>
       </c>
       <c r="G54" s="3">
-        <v>7169400</v>
+        <v>6781800</v>
       </c>
       <c r="H54" s="3">
-        <v>6872400</v>
+        <v>6784000</v>
       </c>
       <c r="I54" s="3">
-        <v>6777600</v>
+        <v>6502900</v>
       </c>
       <c r="J54" s="3">
+        <v>6413200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6785900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6409900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6467100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8051800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7873900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8502200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8603300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8178300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7674400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7518900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>271600</v>
+        <v>405700</v>
       </c>
       <c r="E57" s="3">
-        <v>275300</v>
+        <v>257000</v>
       </c>
       <c r="F57" s="3">
-        <v>286900</v>
+        <v>260500</v>
       </c>
       <c r="G57" s="3">
-        <v>315400</v>
+        <v>271500</v>
       </c>
       <c r="H57" s="3">
-        <v>311600</v>
+        <v>298400</v>
       </c>
       <c r="I57" s="3">
-        <v>271800</v>
+        <v>294800</v>
       </c>
       <c r="J57" s="3">
+        <v>257200</v>
+      </c>
+      <c r="K57" s="3">
         <v>286300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>253200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>396600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>390700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>324400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>431600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>557600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>391700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>283700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>311500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>390600</v>
+        <v>467500</v>
       </c>
       <c r="E58" s="3">
-        <v>239100</v>
+        <v>369600</v>
       </c>
       <c r="F58" s="3">
-        <v>283100</v>
+        <v>226300</v>
       </c>
       <c r="G58" s="3">
-        <v>272000</v>
+        <v>267900</v>
       </c>
       <c r="H58" s="3">
-        <v>317200</v>
+        <v>257400</v>
       </c>
       <c r="I58" s="3">
-        <v>515800</v>
+        <v>300100</v>
       </c>
       <c r="J58" s="3">
+        <v>488100</v>
+      </c>
+      <c r="K58" s="3">
         <v>671000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>588400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>611700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>925600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>619600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>840300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>755800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>681600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>645500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>689800</v>
+        <v>836300</v>
       </c>
       <c r="E59" s="3">
-        <v>619100</v>
+        <v>652700</v>
       </c>
       <c r="F59" s="3">
-        <v>397000</v>
+        <v>585800</v>
       </c>
       <c r="G59" s="3">
-        <v>413000</v>
+        <v>375700</v>
       </c>
       <c r="H59" s="3">
-        <v>282300</v>
+        <v>390800</v>
       </c>
       <c r="I59" s="3">
-        <v>282800</v>
+        <v>267200</v>
       </c>
       <c r="J59" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K59" s="3">
         <v>331400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>352900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>340300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>487500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>455500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>515200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>567600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>528000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>475300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>446200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1352000</v>
+        <v>1709500</v>
       </c>
       <c r="E60" s="3">
-        <v>1133500</v>
+        <v>1279300</v>
       </c>
       <c r="F60" s="3">
-        <v>967000</v>
+        <v>1072600</v>
       </c>
       <c r="G60" s="3">
-        <v>1000300</v>
+        <v>915000</v>
       </c>
       <c r="H60" s="3">
-        <v>911100</v>
+        <v>946500</v>
       </c>
       <c r="I60" s="3">
-        <v>1070500</v>
+        <v>862100</v>
       </c>
       <c r="J60" s="3">
+        <v>1012900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1288700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1194400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1348600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1803800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1380400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1566500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1965500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1675500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1440600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1403100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1563900</v>
+        <v>1318100</v>
       </c>
       <c r="E61" s="3">
-        <v>1800200</v>
+        <v>1479800</v>
       </c>
       <c r="F61" s="3">
-        <v>1832400</v>
+        <v>1703400</v>
       </c>
       <c r="G61" s="3">
-        <v>1911600</v>
+        <v>1733900</v>
       </c>
       <c r="H61" s="3">
-        <v>1749300</v>
+        <v>1808800</v>
       </c>
       <c r="I61" s="3">
-        <v>1601600</v>
+        <v>1655300</v>
       </c>
       <c r="J61" s="3">
+        <v>1515500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1463500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1474900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1229000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1452700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1826700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1900700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1602200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1672600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1530600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1546800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1706300</v>
+        <v>1670800</v>
       </c>
       <c r="E62" s="3">
-        <v>1686900</v>
+        <v>1614600</v>
       </c>
       <c r="F62" s="3">
-        <v>979000</v>
+        <v>1596200</v>
       </c>
       <c r="G62" s="3">
-        <v>964400</v>
+        <v>926300</v>
       </c>
       <c r="H62" s="3">
-        <v>882300</v>
+        <v>912500</v>
       </c>
       <c r="I62" s="3">
-        <v>890300</v>
+        <v>834800</v>
       </c>
       <c r="J62" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K62" s="3">
         <v>882700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>826200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>830400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1016700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>969300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1058400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1005900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>903700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>885000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>848300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4673100</v>
+        <v>4750000</v>
       </c>
       <c r="E66" s="3">
-        <v>4672500</v>
+        <v>4421800</v>
       </c>
       <c r="F66" s="3">
-        <v>3842800</v>
+        <v>4421300</v>
       </c>
       <c r="G66" s="3">
-        <v>3941000</v>
+        <v>3636200</v>
       </c>
       <c r="H66" s="3">
-        <v>3606600</v>
+        <v>3729100</v>
       </c>
       <c r="I66" s="3">
-        <v>3618800</v>
+        <v>3412700</v>
       </c>
       <c r="J66" s="3">
+        <v>3424300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3692500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3549700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3464800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4345500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4248800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4603200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4639800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4320100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3919800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3863800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1630000</v>
+        <v>1292300</v>
       </c>
       <c r="E72" s="3">
-        <v>1499200</v>
+        <v>1542400</v>
       </c>
       <c r="F72" s="3">
-        <v>1195500</v>
+        <v>1418600</v>
       </c>
       <c r="G72" s="3">
-        <v>1096700</v>
+        <v>1131300</v>
       </c>
       <c r="H72" s="3">
-        <v>1107000</v>
+        <v>1037700</v>
       </c>
       <c r="I72" s="3">
-        <v>996900</v>
+        <v>1047400</v>
       </c>
       <c r="J72" s="3">
+        <v>943300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1469300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1309000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1383000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1658700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1573800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1641400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1692200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1582700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1547600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1445100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3753300</v>
+        <v>3534200</v>
       </c>
       <c r="E76" s="3">
+        <v>3551600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3430300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3145600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3054900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3090200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2989000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2860300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>3002300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>3706200</v>
+      </c>
+      <c r="O76" s="3">
         <v>3625200</v>
       </c>
-      <c r="F76" s="3">
-        <v>3324300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3228400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3265800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3158800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3093400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2860300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>3002300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3706200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>3625200</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3899000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3963500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3858200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3754600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3655100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>128300</v>
+        <v>194500</v>
       </c>
       <c r="E81" s="3">
-        <v>396800</v>
+        <v>121400</v>
       </c>
       <c r="F81" s="3">
-        <v>95900</v>
+        <v>375500</v>
       </c>
       <c r="G81" s="3">
-        <v>106800</v>
+        <v>90700</v>
       </c>
       <c r="H81" s="3">
-        <v>107000</v>
+        <v>101100</v>
       </c>
       <c r="I81" s="3">
-        <v>158600</v>
+        <v>101200</v>
       </c>
       <c r="J81" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K81" s="3">
         <v>93200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>78600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>104900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33000</v>
+        <v>47500</v>
       </c>
       <c r="E83" s="3">
-        <v>105800</v>
+        <v>31200</v>
       </c>
       <c r="F83" s="3">
-        <v>53400</v>
+        <v>100100</v>
       </c>
       <c r="G83" s="3">
-        <v>66300</v>
+        <v>50600</v>
       </c>
       <c r="H83" s="3">
-        <v>47900</v>
+        <v>62800</v>
       </c>
       <c r="I83" s="3">
-        <v>90500</v>
+        <v>45300</v>
       </c>
       <c r="J83" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K83" s="3">
         <v>41700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>34700</v>
       </c>
       <c r="L83" s="3">
         <v>34700</v>
       </c>
       <c r="M83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="N83" s="3">
         <v>44400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>46700</v>
       </c>
       <c r="P83" s="3">
         <v>46700</v>
       </c>
       <c r="Q83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="R83" s="3">
         <v>47200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>269200</v>
+        <v>116700</v>
       </c>
       <c r="E89" s="3">
-        <v>345000</v>
+        <v>254700</v>
       </c>
       <c r="F89" s="3">
-        <v>155400</v>
+        <v>326400</v>
       </c>
       <c r="G89" s="3">
+        <v>147100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>152100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>124000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>245300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>150300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>50300</v>
+      </c>
+      <c r="N89" s="3">
         <v>160800</v>
       </c>
-      <c r="H89" s="3">
-        <v>131100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>259200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>150300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>30200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>50300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>160800</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>149800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-50000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>156000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-33000</v>
-      </c>
       <c r="F91" s="3">
-        <v>-19800</v>
+        <v>-31200</v>
       </c>
       <c r="G91" s="3">
-        <v>-30500</v>
+        <v>-18800</v>
       </c>
       <c r="H91" s="3">
-        <v>-20100</v>
+        <v>-28900</v>
       </c>
       <c r="I91" s="3">
-        <v>-51000</v>
+        <v>-19000</v>
       </c>
       <c r="J91" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-78800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-115900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-94000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-90500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-695800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73500</v>
+        <v>-92700</v>
       </c>
       <c r="E94" s="3">
-        <v>-140700</v>
+        <v>-69500</v>
       </c>
       <c r="F94" s="3">
-        <v>-63700</v>
+        <v>-133100</v>
       </c>
       <c r="G94" s="3">
-        <v>-105300</v>
+        <v>-60300</v>
       </c>
       <c r="H94" s="3">
-        <v>-61200</v>
+        <v>-99700</v>
       </c>
       <c r="I94" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="R94" s="3">
         <v>-144800</v>
       </c>
-      <c r="J94" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-120900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-99500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-115400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-105600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-144800</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-148600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55700</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>-55600</v>
+        <v>-52700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-52600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-69800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-49800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-77600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-49900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22200</v>
+        <v>-82400</v>
       </c>
       <c r="E100" s="3">
-        <v>-211700</v>
+        <v>-21000</v>
       </c>
       <c r="F100" s="3">
-        <v>-78000</v>
+        <v>-200300</v>
       </c>
       <c r="G100" s="3">
-        <v>115800</v>
+        <v>-73800</v>
       </c>
       <c r="H100" s="3">
-        <v>-47500</v>
+        <v>109600</v>
       </c>
       <c r="I100" s="3">
-        <v>-122300</v>
+        <v>-44900</v>
       </c>
       <c r="J100" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>285200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>106400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>34800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>37100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>111500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>173500</v>
+        <v>-58400</v>
       </c>
       <c r="E102" s="3">
+        <v>164200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>162100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>171300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>194600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-156600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>153500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-68000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>122600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-108100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1001400</v>
+        <v>935200</v>
       </c>
       <c r="E8" s="3">
-        <v>766700</v>
+        <v>1060800</v>
       </c>
       <c r="F8" s="3">
-        <v>1531400</v>
+        <v>812200</v>
       </c>
       <c r="G8" s="3">
-        <v>735500</v>
+        <v>1622200</v>
       </c>
       <c r="H8" s="3">
-        <v>765700</v>
+        <v>762800</v>
       </c>
       <c r="I8" s="3">
-        <v>740000</v>
+        <v>811100</v>
       </c>
       <c r="J8" s="3">
+        <v>783900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1304300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>729100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>654900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>797300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>842000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>782000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1002600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>934200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>813500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>817900</v>
       </c>
       <c r="T8" s="3">
         <v>817900</v>
       </c>
       <c r="U8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="V8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>788100</v>
+        <v>698400</v>
       </c>
       <c r="E9" s="3">
-        <v>553200</v>
+        <v>834900</v>
       </c>
       <c r="F9" s="3">
-        <v>1022200</v>
+        <v>586100</v>
       </c>
       <c r="G9" s="3">
-        <v>530700</v>
+        <v>1082900</v>
       </c>
       <c r="H9" s="3">
-        <v>574700</v>
+        <v>553500</v>
       </c>
       <c r="I9" s="3">
-        <v>513300</v>
+        <v>608900</v>
       </c>
       <c r="J9" s="3">
+        <v>543800</v>
+      </c>
+      <c r="K9" s="3">
         <v>941900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>511000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>510200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>640200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>635600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>574500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>802800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>729000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>627300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>556700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>776200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>213300</v>
+        <v>236800</v>
       </c>
       <c r="E10" s="3">
-        <v>213500</v>
+        <v>225900</v>
       </c>
       <c r="F10" s="3">
-        <v>509200</v>
+        <v>226100</v>
       </c>
       <c r="G10" s="3">
-        <v>204800</v>
+        <v>539400</v>
       </c>
       <c r="H10" s="3">
-        <v>190900</v>
+        <v>209400</v>
       </c>
       <c r="I10" s="3">
-        <v>226700</v>
+        <v>202200</v>
       </c>
       <c r="J10" s="3">
+        <v>240100</v>
+      </c>
+      <c r="K10" s="3">
         <v>362400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>144700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>157200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>206400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>207500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>199800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>205100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>186200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>261200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2800</v>
       </c>
       <c r="U15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>817100</v>
+        <v>739000</v>
       </c>
       <c r="E17" s="3">
-        <v>609400</v>
+        <v>865600</v>
       </c>
       <c r="F17" s="3">
-        <v>1119800</v>
+        <v>645600</v>
       </c>
       <c r="G17" s="3">
-        <v>581900</v>
+        <v>1186200</v>
       </c>
       <c r="H17" s="3">
-        <v>630700</v>
+        <v>604000</v>
       </c>
       <c r="I17" s="3">
-        <v>555900</v>
+        <v>668100</v>
       </c>
       <c r="J17" s="3">
+        <v>588900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1038600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>566400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>554700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>673700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>691200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>640300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>914100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>817300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>679400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>613800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>830600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>184300</v>
+        <v>196300</v>
       </c>
       <c r="E18" s="3">
-        <v>157200</v>
+        <v>195200</v>
       </c>
       <c r="F18" s="3">
-        <v>411600</v>
+        <v>166600</v>
       </c>
       <c r="G18" s="3">
-        <v>153700</v>
+        <v>436000</v>
       </c>
       <c r="H18" s="3">
-        <v>135000</v>
+        <v>158900</v>
       </c>
       <c r="I18" s="3">
-        <v>184100</v>
+        <v>143000</v>
       </c>
       <c r="J18" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K18" s="3">
         <v>265700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>150900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>141700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>116900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>134100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>204200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25400</v>
+        <v>27300</v>
       </c>
       <c r="E20" s="3">
-        <v>31700</v>
+        <v>26900</v>
       </c>
       <c r="F20" s="3">
-        <v>203900</v>
+        <v>33500</v>
       </c>
       <c r="G20" s="3">
-        <v>22100</v>
+        <v>216000</v>
       </c>
       <c r="H20" s="3">
-        <v>48500</v>
+        <v>63500</v>
       </c>
       <c r="I20" s="3">
-        <v>55600</v>
+        <v>51400</v>
       </c>
       <c r="J20" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K20" s="3">
         <v>84100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>257100</v>
+        <v>271800</v>
       </c>
       <c r="E21" s="3">
-        <v>220100</v>
+        <v>272400</v>
       </c>
       <c r="F21" s="3">
-        <v>715600</v>
+        <v>233200</v>
       </c>
       <c r="G21" s="3">
-        <v>226300</v>
+        <v>758100</v>
       </c>
       <c r="H21" s="3">
-        <v>246300</v>
+        <v>275900</v>
       </c>
       <c r="I21" s="3">
-        <v>285000</v>
+        <v>260900</v>
       </c>
       <c r="J21" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K21" s="3">
         <v>435400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>231400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>174100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>222800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>216600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>199300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>179400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>278400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25700</v>
+        <v>30900</v>
       </c>
       <c r="E22" s="3">
-        <v>23400</v>
+        <v>27200</v>
       </c>
       <c r="F22" s="3">
-        <v>58500</v>
+        <v>24700</v>
       </c>
       <c r="G22" s="3">
-        <v>38800</v>
+        <v>62000</v>
       </c>
       <c r="H22" s="3">
-        <v>70000</v>
+        <v>79400</v>
       </c>
       <c r="I22" s="3">
-        <v>78000</v>
+        <v>74100</v>
       </c>
       <c r="J22" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K22" s="3">
         <v>120800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>65400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>184000</v>
+        <v>192700</v>
       </c>
       <c r="E23" s="3">
-        <v>165600</v>
+        <v>194900</v>
       </c>
       <c r="F23" s="3">
-        <v>557000</v>
+        <v>175400</v>
       </c>
       <c r="G23" s="3">
-        <v>136900</v>
+        <v>590000</v>
       </c>
       <c r="H23" s="3">
-        <v>113500</v>
+        <v>142900</v>
       </c>
       <c r="I23" s="3">
-        <v>161600</v>
+        <v>120300</v>
       </c>
       <c r="J23" s="3">
+        <v>171200</v>
+      </c>
+      <c r="K23" s="3">
         <v>228900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>144300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>126400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>125400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>91300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>165500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-102700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8700</v>
+        <v>50200</v>
       </c>
       <c r="E24" s="3">
-        <v>47300</v>
+        <v>-9200</v>
       </c>
       <c r="F24" s="3">
-        <v>189000</v>
+        <v>50100</v>
       </c>
       <c r="G24" s="3">
-        <v>46400</v>
+        <v>200300</v>
       </c>
       <c r="H24" s="3">
-        <v>-2700</v>
+        <v>48300</v>
       </c>
       <c r="I24" s="3">
-        <v>40800</v>
+        <v>-2900</v>
       </c>
       <c r="J24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K24" s="3">
         <v>81600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>61900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-36300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192700</v>
+        <v>142400</v>
       </c>
       <c r="E26" s="3">
-        <v>118300</v>
+        <v>204100</v>
       </c>
       <c r="F26" s="3">
-        <v>367900</v>
+        <v>125300</v>
       </c>
       <c r="G26" s="3">
-        <v>90500</v>
+        <v>389800</v>
       </c>
       <c r="H26" s="3">
-        <v>116300</v>
+        <v>94700</v>
       </c>
       <c r="I26" s="3">
-        <v>120900</v>
+        <v>123200</v>
       </c>
       <c r="J26" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K26" s="3">
         <v>147300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>106800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>103500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-66400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188300</v>
+        <v>140700</v>
       </c>
       <c r="E27" s="3">
-        <v>119200</v>
+        <v>199400</v>
       </c>
       <c r="F27" s="3">
-        <v>370500</v>
+        <v>126200</v>
       </c>
       <c r="G27" s="3">
-        <v>90700</v>
+        <v>392500</v>
       </c>
       <c r="H27" s="3">
-        <v>111800</v>
+        <v>94900</v>
       </c>
       <c r="I27" s="3">
-        <v>113400</v>
+        <v>118400</v>
       </c>
       <c r="J27" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K27" s="3">
         <v>146300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>78600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>81700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>81400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>104900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-52400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,38 +1935,41 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="E29" s="3">
-        <v>2200</v>
+        <v>6600</v>
       </c>
       <c r="F29" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25400</v>
+        <v>-27300</v>
       </c>
       <c r="E32" s="3">
-        <v>-31700</v>
+        <v>-26900</v>
       </c>
       <c r="F32" s="3">
-        <v>-203900</v>
+        <v>-33500</v>
       </c>
       <c r="G32" s="3">
-        <v>-22100</v>
+        <v>-216000</v>
       </c>
       <c r="H32" s="3">
-        <v>-48500</v>
+        <v>-63500</v>
       </c>
       <c r="I32" s="3">
-        <v>-55600</v>
+        <v>-51400</v>
       </c>
       <c r="J32" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-84100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194500</v>
+        <v>147400</v>
       </c>
       <c r="E33" s="3">
-        <v>121400</v>
+        <v>206000</v>
       </c>
       <c r="F33" s="3">
-        <v>375500</v>
+        <v>128600</v>
       </c>
       <c r="G33" s="3">
-        <v>90700</v>
+        <v>397700</v>
       </c>
       <c r="H33" s="3">
-        <v>101100</v>
+        <v>96100</v>
       </c>
       <c r="I33" s="3">
-        <v>101200</v>
+        <v>107100</v>
       </c>
       <c r="J33" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K33" s="3">
         <v>150000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>78600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>104900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194500</v>
+        <v>147400</v>
       </c>
       <c r="E35" s="3">
-        <v>121400</v>
+        <v>206000</v>
       </c>
       <c r="F35" s="3">
-        <v>375500</v>
+        <v>128600</v>
       </c>
       <c r="G35" s="3">
-        <v>90700</v>
+        <v>397700</v>
       </c>
       <c r="H35" s="3">
-        <v>101100</v>
+        <v>96100</v>
       </c>
       <c r="I35" s="3">
-        <v>101200</v>
+        <v>107100</v>
       </c>
       <c r="J35" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K35" s="3">
         <v>150000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>78600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>104900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>570700</v>
+        <v>548500</v>
       </c>
       <c r="E41" s="3">
-        <v>637300</v>
+        <v>604500</v>
       </c>
       <c r="F41" s="3">
-        <v>513900</v>
+        <v>675200</v>
       </c>
       <c r="G41" s="3">
-        <v>533900</v>
+        <v>544400</v>
       </c>
       <c r="H41" s="3">
-        <v>520900</v>
+        <v>565500</v>
       </c>
       <c r="I41" s="3">
-        <v>358800</v>
+        <v>551800</v>
       </c>
       <c r="J41" s="3">
+        <v>380100</v>
+      </c>
+      <c r="K41" s="3">
         <v>337600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>384400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>347600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>158700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>398000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>396400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>266700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>334700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>365100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>234600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>243600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31000</v>
+        <v>73100</v>
       </c>
       <c r="E42" s="3">
-        <v>2100</v>
+        <v>32800</v>
       </c>
       <c r="F42" s="3">
-        <v>95200</v>
+        <v>2200</v>
       </c>
       <c r="G42" s="3">
-        <v>55400</v>
+        <v>100900</v>
       </c>
       <c r="H42" s="3">
-        <v>63500</v>
+        <v>58700</v>
       </c>
       <c r="I42" s="3">
-        <v>81700</v>
+        <v>67300</v>
       </c>
       <c r="J42" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K42" s="3">
         <v>92800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>78300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>76700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>33900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1165000</v>
+        <v>1250500</v>
       </c>
       <c r="E43" s="3">
-        <v>908000</v>
+        <v>1234100</v>
       </c>
       <c r="F43" s="3">
-        <v>897500</v>
+        <v>961900</v>
       </c>
       <c r="G43" s="3">
-        <v>780600</v>
+        <v>950800</v>
       </c>
       <c r="H43" s="3">
-        <v>787000</v>
+        <v>827000</v>
       </c>
       <c r="I43" s="3">
-        <v>726200</v>
+        <v>833700</v>
       </c>
       <c r="J43" s="3">
+        <v>769300</v>
+      </c>
+      <c r="K43" s="3">
         <v>705600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>741500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>718300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>765200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>897800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>887400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1097100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1115800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>895600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>808500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>731200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28800</v>
+        <v>29800</v>
       </c>
       <c r="E44" s="3">
-        <v>25700</v>
+        <v>30500</v>
       </c>
       <c r="F44" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="G44" s="3">
-        <v>24800</v>
+        <v>28300</v>
       </c>
       <c r="H44" s="3">
-        <v>23100</v>
+        <v>26200</v>
       </c>
       <c r="I44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K44" s="3">
         <v>21100</v>
       </c>
-      <c r="J44" s="3">
-        <v>21100</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>32400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224500</v>
+        <v>242700</v>
       </c>
       <c r="E45" s="3">
-        <v>214800</v>
+        <v>237800</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>227500</v>
       </c>
       <c r="G45" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="I45" s="3">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="J45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K45" s="3">
         <v>13700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2019900</v>
+        <v>2144700</v>
       </c>
       <c r="E46" s="3">
-        <v>1788000</v>
+        <v>2139800</v>
       </c>
       <c r="F46" s="3">
-        <v>1537800</v>
+        <v>1894100</v>
       </c>
       <c r="G46" s="3">
-        <v>1399400</v>
+        <v>1629000</v>
       </c>
       <c r="H46" s="3">
-        <v>1400500</v>
+        <v>1482500</v>
       </c>
       <c r="I46" s="3">
-        <v>1194900</v>
+        <v>1483600</v>
       </c>
       <c r="J46" s="3">
+        <v>1265900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1170900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1272600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1191300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1041100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1418100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1403100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1461800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1544300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1315900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1106000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1051200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2815900</v>
+        <v>3050300</v>
       </c>
       <c r="E47" s="3">
-        <v>2864200</v>
+        <v>2983000</v>
       </c>
       <c r="F47" s="3">
-        <v>2850300</v>
+        <v>3034200</v>
       </c>
       <c r="G47" s="3">
-        <v>1903300</v>
+        <v>3019500</v>
       </c>
       <c r="H47" s="3">
-        <v>1883800</v>
+        <v>2016200</v>
       </c>
       <c r="I47" s="3">
-        <v>1800900</v>
+        <v>1995600</v>
       </c>
       <c r="J47" s="3">
+        <v>1907700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1719500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1797400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1694600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1658500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1984400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1901700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2122700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2046500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1961300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1862100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1705000</v>
+        <v>1799100</v>
       </c>
       <c r="E48" s="3">
-        <v>1693400</v>
+        <v>1806200</v>
       </c>
       <c r="F48" s="3">
-        <v>1841900</v>
+        <v>1793900</v>
       </c>
       <c r="G48" s="3">
-        <v>1865700</v>
+        <v>1951200</v>
       </c>
       <c r="H48" s="3">
-        <v>1892100</v>
+        <v>1976500</v>
       </c>
       <c r="I48" s="3">
-        <v>1924600</v>
+        <v>2004400</v>
       </c>
       <c r="J48" s="3">
+        <v>2038800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1927700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2037000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1934200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1986900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2438400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2373700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2521700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2477700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2397500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2252800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2235600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1227000</v>
+        <v>1296900</v>
       </c>
       <c r="E49" s="3">
-        <v>1151600</v>
+        <v>1299800</v>
       </c>
       <c r="F49" s="3">
-        <v>1138600</v>
+        <v>1220000</v>
       </c>
       <c r="G49" s="3">
-        <v>1124700</v>
+        <v>1206100</v>
       </c>
       <c r="H49" s="3">
-        <v>1121300</v>
+        <v>1191500</v>
       </c>
       <c r="I49" s="3">
-        <v>1107500</v>
+        <v>1187900</v>
       </c>
       <c r="J49" s="3">
+        <v>1173200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1096000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1138200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1075600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1218200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1511800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1509600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1654400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1682400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1672400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1609700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1602600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>516400</v>
+        <v>563500</v>
       </c>
       <c r="E52" s="3">
-        <v>476100</v>
+        <v>547000</v>
       </c>
       <c r="F52" s="3">
-        <v>483100</v>
+        <v>504400</v>
       </c>
       <c r="G52" s="3">
-        <v>488700</v>
+        <v>511800</v>
       </c>
       <c r="H52" s="3">
-        <v>486200</v>
+        <v>517700</v>
       </c>
       <c r="I52" s="3">
-        <v>475100</v>
+        <v>515100</v>
       </c>
       <c r="J52" s="3">
+        <v>503300</v>
+      </c>
+      <c r="K52" s="3">
         <v>499200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>540700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>514200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>562300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>699000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>685900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>752600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>776100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>746000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>744600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>767400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8284200</v>
+        <v>8854600</v>
       </c>
       <c r="E54" s="3">
-        <v>7973400</v>
+        <v>8775900</v>
       </c>
       <c r="F54" s="3">
-        <v>7851600</v>
+        <v>8446700</v>
       </c>
       <c r="G54" s="3">
-        <v>6781800</v>
+        <v>8317700</v>
       </c>
       <c r="H54" s="3">
-        <v>6784000</v>
+        <v>7184300</v>
       </c>
       <c r="I54" s="3">
-        <v>6502900</v>
+        <v>7186700</v>
       </c>
       <c r="J54" s="3">
+        <v>6888900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6413200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6785900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6409900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6467100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8051800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7873900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8502200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8603300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8178300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7674400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7518900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>405700</v>
+        <v>382100</v>
       </c>
       <c r="E57" s="3">
-        <v>257000</v>
+        <v>429800</v>
       </c>
       <c r="F57" s="3">
-        <v>260500</v>
+        <v>272300</v>
       </c>
       <c r="G57" s="3">
-        <v>271500</v>
+        <v>276000</v>
       </c>
       <c r="H57" s="3">
-        <v>298400</v>
+        <v>287600</v>
       </c>
       <c r="I57" s="3">
-        <v>294800</v>
+        <v>316100</v>
       </c>
       <c r="J57" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K57" s="3">
         <v>257200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>286300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>253200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>396600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>390700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>324400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>431600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>557600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>391700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>283700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>311500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>467500</v>
+        <v>339800</v>
       </c>
       <c r="E58" s="3">
-        <v>369600</v>
+        <v>495300</v>
       </c>
       <c r="F58" s="3">
-        <v>226300</v>
+        <v>391500</v>
       </c>
       <c r="G58" s="3">
-        <v>267900</v>
+        <v>239700</v>
       </c>
       <c r="H58" s="3">
-        <v>257400</v>
+        <v>283800</v>
       </c>
       <c r="I58" s="3">
-        <v>300100</v>
+        <v>272600</v>
       </c>
       <c r="J58" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K58" s="3">
         <v>488100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>671000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>588400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>611700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>925600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>619600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>840300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>755800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>681600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>645500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>836300</v>
+        <v>1192200</v>
       </c>
       <c r="E59" s="3">
-        <v>652700</v>
+        <v>885900</v>
       </c>
       <c r="F59" s="3">
-        <v>585800</v>
+        <v>691400</v>
       </c>
       <c r="G59" s="3">
-        <v>375700</v>
+        <v>620600</v>
       </c>
       <c r="H59" s="3">
-        <v>390800</v>
+        <v>398000</v>
       </c>
       <c r="I59" s="3">
-        <v>267200</v>
+        <v>414000</v>
       </c>
       <c r="J59" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K59" s="3">
         <v>267600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>331400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>352900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>340300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>487500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>455500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>515200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>567600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>528000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>475300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>446200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1709500</v>
+        <v>1914000</v>
       </c>
       <c r="E60" s="3">
-        <v>1279300</v>
+        <v>1811000</v>
       </c>
       <c r="F60" s="3">
-        <v>1072600</v>
+        <v>1355300</v>
       </c>
       <c r="G60" s="3">
-        <v>915000</v>
+        <v>1136300</v>
       </c>
       <c r="H60" s="3">
-        <v>946500</v>
+        <v>969300</v>
       </c>
       <c r="I60" s="3">
-        <v>862100</v>
+        <v>1002700</v>
       </c>
       <c r="J60" s="3">
+        <v>913300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1012900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1288700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1194400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1348600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1803800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1380400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1566500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1965500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1675500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1440600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1403100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1318100</v>
+        <v>1505600</v>
       </c>
       <c r="E61" s="3">
-        <v>1479800</v>
+        <v>1396400</v>
       </c>
       <c r="F61" s="3">
-        <v>1703400</v>
+        <v>1567600</v>
       </c>
       <c r="G61" s="3">
-        <v>1733900</v>
+        <v>1804500</v>
       </c>
       <c r="H61" s="3">
-        <v>1808800</v>
+        <v>1836800</v>
       </c>
       <c r="I61" s="3">
-        <v>1655300</v>
+        <v>1916200</v>
       </c>
       <c r="J61" s="3">
+        <v>1753500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1515500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1463500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1474900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1229000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1452700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1826700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1900700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1602200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1672600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1530600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1546800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1670800</v>
+        <v>1770000</v>
       </c>
       <c r="E62" s="3">
-        <v>1614600</v>
+        <v>1769900</v>
       </c>
       <c r="F62" s="3">
-        <v>1596200</v>
+        <v>1710400</v>
       </c>
       <c r="G62" s="3">
-        <v>926300</v>
+        <v>1690900</v>
       </c>
       <c r="H62" s="3">
-        <v>912500</v>
+        <v>981300</v>
       </c>
       <c r="I62" s="3">
-        <v>834800</v>
+        <v>966700</v>
       </c>
       <c r="J62" s="3">
+        <v>884400</v>
+      </c>
+      <c r="K62" s="3">
         <v>842400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>882700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>826200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>830400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1016700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>969300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1058400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1005900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>903700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>885000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>848300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4750000</v>
+        <v>5246000</v>
       </c>
       <c r="E66" s="3">
-        <v>4421800</v>
+        <v>5031900</v>
       </c>
       <c r="F66" s="3">
-        <v>4421300</v>
+        <v>4684300</v>
       </c>
       <c r="G66" s="3">
-        <v>3636200</v>
+        <v>4683700</v>
       </c>
       <c r="H66" s="3">
-        <v>3729100</v>
+        <v>3852000</v>
       </c>
       <c r="I66" s="3">
-        <v>3412700</v>
+        <v>3950500</v>
       </c>
       <c r="J66" s="3">
+        <v>3615300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3424300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3692500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3549700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3464800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4345500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4248800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4603200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4639800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4320100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3919800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3863800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1292300</v>
+        <v>1518800</v>
       </c>
       <c r="E72" s="3">
-        <v>1542400</v>
+        <v>1369000</v>
       </c>
       <c r="F72" s="3">
-        <v>1418600</v>
+        <v>1634000</v>
       </c>
       <c r="G72" s="3">
-        <v>1131300</v>
+        <v>1502800</v>
       </c>
       <c r="H72" s="3">
-        <v>1037700</v>
+        <v>1198400</v>
       </c>
       <c r="I72" s="3">
-        <v>1047400</v>
+        <v>1099300</v>
       </c>
       <c r="J72" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="K72" s="3">
         <v>943300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1469300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1309000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1383000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1658700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1573800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1641400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1692200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1582700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1547600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1445100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3534200</v>
+        <v>3608600</v>
       </c>
       <c r="E76" s="3">
-        <v>3551600</v>
+        <v>3743900</v>
       </c>
       <c r="F76" s="3">
-        <v>3430300</v>
+        <v>3762400</v>
       </c>
       <c r="G76" s="3">
-        <v>3145600</v>
+        <v>3633900</v>
       </c>
       <c r="H76" s="3">
-        <v>3054900</v>
+        <v>3332300</v>
       </c>
       <c r="I76" s="3">
-        <v>3090200</v>
+        <v>3236200</v>
       </c>
       <c r="J76" s="3">
+        <v>3273600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2989000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3093400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2860300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3002300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3706200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3625200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3899000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3963500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3858200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3754600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3655100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194500</v>
+        <v>147400</v>
       </c>
       <c r="E81" s="3">
-        <v>121400</v>
+        <v>206000</v>
       </c>
       <c r="F81" s="3">
-        <v>375500</v>
+        <v>128600</v>
       </c>
       <c r="G81" s="3">
-        <v>90700</v>
+        <v>397700</v>
       </c>
       <c r="H81" s="3">
-        <v>101100</v>
+        <v>96100</v>
       </c>
       <c r="I81" s="3">
-        <v>101200</v>
+        <v>107100</v>
       </c>
       <c r="J81" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K81" s="3">
         <v>150000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>78600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>104900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47500</v>
+        <v>48200</v>
       </c>
       <c r="E83" s="3">
-        <v>31200</v>
+        <v>50300</v>
       </c>
       <c r="F83" s="3">
-        <v>100100</v>
+        <v>33100</v>
       </c>
       <c r="G83" s="3">
-        <v>50600</v>
+        <v>106100</v>
       </c>
       <c r="H83" s="3">
-        <v>62800</v>
+        <v>53600</v>
       </c>
       <c r="I83" s="3">
-        <v>45300</v>
+        <v>66500</v>
       </c>
       <c r="J83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K83" s="3">
         <v>85600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>34700</v>
       </c>
       <c r="M83" s="3">
         <v>34700</v>
       </c>
       <c r="N83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="O83" s="3">
         <v>44400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46700</v>
       </c>
       <c r="Q83" s="3">
         <v>46700</v>
       </c>
       <c r="R83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="S83" s="3">
         <v>47200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>116700</v>
+        <v>98200</v>
       </c>
       <c r="E89" s="3">
-        <v>254700</v>
+        <v>123600</v>
       </c>
       <c r="F89" s="3">
-        <v>326400</v>
+        <v>269800</v>
       </c>
       <c r="G89" s="3">
-        <v>147100</v>
+        <v>345800</v>
       </c>
       <c r="H89" s="3">
-        <v>152100</v>
+        <v>155800</v>
       </c>
       <c r="I89" s="3">
-        <v>124000</v>
+        <v>161200</v>
       </c>
       <c r="J89" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K89" s="3">
         <v>245300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>150300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>160800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>149800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>156000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F91" s="3">
         <v>500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-31200</v>
-      </c>
       <c r="G91" s="3">
-        <v>-18800</v>
+        <v>-33000</v>
       </c>
       <c r="H91" s="3">
-        <v>-28900</v>
+        <v>-19900</v>
       </c>
       <c r="I91" s="3">
-        <v>-19000</v>
+        <v>-30600</v>
       </c>
       <c r="J91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-115900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-94000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-90500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-695800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-92700</v>
+        <v>-81200</v>
       </c>
       <c r="E94" s="3">
-        <v>-69500</v>
+        <v>-98200</v>
       </c>
       <c r="F94" s="3">
-        <v>-133100</v>
+        <v>-73600</v>
       </c>
       <c r="G94" s="3">
-        <v>-60300</v>
+        <v>-141000</v>
       </c>
       <c r="H94" s="3">
-        <v>-99700</v>
+        <v>-63900</v>
       </c>
       <c r="I94" s="3">
-        <v>-57900</v>
+        <v>-105600</v>
       </c>
       <c r="J94" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-137000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-120900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-102600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-105600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-144800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-98900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-148600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-52700</v>
+        <v>-6000</v>
       </c>
       <c r="F96" s="3">
-        <v>-52600</v>
+        <v>-55800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-55700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-66100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-49800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-82400</v>
+        <v>-72300</v>
       </c>
       <c r="E100" s="3">
-        <v>-21000</v>
+        <v>-87300</v>
       </c>
       <c r="F100" s="3">
-        <v>-200300</v>
+        <v>-22200</v>
       </c>
       <c r="G100" s="3">
-        <v>-73800</v>
+        <v>-212200</v>
       </c>
       <c r="H100" s="3">
-        <v>109600</v>
+        <v>-78200</v>
       </c>
       <c r="I100" s="3">
-        <v>-44900</v>
+        <v>116100</v>
       </c>
       <c r="J100" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-115700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>285200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>106400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>34800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>111500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-58400</v>
+        <v>-55200</v>
       </c>
       <c r="E102" s="3">
-        <v>164200</v>
+        <v>-61800</v>
       </c>
       <c r="F102" s="3">
-        <v>-7000</v>
+        <v>174000</v>
       </c>
       <c r="G102" s="3">
-        <v>13000</v>
+        <v>-7500</v>
       </c>
       <c r="H102" s="3">
-        <v>162100</v>
+        <v>13700</v>
       </c>
       <c r="I102" s="3">
-        <v>21200</v>
+        <v>171700</v>
       </c>
       <c r="J102" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>194600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-156600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>153500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>122600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-108100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>935200</v>
+        <v>1002400</v>
       </c>
       <c r="E8" s="3">
-        <v>1060800</v>
+        <v>920900</v>
       </c>
       <c r="F8" s="3">
-        <v>812200</v>
+        <v>1044500</v>
       </c>
       <c r="G8" s="3">
-        <v>1622200</v>
+        <v>799700</v>
       </c>
       <c r="H8" s="3">
-        <v>762800</v>
+        <v>846200</v>
       </c>
       <c r="I8" s="3">
-        <v>811100</v>
+        <v>751100</v>
       </c>
       <c r="J8" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K8" s="3">
         <v>783900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1304300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>729100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>654900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>797300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>842000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>782000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1002600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>934200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>813500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>817900</v>
       </c>
       <c r="U8" s="3">
         <v>817900</v>
       </c>
       <c r="V8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="W8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>698400</v>
+        <v>735400</v>
       </c>
       <c r="E9" s="3">
-        <v>834900</v>
+        <v>687700</v>
       </c>
       <c r="F9" s="3">
-        <v>586100</v>
+        <v>822000</v>
       </c>
       <c r="G9" s="3">
-        <v>1082900</v>
+        <v>577100</v>
       </c>
       <c r="H9" s="3">
-        <v>553500</v>
+        <v>521300</v>
       </c>
       <c r="I9" s="3">
-        <v>608900</v>
+        <v>545000</v>
       </c>
       <c r="J9" s="3">
+        <v>599500</v>
+      </c>
+      <c r="K9" s="3">
         <v>543800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>941900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>511000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>510200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>640200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>635600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>574500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>802800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>729000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>627300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>556700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>776200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>236800</v>
+        <v>266900</v>
       </c>
       <c r="E10" s="3">
-        <v>225900</v>
+        <v>233200</v>
       </c>
       <c r="F10" s="3">
-        <v>226100</v>
+        <v>222500</v>
       </c>
       <c r="G10" s="3">
-        <v>539400</v>
+        <v>222700</v>
       </c>
       <c r="H10" s="3">
-        <v>209400</v>
+        <v>325000</v>
       </c>
       <c r="I10" s="3">
-        <v>202200</v>
+        <v>206200</v>
       </c>
       <c r="J10" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K10" s="3">
         <v>240100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>362400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>144700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>157200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>206400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>207500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>199800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>205100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>186200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>261200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
-        <v>3000</v>
-      </c>
       <c r="G15" s="3">
-        <v>5600</v>
+        <v>2900</v>
       </c>
       <c r="H15" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I15" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
         <v>2700</v>
       </c>
       <c r="K15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L15" s="3">
         <v>5100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2800</v>
       </c>
       <c r="V15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>739000</v>
+        <v>769700</v>
       </c>
       <c r="E17" s="3">
-        <v>865600</v>
+        <v>727600</v>
       </c>
       <c r="F17" s="3">
-        <v>645600</v>
+        <v>852300</v>
       </c>
       <c r="G17" s="3">
-        <v>1186200</v>
+        <v>635700</v>
       </c>
       <c r="H17" s="3">
-        <v>604000</v>
+        <v>573300</v>
       </c>
       <c r="I17" s="3">
-        <v>668100</v>
+        <v>594700</v>
       </c>
       <c r="J17" s="3">
+        <v>657800</v>
+      </c>
+      <c r="K17" s="3">
         <v>588900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1038600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>566400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>554700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>673700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>691200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>640300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>914100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>817300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>679400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>613800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>830600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>196300</v>
+        <v>232600</v>
       </c>
       <c r="E18" s="3">
-        <v>195200</v>
+        <v>193200</v>
       </c>
       <c r="F18" s="3">
-        <v>166600</v>
+        <v>192200</v>
       </c>
       <c r="G18" s="3">
-        <v>436000</v>
+        <v>164000</v>
       </c>
       <c r="H18" s="3">
-        <v>158900</v>
+        <v>272900</v>
       </c>
       <c r="I18" s="3">
-        <v>143000</v>
+        <v>156400</v>
       </c>
       <c r="J18" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K18" s="3">
         <v>195000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>265700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>150900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>141700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>116900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>134100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>204200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27300</v>
+        <v>28200</v>
       </c>
       <c r="E20" s="3">
         <v>26900</v>
       </c>
       <c r="F20" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>251700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>58900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>84100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>27500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>33500</v>
       </c>
-      <c r="G20" s="3">
-        <v>216000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>63500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>51400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>58900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>84100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>27000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>15400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>15800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>27500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>33500</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>35700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>271800</v>
+        <v>307800</v>
       </c>
       <c r="E21" s="3">
-        <v>272400</v>
+        <v>267600</v>
       </c>
       <c r="F21" s="3">
-        <v>233200</v>
+        <v>268200</v>
       </c>
       <c r="G21" s="3">
-        <v>758100</v>
+        <v>229600</v>
       </c>
       <c r="H21" s="3">
-        <v>275900</v>
+        <v>576400</v>
       </c>
       <c r="I21" s="3">
-        <v>260900</v>
+        <v>271600</v>
       </c>
       <c r="J21" s="3">
+        <v>256900</v>
+      </c>
+      <c r="K21" s="3">
         <v>301900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>435400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>174100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>222800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>216600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>199300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>179400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>278400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30900</v>
+        <v>26500</v>
       </c>
       <c r="E22" s="3">
-        <v>27200</v>
+        <v>30400</v>
       </c>
       <c r="F22" s="3">
-        <v>24700</v>
+        <v>26800</v>
       </c>
       <c r="G22" s="3">
-        <v>62000</v>
+        <v>24400</v>
       </c>
       <c r="H22" s="3">
-        <v>79400</v>
+        <v>84400</v>
       </c>
       <c r="I22" s="3">
-        <v>74100</v>
+        <v>78200</v>
       </c>
       <c r="J22" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K22" s="3">
         <v>82600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>120800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>61300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>65400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>67500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>192700</v>
+        <v>234400</v>
       </c>
       <c r="E23" s="3">
-        <v>194900</v>
+        <v>189700</v>
       </c>
       <c r="F23" s="3">
-        <v>175400</v>
+        <v>191900</v>
       </c>
       <c r="G23" s="3">
-        <v>590000</v>
+        <v>172700</v>
       </c>
       <c r="H23" s="3">
-        <v>142900</v>
+        <v>440200</v>
       </c>
       <c r="I23" s="3">
-        <v>120300</v>
+        <v>140700</v>
       </c>
       <c r="J23" s="3">
+        <v>118400</v>
+      </c>
+      <c r="K23" s="3">
         <v>171200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>228900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>144300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>126400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>91300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>165500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-102700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50200</v>
+        <v>57600</v>
       </c>
       <c r="E24" s="3">
-        <v>-9200</v>
+        <v>49500</v>
       </c>
       <c r="F24" s="3">
-        <v>50100</v>
+        <v>-9100</v>
       </c>
       <c r="G24" s="3">
-        <v>200300</v>
+        <v>49300</v>
       </c>
       <c r="H24" s="3">
-        <v>48300</v>
+        <v>149700</v>
       </c>
       <c r="I24" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>61900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-36300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>142400</v>
+        <v>176800</v>
       </c>
       <c r="E26" s="3">
-        <v>204100</v>
+        <v>140200</v>
       </c>
       <c r="F26" s="3">
-        <v>125300</v>
+        <v>201000</v>
       </c>
       <c r="G26" s="3">
-        <v>389800</v>
+        <v>123400</v>
       </c>
       <c r="H26" s="3">
+        <v>290600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>121300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>128000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>147300</v>
+      </c>
+      <c r="M26" s="3">
         <v>94700</v>
       </c>
-      <c r="I26" s="3">
-        <v>123200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>128000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>147300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>94700</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>106800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>103500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-66400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>140700</v>
+        <v>166700</v>
       </c>
       <c r="E27" s="3">
-        <v>199400</v>
+        <v>138500</v>
       </c>
       <c r="F27" s="3">
-        <v>126200</v>
+        <v>196400</v>
       </c>
       <c r="G27" s="3">
-        <v>392500</v>
+        <v>124300</v>
       </c>
       <c r="H27" s="3">
-        <v>94900</v>
+        <v>293000</v>
       </c>
       <c r="I27" s="3">
-        <v>118400</v>
+        <v>93500</v>
       </c>
       <c r="J27" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K27" s="3">
         <v>120200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>66500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>81700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>104900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-52400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,41 +1996,44 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="E29" s="3">
         <v>6600</v>
       </c>
       <c r="F29" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G29" s="3">
         <v>2300</v>
       </c>
-      <c r="G29" s="3">
-        <v>5300</v>
-      </c>
       <c r="H29" s="3">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="I29" s="3">
-        <v>-11300</v>
+        <v>1100</v>
       </c>
       <c r="J29" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-13000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3700</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27300</v>
+        <v>-28200</v>
       </c>
       <c r="E32" s="3">
         <v>-26900</v>
       </c>
       <c r="F32" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-251700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-33500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-216000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-63500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-51400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-84100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-35700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147400</v>
+        <v>175500</v>
       </c>
       <c r="E33" s="3">
-        <v>206000</v>
+        <v>145100</v>
       </c>
       <c r="F33" s="3">
-        <v>128600</v>
+        <v>202900</v>
       </c>
       <c r="G33" s="3">
-        <v>397700</v>
+        <v>126600</v>
       </c>
       <c r="H33" s="3">
-        <v>96100</v>
+        <v>297000</v>
       </c>
       <c r="I33" s="3">
-        <v>107100</v>
+        <v>94600</v>
       </c>
       <c r="J33" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K33" s="3">
         <v>107200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>150000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>66500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>104900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-52400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147400</v>
+        <v>175500</v>
       </c>
       <c r="E35" s="3">
-        <v>206000</v>
+        <v>145100</v>
       </c>
       <c r="F35" s="3">
-        <v>128600</v>
+        <v>202900</v>
       </c>
       <c r="G35" s="3">
-        <v>397700</v>
+        <v>126600</v>
       </c>
       <c r="H35" s="3">
-        <v>96100</v>
+        <v>297000</v>
       </c>
       <c r="I35" s="3">
-        <v>107100</v>
+        <v>94600</v>
       </c>
       <c r="J35" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K35" s="3">
         <v>107200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>150000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>66500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>104900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-52400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>548500</v>
+        <v>265500</v>
       </c>
       <c r="E41" s="3">
-        <v>604500</v>
+        <v>540100</v>
       </c>
       <c r="F41" s="3">
-        <v>675200</v>
+        <v>595200</v>
       </c>
       <c r="G41" s="3">
-        <v>544400</v>
+        <v>664800</v>
       </c>
       <c r="H41" s="3">
-        <v>565500</v>
+        <v>536000</v>
       </c>
       <c r="I41" s="3">
-        <v>551800</v>
+        <v>556900</v>
       </c>
       <c r="J41" s="3">
+        <v>543300</v>
+      </c>
+      <c r="K41" s="3">
         <v>380100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>337600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>384400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>347600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>158700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>398000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>396400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>266700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>334700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>365100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>234600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>243600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73100</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>32800</v>
+        <v>72000</v>
       </c>
       <c r="F42" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="G42" s="3">
-        <v>100900</v>
-      </c>
       <c r="H42" s="3">
-        <v>58700</v>
+        <v>99300</v>
       </c>
       <c r="I42" s="3">
-        <v>67300</v>
+        <v>57800</v>
       </c>
       <c r="J42" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K42" s="3">
         <v>86500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>106900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>78300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>76700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>33900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1250500</v>
+        <v>1281800</v>
       </c>
       <c r="E43" s="3">
-        <v>1234100</v>
+        <v>1231300</v>
       </c>
       <c r="F43" s="3">
-        <v>961900</v>
+        <v>1215200</v>
       </c>
       <c r="G43" s="3">
-        <v>950800</v>
+        <v>947200</v>
       </c>
       <c r="H43" s="3">
-        <v>827000</v>
+        <v>936200</v>
       </c>
       <c r="I43" s="3">
-        <v>833700</v>
+        <v>814300</v>
       </c>
       <c r="J43" s="3">
+        <v>820900</v>
+      </c>
+      <c r="K43" s="3">
         <v>769300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>705600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>741500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>718300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>765200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>897800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>887400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1097100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1115800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>895600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>808500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>731200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29800</v>
+        <v>34700</v>
       </c>
       <c r="E44" s="3">
-        <v>30500</v>
+        <v>29400</v>
       </c>
       <c r="F44" s="3">
-        <v>27200</v>
+        <v>30100</v>
       </c>
       <c r="G44" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="P44" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>24400</v>
+      </c>
+      <c r="R44" s="3">
         <v>28300</v>
       </c>
-      <c r="H44" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>24500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>22300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>21100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>21200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>20700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>21600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>26000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>24400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>28300</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>32400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242700</v>
+        <v>293000</v>
       </c>
       <c r="E45" s="3">
-        <v>237800</v>
+        <v>239000</v>
       </c>
       <c r="F45" s="3">
-        <v>227500</v>
+        <v>234100</v>
       </c>
       <c r="G45" s="3">
-        <v>4700</v>
+        <v>224100</v>
       </c>
       <c r="H45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
-        <v>6300</v>
-      </c>
       <c r="J45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2144700</v>
+        <v>1875300</v>
       </c>
       <c r="E46" s="3">
-        <v>2139800</v>
+        <v>2111700</v>
       </c>
       <c r="F46" s="3">
-        <v>1894100</v>
+        <v>2107000</v>
       </c>
       <c r="G46" s="3">
-        <v>1629000</v>
+        <v>1865000</v>
       </c>
       <c r="H46" s="3">
-        <v>1482500</v>
+        <v>1604000</v>
       </c>
       <c r="I46" s="3">
-        <v>1483600</v>
+        <v>1459700</v>
       </c>
       <c r="J46" s="3">
+        <v>1460800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1265900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1170900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1272600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1191300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1041100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1418100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1403100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1461800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1544300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1315900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1106000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1051200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3050300</v>
+        <v>3268700</v>
       </c>
       <c r="E47" s="3">
-        <v>2983000</v>
+        <v>3003500</v>
       </c>
       <c r="F47" s="3">
-        <v>3034200</v>
+        <v>2937200</v>
       </c>
       <c r="G47" s="3">
-        <v>3019500</v>
+        <v>2987600</v>
       </c>
       <c r="H47" s="3">
-        <v>2016200</v>
+        <v>2973100</v>
       </c>
       <c r="I47" s="3">
-        <v>1995600</v>
+        <v>1985300</v>
       </c>
       <c r="J47" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1907700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1719500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1797400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1694600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1658500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1984400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1901700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2179100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2122700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2046500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1961300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1862100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1799100</v>
+        <v>1775800</v>
       </c>
       <c r="E48" s="3">
-        <v>1806200</v>
+        <v>1771500</v>
       </c>
       <c r="F48" s="3">
-        <v>1793900</v>
+        <v>1778400</v>
       </c>
       <c r="G48" s="3">
-        <v>1951200</v>
+        <v>1766400</v>
       </c>
       <c r="H48" s="3">
-        <v>1976500</v>
+        <v>1921300</v>
       </c>
       <c r="I48" s="3">
-        <v>2004400</v>
+        <v>1946100</v>
       </c>
       <c r="J48" s="3">
+        <v>1973700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2038800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1927700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2037000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1934200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1986900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2438400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2373700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2521700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2477700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2397500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2252800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2235600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1296900</v>
+        <v>1293900</v>
       </c>
       <c r="E49" s="3">
-        <v>1299800</v>
+        <v>1277000</v>
       </c>
       <c r="F49" s="3">
-        <v>1220000</v>
+        <v>1279900</v>
       </c>
       <c r="G49" s="3">
-        <v>1206100</v>
+        <v>1201300</v>
       </c>
       <c r="H49" s="3">
-        <v>1191500</v>
+        <v>1187600</v>
       </c>
       <c r="I49" s="3">
-        <v>1187900</v>
+        <v>1173200</v>
       </c>
       <c r="J49" s="3">
+        <v>1169600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1173200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1096000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1138200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1075600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1218200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1511800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1654400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1682400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1672400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1609700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1602600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>563500</v>
+        <v>536800</v>
       </c>
       <c r="E52" s="3">
-        <v>547000</v>
+        <v>554900</v>
       </c>
       <c r="F52" s="3">
-        <v>504400</v>
+        <v>538600</v>
       </c>
       <c r="G52" s="3">
-        <v>511800</v>
+        <v>496600</v>
       </c>
       <c r="H52" s="3">
-        <v>517700</v>
+        <v>503900</v>
       </c>
       <c r="I52" s="3">
-        <v>515100</v>
+        <v>509700</v>
       </c>
       <c r="J52" s="3">
+        <v>507200</v>
+      </c>
+      <c r="K52" s="3">
         <v>503300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>499200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>540700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>514200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>562300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>699000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>685900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>752600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>776100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>746000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>744600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>767400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8854600</v>
+        <v>8750500</v>
       </c>
       <c r="E54" s="3">
-        <v>8775900</v>
+        <v>8718600</v>
       </c>
       <c r="F54" s="3">
-        <v>8446700</v>
+        <v>8641100</v>
       </c>
       <c r="G54" s="3">
-        <v>8317700</v>
+        <v>8317000</v>
       </c>
       <c r="H54" s="3">
-        <v>7184300</v>
+        <v>8190000</v>
       </c>
       <c r="I54" s="3">
-        <v>7186700</v>
+        <v>7074000</v>
       </c>
       <c r="J54" s="3">
+        <v>7076300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6888900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6413200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6785900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6409900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6467100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8051800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7873900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8502200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8603300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8178300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7674400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7518900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>382100</v>
+        <v>407500</v>
       </c>
       <c r="E57" s="3">
-        <v>429800</v>
+        <v>376200</v>
       </c>
       <c r="F57" s="3">
-        <v>272300</v>
+        <v>423200</v>
       </c>
       <c r="G57" s="3">
-        <v>276000</v>
+        <v>268100</v>
       </c>
       <c r="H57" s="3">
-        <v>287600</v>
+        <v>271800</v>
       </c>
       <c r="I57" s="3">
-        <v>316100</v>
+        <v>283200</v>
       </c>
       <c r="J57" s="3">
+        <v>311300</v>
+      </c>
+      <c r="K57" s="3">
         <v>312300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>286300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>253200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>396600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>390700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>324400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>431600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>557600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>391700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>283700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>311500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>339800</v>
+        <v>431400</v>
       </c>
       <c r="E58" s="3">
-        <v>495300</v>
+        <v>334600</v>
       </c>
       <c r="F58" s="3">
-        <v>391500</v>
+        <v>487700</v>
       </c>
       <c r="G58" s="3">
-        <v>239700</v>
+        <v>385500</v>
       </c>
       <c r="H58" s="3">
-        <v>283800</v>
+        <v>236000</v>
       </c>
       <c r="I58" s="3">
-        <v>272600</v>
+        <v>279500</v>
       </c>
       <c r="J58" s="3">
+        <v>268400</v>
+      </c>
+      <c r="K58" s="3">
         <v>317900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>488100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>671000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>588400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>611700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>925600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>619600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>840300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>755800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>681600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>645500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1192200</v>
+        <v>980200</v>
       </c>
       <c r="E59" s="3">
-        <v>885900</v>
+        <v>1173900</v>
       </c>
       <c r="F59" s="3">
-        <v>691400</v>
+        <v>872300</v>
       </c>
       <c r="G59" s="3">
-        <v>620600</v>
+        <v>680800</v>
       </c>
       <c r="H59" s="3">
-        <v>398000</v>
+        <v>611000</v>
       </c>
       <c r="I59" s="3">
-        <v>414000</v>
+        <v>391800</v>
       </c>
       <c r="J59" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K59" s="3">
         <v>283000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>267600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>331400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>352900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>340300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>487500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>455500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>515200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>567600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>528000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>475300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>446200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1914000</v>
+        <v>1819000</v>
       </c>
       <c r="E60" s="3">
-        <v>1811000</v>
+        <v>1884600</v>
       </c>
       <c r="F60" s="3">
-        <v>1355300</v>
+        <v>1783200</v>
       </c>
       <c r="G60" s="3">
-        <v>1136300</v>
+        <v>1334400</v>
       </c>
       <c r="H60" s="3">
-        <v>969300</v>
+        <v>1118800</v>
       </c>
       <c r="I60" s="3">
-        <v>1002700</v>
+        <v>954500</v>
       </c>
       <c r="J60" s="3">
+        <v>987300</v>
+      </c>
+      <c r="K60" s="3">
         <v>913300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1012900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1288700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1194400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1348600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1803800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1380400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1566500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1965500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1675500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1440600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1403100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1505600</v>
+        <v>1382100</v>
       </c>
       <c r="E61" s="3">
-        <v>1396400</v>
+        <v>1482400</v>
       </c>
       <c r="F61" s="3">
-        <v>1567600</v>
+        <v>1374900</v>
       </c>
       <c r="G61" s="3">
-        <v>1804500</v>
+        <v>1543600</v>
       </c>
       <c r="H61" s="3">
-        <v>1836800</v>
+        <v>1776800</v>
       </c>
       <c r="I61" s="3">
-        <v>1916200</v>
+        <v>1808600</v>
       </c>
       <c r="J61" s="3">
+        <v>1886800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1753500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1515500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1463500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1474900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1229000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1452700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1826700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1900700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1602200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1672600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1530600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1546800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1770000</v>
+        <v>1762800</v>
       </c>
       <c r="E62" s="3">
-        <v>1769900</v>
+        <v>1742800</v>
       </c>
       <c r="F62" s="3">
-        <v>1710400</v>
+        <v>1742800</v>
       </c>
       <c r="G62" s="3">
-        <v>1690900</v>
+        <v>1684100</v>
       </c>
       <c r="H62" s="3">
-        <v>981300</v>
+        <v>1665000</v>
       </c>
       <c r="I62" s="3">
-        <v>966700</v>
+        <v>966200</v>
       </c>
       <c r="J62" s="3">
+        <v>951800</v>
+      </c>
+      <c r="K62" s="3">
         <v>884400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>842400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>882700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>826200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>830400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1016700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>969300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1058400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1005900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>903700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>885000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>848300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5246000</v>
+        <v>5024800</v>
       </c>
       <c r="E66" s="3">
-        <v>5031900</v>
+        <v>5165400</v>
       </c>
       <c r="F66" s="3">
-        <v>4684300</v>
+        <v>4954700</v>
       </c>
       <c r="G66" s="3">
-        <v>4683700</v>
+        <v>4612400</v>
       </c>
       <c r="H66" s="3">
-        <v>3852000</v>
+        <v>4611800</v>
       </c>
       <c r="I66" s="3">
-        <v>3950500</v>
+        <v>3792900</v>
       </c>
       <c r="J66" s="3">
+        <v>3889800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3615300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3424300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3692500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3549700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3464800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4345500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4248800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4603200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4639800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4320100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3919800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3863800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1518800</v>
+        <v>1673100</v>
       </c>
       <c r="E72" s="3">
-        <v>1369000</v>
+        <v>1495500</v>
       </c>
       <c r="F72" s="3">
-        <v>1634000</v>
+        <v>1348000</v>
       </c>
       <c r="G72" s="3">
-        <v>1502800</v>
+        <v>1608900</v>
       </c>
       <c r="H72" s="3">
-        <v>1198400</v>
+        <v>1479800</v>
       </c>
       <c r="I72" s="3">
-        <v>1099300</v>
+        <v>1180000</v>
       </c>
       <c r="J72" s="3">
+        <v>1082400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1109600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>943300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1469300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1309000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1383000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1658700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1573800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1641400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1692200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1582700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1547600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1445100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3608600</v>
+        <v>3725700</v>
       </c>
       <c r="E76" s="3">
-        <v>3743900</v>
+        <v>3553200</v>
       </c>
       <c r="F76" s="3">
-        <v>3762400</v>
+        <v>3686400</v>
       </c>
       <c r="G76" s="3">
-        <v>3633900</v>
+        <v>3704600</v>
       </c>
       <c r="H76" s="3">
-        <v>3332300</v>
+        <v>3578200</v>
       </c>
       <c r="I76" s="3">
-        <v>3236200</v>
+        <v>3281100</v>
       </c>
       <c r="J76" s="3">
+        <v>3186500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3273600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2989000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3093400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2860300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3002300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3706200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3625200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3899000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3963500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3858200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3754600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3655100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147400</v>
+        <v>175500</v>
       </c>
       <c r="E81" s="3">
-        <v>206000</v>
+        <v>145100</v>
       </c>
       <c r="F81" s="3">
-        <v>128600</v>
+        <v>202900</v>
       </c>
       <c r="G81" s="3">
-        <v>397700</v>
+        <v>126600</v>
       </c>
       <c r="H81" s="3">
-        <v>96100</v>
+        <v>297000</v>
       </c>
       <c r="I81" s="3">
-        <v>107100</v>
+        <v>94600</v>
       </c>
       <c r="J81" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K81" s="3">
         <v>107200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>150000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>66500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>104900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-52400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48200</v>
+        <v>47000</v>
       </c>
       <c r="E83" s="3">
-        <v>50300</v>
+        <v>47500</v>
       </c>
       <c r="F83" s="3">
-        <v>33100</v>
+        <v>49500</v>
       </c>
       <c r="G83" s="3">
-        <v>106100</v>
+        <v>32600</v>
       </c>
       <c r="H83" s="3">
-        <v>53600</v>
+        <v>51700</v>
       </c>
       <c r="I83" s="3">
-        <v>66500</v>
+        <v>52700</v>
       </c>
       <c r="J83" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>34700</v>
       </c>
       <c r="N83" s="3">
         <v>34700</v>
       </c>
       <c r="O83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="P83" s="3">
         <v>44400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>46700</v>
       </c>
       <c r="R83" s="3">
         <v>46700</v>
       </c>
       <c r="S83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="T83" s="3">
         <v>47200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98200</v>
+        <v>89500</v>
       </c>
       <c r="E89" s="3">
-        <v>123600</v>
+        <v>96700</v>
       </c>
       <c r="F89" s="3">
-        <v>269800</v>
+        <v>121700</v>
       </c>
       <c r="G89" s="3">
-        <v>345800</v>
+        <v>265700</v>
       </c>
       <c r="H89" s="3">
-        <v>155800</v>
+        <v>187100</v>
       </c>
       <c r="I89" s="3">
-        <v>161200</v>
+        <v>153400</v>
       </c>
       <c r="J89" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K89" s="3">
         <v>131400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>245300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>150300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>160800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>149800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-50000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>156000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>106000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9700</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-9500</v>
       </c>
       <c r="F91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G91" s="3">
         <v>500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H91" s="3">
-        <v>-19900</v>
+        <v>-13000</v>
       </c>
       <c r="I91" s="3">
-        <v>-30600</v>
+        <v>-19600</v>
       </c>
       <c r="J91" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-52200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-117500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-115900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-94000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-90500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-695800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81200</v>
+        <v>-67300</v>
       </c>
       <c r="E94" s="3">
-        <v>-98200</v>
+        <v>-79900</v>
       </c>
       <c r="F94" s="3">
-        <v>-73600</v>
+        <v>-96600</v>
       </c>
       <c r="G94" s="3">
-        <v>-141000</v>
+        <v>-72500</v>
       </c>
       <c r="H94" s="3">
-        <v>-63900</v>
+        <v>-76000</v>
       </c>
       <c r="I94" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="S94" s="3">
         <v>-105600</v>
       </c>
-      <c r="J94" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-137000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-120900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-99500</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-115400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-105600</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-144800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-98900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-148600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-231100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
       </c>
-      <c r="E96" s="3">
-        <v>-6000</v>
-      </c>
       <c r="F96" s="3">
-        <v>-55800</v>
+        <v>-5900</v>
       </c>
       <c r="G96" s="3">
-        <v>-55700</v>
+        <v>-54900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-54900</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-66100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-49800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-77600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-49900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-72300</v>
+        <v>-246600</v>
       </c>
       <c r="E100" s="3">
-        <v>-87300</v>
+        <v>-71200</v>
       </c>
       <c r="F100" s="3">
-        <v>-22200</v>
+        <v>-85900</v>
       </c>
       <c r="G100" s="3">
-        <v>-212200</v>
+        <v>-21900</v>
       </c>
       <c r="H100" s="3">
-        <v>-78200</v>
+        <v>-132000</v>
       </c>
       <c r="I100" s="3">
-        <v>116100</v>
+        <v>-77000</v>
       </c>
       <c r="J100" s="3">
+        <v>114300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-47600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>285200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>106400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>34800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>111500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55200</v>
+        <v>-224400</v>
       </c>
       <c r="E102" s="3">
-        <v>-61800</v>
+        <v>-54300</v>
       </c>
       <c r="F102" s="3">
-        <v>174000</v>
+        <v>-60900</v>
       </c>
       <c r="G102" s="3">
-        <v>-7500</v>
+        <v>171300</v>
       </c>
       <c r="H102" s="3">
-        <v>13700</v>
+        <v>-20900</v>
       </c>
       <c r="I102" s="3">
-        <v>171700</v>
+        <v>13500</v>
       </c>
       <c r="J102" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K102" s="3">
         <v>22400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>194600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-156600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>153500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>122600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-108100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1002400</v>
+        <v>1245700</v>
       </c>
       <c r="E8" s="3">
-        <v>920900</v>
+        <v>968800</v>
       </c>
       <c r="F8" s="3">
-        <v>1044500</v>
+        <v>890100</v>
       </c>
       <c r="G8" s="3">
-        <v>799700</v>
+        <v>1009600</v>
       </c>
       <c r="H8" s="3">
-        <v>846200</v>
+        <v>773000</v>
       </c>
       <c r="I8" s="3">
-        <v>751100</v>
+        <v>817900</v>
       </c>
       <c r="J8" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K8" s="3">
         <v>798600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>783900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1304300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>729100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>654900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>797300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>842000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>782000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1002600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>934200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>813500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>817900</v>
       </c>
       <c r="V8" s="3">
         <v>817900</v>
       </c>
       <c r="W8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="X8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>735400</v>
+        <v>1045200</v>
       </c>
       <c r="E9" s="3">
-        <v>687700</v>
+        <v>710800</v>
       </c>
       <c r="F9" s="3">
-        <v>822000</v>
+        <v>664700</v>
       </c>
       <c r="G9" s="3">
-        <v>577100</v>
+        <v>794500</v>
       </c>
       <c r="H9" s="3">
-        <v>521300</v>
+        <v>557800</v>
       </c>
       <c r="I9" s="3">
-        <v>545000</v>
+        <v>503800</v>
       </c>
       <c r="J9" s="3">
+        <v>526700</v>
+      </c>
+      <c r="K9" s="3">
         <v>599500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>543800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>941900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>511000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>510200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>640200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>635600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>574500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>802800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>729000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>627300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>556700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>776200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>266900</v>
+        <v>200400</v>
       </c>
       <c r="E10" s="3">
-        <v>233200</v>
+        <v>258000</v>
       </c>
       <c r="F10" s="3">
-        <v>222500</v>
+        <v>225400</v>
       </c>
       <c r="G10" s="3">
-        <v>222700</v>
+        <v>215000</v>
       </c>
       <c r="H10" s="3">
-        <v>325000</v>
+        <v>215200</v>
       </c>
       <c r="I10" s="3">
-        <v>206200</v>
+        <v>314100</v>
       </c>
       <c r="J10" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K10" s="3">
         <v>199100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>362400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>218100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>144700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>157200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>206400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>207500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>199800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>205100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>186200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>261200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
-        <v>3100</v>
-      </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>2800</v>
       </c>
       <c r="I15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
       </c>
       <c r="L15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M15" s="3">
         <v>5100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2800</v>
       </c>
       <c r="W15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>769700</v>
+        <v>798300</v>
       </c>
       <c r="E17" s="3">
-        <v>727600</v>
+        <v>744000</v>
       </c>
       <c r="F17" s="3">
-        <v>852300</v>
+        <v>703300</v>
       </c>
       <c r="G17" s="3">
-        <v>635700</v>
+        <v>823800</v>
       </c>
       <c r="H17" s="3">
-        <v>573300</v>
+        <v>614400</v>
       </c>
       <c r="I17" s="3">
-        <v>594700</v>
+        <v>554100</v>
       </c>
       <c r="J17" s="3">
+        <v>574800</v>
+      </c>
+      <c r="K17" s="3">
         <v>657800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>588900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1038600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>566400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>554700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>673700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>691200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>640300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>914100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>817300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>679400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>613800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>830600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>232600</v>
+        <v>447400</v>
       </c>
       <c r="E18" s="3">
-        <v>193200</v>
+        <v>224900</v>
       </c>
       <c r="F18" s="3">
-        <v>192200</v>
+        <v>186800</v>
       </c>
       <c r="G18" s="3">
-        <v>164000</v>
+        <v>185800</v>
       </c>
       <c r="H18" s="3">
-        <v>272900</v>
+        <v>158500</v>
       </c>
       <c r="I18" s="3">
-        <v>156400</v>
+        <v>263800</v>
       </c>
       <c r="J18" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K18" s="3">
         <v>140800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>195000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>265700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>150900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>141700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>116900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>134100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>204200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28200</v>
+        <v>24500</v>
       </c>
       <c r="E20" s="3">
-        <v>26900</v>
+        <v>25900</v>
       </c>
       <c r="F20" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="3">
-        <v>33000</v>
+        <v>25600</v>
       </c>
       <c r="H20" s="3">
-        <v>251700</v>
+        <v>55500</v>
       </c>
       <c r="I20" s="3">
-        <v>62500</v>
+        <v>243300</v>
       </c>
       <c r="J20" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K20" s="3">
         <v>50600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>58900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>84100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>33500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>307800</v>
+        <v>518700</v>
       </c>
       <c r="E21" s="3">
-        <v>267600</v>
+        <v>296200</v>
       </c>
       <c r="F21" s="3">
-        <v>268200</v>
+        <v>258600</v>
       </c>
       <c r="G21" s="3">
-        <v>229600</v>
+        <v>259200</v>
       </c>
       <c r="H21" s="3">
-        <v>576400</v>
+        <v>245500</v>
       </c>
       <c r="I21" s="3">
-        <v>271600</v>
+        <v>557100</v>
       </c>
       <c r="J21" s="3">
+        <v>262600</v>
+      </c>
+      <c r="K21" s="3">
         <v>256900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>301900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>435400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>231400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>174100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>222800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>216600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>133100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>199300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>179400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>278400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26500</v>
+        <v>44200</v>
       </c>
       <c r="E22" s="3">
-        <v>30400</v>
+        <v>24200</v>
       </c>
       <c r="F22" s="3">
-        <v>26800</v>
+        <v>29400</v>
       </c>
       <c r="G22" s="3">
-        <v>24400</v>
+        <v>25900</v>
       </c>
       <c r="H22" s="3">
-        <v>84400</v>
+        <v>47100</v>
       </c>
       <c r="I22" s="3">
-        <v>78200</v>
+        <v>81600</v>
       </c>
       <c r="J22" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K22" s="3">
         <v>73000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>120800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>61300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>65400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>67500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>234400</v>
+        <v>427700</v>
       </c>
       <c r="E23" s="3">
-        <v>189700</v>
+        <v>226500</v>
       </c>
       <c r="F23" s="3">
-        <v>191900</v>
+        <v>183400</v>
       </c>
       <c r="G23" s="3">
-        <v>172700</v>
+        <v>185500</v>
       </c>
       <c r="H23" s="3">
-        <v>440200</v>
+        <v>166900</v>
       </c>
       <c r="I23" s="3">
-        <v>140700</v>
+        <v>425500</v>
       </c>
       <c r="J23" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K23" s="3">
         <v>118400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>171200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>228900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>144300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>126400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>125400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>91300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>165500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-102700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57600</v>
+        <v>115900</v>
       </c>
       <c r="E24" s="3">
-        <v>49500</v>
+        <v>55700</v>
       </c>
       <c r="F24" s="3">
-        <v>-9100</v>
+        <v>47800</v>
       </c>
       <c r="G24" s="3">
-        <v>49300</v>
+        <v>-8800</v>
       </c>
       <c r="H24" s="3">
-        <v>149700</v>
+        <v>47600</v>
       </c>
       <c r="I24" s="3">
-        <v>47500</v>
+        <v>144700</v>
       </c>
       <c r="J24" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-15600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>61900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-36300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176800</v>
+        <v>311800</v>
       </c>
       <c r="E26" s="3">
-        <v>140200</v>
+        <v>170800</v>
       </c>
       <c r="F26" s="3">
-        <v>201000</v>
+        <v>135500</v>
       </c>
       <c r="G26" s="3">
-        <v>123400</v>
+        <v>194300</v>
       </c>
       <c r="H26" s="3">
-        <v>290600</v>
+        <v>119300</v>
       </c>
       <c r="I26" s="3">
-        <v>93200</v>
+        <v>280800</v>
       </c>
       <c r="J26" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K26" s="3">
         <v>121300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>106800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>103500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-66400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>166700</v>
+        <v>307600</v>
       </c>
       <c r="E27" s="3">
-        <v>138500</v>
+        <v>161100</v>
       </c>
       <c r="F27" s="3">
-        <v>196400</v>
+        <v>133900</v>
       </c>
       <c r="G27" s="3">
-        <v>124300</v>
+        <v>189800</v>
       </c>
       <c r="H27" s="3">
-        <v>293000</v>
+        <v>120100</v>
       </c>
       <c r="I27" s="3">
-        <v>93500</v>
+        <v>283200</v>
       </c>
       <c r="J27" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K27" s="3">
         <v>116600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>66500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>81400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>104900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-52400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,44 +2057,47 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8800</v>
+        <v>197400</v>
       </c>
       <c r="E29" s="3">
-        <v>6600</v>
+        <v>8500</v>
       </c>
       <c r="F29" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G29" s="3">
-        <v>2300</v>
+        <v>6300</v>
       </c>
       <c r="H29" s="3">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="I29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J29" s="3">
         <v>1100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-11100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3700</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28200</v>
+        <v>-24500</v>
       </c>
       <c r="E32" s="3">
-        <v>-26900</v>
+        <v>-25900</v>
       </c>
       <c r="F32" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="G32" s="3">
-        <v>-33000</v>
+        <v>-25600</v>
       </c>
       <c r="H32" s="3">
-        <v>-251700</v>
+        <v>-55500</v>
       </c>
       <c r="I32" s="3">
-        <v>-62500</v>
+        <v>-243300</v>
       </c>
       <c r="J32" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-50600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-58900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-84100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-33500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>175500</v>
+        <v>505100</v>
       </c>
       <c r="E33" s="3">
-        <v>145100</v>
+        <v>169600</v>
       </c>
       <c r="F33" s="3">
-        <v>202900</v>
+        <v>140300</v>
       </c>
       <c r="G33" s="3">
-        <v>126600</v>
+        <v>196100</v>
       </c>
       <c r="H33" s="3">
-        <v>297000</v>
+        <v>122400</v>
       </c>
       <c r="I33" s="3">
-        <v>94600</v>
+        <v>287100</v>
       </c>
       <c r="J33" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K33" s="3">
         <v>105500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>150000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>93200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>66500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>104900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-52400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>175500</v>
+        <v>505100</v>
       </c>
       <c r="E35" s="3">
-        <v>145100</v>
+        <v>169600</v>
       </c>
       <c r="F35" s="3">
-        <v>202900</v>
+        <v>140300</v>
       </c>
       <c r="G35" s="3">
-        <v>126600</v>
+        <v>196100</v>
       </c>
       <c r="H35" s="3">
-        <v>297000</v>
+        <v>122400</v>
       </c>
       <c r="I35" s="3">
-        <v>94600</v>
+        <v>287100</v>
       </c>
       <c r="J35" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K35" s="3">
         <v>105500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>150000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>93200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>66500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>104900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-52400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265500</v>
+        <v>866400</v>
       </c>
       <c r="E41" s="3">
-        <v>540100</v>
+        <v>256600</v>
       </c>
       <c r="F41" s="3">
-        <v>595200</v>
+        <v>522000</v>
       </c>
       <c r="G41" s="3">
-        <v>664800</v>
+        <v>575300</v>
       </c>
       <c r="H41" s="3">
-        <v>536000</v>
+        <v>642600</v>
       </c>
       <c r="I41" s="3">
-        <v>556900</v>
+        <v>518100</v>
       </c>
       <c r="J41" s="3">
+        <v>538200</v>
+      </c>
+      <c r="K41" s="3">
         <v>543300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>380100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>337600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>384400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>347600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>158700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>398000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>396400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>266700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>334700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>365100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>234600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>243600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
-        <v>72000</v>
-      </c>
       <c r="F42" s="3">
-        <v>32300</v>
+        <v>69600</v>
       </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>31200</v>
       </c>
       <c r="H42" s="3">
-        <v>99300</v>
+        <v>2100</v>
       </c>
       <c r="I42" s="3">
-        <v>57800</v>
+        <v>96000</v>
       </c>
       <c r="J42" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K42" s="3">
         <v>66200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>92800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>106900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>78300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>76700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>33900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1281800</v>
+        <v>1200100</v>
       </c>
       <c r="E43" s="3">
-        <v>1231300</v>
+        <v>1238900</v>
       </c>
       <c r="F43" s="3">
-        <v>1215200</v>
+        <v>1190100</v>
       </c>
       <c r="G43" s="3">
-        <v>947200</v>
+        <v>1174500</v>
       </c>
       <c r="H43" s="3">
-        <v>936200</v>
+        <v>915500</v>
       </c>
       <c r="I43" s="3">
-        <v>814300</v>
+        <v>904900</v>
       </c>
       <c r="J43" s="3">
+        <v>787000</v>
+      </c>
+      <c r="K43" s="3">
         <v>820900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>769300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>705600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>741500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>718300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>765200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>897800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>887400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1097100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1115800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>895600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>808500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>731200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34700</v>
+        <v>32500</v>
       </c>
       <c r="E44" s="3">
-        <v>29400</v>
+        <v>33500</v>
       </c>
       <c r="F44" s="3">
-        <v>30100</v>
+        <v>28400</v>
       </c>
       <c r="G44" s="3">
-        <v>26800</v>
+        <v>29100</v>
       </c>
       <c r="H44" s="3">
-        <v>27900</v>
+        <v>25900</v>
       </c>
       <c r="I44" s="3">
-        <v>25800</v>
+        <v>26900</v>
       </c>
       <c r="J44" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K44" s="3">
         <v>24100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>28300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>32400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>293000</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
-        <v>239000</v>
+        <v>283200</v>
       </c>
       <c r="F45" s="3">
-        <v>234100</v>
+        <v>231000</v>
       </c>
       <c r="G45" s="3">
-        <v>224100</v>
+        <v>226300</v>
       </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>216600</v>
       </c>
       <c r="I45" s="3">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1875300</v>
+        <v>2144800</v>
       </c>
       <c r="E46" s="3">
-        <v>2111700</v>
+        <v>1812500</v>
       </c>
       <c r="F46" s="3">
-        <v>2107000</v>
+        <v>2041100</v>
       </c>
       <c r="G46" s="3">
-        <v>1865000</v>
+        <v>2036500</v>
       </c>
       <c r="H46" s="3">
-        <v>1604000</v>
+        <v>1802600</v>
       </c>
       <c r="I46" s="3">
-        <v>1459700</v>
+        <v>1550400</v>
       </c>
       <c r="J46" s="3">
+        <v>1410900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1460800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1265900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1170900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1272600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1191300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1041100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1418100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1403100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1461800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1544300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1315900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1106000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1051200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3268700</v>
+        <v>3176300</v>
       </c>
       <c r="E47" s="3">
-        <v>3003500</v>
+        <v>3159300</v>
       </c>
       <c r="F47" s="3">
-        <v>2937200</v>
+        <v>2903000</v>
       </c>
       <c r="G47" s="3">
-        <v>2987600</v>
+        <v>2839000</v>
       </c>
       <c r="H47" s="3">
-        <v>2973100</v>
+        <v>2887700</v>
       </c>
       <c r="I47" s="3">
-        <v>1985300</v>
+        <v>2873700</v>
       </c>
       <c r="J47" s="3">
+        <v>1918900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1965000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1907700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1719500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1797400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1694600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1658500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1984400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1901700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2179100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2122700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2046500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1961300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1862100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1775800</v>
+        <v>1697200</v>
       </c>
       <c r="E48" s="3">
-        <v>1771500</v>
+        <v>1716400</v>
       </c>
       <c r="F48" s="3">
-        <v>1778400</v>
+        <v>1712200</v>
       </c>
       <c r="G48" s="3">
-        <v>1766400</v>
+        <v>1718900</v>
       </c>
       <c r="H48" s="3">
-        <v>1921300</v>
+        <v>1707300</v>
       </c>
       <c r="I48" s="3">
-        <v>1946100</v>
+        <v>1857000</v>
       </c>
       <c r="J48" s="3">
+        <v>1881000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1973700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2038800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1927700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2037000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1934200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1986900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2438400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2373700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2521700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2477700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2397500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2252800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2235600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1293900</v>
+        <v>1562400</v>
       </c>
       <c r="E49" s="3">
-        <v>1277000</v>
+        <v>1250600</v>
       </c>
       <c r="F49" s="3">
-        <v>1279900</v>
+        <v>1234300</v>
       </c>
       <c r="G49" s="3">
-        <v>1201300</v>
+        <v>1237000</v>
       </c>
       <c r="H49" s="3">
-        <v>1187600</v>
+        <v>1161100</v>
       </c>
       <c r="I49" s="3">
+        <v>1147900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1133900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1169600</v>
+      </c>
+      <c r="L49" s="3">
         <v>1173200</v>
       </c>
-      <c r="J49" s="3">
-        <v>1169600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1173200</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1096000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1138200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1075600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1218200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1511800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1509600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1654400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1682400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1672400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1609700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1602600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>536800</v>
+        <v>315600</v>
       </c>
       <c r="E52" s="3">
-        <v>554900</v>
+        <v>518900</v>
       </c>
       <c r="F52" s="3">
-        <v>538600</v>
+        <v>536300</v>
       </c>
       <c r="G52" s="3">
-        <v>496600</v>
+        <v>520600</v>
       </c>
       <c r="H52" s="3">
-        <v>503900</v>
+        <v>480000</v>
       </c>
       <c r="I52" s="3">
-        <v>509700</v>
+        <v>487100</v>
       </c>
       <c r="J52" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K52" s="3">
         <v>507200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>503300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>499200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>540700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>514200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>562300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>699000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>685900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>752600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>776100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>746000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>744600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>767400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8750500</v>
+        <v>8896300</v>
       </c>
       <c r="E54" s="3">
-        <v>8718600</v>
+        <v>8457700</v>
       </c>
       <c r="F54" s="3">
-        <v>8641100</v>
+        <v>8426900</v>
       </c>
       <c r="G54" s="3">
-        <v>8317000</v>
+        <v>8352000</v>
       </c>
       <c r="H54" s="3">
-        <v>8190000</v>
+        <v>8038700</v>
       </c>
       <c r="I54" s="3">
-        <v>7074000</v>
+        <v>7915900</v>
       </c>
       <c r="J54" s="3">
+        <v>6837300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7076300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6888900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6413200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6785900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6409900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6467100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8051800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7873900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8502200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8603300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8178300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7674400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7518900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>407500</v>
+        <v>507800</v>
       </c>
       <c r="E57" s="3">
-        <v>376200</v>
+        <v>393800</v>
       </c>
       <c r="F57" s="3">
-        <v>423200</v>
+        <v>363600</v>
       </c>
       <c r="G57" s="3">
-        <v>268100</v>
+        <v>409000</v>
       </c>
       <c r="H57" s="3">
-        <v>271800</v>
+        <v>259100</v>
       </c>
       <c r="I57" s="3">
-        <v>283200</v>
+        <v>262700</v>
       </c>
       <c r="J57" s="3">
+        <v>273700</v>
+      </c>
+      <c r="K57" s="3">
         <v>311300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>312300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>257200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>286300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>253200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>396600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>390700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>324400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>431600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>557600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>391700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>283700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>311500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>431400</v>
+        <v>480500</v>
       </c>
       <c r="E58" s="3">
-        <v>334600</v>
+        <v>416900</v>
       </c>
       <c r="F58" s="3">
-        <v>487700</v>
+        <v>323400</v>
       </c>
       <c r="G58" s="3">
-        <v>385500</v>
+        <v>471300</v>
       </c>
       <c r="H58" s="3">
-        <v>236000</v>
+        <v>372600</v>
       </c>
       <c r="I58" s="3">
-        <v>279500</v>
+        <v>228100</v>
       </c>
       <c r="J58" s="3">
+        <v>270100</v>
+      </c>
+      <c r="K58" s="3">
         <v>268400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>317900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>488100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>671000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>588400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>611700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>925600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>619600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>840300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>755800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>681600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>645500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>980200</v>
+        <v>765300</v>
       </c>
       <c r="E59" s="3">
-        <v>1173900</v>
+        <v>947400</v>
       </c>
       <c r="F59" s="3">
-        <v>872300</v>
+        <v>1134600</v>
       </c>
       <c r="G59" s="3">
-        <v>680800</v>
+        <v>843100</v>
       </c>
       <c r="H59" s="3">
-        <v>611000</v>
+        <v>658000</v>
       </c>
       <c r="I59" s="3">
-        <v>391800</v>
+        <v>590600</v>
       </c>
       <c r="J59" s="3">
+        <v>378700</v>
+      </c>
+      <c r="K59" s="3">
         <v>407600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>267600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>331400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>352900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>340300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>487500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>455500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>515200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>567600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>528000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>475300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>446200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1819000</v>
+        <v>1753700</v>
       </c>
       <c r="E60" s="3">
-        <v>1884600</v>
+        <v>1758200</v>
       </c>
       <c r="F60" s="3">
-        <v>1783200</v>
+        <v>1821600</v>
       </c>
       <c r="G60" s="3">
-        <v>1334400</v>
+        <v>1723500</v>
       </c>
       <c r="H60" s="3">
-        <v>1118800</v>
+        <v>1289800</v>
       </c>
       <c r="I60" s="3">
-        <v>954500</v>
+        <v>1081400</v>
       </c>
       <c r="J60" s="3">
+        <v>922500</v>
+      </c>
+      <c r="K60" s="3">
         <v>987300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>913300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1012900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1288700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1194400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1348600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1803800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1380400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1566500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1965500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1675500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1440600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1403100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1382100</v>
+        <v>1422300</v>
       </c>
       <c r="E61" s="3">
-        <v>1482400</v>
+        <v>1335900</v>
       </c>
       <c r="F61" s="3">
-        <v>1374900</v>
+        <v>1432800</v>
       </c>
       <c r="G61" s="3">
-        <v>1543600</v>
+        <v>1328900</v>
       </c>
       <c r="H61" s="3">
-        <v>1776800</v>
+        <v>1491900</v>
       </c>
       <c r="I61" s="3">
-        <v>1808600</v>
+        <v>1717400</v>
       </c>
       <c r="J61" s="3">
+        <v>1748100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1886800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1753500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1515500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1463500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1474900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1229000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1452700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1826700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1900700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1602200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1672600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1530600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1546800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1762800</v>
+        <v>1807700</v>
       </c>
       <c r="E62" s="3">
-        <v>1742800</v>
+        <v>1703800</v>
       </c>
       <c r="F62" s="3">
-        <v>1742800</v>
+        <v>1684500</v>
       </c>
       <c r="G62" s="3">
-        <v>1684100</v>
+        <v>1684500</v>
       </c>
       <c r="H62" s="3">
-        <v>1665000</v>
+        <v>1627800</v>
       </c>
       <c r="I62" s="3">
-        <v>966200</v>
+        <v>1609300</v>
       </c>
       <c r="J62" s="3">
+        <v>933900</v>
+      </c>
+      <c r="K62" s="3">
         <v>951800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>884400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>842400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>882700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>826200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>830400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1016700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>969300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1058400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1005900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>903700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>885000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>848300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5024800</v>
+        <v>5046700</v>
       </c>
       <c r="E66" s="3">
-        <v>5165400</v>
+        <v>4856600</v>
       </c>
       <c r="F66" s="3">
-        <v>4954700</v>
+        <v>4992600</v>
       </c>
       <c r="G66" s="3">
-        <v>4612400</v>
+        <v>4788900</v>
       </c>
       <c r="H66" s="3">
-        <v>4611800</v>
+        <v>4458100</v>
       </c>
       <c r="I66" s="3">
-        <v>3792900</v>
+        <v>4457500</v>
       </c>
       <c r="J66" s="3">
+        <v>3666000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3889800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3615300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3424300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3692500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3549700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3464800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4345500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4248800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4603200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4639800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4320100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3919800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3863800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1673100</v>
+        <v>1873600</v>
       </c>
       <c r="E72" s="3">
-        <v>1495500</v>
+        <v>1617100</v>
       </c>
       <c r="F72" s="3">
-        <v>1348000</v>
+        <v>1445500</v>
       </c>
       <c r="G72" s="3">
-        <v>1608900</v>
+        <v>1302900</v>
       </c>
       <c r="H72" s="3">
-        <v>1479800</v>
+        <v>1555000</v>
       </c>
       <c r="I72" s="3">
-        <v>1180000</v>
+        <v>1430200</v>
       </c>
       <c r="J72" s="3">
+        <v>1140500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1082400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1109600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>943300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1469300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1309000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1383000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1658700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1573800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1641400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1692200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1582700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1547600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1445100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3725700</v>
+        <v>3849600</v>
       </c>
       <c r="E76" s="3">
-        <v>3553200</v>
+        <v>3601000</v>
       </c>
       <c r="F76" s="3">
-        <v>3686400</v>
+        <v>3434300</v>
       </c>
       <c r="G76" s="3">
-        <v>3704600</v>
+        <v>3563100</v>
       </c>
       <c r="H76" s="3">
-        <v>3578200</v>
+        <v>3580600</v>
       </c>
       <c r="I76" s="3">
-        <v>3281100</v>
+        <v>3458400</v>
       </c>
       <c r="J76" s="3">
+        <v>3171400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3186500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3273600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2989000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3093400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2860300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3002300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3706200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3625200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3899000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3963500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3858200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3754600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3655100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>175500</v>
+        <v>505100</v>
       </c>
       <c r="E81" s="3">
-        <v>145100</v>
+        <v>169600</v>
       </c>
       <c r="F81" s="3">
-        <v>202900</v>
+        <v>140300</v>
       </c>
       <c r="G81" s="3">
-        <v>126600</v>
+        <v>196100</v>
       </c>
       <c r="H81" s="3">
-        <v>297000</v>
+        <v>122400</v>
       </c>
       <c r="I81" s="3">
-        <v>94600</v>
+        <v>287100</v>
       </c>
       <c r="J81" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K81" s="3">
         <v>105500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>150000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>93200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>66500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>104900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-52400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="E83" s="3">
-        <v>47500</v>
+        <v>45400</v>
       </c>
       <c r="F83" s="3">
-        <v>49500</v>
+        <v>45900</v>
       </c>
       <c r="G83" s="3">
-        <v>32600</v>
+        <v>47800</v>
       </c>
       <c r="H83" s="3">
-        <v>51700</v>
+        <v>31500</v>
       </c>
       <c r="I83" s="3">
-        <v>52700</v>
+        <v>50000</v>
       </c>
       <c r="J83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K83" s="3">
         <v>65500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>34700</v>
       </c>
       <c r="O83" s="3">
         <v>34700</v>
       </c>
       <c r="P83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>44400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>46700</v>
       </c>
       <c r="S83" s="3">
         <v>46700</v>
       </c>
       <c r="T83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="U83" s="3">
         <v>47200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>45400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>89500</v>
+        <v>345900</v>
       </c>
       <c r="E89" s="3">
-        <v>96700</v>
+        <v>86500</v>
       </c>
       <c r="F89" s="3">
-        <v>121700</v>
+        <v>93500</v>
       </c>
       <c r="G89" s="3">
-        <v>265700</v>
+        <v>117600</v>
       </c>
       <c r="H89" s="3">
-        <v>187100</v>
+        <v>256800</v>
       </c>
       <c r="I89" s="3">
-        <v>153400</v>
+        <v>180800</v>
       </c>
       <c r="J89" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K89" s="3">
         <v>158700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>245300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>150300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>149800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-50000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>156000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>106000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-13000</v>
-      </c>
       <c r="I91" s="3">
-        <v>-19600</v>
+        <v>-12500</v>
       </c>
       <c r="J91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-30100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-117500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-115900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-94000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-90500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-695800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67300</v>
+        <v>348200</v>
       </c>
       <c r="E94" s="3">
-        <v>-79900</v>
+        <v>-65000</v>
       </c>
       <c r="F94" s="3">
-        <v>-96600</v>
+        <v>-77200</v>
       </c>
       <c r="G94" s="3">
-        <v>-72500</v>
+        <v>-93400</v>
       </c>
       <c r="H94" s="3">
-        <v>-76000</v>
+        <v>-70100</v>
       </c>
       <c r="I94" s="3">
-        <v>-62900</v>
+        <v>-73400</v>
       </c>
       <c r="J94" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-137000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-120900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-102600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-105600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-144800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-98900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-148600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-231100</v>
+        <v>-213500</v>
       </c>
       <c r="E96" s="3">
+        <v>-223300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-800</v>
       </c>
-      <c r="F96" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G96" s="3">
-        <v>-54900</v>
+        <v>-5700</v>
       </c>
       <c r="H96" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-53000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-66100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-49800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-77600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-49900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-246600</v>
+        <v>-82900</v>
       </c>
       <c r="E100" s="3">
-        <v>-71200</v>
+        <v>-238300</v>
       </c>
       <c r="F100" s="3">
-        <v>-85900</v>
+        <v>-68800</v>
       </c>
       <c r="G100" s="3">
-        <v>-21900</v>
+        <v>-83000</v>
       </c>
       <c r="H100" s="3">
-        <v>-132000</v>
+        <v>-21200</v>
       </c>
       <c r="I100" s="3">
-        <v>-77000</v>
+        <v>-127500</v>
       </c>
       <c r="J100" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="K100" s="3">
         <v>114300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-115700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>285200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>106400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>34800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>37100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>111500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-224400</v>
+        <v>611200</v>
       </c>
       <c r="E102" s="3">
-        <v>-54300</v>
+        <v>-216900</v>
       </c>
       <c r="F102" s="3">
-        <v>-60900</v>
+        <v>-52500</v>
       </c>
       <c r="G102" s="3">
-        <v>171300</v>
+        <v>-58800</v>
       </c>
       <c r="H102" s="3">
-        <v>-20900</v>
+        <v>165600</v>
       </c>
       <c r="I102" s="3">
-        <v>13500</v>
+        <v>-20200</v>
       </c>
       <c r="J102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K102" s="3">
         <v>169100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>194600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-156600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>153500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-68000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>122600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-108100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1245700</v>
+        <v>1375000</v>
       </c>
       <c r="E8" s="3">
-        <v>968800</v>
+        <v>1069400</v>
       </c>
       <c r="F8" s="3">
-        <v>890100</v>
+        <v>982500</v>
       </c>
       <c r="G8" s="3">
-        <v>1009600</v>
+        <v>1114400</v>
       </c>
       <c r="H8" s="3">
-        <v>773000</v>
+        <v>853200</v>
       </c>
       <c r="I8" s="3">
-        <v>817900</v>
+        <v>902900</v>
       </c>
       <c r="J8" s="3">
-        <v>726000</v>
+        <v>801400</v>
       </c>
       <c r="K8" s="3">
         <v>798600</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1045200</v>
+        <v>1153800</v>
       </c>
       <c r="E9" s="3">
-        <v>710800</v>
+        <v>784600</v>
       </c>
       <c r="F9" s="3">
-        <v>664700</v>
+        <v>733700</v>
       </c>
       <c r="G9" s="3">
-        <v>794500</v>
+        <v>877000</v>
       </c>
       <c r="H9" s="3">
-        <v>557800</v>
+        <v>615700</v>
       </c>
       <c r="I9" s="3">
-        <v>503800</v>
+        <v>556100</v>
       </c>
       <c r="J9" s="3">
-        <v>526700</v>
+        <v>581400</v>
       </c>
       <c r="K9" s="3">
         <v>599500</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200400</v>
+        <v>221300</v>
       </c>
       <c r="E10" s="3">
-        <v>258000</v>
+        <v>284800</v>
       </c>
       <c r="F10" s="3">
-        <v>225400</v>
+        <v>248800</v>
       </c>
       <c r="G10" s="3">
-        <v>215000</v>
+        <v>237400</v>
       </c>
       <c r="H10" s="3">
-        <v>215200</v>
+        <v>237500</v>
       </c>
       <c r="I10" s="3">
-        <v>314100</v>
+        <v>346700</v>
       </c>
       <c r="J10" s="3">
-        <v>199300</v>
+        <v>220000</v>
       </c>
       <c r="K10" s="3">
         <v>199100</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="E15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
-      <c r="G15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>798300</v>
+        <v>881200</v>
       </c>
       <c r="E17" s="3">
-        <v>744000</v>
+        <v>821200</v>
       </c>
       <c r="F17" s="3">
-        <v>703300</v>
+        <v>776300</v>
       </c>
       <c r="G17" s="3">
-        <v>823800</v>
+        <v>909300</v>
       </c>
       <c r="H17" s="3">
-        <v>614400</v>
+        <v>678300</v>
       </c>
       <c r="I17" s="3">
-        <v>554100</v>
+        <v>611600</v>
       </c>
       <c r="J17" s="3">
-        <v>574800</v>
+        <v>634500</v>
       </c>
       <c r="K17" s="3">
         <v>657800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>447400</v>
+        <v>493900</v>
       </c>
       <c r="E18" s="3">
-        <v>224900</v>
+        <v>248200</v>
       </c>
       <c r="F18" s="3">
-        <v>186800</v>
+        <v>206200</v>
       </c>
       <c r="G18" s="3">
-        <v>185800</v>
+        <v>205100</v>
       </c>
       <c r="H18" s="3">
-        <v>158500</v>
+        <v>175000</v>
       </c>
       <c r="I18" s="3">
-        <v>263800</v>
+        <v>291200</v>
       </c>
       <c r="J18" s="3">
-        <v>151200</v>
+        <v>166900</v>
       </c>
       <c r="K18" s="3">
         <v>140800</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="E20" s="3">
-        <v>25900</v>
+        <v>28600</v>
       </c>
       <c r="F20" s="3">
-        <v>26000</v>
+        <v>28700</v>
       </c>
       <c r="G20" s="3">
-        <v>25600</v>
+        <v>28300</v>
       </c>
       <c r="H20" s="3">
-        <v>55500</v>
+        <v>61200</v>
       </c>
       <c r="I20" s="3">
-        <v>243300</v>
+        <v>268600</v>
       </c>
       <c r="J20" s="3">
-        <v>60400</v>
+        <v>66700</v>
       </c>
       <c r="K20" s="3">
         <v>50600</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>518700</v>
+        <v>572600</v>
       </c>
       <c r="E21" s="3">
-        <v>296200</v>
+        <v>327000</v>
       </c>
       <c r="F21" s="3">
-        <v>258600</v>
+        <v>285500</v>
       </c>
       <c r="G21" s="3">
-        <v>259200</v>
+        <v>286200</v>
       </c>
       <c r="H21" s="3">
-        <v>245500</v>
+        <v>271000</v>
       </c>
       <c r="I21" s="3">
-        <v>557100</v>
+        <v>615000</v>
       </c>
       <c r="J21" s="3">
-        <v>262600</v>
+        <v>289800</v>
       </c>
       <c r="K21" s="3">
         <v>256900</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44200</v>
+        <v>48800</v>
       </c>
       <c r="E22" s="3">
-        <v>24200</v>
+        <v>26800</v>
       </c>
       <c r="F22" s="3">
-        <v>29400</v>
+        <v>32500</v>
       </c>
       <c r="G22" s="3">
-        <v>25900</v>
+        <v>28600</v>
       </c>
       <c r="H22" s="3">
-        <v>47100</v>
+        <v>52000</v>
       </c>
       <c r="I22" s="3">
-        <v>81600</v>
+        <v>90100</v>
       </c>
       <c r="J22" s="3">
-        <v>75500</v>
+        <v>83400</v>
       </c>
       <c r="K22" s="3">
         <v>73000</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>427700</v>
+        <v>472100</v>
       </c>
       <c r="E23" s="3">
-        <v>226500</v>
+        <v>250100</v>
       </c>
       <c r="F23" s="3">
-        <v>183400</v>
+        <v>202400</v>
       </c>
       <c r="G23" s="3">
-        <v>185500</v>
+        <v>204800</v>
       </c>
       <c r="H23" s="3">
-        <v>166900</v>
+        <v>184200</v>
       </c>
       <c r="I23" s="3">
-        <v>425500</v>
+        <v>469700</v>
       </c>
       <c r="J23" s="3">
-        <v>136000</v>
+        <v>150200</v>
       </c>
       <c r="K23" s="3">
         <v>118400</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115900</v>
+        <v>127900</v>
       </c>
       <c r="E24" s="3">
-        <v>55700</v>
+        <v>61500</v>
       </c>
       <c r="F24" s="3">
-        <v>47800</v>
+        <v>52800</v>
       </c>
       <c r="G24" s="3">
-        <v>-8800</v>
+        <v>-9700</v>
       </c>
       <c r="H24" s="3">
-        <v>47600</v>
+        <v>52600</v>
       </c>
       <c r="I24" s="3">
-        <v>144700</v>
+        <v>159700</v>
       </c>
       <c r="J24" s="3">
-        <v>45900</v>
+        <v>50700</v>
       </c>
       <c r="K24" s="3">
         <v>-2900</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>311800</v>
+        <v>344200</v>
       </c>
       <c r="E26" s="3">
-        <v>170800</v>
+        <v>188600</v>
       </c>
       <c r="F26" s="3">
-        <v>135500</v>
+        <v>149600</v>
       </c>
       <c r="G26" s="3">
-        <v>194300</v>
+        <v>214500</v>
       </c>
       <c r="H26" s="3">
-        <v>119300</v>
+        <v>131600</v>
       </c>
       <c r="I26" s="3">
-        <v>280800</v>
+        <v>310000</v>
       </c>
       <c r="J26" s="3">
-        <v>90100</v>
+        <v>99500</v>
       </c>
       <c r="K26" s="3">
         <v>121300</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>307600</v>
+        <v>339600</v>
       </c>
       <c r="E27" s="3">
-        <v>161100</v>
+        <v>177800</v>
       </c>
       <c r="F27" s="3">
-        <v>133900</v>
+        <v>147800</v>
       </c>
       <c r="G27" s="3">
-        <v>189800</v>
+        <v>209500</v>
       </c>
       <c r="H27" s="3">
-        <v>120100</v>
+        <v>132600</v>
       </c>
       <c r="I27" s="3">
-        <v>283200</v>
+        <v>312600</v>
       </c>
       <c r="J27" s="3">
-        <v>90400</v>
+        <v>99700</v>
       </c>
       <c r="K27" s="3">
         <v>116600</v>
@@ -2066,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>197400</v>
+        <v>217900</v>
       </c>
       <c r="E29" s="3">
-        <v>8500</v>
+        <v>9400</v>
       </c>
       <c r="F29" s="3">
-        <v>6400</v>
+        <v>7100</v>
       </c>
       <c r="G29" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="H29" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I29" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="J29" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K29" s="3">
         <v>-11100</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24500</v>
+        <v>-27000</v>
       </c>
       <c r="E32" s="3">
-        <v>-25900</v>
+        <v>-28600</v>
       </c>
       <c r="F32" s="3">
-        <v>-26000</v>
+        <v>-28700</v>
       </c>
       <c r="G32" s="3">
-        <v>-25600</v>
+        <v>-28300</v>
       </c>
       <c r="H32" s="3">
-        <v>-55500</v>
+        <v>-61200</v>
       </c>
       <c r="I32" s="3">
-        <v>-243300</v>
+        <v>-268600</v>
       </c>
       <c r="J32" s="3">
-        <v>-60400</v>
+        <v>-66700</v>
       </c>
       <c r="K32" s="3">
         <v>-50600</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>505100</v>
+        <v>557500</v>
       </c>
       <c r="E33" s="3">
-        <v>169600</v>
+        <v>187200</v>
       </c>
       <c r="F33" s="3">
-        <v>140300</v>
+        <v>154900</v>
       </c>
       <c r="G33" s="3">
-        <v>196100</v>
+        <v>216500</v>
       </c>
       <c r="H33" s="3">
-        <v>122400</v>
+        <v>135100</v>
       </c>
       <c r="I33" s="3">
-        <v>287100</v>
+        <v>316900</v>
       </c>
       <c r="J33" s="3">
-        <v>91500</v>
+        <v>100900</v>
       </c>
       <c r="K33" s="3">
         <v>105500</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>505100</v>
+        <v>557500</v>
       </c>
       <c r="E35" s="3">
-        <v>169600</v>
+        <v>187200</v>
       </c>
       <c r="F35" s="3">
-        <v>140300</v>
+        <v>154900</v>
       </c>
       <c r="G35" s="3">
-        <v>196100</v>
+        <v>216500</v>
       </c>
       <c r="H35" s="3">
-        <v>122400</v>
+        <v>135100</v>
       </c>
       <c r="I35" s="3">
-        <v>287100</v>
+        <v>316900</v>
       </c>
       <c r="J35" s="3">
-        <v>91500</v>
+        <v>100900</v>
       </c>
       <c r="K35" s="3">
         <v>105500</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>866400</v>
+        <v>956400</v>
       </c>
       <c r="E41" s="3">
-        <v>256600</v>
+        <v>283300</v>
       </c>
       <c r="F41" s="3">
-        <v>522000</v>
+        <v>576200</v>
       </c>
       <c r="G41" s="3">
-        <v>575300</v>
+        <v>635100</v>
       </c>
       <c r="H41" s="3">
-        <v>642600</v>
+        <v>709300</v>
       </c>
       <c r="I41" s="3">
-        <v>518100</v>
+        <v>571900</v>
       </c>
       <c r="J41" s="3">
-        <v>538200</v>
+        <v>594100</v>
       </c>
       <c r="K41" s="3">
         <v>543300</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38500</v>
+        <v>42500</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
       </c>
       <c r="F42" s="3">
-        <v>69600</v>
+        <v>76800</v>
       </c>
       <c r="G42" s="3">
-        <v>31200</v>
+        <v>34500</v>
       </c>
       <c r="H42" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="I42" s="3">
-        <v>96000</v>
+        <v>106000</v>
       </c>
       <c r="J42" s="3">
-        <v>55900</v>
+        <v>61700</v>
       </c>
       <c r="K42" s="3">
         <v>66200</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200100</v>
+        <v>1324700</v>
       </c>
       <c r="E43" s="3">
-        <v>1238900</v>
+        <v>1367500</v>
       </c>
       <c r="F43" s="3">
-        <v>1190100</v>
+        <v>1313700</v>
       </c>
       <c r="G43" s="3">
-        <v>1174500</v>
+        <v>1296500</v>
       </c>
       <c r="H43" s="3">
-        <v>915500</v>
+        <v>1010500</v>
       </c>
       <c r="I43" s="3">
-        <v>904900</v>
+        <v>998900</v>
       </c>
       <c r="J43" s="3">
-        <v>787000</v>
+        <v>868700</v>
       </c>
       <c r="K43" s="3">
         <v>820900</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32500</v>
+        <v>35900</v>
       </c>
       <c r="E44" s="3">
-        <v>33500</v>
+        <v>37000</v>
       </c>
       <c r="F44" s="3">
-        <v>28400</v>
+        <v>31400</v>
       </c>
       <c r="G44" s="3">
-        <v>29100</v>
+        <v>32100</v>
       </c>
       <c r="H44" s="3">
-        <v>25900</v>
+        <v>28600</v>
       </c>
       <c r="I44" s="3">
-        <v>26900</v>
+        <v>29700</v>
       </c>
       <c r="J44" s="3">
-        <v>25000</v>
+        <v>27600</v>
       </c>
       <c r="K44" s="3">
         <v>24100</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>283200</v>
+        <v>312700</v>
       </c>
       <c r="F45" s="3">
-        <v>231000</v>
+        <v>255000</v>
       </c>
       <c r="G45" s="3">
-        <v>226300</v>
+        <v>249800</v>
       </c>
       <c r="H45" s="3">
-        <v>216600</v>
+        <v>239000</v>
       </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="J45" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="K45" s="3">
         <v>6200</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2144800</v>
+        <v>2367600</v>
       </c>
       <c r="E46" s="3">
-        <v>1812500</v>
+        <v>2000800</v>
       </c>
       <c r="F46" s="3">
-        <v>2041100</v>
+        <v>2253000</v>
       </c>
       <c r="G46" s="3">
-        <v>2036500</v>
+        <v>2247900</v>
       </c>
       <c r="H46" s="3">
-        <v>1802600</v>
+        <v>1989900</v>
       </c>
       <c r="I46" s="3">
-        <v>1550400</v>
+        <v>1711400</v>
       </c>
       <c r="J46" s="3">
-        <v>1410900</v>
+        <v>1557400</v>
       </c>
       <c r="K46" s="3">
         <v>1460800</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3176300</v>
+        <v>3506200</v>
       </c>
       <c r="E47" s="3">
-        <v>3159300</v>
+        <v>3487400</v>
       </c>
       <c r="F47" s="3">
-        <v>2903000</v>
+        <v>3204500</v>
       </c>
       <c r="G47" s="3">
-        <v>2839000</v>
+        <v>3133800</v>
       </c>
       <c r="H47" s="3">
-        <v>2887700</v>
+        <v>3187600</v>
       </c>
       <c r="I47" s="3">
-        <v>2873700</v>
+        <v>3172100</v>
       </c>
       <c r="J47" s="3">
-        <v>1918900</v>
+        <v>2118100</v>
       </c>
       <c r="K47" s="3">
         <v>1965000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1697200</v>
+        <v>1873500</v>
       </c>
       <c r="E48" s="3">
-        <v>1716400</v>
+        <v>1894600</v>
       </c>
       <c r="F48" s="3">
-        <v>1712200</v>
+        <v>1890100</v>
       </c>
       <c r="G48" s="3">
-        <v>1718900</v>
+        <v>1897400</v>
       </c>
       <c r="H48" s="3">
-        <v>1707300</v>
+        <v>1884600</v>
       </c>
       <c r="I48" s="3">
-        <v>1857000</v>
+        <v>2049800</v>
       </c>
       <c r="J48" s="3">
-        <v>1881000</v>
+        <v>2076400</v>
       </c>
       <c r="K48" s="3">
         <v>1973700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1562400</v>
+        <v>1724700</v>
       </c>
       <c r="E49" s="3">
-        <v>1250600</v>
+        <v>1380400</v>
       </c>
       <c r="F49" s="3">
-        <v>1234300</v>
+        <v>1362500</v>
       </c>
       <c r="G49" s="3">
-        <v>1237000</v>
+        <v>1365500</v>
       </c>
       <c r="H49" s="3">
-        <v>1161100</v>
+        <v>1281700</v>
       </c>
       <c r="I49" s="3">
-        <v>1147900</v>
+        <v>1267100</v>
       </c>
       <c r="J49" s="3">
-        <v>1133900</v>
+        <v>1251700</v>
       </c>
       <c r="K49" s="3">
         <v>1169600</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>315600</v>
+        <v>348300</v>
       </c>
       <c r="E52" s="3">
-        <v>518900</v>
+        <v>572800</v>
       </c>
       <c r="F52" s="3">
-        <v>536300</v>
+        <v>592000</v>
       </c>
       <c r="G52" s="3">
-        <v>520600</v>
+        <v>574700</v>
       </c>
       <c r="H52" s="3">
-        <v>480000</v>
+        <v>529900</v>
       </c>
       <c r="I52" s="3">
-        <v>487100</v>
+        <v>537600</v>
       </c>
       <c r="J52" s="3">
-        <v>492700</v>
+        <v>543800</v>
       </c>
       <c r="K52" s="3">
         <v>507200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8896300</v>
+        <v>9820300</v>
       </c>
       <c r="E54" s="3">
-        <v>8457700</v>
+        <v>9336000</v>
       </c>
       <c r="F54" s="3">
-        <v>8426900</v>
+        <v>9302000</v>
       </c>
       <c r="G54" s="3">
-        <v>8352000</v>
+        <v>9219400</v>
       </c>
       <c r="H54" s="3">
-        <v>8038700</v>
+        <v>8873500</v>
       </c>
       <c r="I54" s="3">
-        <v>7915900</v>
+        <v>8738000</v>
       </c>
       <c r="J54" s="3">
-        <v>6837300</v>
+        <v>7547400</v>
       </c>
       <c r="K54" s="3">
         <v>7076300</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>507800</v>
+        <v>560600</v>
       </c>
       <c r="E57" s="3">
-        <v>393800</v>
+        <v>434700</v>
       </c>
       <c r="F57" s="3">
-        <v>363600</v>
+        <v>401400</v>
       </c>
       <c r="G57" s="3">
-        <v>409000</v>
+        <v>451500</v>
       </c>
       <c r="H57" s="3">
-        <v>259100</v>
+        <v>286100</v>
       </c>
       <c r="I57" s="3">
-        <v>262700</v>
+        <v>290000</v>
       </c>
       <c r="J57" s="3">
-        <v>273700</v>
+        <v>302100</v>
       </c>
       <c r="K57" s="3">
         <v>311300</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>480500</v>
+        <v>530400</v>
       </c>
       <c r="E58" s="3">
-        <v>416900</v>
+        <v>460200</v>
       </c>
       <c r="F58" s="3">
-        <v>323400</v>
+        <v>356900</v>
       </c>
       <c r="G58" s="3">
-        <v>471300</v>
+        <v>520300</v>
       </c>
       <c r="H58" s="3">
-        <v>372600</v>
+        <v>411300</v>
       </c>
       <c r="I58" s="3">
-        <v>228100</v>
+        <v>251800</v>
       </c>
       <c r="J58" s="3">
-        <v>270100</v>
+        <v>298200</v>
       </c>
       <c r="K58" s="3">
         <v>268400</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>765300</v>
+        <v>844800</v>
       </c>
       <c r="E59" s="3">
-        <v>947400</v>
+        <v>1045800</v>
       </c>
       <c r="F59" s="3">
-        <v>1134600</v>
+        <v>1252400</v>
       </c>
       <c r="G59" s="3">
-        <v>843100</v>
+        <v>930700</v>
       </c>
       <c r="H59" s="3">
-        <v>658000</v>
+        <v>726400</v>
       </c>
       <c r="I59" s="3">
-        <v>590600</v>
+        <v>651900</v>
       </c>
       <c r="J59" s="3">
-        <v>378700</v>
+        <v>418100</v>
       </c>
       <c r="K59" s="3">
         <v>407600</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1753700</v>
+        <v>1935800</v>
       </c>
       <c r="E60" s="3">
-        <v>1758200</v>
+        <v>1940800</v>
       </c>
       <c r="F60" s="3">
-        <v>1821600</v>
+        <v>2010800</v>
       </c>
       <c r="G60" s="3">
-        <v>1723500</v>
+        <v>1902500</v>
       </c>
       <c r="H60" s="3">
-        <v>1289800</v>
+        <v>1423700</v>
       </c>
       <c r="I60" s="3">
-        <v>1081400</v>
+        <v>1193700</v>
       </c>
       <c r="J60" s="3">
-        <v>922500</v>
+        <v>1018300</v>
       </c>
       <c r="K60" s="3">
         <v>987300</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1422300</v>
+        <v>1570100</v>
       </c>
       <c r="E61" s="3">
-        <v>1335900</v>
+        <v>1474600</v>
       </c>
       <c r="F61" s="3">
-        <v>1432800</v>
+        <v>1581600</v>
       </c>
       <c r="G61" s="3">
-        <v>1328900</v>
+        <v>1466900</v>
       </c>
       <c r="H61" s="3">
-        <v>1491900</v>
+        <v>1646800</v>
       </c>
       <c r="I61" s="3">
-        <v>1717400</v>
+        <v>1895700</v>
       </c>
       <c r="J61" s="3">
-        <v>1748100</v>
+        <v>1929600</v>
       </c>
       <c r="K61" s="3">
         <v>1886800</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1807700</v>
+        <v>1995400</v>
       </c>
       <c r="E62" s="3">
-        <v>1703800</v>
+        <v>1880700</v>
       </c>
       <c r="F62" s="3">
-        <v>1684500</v>
+        <v>1859400</v>
       </c>
       <c r="G62" s="3">
-        <v>1684500</v>
+        <v>1859400</v>
       </c>
       <c r="H62" s="3">
-        <v>1627800</v>
+        <v>1796800</v>
       </c>
       <c r="I62" s="3">
-        <v>1609300</v>
+        <v>1776400</v>
       </c>
       <c r="J62" s="3">
-        <v>933900</v>
+        <v>1030900</v>
       </c>
       <c r="K62" s="3">
         <v>951800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5046700</v>
+        <v>5570800</v>
       </c>
       <c r="E66" s="3">
-        <v>4856600</v>
+        <v>5361000</v>
       </c>
       <c r="F66" s="3">
-        <v>4992600</v>
+        <v>5511100</v>
       </c>
       <c r="G66" s="3">
-        <v>4788900</v>
+        <v>5286200</v>
       </c>
       <c r="H66" s="3">
-        <v>4458100</v>
+        <v>4921000</v>
       </c>
       <c r="I66" s="3">
-        <v>4457500</v>
+        <v>4920400</v>
       </c>
       <c r="J66" s="3">
-        <v>3666000</v>
+        <v>4046700</v>
       </c>
       <c r="K66" s="3">
         <v>3889800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1873600</v>
+        <v>2068200</v>
       </c>
       <c r="E72" s="3">
-        <v>1617100</v>
+        <v>1785000</v>
       </c>
       <c r="F72" s="3">
-        <v>1445500</v>
+        <v>1595600</v>
       </c>
       <c r="G72" s="3">
-        <v>1302900</v>
+        <v>1438200</v>
       </c>
       <c r="H72" s="3">
-        <v>1555000</v>
+        <v>1716500</v>
       </c>
       <c r="I72" s="3">
-        <v>1430200</v>
+        <v>1578800</v>
       </c>
       <c r="J72" s="3">
-        <v>1140500</v>
+        <v>1259000</v>
       </c>
       <c r="K72" s="3">
         <v>1082400</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3849600</v>
+        <v>4249400</v>
       </c>
       <c r="E76" s="3">
-        <v>3601000</v>
+        <v>3975000</v>
       </c>
       <c r="F76" s="3">
-        <v>3434300</v>
+        <v>3790900</v>
       </c>
       <c r="G76" s="3">
-        <v>3563100</v>
+        <v>3933100</v>
       </c>
       <c r="H76" s="3">
-        <v>3580600</v>
+        <v>3952500</v>
       </c>
       <c r="I76" s="3">
-        <v>3458400</v>
+        <v>3817600</v>
       </c>
       <c r="J76" s="3">
-        <v>3171400</v>
+        <v>3500700</v>
       </c>
       <c r="K76" s="3">
         <v>3186500</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>505100</v>
+        <v>557500</v>
       </c>
       <c r="E81" s="3">
-        <v>169600</v>
+        <v>187200</v>
       </c>
       <c r="F81" s="3">
-        <v>140300</v>
+        <v>154900</v>
       </c>
       <c r="G81" s="3">
-        <v>196100</v>
+        <v>216500</v>
       </c>
       <c r="H81" s="3">
-        <v>122400</v>
+        <v>135100</v>
       </c>
       <c r="I81" s="3">
-        <v>287100</v>
+        <v>316900</v>
       </c>
       <c r="J81" s="3">
-        <v>91500</v>
+        <v>100900</v>
       </c>
       <c r="K81" s="3">
         <v>105500</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>46800</v>
+        <v>51700</v>
       </c>
       <c r="E83" s="3">
-        <v>45400</v>
+        <v>50200</v>
       </c>
       <c r="F83" s="3">
-        <v>45900</v>
+        <v>50600</v>
       </c>
       <c r="G83" s="3">
-        <v>47800</v>
+        <v>52800</v>
       </c>
       <c r="H83" s="3">
-        <v>31500</v>
+        <v>34700</v>
       </c>
       <c r="I83" s="3">
-        <v>50000</v>
+        <v>55200</v>
       </c>
       <c r="J83" s="3">
-        <v>51000</v>
+        <v>56300</v>
       </c>
       <c r="K83" s="3">
         <v>65500</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>345900</v>
+        <v>381800</v>
       </c>
       <c r="E89" s="3">
-        <v>86500</v>
+        <v>95500</v>
       </c>
       <c r="F89" s="3">
-        <v>93500</v>
+        <v>103200</v>
       </c>
       <c r="G89" s="3">
-        <v>117600</v>
+        <v>129800</v>
       </c>
       <c r="H89" s="3">
-        <v>256800</v>
+        <v>283500</v>
       </c>
       <c r="I89" s="3">
-        <v>180800</v>
+        <v>199600</v>
       </c>
       <c r="J89" s="3">
-        <v>148300</v>
+        <v>163700</v>
       </c>
       <c r="K89" s="3">
         <v>158700</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-14700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9200</v>
+        <v>-10200</v>
       </c>
       <c r="G91" s="3">
-        <v>-9500</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
         <v>500</v>
       </c>
       <c r="I91" s="3">
-        <v>-12500</v>
+        <v>-13800</v>
       </c>
       <c r="J91" s="3">
-        <v>-18900</v>
+        <v>-20900</v>
       </c>
       <c r="K91" s="3">
         <v>-30100</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>348200</v>
+        <v>384400</v>
       </c>
       <c r="E94" s="3">
-        <v>-65000</v>
+        <v>-71800</v>
       </c>
       <c r="F94" s="3">
-        <v>-77200</v>
+        <v>-85300</v>
       </c>
       <c r="G94" s="3">
-        <v>-93400</v>
+        <v>-103100</v>
       </c>
       <c r="H94" s="3">
-        <v>-70100</v>
+        <v>-77400</v>
       </c>
       <c r="I94" s="3">
-        <v>-73400</v>
+        <v>-81100</v>
       </c>
       <c r="J94" s="3">
-        <v>-60800</v>
+        <v>-67100</v>
       </c>
       <c r="K94" s="3">
         <v>-104000</v>
@@ -6024,22 +6024,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-213500</v>
+        <v>-235600</v>
       </c>
       <c r="E96" s="3">
-        <v>-223300</v>
+        <v>-246500</v>
       </c>
       <c r="F96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>-5700</v>
+        <v>-6300</v>
       </c>
       <c r="H96" s="3">
-        <v>-53100</v>
+        <v>-58600</v>
       </c>
       <c r="I96" s="3">
-        <v>-53000</v>
+        <v>-58500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-82900</v>
+        <v>-91500</v>
       </c>
       <c r="E100" s="3">
-        <v>-238300</v>
+        <v>-263100</v>
       </c>
       <c r="F100" s="3">
-        <v>-68800</v>
+        <v>-75900</v>
       </c>
       <c r="G100" s="3">
-        <v>-83000</v>
+        <v>-91700</v>
       </c>
       <c r="H100" s="3">
-        <v>-21200</v>
+        <v>-23400</v>
       </c>
       <c r="I100" s="3">
-        <v>-127500</v>
+        <v>-140800</v>
       </c>
       <c r="J100" s="3">
-        <v>-74400</v>
+        <v>-82200</v>
       </c>
       <c r="K100" s="3">
         <v>114300</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>611200</v>
+        <v>674700</v>
       </c>
       <c r="E102" s="3">
-        <v>-216900</v>
+        <v>-239400</v>
       </c>
       <c r="F102" s="3">
-        <v>-52500</v>
+        <v>-58000</v>
       </c>
       <c r="G102" s="3">
-        <v>-58800</v>
+        <v>-64900</v>
       </c>
       <c r="H102" s="3">
-        <v>165600</v>
+        <v>182800</v>
       </c>
       <c r="I102" s="3">
-        <v>-20200</v>
+        <v>-22300</v>
       </c>
       <c r="J102" s="3">
-        <v>13100</v>
+        <v>14400</v>
       </c>
       <c r="K102" s="3">
         <v>169100</v>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1375000</v>
+        <v>1088400</v>
       </c>
       <c r="E8" s="3">
-        <v>1069400</v>
+        <v>1284300</v>
       </c>
       <c r="F8" s="3">
-        <v>982500</v>
+        <v>1359100</v>
       </c>
       <c r="G8" s="3">
-        <v>1114400</v>
+        <v>1057100</v>
       </c>
       <c r="H8" s="3">
-        <v>853200</v>
+        <v>971100</v>
       </c>
       <c r="I8" s="3">
+        <v>1101500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>843400</v>
+      </c>
+      <c r="K8" s="3">
         <v>902900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>801400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>798600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>783900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1304300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>729100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>654900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>797300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>842000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>782000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1002600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>934200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>813500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>817900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>817900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1153800</v>
+        <v>813900</v>
       </c>
       <c r="E9" s="3">
-        <v>784600</v>
+        <v>1082900</v>
       </c>
       <c r="F9" s="3">
-        <v>733700</v>
+        <v>1140400</v>
       </c>
       <c r="G9" s="3">
-        <v>877000</v>
+        <v>775600</v>
       </c>
       <c r="H9" s="3">
-        <v>615700</v>
+        <v>725200</v>
       </c>
       <c r="I9" s="3">
+        <v>866900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>608600</v>
+      </c>
+      <c r="K9" s="3">
         <v>556100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>581400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>599500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>543800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>941900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>511000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>510200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>640200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>635600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>574500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>802800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>729000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>627300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>556700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>776200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>221300</v>
+        <v>274400</v>
       </c>
       <c r="E10" s="3">
-        <v>284800</v>
+        <v>201400</v>
       </c>
       <c r="F10" s="3">
-        <v>248800</v>
+        <v>218700</v>
       </c>
       <c r="G10" s="3">
-        <v>237400</v>
+        <v>281500</v>
       </c>
       <c r="H10" s="3">
-        <v>237500</v>
+        <v>245900</v>
       </c>
       <c r="I10" s="3">
+        <v>234600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>234800</v>
+      </c>
+      <c r="K10" s="3">
         <v>346700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>220000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>199100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>240100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>362400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>218100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>144700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>157200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>206400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>207500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>199800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>205100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>186200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>261200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>41800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1234,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>5100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>3000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>881200</v>
+        <v>860400</v>
       </c>
       <c r="E17" s="3">
-        <v>821200</v>
+        <v>1160800</v>
       </c>
       <c r="F17" s="3">
-        <v>776300</v>
+        <v>871000</v>
       </c>
       <c r="G17" s="3">
-        <v>909300</v>
+        <v>811700</v>
       </c>
       <c r="H17" s="3">
-        <v>678300</v>
+        <v>767400</v>
       </c>
       <c r="I17" s="3">
+        <v>898800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>670400</v>
+      </c>
+      <c r="K17" s="3">
         <v>611600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>634500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>657800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>588900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1038600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>566400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>554700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>673700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>691200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>640300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>914100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>817300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>679400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>613800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>830600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>493900</v>
+        <v>228000</v>
       </c>
       <c r="E18" s="3">
-        <v>248200</v>
+        <v>123500</v>
       </c>
       <c r="F18" s="3">
-        <v>206200</v>
+        <v>488100</v>
       </c>
       <c r="G18" s="3">
-        <v>205100</v>
+        <v>245300</v>
       </c>
       <c r="H18" s="3">
-        <v>175000</v>
+        <v>203800</v>
       </c>
       <c r="I18" s="3">
+        <v>202700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K18" s="3">
         <v>291200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>166900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>140800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>195000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>265700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>162700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>123600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>150900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>141700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>88500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>116900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>134100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>204200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-12700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="E20" s="3">
-        <v>28600</v>
+        <v>18100</v>
       </c>
       <c r="F20" s="3">
-        <v>28700</v>
+        <v>26700</v>
       </c>
       <c r="G20" s="3">
         <v>28300</v>
       </c>
       <c r="H20" s="3">
-        <v>61200</v>
+        <v>28300</v>
       </c>
       <c r="I20" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K20" s="3">
         <v>268600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>66700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>50600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>58900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>84100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>15400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>15800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>27500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>33500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>35700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>28800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-18800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>572600</v>
+        <v>316600</v>
       </c>
       <c r="E21" s="3">
-        <v>327000</v>
+        <v>201800</v>
       </c>
       <c r="F21" s="3">
-        <v>285500</v>
+        <v>565900</v>
       </c>
       <c r="G21" s="3">
-        <v>286200</v>
+        <v>323200</v>
       </c>
       <c r="H21" s="3">
-        <v>271000</v>
+        <v>282200</v>
       </c>
       <c r="I21" s="3">
+        <v>282900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>267800</v>
+      </c>
+      <c r="K21" s="3">
         <v>615000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>289800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>256900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>301900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>435400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>231400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>150400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>174100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>222800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>216600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>133100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>199300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>179400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>278400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>12300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48800</v>
+        <v>67700</v>
       </c>
       <c r="E22" s="3">
-        <v>26800</v>
+        <v>58500</v>
       </c>
       <c r="F22" s="3">
-        <v>32500</v>
+        <v>48200</v>
       </c>
       <c r="G22" s="3">
-        <v>28600</v>
+        <v>26500</v>
       </c>
       <c r="H22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>90100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>83400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>73000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>82600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>120800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>45400</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="S22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
-        <v>90100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>83400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>73000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>82600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>120800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>45400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>52000</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>49700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>58400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>61300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>65400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>67500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>71300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>472100</v>
+        <v>186500</v>
       </c>
       <c r="E23" s="3">
-        <v>250100</v>
+        <v>83200</v>
       </c>
       <c r="F23" s="3">
+        <v>466600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>247200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>200100</v>
+      </c>
+      <c r="I23" s="3">
         <v>202400</v>
       </c>
-      <c r="G23" s="3">
-        <v>204800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>184200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K23" s="3">
         <v>469700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>150200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>118400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>171200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>228900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>144300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>75700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>126400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>125400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>91300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>66900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>165500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-102700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127900</v>
+        <v>56000</v>
       </c>
       <c r="E24" s="3">
-        <v>61500</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>52800</v>
+        <v>126400</v>
       </c>
       <c r="G24" s="3">
-        <v>-9700</v>
+        <v>60800</v>
       </c>
       <c r="H24" s="3">
-        <v>52600</v>
+        <v>52200</v>
       </c>
       <c r="I24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K24" s="3">
         <v>159700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>50700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>43200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>81600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>49600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>43400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>42300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-15600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>28200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>61900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-36300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>344200</v>
+        <v>130500</v>
       </c>
       <c r="E26" s="3">
-        <v>188600</v>
+        <v>77200</v>
       </c>
       <c r="F26" s="3">
-        <v>149600</v>
+        <v>340200</v>
       </c>
       <c r="G26" s="3">
-        <v>214500</v>
+        <v>186400</v>
       </c>
       <c r="H26" s="3">
-        <v>131600</v>
+        <v>147900</v>
       </c>
       <c r="I26" s="3">
+        <v>212000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K26" s="3">
         <v>310000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>99500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>121300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>147300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>94700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>69700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>79700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>83000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>83100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>34200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>106800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>38700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>103500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-66400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>339600</v>
+        <v>129400</v>
       </c>
       <c r="E27" s="3">
-        <v>177800</v>
+        <v>75500</v>
       </c>
       <c r="F27" s="3">
-        <v>147800</v>
+        <v>335600</v>
       </c>
       <c r="G27" s="3">
-        <v>209500</v>
+        <v>175800</v>
       </c>
       <c r="H27" s="3">
-        <v>132600</v>
+        <v>146100</v>
       </c>
       <c r="I27" s="3">
+        <v>207100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K27" s="3">
         <v>312600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>99700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>116600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>120200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>146300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>93200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>66500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>78600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>81700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>81400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>104900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>35900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>101800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-52400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,50 +2175,56 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>217900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>7100</v>
+        <v>215400</v>
       </c>
       <c r="G29" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I29" s="3">
         <v>6900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>2400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>4300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-11100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-13000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>3700</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27000</v>
+        <v>-26200</v>
       </c>
       <c r="E32" s="3">
-        <v>-28600</v>
+        <v>-18100</v>
       </c>
       <c r="F32" s="3">
-        <v>-28700</v>
+        <v>-26700</v>
       </c>
       <c r="G32" s="3">
         <v>-28300</v>
       </c>
       <c r="H32" s="3">
-        <v>-61200</v>
+        <v>-28300</v>
       </c>
       <c r="I32" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-268600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-66700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-50600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-58900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-84100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-15400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-27500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-33500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-35700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-28800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>18800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>557500</v>
+        <v>129400</v>
       </c>
       <c r="E33" s="3">
-        <v>187200</v>
+        <v>75500</v>
       </c>
       <c r="F33" s="3">
-        <v>154900</v>
+        <v>551100</v>
       </c>
       <c r="G33" s="3">
-        <v>216500</v>
+        <v>185000</v>
       </c>
       <c r="H33" s="3">
-        <v>135100</v>
+        <v>153100</v>
       </c>
       <c r="I33" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K33" s="3">
         <v>316900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>105500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>107200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>150000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>93200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>66500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>78600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>81700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>81400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>104900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>35900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>101800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-52400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>557500</v>
+        <v>129400</v>
       </c>
       <c r="E35" s="3">
-        <v>187200</v>
+        <v>75500</v>
       </c>
       <c r="F35" s="3">
-        <v>154900</v>
+        <v>551100</v>
       </c>
       <c r="G35" s="3">
-        <v>216500</v>
+        <v>185000</v>
       </c>
       <c r="H35" s="3">
-        <v>135100</v>
+        <v>153100</v>
       </c>
       <c r="I35" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K35" s="3">
         <v>316900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>105500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>107200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>150000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>93200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>66500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>78600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>81700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>81400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>104900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>35900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>101800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-52400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>956400</v>
+        <v>773500</v>
       </c>
       <c r="E41" s="3">
-        <v>283300</v>
+        <v>676400</v>
       </c>
       <c r="F41" s="3">
-        <v>576200</v>
+        <v>945300</v>
       </c>
       <c r="G41" s="3">
-        <v>635100</v>
+        <v>280000</v>
       </c>
       <c r="H41" s="3">
-        <v>709300</v>
+        <v>569600</v>
       </c>
       <c r="I41" s="3">
+        <v>627700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>701100</v>
+      </c>
+      <c r="K41" s="3">
         <v>571900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>594100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>543300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>380100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>337600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>384400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>347600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>158700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>398000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>396400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>266700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>334700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>365100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>234600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>243600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42500</v>
+        <v>129200</v>
       </c>
       <c r="E42" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>42000</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
-        <v>76800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>34500</v>
-      </c>
       <c r="H42" s="3">
+        <v>75900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J42" s="3">
         <v>2300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>106000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>61700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>66200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>86500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>92800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>106900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>97400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>75800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>78300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>76700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>44300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>38300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>22100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>33900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1324700</v>
+        <v>1370700</v>
       </c>
       <c r="E43" s="3">
-        <v>1367500</v>
+        <v>1376200</v>
       </c>
       <c r="F43" s="3">
-        <v>1313700</v>
+        <v>1309400</v>
       </c>
       <c r="G43" s="3">
-        <v>1296500</v>
+        <v>1351700</v>
       </c>
       <c r="H43" s="3">
-        <v>1010500</v>
+        <v>1298500</v>
       </c>
       <c r="I43" s="3">
+        <v>1281500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>998800</v>
+      </c>
+      <c r="K43" s="3">
         <v>998900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>868700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>820900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>769300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>705600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>741500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>718300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>765200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>897800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>887400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1097100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1115800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>895600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>808500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>731200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35900</v>
+        <v>41300</v>
       </c>
       <c r="E44" s="3">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="F44" s="3">
-        <v>31400</v>
+        <v>35500</v>
       </c>
       <c r="G44" s="3">
-        <v>32100</v>
+        <v>36500</v>
       </c>
       <c r="H44" s="3">
-        <v>28600</v>
+        <v>31000</v>
       </c>
       <c r="I44" s="3">
+        <v>31700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K44" s="3">
         <v>29700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>27600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>24100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>21200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>20700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>21600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>26000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>24400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>28300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>29900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>31000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>31500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>32400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
-        <v>312700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>255000</v>
-      </c>
       <c r="G45" s="3">
-        <v>249800</v>
+        <v>309000</v>
       </c>
       <c r="H45" s="3">
-        <v>239000</v>
+        <v>252000</v>
       </c>
       <c r="I45" s="3">
+        <v>246900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>236300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>18600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>18300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>25400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>25600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>9500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>9400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>10000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2367600</v>
+        <v>2327000</v>
       </c>
       <c r="E46" s="3">
-        <v>2000800</v>
+        <v>2179600</v>
       </c>
       <c r="F46" s="3">
-        <v>2253000</v>
+        <v>2340200</v>
       </c>
       <c r="G46" s="3">
-        <v>2247900</v>
+        <v>1977600</v>
       </c>
       <c r="H46" s="3">
-        <v>1989900</v>
+        <v>2227000</v>
       </c>
       <c r="I46" s="3">
+        <v>2221900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1966800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1711400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1557400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1460800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1265900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1170900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1272600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1191300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1041100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1418100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1403100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1461800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1544300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1315900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1106000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1051200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3506200</v>
+        <v>3332800</v>
       </c>
       <c r="E47" s="3">
-        <v>3487400</v>
+        <v>3328300</v>
       </c>
       <c r="F47" s="3">
-        <v>3204500</v>
+        <v>3465600</v>
       </c>
       <c r="G47" s="3">
-        <v>3133800</v>
+        <v>3447100</v>
       </c>
       <c r="H47" s="3">
-        <v>3187600</v>
+        <v>3167400</v>
       </c>
       <c r="I47" s="3">
+        <v>3097500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3150700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3172100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2118100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1965000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1907700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1719500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1797400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1694600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1658500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1984400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1901700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2179100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2122700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2046500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1961300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1862100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1873500</v>
+        <v>2029500</v>
       </c>
       <c r="E48" s="3">
-        <v>1894600</v>
+        <v>2015400</v>
       </c>
       <c r="F48" s="3">
-        <v>1890100</v>
+        <v>1851800</v>
       </c>
       <c r="G48" s="3">
-        <v>1897400</v>
+        <v>1872700</v>
       </c>
       <c r="H48" s="3">
-        <v>1884600</v>
+        <v>1868200</v>
       </c>
       <c r="I48" s="3">
+        <v>1875500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1862800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2049800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2076400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1973700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2038800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1927700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2037000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1934200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1986900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2438400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2373700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2521700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2477700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2397500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2252800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2235600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1724700</v>
+        <v>1800100</v>
       </c>
       <c r="E49" s="3">
-        <v>1380400</v>
+        <v>1795000</v>
       </c>
       <c r="F49" s="3">
-        <v>1362500</v>
+        <v>1704700</v>
       </c>
       <c r="G49" s="3">
-        <v>1365500</v>
+        <v>1364500</v>
       </c>
       <c r="H49" s="3">
-        <v>1281700</v>
+        <v>1346700</v>
       </c>
       <c r="I49" s="3">
+        <v>1349700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1266800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1267100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1251700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1169600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1173200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1096000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1138200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1075600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1218200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1511800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1509600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1654400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1682400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1672400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1609700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1602600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>348300</v>
+        <v>310100</v>
       </c>
       <c r="E52" s="3">
-        <v>572800</v>
+        <v>330600</v>
       </c>
       <c r="F52" s="3">
-        <v>592000</v>
+        <v>344300</v>
       </c>
       <c r="G52" s="3">
-        <v>574700</v>
+        <v>566100</v>
       </c>
       <c r="H52" s="3">
-        <v>529900</v>
+        <v>585200</v>
       </c>
       <c r="I52" s="3">
+        <v>568000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>523700</v>
+      </c>
+      <c r="K52" s="3">
         <v>537600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>543800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>507200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>503300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>499200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>540700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>514200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>562300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>699000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>685900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>752600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>776100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>746000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>744600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>767400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9820300</v>
+        <v>9799500</v>
       </c>
       <c r="E54" s="3">
-        <v>9336000</v>
+        <v>9648900</v>
       </c>
       <c r="F54" s="3">
-        <v>9302000</v>
+        <v>9706600</v>
       </c>
       <c r="G54" s="3">
-        <v>9219400</v>
+        <v>9228000</v>
       </c>
       <c r="H54" s="3">
-        <v>8873500</v>
+        <v>9194400</v>
       </c>
       <c r="I54" s="3">
+        <v>9112700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8770900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8738000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7547400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7076300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6888900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6413200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6785900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6409900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6467100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8051800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7873900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8502200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8603300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8178300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7674400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7518900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>560600</v>
+        <v>408800</v>
       </c>
       <c r="E57" s="3">
-        <v>434700</v>
+        <v>503600</v>
       </c>
       <c r="F57" s="3">
-        <v>401400</v>
+        <v>554100</v>
       </c>
       <c r="G57" s="3">
-        <v>451500</v>
+        <v>429700</v>
       </c>
       <c r="H57" s="3">
-        <v>286100</v>
+        <v>396800</v>
       </c>
       <c r="I57" s="3">
+        <v>446300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K57" s="3">
         <v>290000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>302100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>311300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>312300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>257200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>286300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>253200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>396600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>390700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>324400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>431600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>557600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>391700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>283700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>311500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>530400</v>
+        <v>614000</v>
       </c>
       <c r="E58" s="3">
-        <v>460200</v>
+        <v>539800</v>
       </c>
       <c r="F58" s="3">
-        <v>356900</v>
+        <v>524300</v>
       </c>
       <c r="G58" s="3">
-        <v>520300</v>
+        <v>454900</v>
       </c>
       <c r="H58" s="3">
-        <v>411300</v>
+        <v>352800</v>
       </c>
       <c r="I58" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>406600</v>
+      </c>
+      <c r="K58" s="3">
         <v>251800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>298200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>268400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>317900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>488100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>671000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>588400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>611700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>925600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>600500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>619600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>840300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>755800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>681600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>645500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>844800</v>
+        <v>594700</v>
       </c>
       <c r="E59" s="3">
-        <v>1045800</v>
+        <v>510900</v>
       </c>
       <c r="F59" s="3">
-        <v>1252400</v>
+        <v>835100</v>
       </c>
       <c r="G59" s="3">
-        <v>930700</v>
+        <v>1033700</v>
       </c>
       <c r="H59" s="3">
-        <v>726400</v>
+        <v>1237900</v>
       </c>
       <c r="I59" s="3">
+        <v>919900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>718000</v>
+      </c>
+      <c r="K59" s="3">
         <v>651900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>418100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>407600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>283000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>267600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>331400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>352900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>340300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>487500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>455500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>515200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>567600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>528000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>475300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>446200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1935800</v>
+        <v>1617600</v>
       </c>
       <c r="E60" s="3">
-        <v>1940800</v>
+        <v>1554300</v>
       </c>
       <c r="F60" s="3">
-        <v>2010800</v>
+        <v>1913400</v>
       </c>
       <c r="G60" s="3">
-        <v>1902500</v>
+        <v>1918300</v>
       </c>
       <c r="H60" s="3">
-        <v>1423700</v>
+        <v>1987500</v>
       </c>
       <c r="I60" s="3">
+        <v>1880500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1407300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1193700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1018300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>987300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>913300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1012900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1288700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1194400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1348600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1803800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1380400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1566500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1965500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1675500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1440600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1403100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1570100</v>
+        <v>1736400</v>
       </c>
       <c r="E61" s="3">
-        <v>1474600</v>
+        <v>1805100</v>
       </c>
       <c r="F61" s="3">
-        <v>1581600</v>
+        <v>1551900</v>
       </c>
       <c r="G61" s="3">
-        <v>1466900</v>
+        <v>1457500</v>
       </c>
       <c r="H61" s="3">
-        <v>1646800</v>
+        <v>1563300</v>
       </c>
       <c r="I61" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1895700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1929600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1886800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1753500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1515500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1463500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1474900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1229000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1452700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1826700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1900700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1602200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1672600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1530600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1546800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1995400</v>
+        <v>1996500</v>
       </c>
       <c r="E62" s="3">
-        <v>1880700</v>
+        <v>1970200</v>
       </c>
       <c r="F62" s="3">
-        <v>1859400</v>
+        <v>1972300</v>
       </c>
       <c r="G62" s="3">
-        <v>1859400</v>
+        <v>1859000</v>
       </c>
       <c r="H62" s="3">
-        <v>1796800</v>
+        <v>1837900</v>
       </c>
       <c r="I62" s="3">
+        <v>1837900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1776400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1030900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>951800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>884400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>842400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>882700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>826200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>830400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1016700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>969300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1058400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1005900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>903700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>885000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>848300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5570800</v>
+        <v>5416700</v>
       </c>
       <c r="E66" s="3">
-        <v>5361000</v>
+        <v>5395500</v>
       </c>
       <c r="F66" s="3">
-        <v>5511100</v>
+        <v>5506400</v>
       </c>
       <c r="G66" s="3">
-        <v>5286200</v>
+        <v>5299000</v>
       </c>
       <c r="H66" s="3">
-        <v>4921000</v>
+        <v>5447300</v>
       </c>
       <c r="I66" s="3">
+        <v>5225100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4864100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4920400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4046700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3889800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3615300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3424300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3692500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3549700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3464800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4345500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4248800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4603200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4639800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4320100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3919800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3863800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2068200</v>
+        <v>1931800</v>
       </c>
       <c r="E72" s="3">
-        <v>1785000</v>
+        <v>1800200</v>
       </c>
       <c r="F72" s="3">
-        <v>1595600</v>
+        <v>2044300</v>
       </c>
       <c r="G72" s="3">
-        <v>1438200</v>
+        <v>1764400</v>
       </c>
       <c r="H72" s="3">
-        <v>1716500</v>
+        <v>1577100</v>
       </c>
       <c r="I72" s="3">
+        <v>1421600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1696700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1578800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1259000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1082400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1109600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>943300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1469300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1309000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1383000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1658700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1573800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1641400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1692200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1582700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1547600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1445100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4249400</v>
+        <v>4382800</v>
       </c>
       <c r="E76" s="3">
-        <v>3975000</v>
+        <v>4253400</v>
       </c>
       <c r="F76" s="3">
-        <v>3790900</v>
+        <v>4200300</v>
       </c>
       <c r="G76" s="3">
-        <v>3933100</v>
+        <v>3929000</v>
       </c>
       <c r="H76" s="3">
-        <v>3952500</v>
+        <v>3747100</v>
       </c>
       <c r="I76" s="3">
+        <v>3887600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3906800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3817600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3500700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3186500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3273600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2989000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3093400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2860300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3002300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3706200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3625200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3899000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3963500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3858200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3754600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3655100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>557500</v>
+        <v>129400</v>
       </c>
       <c r="E81" s="3">
-        <v>187200</v>
+        <v>75500</v>
       </c>
       <c r="F81" s="3">
-        <v>154900</v>
+        <v>551100</v>
       </c>
       <c r="G81" s="3">
-        <v>216500</v>
+        <v>185000</v>
       </c>
       <c r="H81" s="3">
-        <v>135100</v>
+        <v>153100</v>
       </c>
       <c r="I81" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K81" s="3">
         <v>316900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>105500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>107200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>150000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>93200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>66500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>78600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>81700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>81400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>104900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>35900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>101800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-52400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51700</v>
+        <v>62400</v>
       </c>
       <c r="E83" s="3">
-        <v>50200</v>
+        <v>60100</v>
       </c>
       <c r="F83" s="3">
-        <v>50600</v>
+        <v>51100</v>
       </c>
       <c r="G83" s="3">
-        <v>52800</v>
+        <v>49600</v>
       </c>
       <c r="H83" s="3">
+        <v>50100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>55200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>65500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>85600</v>
+      </c>
+      <c r="P83" s="3">
+        <v>41700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>34700</v>
       </c>
-      <c r="I83" s="3">
-        <v>55200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>56300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>65500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>85600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>41700</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>34700</v>
       </c>
-      <c r="P83" s="3">
-        <v>34700</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>44400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>46700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>46700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>47200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>45400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>43700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>381800</v>
+        <v>230500</v>
       </c>
       <c r="E89" s="3">
-        <v>95500</v>
+        <v>85900</v>
       </c>
       <c r="F89" s="3">
-        <v>103200</v>
+        <v>377400</v>
       </c>
       <c r="G89" s="3">
-        <v>129800</v>
+        <v>94400</v>
       </c>
       <c r="H89" s="3">
-        <v>283500</v>
+        <v>102000</v>
       </c>
       <c r="I89" s="3">
+        <v>128300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>280200</v>
+      </c>
+      <c r="K89" s="3">
         <v>199600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>163700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>158700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>131400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>245300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>150300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>50300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>160800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>149800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-50000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>38100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>156000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>106000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>39800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14700</v>
+        <v>-33300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600</v>
+        <v>-38800</v>
       </c>
       <c r="F91" s="3">
-        <v>-10200</v>
+        <v>-14500</v>
       </c>
       <c r="G91" s="3">
-        <v>-10400</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="J91" s="3">
         <v>500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-30100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-48200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-52200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-78800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-117500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-115900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-48500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-94000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-90500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-695800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>384400</v>
+        <v>-104000</v>
       </c>
       <c r="E94" s="3">
-        <v>-71800</v>
+        <v>-218500</v>
       </c>
       <c r="F94" s="3">
-        <v>-85300</v>
+        <v>380000</v>
       </c>
       <c r="G94" s="3">
-        <v>-103100</v>
+        <v>-71000</v>
       </c>
       <c r="H94" s="3">
-        <v>-77400</v>
+        <v>-84300</v>
       </c>
       <c r="I94" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-81100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-67100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-104000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-61400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-137000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-68000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-120900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-99500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-115400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-102600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-52800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-105600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-144800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-98900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-148600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-235600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-246500</v>
+        <v>-277200</v>
       </c>
       <c r="F96" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-243700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-58600</v>
-      </c>
       <c r="I96" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-58500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-66100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-3300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-77600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-49900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-2400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-91500</v>
+        <v>-29500</v>
       </c>
       <c r="E100" s="3">
-        <v>-263100</v>
+        <v>-136300</v>
       </c>
       <c r="F100" s="3">
-        <v>-75900</v>
+        <v>-90400</v>
       </c>
       <c r="G100" s="3">
-        <v>-91700</v>
+        <v>-260100</v>
       </c>
       <c r="H100" s="3">
-        <v>-23400</v>
+        <v>-75000</v>
       </c>
       <c r="I100" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-140800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-82200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>114300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-47600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-115700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-62600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>285200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-43800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>106400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>34800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>37100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>111500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-16200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>674700</v>
+        <v>97000</v>
       </c>
       <c r="E102" s="3">
-        <v>-239400</v>
+        <v>-268900</v>
       </c>
       <c r="F102" s="3">
-        <v>-58000</v>
+        <v>666900</v>
       </c>
       <c r="G102" s="3">
-        <v>-64900</v>
+        <v>-236600</v>
       </c>
       <c r="H102" s="3">
-        <v>182800</v>
+        <v>-57300</v>
       </c>
       <c r="I102" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-22300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>169100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>22400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>19800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>194600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-156600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>153500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-68000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-30400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>122600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-9100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-108100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1088400</v>
+        <v>1029100</v>
       </c>
       <c r="E8" s="3">
-        <v>1284300</v>
+        <v>1093500</v>
       </c>
       <c r="F8" s="3">
-        <v>1359100</v>
+        <v>1290400</v>
       </c>
       <c r="G8" s="3">
-        <v>1057100</v>
+        <v>1365600</v>
       </c>
       <c r="H8" s="3">
-        <v>971100</v>
+        <v>1062100</v>
       </c>
       <c r="I8" s="3">
-        <v>1101500</v>
+        <v>975700</v>
       </c>
       <c r="J8" s="3">
+        <v>1106700</v>
+      </c>
+      <c r="K8" s="3">
         <v>843400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>902900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>801400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>798600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>783900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1304300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>729100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>654900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>797300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>842000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>782000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1002600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>934200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>813500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>817900</v>
       </c>
       <c r="Y8" s="3">
         <v>817900</v>
       </c>
       <c r="Z8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="AA8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>813900</v>
+        <v>774800</v>
       </c>
       <c r="E9" s="3">
-        <v>1082900</v>
+        <v>817800</v>
       </c>
       <c r="F9" s="3">
-        <v>1140400</v>
+        <v>1088000</v>
       </c>
       <c r="G9" s="3">
-        <v>775600</v>
+        <v>1145800</v>
       </c>
       <c r="H9" s="3">
-        <v>725200</v>
+        <v>779200</v>
       </c>
       <c r="I9" s="3">
-        <v>866900</v>
+        <v>728600</v>
       </c>
       <c r="J9" s="3">
+        <v>871000</v>
+      </c>
+      <c r="K9" s="3">
         <v>608600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>556100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>581400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>599500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>543800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>941900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>511000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>510200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>640200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>635600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>574500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>802800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>729000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>627300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>556700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>776200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>274400</v>
+        <v>254300</v>
       </c>
       <c r="E10" s="3">
-        <v>201400</v>
+        <v>275700</v>
       </c>
       <c r="F10" s="3">
-        <v>218700</v>
+        <v>202300</v>
       </c>
       <c r="G10" s="3">
-        <v>281500</v>
+        <v>219700</v>
       </c>
       <c r="H10" s="3">
-        <v>245900</v>
+        <v>282800</v>
       </c>
       <c r="I10" s="3">
-        <v>234600</v>
+        <v>247100</v>
       </c>
       <c r="J10" s="3">
+        <v>235700</v>
+      </c>
+      <c r="K10" s="3">
         <v>234800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>346700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>220000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>199100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>240100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>362400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>144700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>157200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>206400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>207500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>199800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>205100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>186200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>261200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>356600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="E15" s="3">
         <v>3500</v>
       </c>
       <c r="F15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G15" s="3">
         <v>3400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2700</v>
       </c>
       <c r="N15" s="3">
         <v>2700</v>
       </c>
       <c r="O15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P15" s="3">
         <v>5100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>2800</v>
       </c>
       <c r="Z15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>860400</v>
+        <v>1151100</v>
       </c>
       <c r="E17" s="3">
-        <v>1160800</v>
+        <v>864500</v>
       </c>
       <c r="F17" s="3">
-        <v>871000</v>
+        <v>1166300</v>
       </c>
       <c r="G17" s="3">
-        <v>811700</v>
+        <v>875100</v>
       </c>
       <c r="H17" s="3">
-        <v>767400</v>
+        <v>815600</v>
       </c>
       <c r="I17" s="3">
-        <v>898800</v>
+        <v>771000</v>
       </c>
       <c r="J17" s="3">
+        <v>903000</v>
+      </c>
+      <c r="K17" s="3">
         <v>670400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>611600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>634500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>657800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>588900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1038600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>566400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>554700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>673700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>691200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>640300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>914100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>817300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>679400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>613800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>830600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>228000</v>
+        <v>-122000</v>
       </c>
       <c r="E18" s="3">
-        <v>123500</v>
+        <v>229100</v>
       </c>
       <c r="F18" s="3">
-        <v>488100</v>
+        <v>124100</v>
       </c>
       <c r="G18" s="3">
-        <v>245300</v>
+        <v>490400</v>
       </c>
       <c r="H18" s="3">
-        <v>203800</v>
+        <v>246500</v>
       </c>
       <c r="I18" s="3">
-        <v>202700</v>
+        <v>204700</v>
       </c>
       <c r="J18" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K18" s="3">
         <v>172900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>291200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>166900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>140800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>195000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>265700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>123600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>150900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>141700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>116900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>134100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>204200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26200</v>
+        <v>29400</v>
       </c>
       <c r="E20" s="3">
-        <v>18100</v>
+        <v>26300</v>
       </c>
       <c r="F20" s="3">
-        <v>26700</v>
+        <v>18200</v>
       </c>
       <c r="G20" s="3">
-        <v>28300</v>
+        <v>26800</v>
       </c>
       <c r="H20" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="I20" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="J20" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K20" s="3">
         <v>60500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>268600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>66700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>58900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>84100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>33500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>316600</v>
+        <v>-29700</v>
       </c>
       <c r="E21" s="3">
-        <v>201800</v>
+        <v>318100</v>
       </c>
       <c r="F21" s="3">
-        <v>565900</v>
+        <v>202700</v>
       </c>
       <c r="G21" s="3">
-        <v>323200</v>
+        <v>568600</v>
       </c>
       <c r="H21" s="3">
-        <v>282200</v>
+        <v>324700</v>
       </c>
       <c r="I21" s="3">
-        <v>282900</v>
+        <v>283500</v>
       </c>
       <c r="J21" s="3">
+        <v>284200</v>
+      </c>
+      <c r="K21" s="3">
         <v>267800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>615000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>289800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>256900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>301900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>435400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>231400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>174100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>222800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>216600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>133100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>199300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>179400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>278400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67700</v>
+        <v>81700</v>
       </c>
       <c r="E22" s="3">
-        <v>58500</v>
+        <v>68100</v>
       </c>
       <c r="F22" s="3">
-        <v>48200</v>
+        <v>58800</v>
       </c>
       <c r="G22" s="3">
-        <v>26500</v>
+        <v>48500</v>
       </c>
       <c r="H22" s="3">
-        <v>32100</v>
+        <v>26600</v>
       </c>
       <c r="I22" s="3">
-        <v>28300</v>
+        <v>32200</v>
       </c>
       <c r="J22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K22" s="3">
         <v>51400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>82600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>120800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>52000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>58400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>61300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>65400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>67500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>71300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186500</v>
+        <v>-174300</v>
       </c>
       <c r="E23" s="3">
-        <v>83200</v>
+        <v>187300</v>
       </c>
       <c r="F23" s="3">
-        <v>466600</v>
+        <v>83600</v>
       </c>
       <c r="G23" s="3">
-        <v>247200</v>
+        <v>468800</v>
       </c>
       <c r="H23" s="3">
-        <v>200100</v>
+        <v>248300</v>
       </c>
       <c r="I23" s="3">
-        <v>202400</v>
+        <v>201000</v>
       </c>
       <c r="J23" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K23" s="3">
         <v>182100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>469700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>150200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>171200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>228900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>144300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>75700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>126400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>125400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>91300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>165500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-102700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>-72100</v>
       </c>
       <c r="E24" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
-        <v>126400</v>
-      </c>
       <c r="G24" s="3">
-        <v>60800</v>
+        <v>127000</v>
       </c>
       <c r="H24" s="3">
-        <v>52200</v>
+        <v>61100</v>
       </c>
       <c r="I24" s="3">
+        <v>52400</v>
+      </c>
+      <c r="J24" s="3">
         <v>-9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>159700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-15600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>61900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>130500</v>
+        <v>-102200</v>
       </c>
       <c r="E26" s="3">
-        <v>77200</v>
+        <v>131100</v>
       </c>
       <c r="F26" s="3">
-        <v>340200</v>
+        <v>77500</v>
       </c>
       <c r="G26" s="3">
-        <v>186400</v>
+        <v>341800</v>
       </c>
       <c r="H26" s="3">
-        <v>147900</v>
+        <v>187300</v>
       </c>
       <c r="I26" s="3">
-        <v>212000</v>
+        <v>148600</v>
       </c>
       <c r="J26" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K26" s="3">
         <v>130100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>310000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>121300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>106800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>103500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-66400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129400</v>
+        <v>-105000</v>
       </c>
       <c r="E27" s="3">
-        <v>75500</v>
+        <v>130000</v>
       </c>
       <c r="F27" s="3">
-        <v>335600</v>
+        <v>75900</v>
       </c>
       <c r="G27" s="3">
-        <v>175800</v>
+        <v>337200</v>
       </c>
       <c r="H27" s="3">
-        <v>146100</v>
+        <v>176600</v>
       </c>
       <c r="I27" s="3">
-        <v>207100</v>
+        <v>146800</v>
       </c>
       <c r="J27" s="3">
+        <v>208100</v>
+      </c>
+      <c r="K27" s="3">
         <v>131100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>312600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>146300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>93200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>81700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>104900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>35900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>101800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,41 +2254,41 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>215400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>216400</v>
+      </c>
+      <c r="H29" s="3">
         <v>9300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>7000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-11100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-13000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3700</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26200</v>
+        <v>-29400</v>
       </c>
       <c r="E32" s="3">
-        <v>-18100</v>
+        <v>-26300</v>
       </c>
       <c r="F32" s="3">
-        <v>-26700</v>
+        <v>-18200</v>
       </c>
       <c r="G32" s="3">
-        <v>-28300</v>
+        <v>-26800</v>
       </c>
       <c r="H32" s="3">
-        <v>-28300</v>
+        <v>-28400</v>
       </c>
       <c r="I32" s="3">
-        <v>-27900</v>
+        <v>-28500</v>
       </c>
       <c r="J32" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-60500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-268600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-66700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-58900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-84100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-33500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129400</v>
+        <v>-105000</v>
       </c>
       <c r="E33" s="3">
-        <v>75500</v>
+        <v>130000</v>
       </c>
       <c r="F33" s="3">
-        <v>551100</v>
+        <v>75900</v>
       </c>
       <c r="G33" s="3">
-        <v>185000</v>
+        <v>553700</v>
       </c>
       <c r="H33" s="3">
-        <v>153100</v>
+        <v>185900</v>
       </c>
       <c r="I33" s="3">
-        <v>214000</v>
+        <v>153800</v>
       </c>
       <c r="J33" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K33" s="3">
         <v>133500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>316900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>150000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>93200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>78600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>104900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>35900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>101800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129400</v>
+        <v>-105000</v>
       </c>
       <c r="E35" s="3">
-        <v>75500</v>
+        <v>130000</v>
       </c>
       <c r="F35" s="3">
-        <v>551100</v>
+        <v>75900</v>
       </c>
       <c r="G35" s="3">
-        <v>185000</v>
+        <v>553700</v>
       </c>
       <c r="H35" s="3">
-        <v>153100</v>
+        <v>185900</v>
       </c>
       <c r="I35" s="3">
-        <v>214000</v>
+        <v>153800</v>
       </c>
       <c r="J35" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K35" s="3">
         <v>133500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>316900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>150000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>93200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>78600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>104900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>35900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>101800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>773500</v>
+        <v>708100</v>
       </c>
       <c r="E41" s="3">
-        <v>676400</v>
+        <v>777100</v>
       </c>
       <c r="F41" s="3">
-        <v>945300</v>
+        <v>679600</v>
       </c>
       <c r="G41" s="3">
-        <v>280000</v>
+        <v>949800</v>
       </c>
       <c r="H41" s="3">
-        <v>569600</v>
+        <v>281300</v>
       </c>
       <c r="I41" s="3">
-        <v>627700</v>
+        <v>572300</v>
       </c>
       <c r="J41" s="3">
+        <v>630700</v>
+      </c>
+      <c r="K41" s="3">
         <v>701100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>571900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>594100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>543300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>380100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>337600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>384400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>347600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>158700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>398000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>396400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>266700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>334700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>365100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>234600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>243600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>129200</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>77900</v>
+        <v>129800</v>
       </c>
       <c r="F42" s="3">
-        <v>42000</v>
+        <v>78300</v>
       </c>
       <c r="G42" s="3">
+        <v>42200</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
-        <v>75900</v>
-      </c>
       <c r="I42" s="3">
-        <v>34100</v>
+        <v>76300</v>
       </c>
       <c r="J42" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>66200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>92800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>106900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>75800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>78300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>76700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>44300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>33900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1370700</v>
+        <v>1199800</v>
       </c>
       <c r="E43" s="3">
-        <v>1376200</v>
+        <v>1377200</v>
       </c>
       <c r="F43" s="3">
-        <v>1309400</v>
+        <v>1382700</v>
       </c>
       <c r="G43" s="3">
-        <v>1351700</v>
+        <v>1315600</v>
       </c>
       <c r="H43" s="3">
-        <v>1298500</v>
+        <v>1358100</v>
       </c>
       <c r="I43" s="3">
-        <v>1281500</v>
+        <v>1304600</v>
       </c>
       <c r="J43" s="3">
+        <v>1287600</v>
+      </c>
+      <c r="K43" s="3">
         <v>998800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>998900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>868700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>820900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>769300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>705600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>741500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>718300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>765200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>897800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>887400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1097100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1115800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>895600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>808500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>731200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41300</v>
+        <v>40500</v>
       </c>
       <c r="E44" s="3">
-        <v>38500</v>
+        <v>41500</v>
       </c>
       <c r="F44" s="3">
-        <v>35500</v>
+        <v>38700</v>
       </c>
       <c r="G44" s="3">
-        <v>36500</v>
+        <v>35700</v>
       </c>
       <c r="H44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>28300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>29700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>27600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>24100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="S44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="T44" s="3">
+        <v>26000</v>
+      </c>
+      <c r="U44" s="3">
+        <v>24400</v>
+      </c>
+      <c r="V44" s="3">
+        <v>28300</v>
+      </c>
+      <c r="W44" s="3">
+        <v>29900</v>
+      </c>
+      <c r="X44" s="3">
         <v>31000</v>
       </c>
-      <c r="I44" s="3">
-        <v>31700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>28300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>29700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>27600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>24100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>22300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>21100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>21200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>20700</v>
-      </c>
-      <c r="R44" s="3">
-        <v>21600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>26000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>24400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>28300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>29900</v>
-      </c>
-      <c r="W44" s="3">
-        <v>31000</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>31500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>32400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12300</v>
+        <v>18500</v>
       </c>
       <c r="E45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
-        <v>309000</v>
-      </c>
       <c r="H45" s="3">
-        <v>252000</v>
+        <v>310500</v>
       </c>
       <c r="I45" s="3">
-        <v>246900</v>
+        <v>253200</v>
       </c>
       <c r="J45" s="3">
+        <v>248100</v>
+      </c>
+      <c r="K45" s="3">
         <v>236300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2327000</v>
+        <v>1969700</v>
       </c>
       <c r="E46" s="3">
-        <v>2179600</v>
+        <v>2338000</v>
       </c>
       <c r="F46" s="3">
-        <v>2340200</v>
+        <v>2189900</v>
       </c>
       <c r="G46" s="3">
-        <v>1977600</v>
+        <v>2351200</v>
       </c>
       <c r="H46" s="3">
-        <v>2227000</v>
+        <v>1987000</v>
       </c>
       <c r="I46" s="3">
-        <v>2221900</v>
+        <v>2237500</v>
       </c>
       <c r="J46" s="3">
+        <v>2232400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1966800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1711400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1557400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1460800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1265900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1170900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1272600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1191300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1041100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1418100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1403100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1461800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1544300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1315900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1106000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1051200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3332800</v>
+        <v>3368200</v>
       </c>
       <c r="E47" s="3">
-        <v>3328300</v>
+        <v>3348500</v>
       </c>
       <c r="F47" s="3">
-        <v>3465600</v>
+        <v>3344100</v>
       </c>
       <c r="G47" s="3">
-        <v>3447100</v>
+        <v>3482000</v>
       </c>
       <c r="H47" s="3">
-        <v>3167400</v>
+        <v>3463400</v>
       </c>
       <c r="I47" s="3">
-        <v>3097500</v>
+        <v>3182300</v>
       </c>
       <c r="J47" s="3">
+        <v>3112200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3150700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3172100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2118100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1965000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1907700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1719500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1797400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1694600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1658500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1984400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1901700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2179100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2122700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2046500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1961300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1862100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2029500</v>
+        <v>2054300</v>
       </c>
       <c r="E48" s="3">
-        <v>2015400</v>
+        <v>2039100</v>
       </c>
       <c r="F48" s="3">
-        <v>1851800</v>
+        <v>2024900</v>
       </c>
       <c r="G48" s="3">
-        <v>1872700</v>
+        <v>1860600</v>
       </c>
       <c r="H48" s="3">
-        <v>1868200</v>
+        <v>1881600</v>
       </c>
       <c r="I48" s="3">
-        <v>1875500</v>
+        <v>1877000</v>
       </c>
       <c r="J48" s="3">
+        <v>1884400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1862800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2049800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2076400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1973700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2038800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1927700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1934200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1986900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2438400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2373700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2521700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2477700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2397500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2252800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2235600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800100</v>
+        <v>1825600</v>
       </c>
       <c r="E49" s="3">
-        <v>1795000</v>
+        <v>1808600</v>
       </c>
       <c r="F49" s="3">
-        <v>1704700</v>
+        <v>1803500</v>
       </c>
       <c r="G49" s="3">
-        <v>1364500</v>
+        <v>1712800</v>
       </c>
       <c r="H49" s="3">
-        <v>1346700</v>
+        <v>1370900</v>
       </c>
       <c r="I49" s="3">
-        <v>1349700</v>
+        <v>1353100</v>
       </c>
       <c r="J49" s="3">
+        <v>1356100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1266800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1267100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1251700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1169600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1173200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1096000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1138200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1075600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1218200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1511800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1509600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1654400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1682400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1672400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1609700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1602600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310100</v>
+        <v>427000</v>
       </c>
       <c r="E52" s="3">
-        <v>330600</v>
+        <v>311600</v>
       </c>
       <c r="F52" s="3">
-        <v>344300</v>
+        <v>332100</v>
       </c>
       <c r="G52" s="3">
-        <v>566100</v>
+        <v>345900</v>
       </c>
       <c r="H52" s="3">
-        <v>585200</v>
+        <v>568800</v>
       </c>
       <c r="I52" s="3">
-        <v>568000</v>
+        <v>587900</v>
       </c>
       <c r="J52" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K52" s="3">
         <v>523700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>537600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>543800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>507200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>503300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>499200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>540700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>514200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>562300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>699000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>685900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>752600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>776100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>746000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>744600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>767400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9799500</v>
+        <v>9644800</v>
       </c>
       <c r="E54" s="3">
-        <v>9648900</v>
+        <v>9845800</v>
       </c>
       <c r="F54" s="3">
-        <v>9706600</v>
+        <v>9694500</v>
       </c>
       <c r="G54" s="3">
-        <v>9228000</v>
+        <v>9752500</v>
       </c>
       <c r="H54" s="3">
-        <v>9194400</v>
+        <v>9271600</v>
       </c>
       <c r="I54" s="3">
-        <v>9112700</v>
+        <v>9237900</v>
       </c>
       <c r="J54" s="3">
+        <v>9155800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8770900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8738000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7547400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7076300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6888900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6413200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6785900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6409900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6467100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8051800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7873900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8502200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8603300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8178300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7674400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7518900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>408800</v>
+        <v>409200</v>
       </c>
       <c r="E57" s="3">
-        <v>503600</v>
+        <v>410800</v>
       </c>
       <c r="F57" s="3">
-        <v>554100</v>
+        <v>506000</v>
       </c>
       <c r="G57" s="3">
-        <v>429700</v>
+        <v>556700</v>
       </c>
       <c r="H57" s="3">
-        <v>396800</v>
+        <v>431700</v>
       </c>
       <c r="I57" s="3">
-        <v>446300</v>
+        <v>398600</v>
       </c>
       <c r="J57" s="3">
+        <v>448400</v>
+      </c>
+      <c r="K57" s="3">
         <v>282800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>290000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>302100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>311300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>312300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>257200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>286300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>253200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>396600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>390700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>324400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>431600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>557600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>391700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>283700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>311500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>614000</v>
+        <v>519500</v>
       </c>
       <c r="E58" s="3">
-        <v>539800</v>
+        <v>616900</v>
       </c>
       <c r="F58" s="3">
-        <v>524300</v>
+        <v>542400</v>
       </c>
       <c r="G58" s="3">
-        <v>454900</v>
+        <v>526800</v>
       </c>
       <c r="H58" s="3">
-        <v>352800</v>
+        <v>457000</v>
       </c>
       <c r="I58" s="3">
-        <v>514300</v>
+        <v>354500</v>
       </c>
       <c r="J58" s="3">
+        <v>516700</v>
+      </c>
+      <c r="K58" s="3">
         <v>406600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>251800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>298200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>268400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>317900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>488100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>671000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>588400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>611700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>925600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>619600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>840300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>755800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>681600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>645500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>594700</v>
+        <v>535900</v>
       </c>
       <c r="E59" s="3">
-        <v>510900</v>
+        <v>597500</v>
       </c>
       <c r="F59" s="3">
-        <v>835100</v>
+        <v>513300</v>
       </c>
       <c r="G59" s="3">
-        <v>1033700</v>
+        <v>839000</v>
       </c>
       <c r="H59" s="3">
-        <v>1237900</v>
+        <v>1038600</v>
       </c>
       <c r="I59" s="3">
-        <v>919900</v>
+        <v>1243800</v>
       </c>
       <c r="J59" s="3">
+        <v>924300</v>
+      </c>
+      <c r="K59" s="3">
         <v>718000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>651900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>418100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>407600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>267600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>331400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>352900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>340300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>487500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>455500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>515200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>567600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>528000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>475300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>446200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1617600</v>
+        <v>1464600</v>
       </c>
       <c r="E60" s="3">
-        <v>1554300</v>
+        <v>1625200</v>
       </c>
       <c r="F60" s="3">
-        <v>1913400</v>
+        <v>1561700</v>
       </c>
       <c r="G60" s="3">
-        <v>1918300</v>
+        <v>1922500</v>
       </c>
       <c r="H60" s="3">
-        <v>1987500</v>
+        <v>1927400</v>
       </c>
       <c r="I60" s="3">
-        <v>1880500</v>
+        <v>1996900</v>
       </c>
       <c r="J60" s="3">
+        <v>1889400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1407300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1193700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1018300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>987300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>913300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1012900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1288700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1194400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1348600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1803800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1380400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1566500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1965500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1675500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1440600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1403100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1736400</v>
+        <v>2058300</v>
       </c>
       <c r="E61" s="3">
-        <v>1805100</v>
+        <v>1744600</v>
       </c>
       <c r="F61" s="3">
-        <v>1551900</v>
+        <v>1813600</v>
       </c>
       <c r="G61" s="3">
-        <v>1457500</v>
+        <v>1559200</v>
       </c>
       <c r="H61" s="3">
-        <v>1563300</v>
+        <v>1464400</v>
       </c>
       <c r="I61" s="3">
-        <v>1450000</v>
+        <v>1570700</v>
       </c>
       <c r="J61" s="3">
+        <v>1456800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1627800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1895700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1929600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1886800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1753500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1515500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1463500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1474900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1229000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1452700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1826700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1900700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1602200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1672600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1530600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1546800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1996500</v>
+        <v>2022800</v>
       </c>
       <c r="E62" s="3">
-        <v>1970200</v>
+        <v>2006000</v>
       </c>
       <c r="F62" s="3">
-        <v>1972300</v>
+        <v>1979500</v>
       </c>
       <c r="G62" s="3">
-        <v>1859000</v>
+        <v>1981600</v>
       </c>
       <c r="H62" s="3">
-        <v>1837900</v>
+        <v>1867800</v>
       </c>
       <c r="I62" s="3">
-        <v>1837900</v>
+        <v>1846600</v>
       </c>
       <c r="J62" s="3">
+        <v>1846600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1776000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1776400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1030900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>951800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>884400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>842400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>882700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>826200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>830400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1016700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>969300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1058400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1005900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>903700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>885000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>848300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5416700</v>
+        <v>5614200</v>
       </c>
       <c r="E66" s="3">
-        <v>5395500</v>
+        <v>5442300</v>
       </c>
       <c r="F66" s="3">
-        <v>5506400</v>
+        <v>5421000</v>
       </c>
       <c r="G66" s="3">
-        <v>5299000</v>
+        <v>5532400</v>
       </c>
       <c r="H66" s="3">
-        <v>5447300</v>
+        <v>5324000</v>
       </c>
       <c r="I66" s="3">
-        <v>5225100</v>
+        <v>5473100</v>
       </c>
       <c r="J66" s="3">
+        <v>5249800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4864100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4920400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4046700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3889800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3615300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3424300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3692500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3549700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3464800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4345500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4248800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4603200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4639800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4320100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3919800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3863800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1931800</v>
+        <v>1837700</v>
       </c>
       <c r="E72" s="3">
-        <v>1800200</v>
+        <v>1940900</v>
       </c>
       <c r="F72" s="3">
-        <v>2044300</v>
+        <v>1808700</v>
       </c>
       <c r="G72" s="3">
-        <v>1764400</v>
+        <v>2053900</v>
       </c>
       <c r="H72" s="3">
-        <v>1577100</v>
+        <v>1772700</v>
       </c>
       <c r="I72" s="3">
-        <v>1421600</v>
+        <v>1584600</v>
       </c>
       <c r="J72" s="3">
+        <v>1428300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1696700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1578800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1259000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1082400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1109600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>943300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1469300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1309000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1383000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1658700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1573800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1641400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1692200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1582700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1547600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1445100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4382800</v>
+        <v>4030700</v>
       </c>
       <c r="E76" s="3">
-        <v>4253400</v>
+        <v>4403500</v>
       </c>
       <c r="F76" s="3">
-        <v>4200300</v>
+        <v>4273500</v>
       </c>
       <c r="G76" s="3">
-        <v>3929000</v>
+        <v>4220100</v>
       </c>
       <c r="H76" s="3">
-        <v>3747100</v>
+        <v>3947600</v>
       </c>
       <c r="I76" s="3">
-        <v>3887600</v>
+        <v>3764800</v>
       </c>
       <c r="J76" s="3">
+        <v>3906000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3906800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3817600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3500700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3186500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3273600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2989000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3093400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2860300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3002300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3706200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3625200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3899000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3963500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3858200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3754600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3655100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129400</v>
+        <v>-105000</v>
       </c>
       <c r="E81" s="3">
-        <v>75500</v>
+        <v>130000</v>
       </c>
       <c r="F81" s="3">
-        <v>551100</v>
+        <v>75900</v>
       </c>
       <c r="G81" s="3">
-        <v>185000</v>
+        <v>553700</v>
       </c>
       <c r="H81" s="3">
-        <v>153100</v>
+        <v>185900</v>
       </c>
       <c r="I81" s="3">
-        <v>214000</v>
+        <v>153800</v>
       </c>
       <c r="J81" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K81" s="3">
         <v>133500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>316900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>150000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>93200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>78600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>104900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>35900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>101800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="E83" s="3">
-        <v>60100</v>
+        <v>62700</v>
       </c>
       <c r="F83" s="3">
-        <v>51100</v>
+        <v>60400</v>
       </c>
       <c r="G83" s="3">
-        <v>49600</v>
+        <v>51300</v>
       </c>
       <c r="H83" s="3">
-        <v>50100</v>
+        <v>49800</v>
       </c>
       <c r="I83" s="3">
-        <v>52200</v>
+        <v>50300</v>
       </c>
       <c r="J83" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>34700</v>
       </c>
       <c r="R83" s="3">
         <v>34700</v>
       </c>
       <c r="S83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="T83" s="3">
         <v>44400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>46700</v>
       </c>
       <c r="V83" s="3">
         <v>46700</v>
       </c>
       <c r="W83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="X83" s="3">
         <v>47200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>45400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>230500</v>
+        <v>199200</v>
       </c>
       <c r="E89" s="3">
-        <v>85900</v>
+        <v>231600</v>
       </c>
       <c r="F89" s="3">
-        <v>377400</v>
+        <v>86300</v>
       </c>
       <c r="G89" s="3">
-        <v>94400</v>
+        <v>379100</v>
       </c>
       <c r="H89" s="3">
-        <v>102000</v>
+        <v>94800</v>
       </c>
       <c r="I89" s="3">
-        <v>128300</v>
+        <v>102500</v>
       </c>
       <c r="J89" s="3">
+        <v>128900</v>
+      </c>
+      <c r="K89" s="3">
         <v>280200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>199600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>158700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>245300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>150300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>160800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>149800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-50000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>156000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>106000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>39800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33300</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
-        <v>-38800</v>
+        <v>-33400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14500</v>
+        <v>-39000</v>
       </c>
       <c r="G91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-10300</v>
-      </c>
       <c r="J91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K91" s="3">
         <v>500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-52200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-117500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-115900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-94000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-90500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-695800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-219500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>381700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-104000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-218500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>380000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-71000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-84300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-101900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-81100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-67100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-104000</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-137000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-120900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-115400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-102600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-105600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-144800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-98900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-148600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-317700</v>
       </c>
       <c r="E96" s="3">
-        <v>-277200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-232900</v>
+        <v>-278500</v>
       </c>
       <c r="G96" s="3">
-        <v>-243700</v>
+        <v>-234000</v>
       </c>
       <c r="H96" s="3">
+        <v>-244800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-57900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-58500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-66100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-77600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-49900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29500</v>
+        <v>-129200</v>
       </c>
       <c r="E100" s="3">
-        <v>-136300</v>
+        <v>-29600</v>
       </c>
       <c r="F100" s="3">
-        <v>-90400</v>
+        <v>-137000</v>
       </c>
       <c r="G100" s="3">
-        <v>-260100</v>
+        <v>-90800</v>
       </c>
       <c r="H100" s="3">
-        <v>-75000</v>
+        <v>-261300</v>
       </c>
       <c r="I100" s="3">
-        <v>-90600</v>
+        <v>-75400</v>
       </c>
       <c r="J100" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-140800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-82200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>114300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-47600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-115700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>285200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-43800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>106400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>34800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>37100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>111500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>97000</v>
+        <v>-69000</v>
       </c>
       <c r="E102" s="3">
-        <v>-268900</v>
+        <v>97500</v>
       </c>
       <c r="F102" s="3">
-        <v>666900</v>
+        <v>-270100</v>
       </c>
       <c r="G102" s="3">
-        <v>-236600</v>
+        <v>670100</v>
       </c>
       <c r="H102" s="3">
-        <v>-57300</v>
+        <v>-237800</v>
       </c>
       <c r="I102" s="3">
-        <v>-64200</v>
+        <v>-57600</v>
       </c>
       <c r="J102" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K102" s="3">
         <v>180600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>169100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>194600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-156600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>153500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-68000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-30400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>122600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-108100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1029100</v>
+        <v>1020500</v>
       </c>
       <c r="E8" s="3">
-        <v>1093500</v>
+        <v>983800</v>
       </c>
       <c r="F8" s="3">
-        <v>1290400</v>
+        <v>1045400</v>
       </c>
       <c r="G8" s="3">
-        <v>1365600</v>
+        <v>1233600</v>
       </c>
       <c r="H8" s="3">
-        <v>1062100</v>
+        <v>1305500</v>
       </c>
       <c r="I8" s="3">
-        <v>975700</v>
+        <v>1015300</v>
       </c>
       <c r="J8" s="3">
+        <v>932800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1106700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>843400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>902900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>801400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>798600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>783900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1304300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>729100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>654900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>797300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>842000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>782000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1002600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>934200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>813500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>817900</v>
       </c>
       <c r="Z8" s="3">
         <v>817900</v>
       </c>
       <c r="AA8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>774800</v>
+        <v>818300</v>
       </c>
       <c r="E9" s="3">
-        <v>817800</v>
+        <v>740700</v>
       </c>
       <c r="F9" s="3">
-        <v>1088000</v>
+        <v>781800</v>
       </c>
       <c r="G9" s="3">
-        <v>1145800</v>
+        <v>1040200</v>
       </c>
       <c r="H9" s="3">
-        <v>779200</v>
+        <v>1095400</v>
       </c>
       <c r="I9" s="3">
-        <v>728600</v>
+        <v>744900</v>
       </c>
       <c r="J9" s="3">
+        <v>696600</v>
+      </c>
+      <c r="K9" s="3">
         <v>871000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>608600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>556100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>581400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>599500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>543800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>941900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>511000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>510200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>640200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>635600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>574500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>802800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>729000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>627300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>556700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>776200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>254300</v>
+        <v>202200</v>
       </c>
       <c r="E10" s="3">
-        <v>275700</v>
+        <v>243100</v>
       </c>
       <c r="F10" s="3">
-        <v>202300</v>
+        <v>263600</v>
       </c>
       <c r="G10" s="3">
-        <v>219700</v>
+        <v>193400</v>
       </c>
       <c r="H10" s="3">
-        <v>282800</v>
+        <v>210100</v>
       </c>
       <c r="I10" s="3">
-        <v>247100</v>
+        <v>270400</v>
       </c>
       <c r="J10" s="3">
+        <v>236200</v>
+      </c>
+      <c r="K10" s="3">
         <v>235700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>346700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>220000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>199100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>240100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>362400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>218100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>144700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>157200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>206400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>207500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>199800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>205100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>186200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>261200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>356600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>340900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>4400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G15" s="3">
         <v>3400</v>
       </c>
       <c r="H15" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="I15" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2700</v>
       </c>
       <c r="O15" s="3">
         <v>2700</v>
       </c>
       <c r="P15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>2800</v>
       </c>
       <c r="AA15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1151100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>864500</v>
+        <v>1100500</v>
       </c>
       <c r="F17" s="3">
-        <v>1166300</v>
+        <v>826400</v>
       </c>
       <c r="G17" s="3">
-        <v>875100</v>
+        <v>1115000</v>
       </c>
       <c r="H17" s="3">
-        <v>815600</v>
+        <v>836600</v>
       </c>
       <c r="I17" s="3">
-        <v>771000</v>
+        <v>779700</v>
       </c>
       <c r="J17" s="3">
+        <v>737100</v>
+      </c>
+      <c r="K17" s="3">
         <v>903000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>670400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>611600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>634500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>657800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>588900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1038600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>566400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>554700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>673700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>691200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>640300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>914100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>817300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>679400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>613800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>830600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-122000</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>229100</v>
+        <v>-116600</v>
       </c>
       <c r="F18" s="3">
-        <v>124100</v>
+        <v>219000</v>
       </c>
       <c r="G18" s="3">
-        <v>490400</v>
+        <v>118600</v>
       </c>
       <c r="H18" s="3">
-        <v>246500</v>
+        <v>468900</v>
       </c>
       <c r="I18" s="3">
-        <v>204700</v>
+        <v>235600</v>
       </c>
       <c r="J18" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K18" s="3">
         <v>203700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>172900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>291200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>166900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>140800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>195000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>265700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>123600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>150900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>141700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>116900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>134100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>204200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>29400</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>26300</v>
+        <v>28100</v>
       </c>
       <c r="F20" s="3">
-        <v>18200</v>
+        <v>25200</v>
       </c>
       <c r="G20" s="3">
-        <v>26800</v>
+        <v>17400</v>
       </c>
       <c r="H20" s="3">
-        <v>28400</v>
+        <v>25700</v>
       </c>
       <c r="I20" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="J20" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K20" s="3">
         <v>28100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>268600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>66700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>50600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>58900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>84100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>33500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>35700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-29700</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>318100</v>
+        <v>-28400</v>
       </c>
       <c r="F21" s="3">
-        <v>202700</v>
+        <v>304100</v>
       </c>
       <c r="G21" s="3">
-        <v>568600</v>
+        <v>193800</v>
       </c>
       <c r="H21" s="3">
-        <v>324700</v>
+        <v>543600</v>
       </c>
       <c r="I21" s="3">
-        <v>283500</v>
+        <v>310400</v>
       </c>
       <c r="J21" s="3">
+        <v>271000</v>
+      </c>
+      <c r="K21" s="3">
         <v>284200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>267800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>615000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>289800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>256900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>301900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>435400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>231400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>174100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>222800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>216600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>133100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>199300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>179400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>278400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>81700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>68100</v>
+        <v>78100</v>
       </c>
       <c r="F22" s="3">
-        <v>58800</v>
+        <v>65100</v>
       </c>
       <c r="G22" s="3">
-        <v>48500</v>
+        <v>56200</v>
       </c>
       <c r="H22" s="3">
-        <v>26600</v>
+        <v>46300</v>
       </c>
       <c r="I22" s="3">
-        <v>32200</v>
+        <v>25400</v>
       </c>
       <c r="J22" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K22" s="3">
         <v>28400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>73000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>82600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>120800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>52000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>58400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>61300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>65400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>67500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>71300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-174300</v>
+        <v>110100</v>
       </c>
       <c r="E23" s="3">
-        <v>187300</v>
+        <v>-166700</v>
       </c>
       <c r="F23" s="3">
-        <v>83600</v>
+        <v>179100</v>
       </c>
       <c r="G23" s="3">
-        <v>468800</v>
+        <v>79900</v>
       </c>
       <c r="H23" s="3">
-        <v>248300</v>
+        <v>448200</v>
       </c>
       <c r="I23" s="3">
-        <v>201000</v>
+        <v>237400</v>
       </c>
       <c r="J23" s="3">
+        <v>192200</v>
+      </c>
+      <c r="K23" s="3">
         <v>203300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>182100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>469700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>150200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>171200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>228900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>144300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>126400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>125400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>91300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>165500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-102700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-72100</v>
+        <v>39300</v>
       </c>
       <c r="E24" s="3">
-        <v>56300</v>
+        <v>-68900</v>
       </c>
       <c r="F24" s="3">
+        <v>53800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>121400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>58400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>159700</v>
+      </c>
+      <c r="N24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
-        <v>127000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>61100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>52400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>52000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>159700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>50700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>43200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>81600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-15600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>61900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-36300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-102200</v>
+        <v>70800</v>
       </c>
       <c r="E26" s="3">
-        <v>131100</v>
+        <v>-97700</v>
       </c>
       <c r="F26" s="3">
-        <v>77500</v>
+        <v>125300</v>
       </c>
       <c r="G26" s="3">
-        <v>341800</v>
+        <v>74100</v>
       </c>
       <c r="H26" s="3">
-        <v>187300</v>
+        <v>326800</v>
       </c>
       <c r="I26" s="3">
-        <v>148600</v>
+        <v>179000</v>
       </c>
       <c r="J26" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K26" s="3">
         <v>213000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>130100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>310000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>121300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>128000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>147300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>69700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>83100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>106800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>103500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-66400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-105000</v>
+        <v>67900</v>
       </c>
       <c r="E27" s="3">
-        <v>130000</v>
+        <v>-100400</v>
       </c>
       <c r="F27" s="3">
-        <v>75900</v>
+        <v>124300</v>
       </c>
       <c r="G27" s="3">
-        <v>337200</v>
+        <v>72500</v>
       </c>
       <c r="H27" s="3">
-        <v>176600</v>
+        <v>322400</v>
       </c>
       <c r="I27" s="3">
-        <v>146800</v>
+        <v>168800</v>
       </c>
       <c r="J27" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K27" s="3">
         <v>208100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>312600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>146300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>93200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>104900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>35900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>101800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,41 +2318,41 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>216400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>9300</v>
+        <v>206900</v>
       </c>
       <c r="I29" s="3">
-        <v>7000</v>
+        <v>8900</v>
       </c>
       <c r="J29" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K29" s="3">
         <v>6900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>4300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-11100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-13000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3700</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-29400</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-26300</v>
+        <v>-28100</v>
       </c>
       <c r="F32" s="3">
-        <v>-18200</v>
+        <v>-25200</v>
       </c>
       <c r="G32" s="3">
-        <v>-26800</v>
+        <v>-17400</v>
       </c>
       <c r="H32" s="3">
-        <v>-28400</v>
+        <v>-25700</v>
       </c>
       <c r="I32" s="3">
-        <v>-28500</v>
+        <v>-27200</v>
       </c>
       <c r="J32" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-268600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-66700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-50600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-58900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-84100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-33500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-35700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-105000</v>
+        <v>67900</v>
       </c>
       <c r="E33" s="3">
-        <v>130000</v>
+        <v>-100400</v>
       </c>
       <c r="F33" s="3">
-        <v>75900</v>
+        <v>124300</v>
       </c>
       <c r="G33" s="3">
-        <v>553700</v>
+        <v>72500</v>
       </c>
       <c r="H33" s="3">
-        <v>185900</v>
+        <v>529300</v>
       </c>
       <c r="I33" s="3">
-        <v>153800</v>
+        <v>177700</v>
       </c>
       <c r="J33" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K33" s="3">
         <v>215000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>133500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>316900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>150000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>93200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>104900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>35900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>101800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-105000</v>
+        <v>67900</v>
       </c>
       <c r="E35" s="3">
-        <v>130000</v>
+        <v>-100400</v>
       </c>
       <c r="F35" s="3">
-        <v>75900</v>
+        <v>124300</v>
       </c>
       <c r="G35" s="3">
-        <v>553700</v>
+        <v>72500</v>
       </c>
       <c r="H35" s="3">
-        <v>185900</v>
+        <v>529300</v>
       </c>
       <c r="I35" s="3">
-        <v>153800</v>
+        <v>177700</v>
       </c>
       <c r="J35" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K35" s="3">
         <v>215000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>133500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>316900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>150000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>93200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>104900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>35900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>101800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>708100</v>
+        <v>810000</v>
       </c>
       <c r="E41" s="3">
-        <v>777100</v>
+        <v>676900</v>
       </c>
       <c r="F41" s="3">
-        <v>679600</v>
+        <v>742900</v>
       </c>
       <c r="G41" s="3">
-        <v>949800</v>
+        <v>649700</v>
       </c>
       <c r="H41" s="3">
-        <v>281300</v>
+        <v>908000</v>
       </c>
       <c r="I41" s="3">
-        <v>572300</v>
+        <v>269000</v>
       </c>
       <c r="J41" s="3">
+        <v>547100</v>
+      </c>
+      <c r="K41" s="3">
         <v>630700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>701100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>571900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>594100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>543300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>380100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>337600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>384400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>347600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>158700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>398000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>396400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>266700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>334700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>365100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>234600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>243600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="E42" s="3">
-        <v>129800</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
+        <v>124100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>74800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>40300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>34200</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>106000</v>
+      </c>
+      <c r="N42" s="3">
+        <v>61700</v>
+      </c>
+      <c r="O42" s="3">
+        <v>66200</v>
+      </c>
+      <c r="P42" s="3">
+        <v>86500</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>92800</v>
+      </c>
+      <c r="R42" s="3">
+        <v>106900</v>
+      </c>
+      <c r="S42" s="3">
+        <v>97400</v>
+      </c>
+      <c r="T42" s="3">
+        <v>75800</v>
+      </c>
+      <c r="U42" s="3">
         <v>78300</v>
       </c>
-      <c r="G42" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>76300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>34200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L42" s="3">
-        <v>106000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>61700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>66200</v>
-      </c>
-      <c r="O42" s="3">
-        <v>86500</v>
-      </c>
-      <c r="P42" s="3">
-        <v>92800</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>106900</v>
-      </c>
-      <c r="R42" s="3">
-        <v>97400</v>
-      </c>
-      <c r="S42" s="3">
-        <v>75800</v>
-      </c>
-      <c r="T42" s="3">
-        <v>78300</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>76700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>38300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>22100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>33900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1199800</v>
+        <v>1172800</v>
       </c>
       <c r="E43" s="3">
-        <v>1377200</v>
+        <v>1147000</v>
       </c>
       <c r="F43" s="3">
-        <v>1382700</v>
+        <v>1316600</v>
       </c>
       <c r="G43" s="3">
-        <v>1315600</v>
+        <v>1321900</v>
       </c>
       <c r="H43" s="3">
-        <v>1358100</v>
+        <v>1257700</v>
       </c>
       <c r="I43" s="3">
-        <v>1304600</v>
+        <v>1298400</v>
       </c>
       <c r="J43" s="3">
+        <v>1247200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1287600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>998800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>998900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>868700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>820900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>769300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>705600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>741500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>718300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>765200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>897800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>887400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1097100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1115800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>895600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>808500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>731200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40500</v>
+        <v>37600</v>
       </c>
       <c r="E44" s="3">
-        <v>41500</v>
+        <v>38700</v>
       </c>
       <c r="F44" s="3">
-        <v>38700</v>
+        <v>39700</v>
       </c>
       <c r="G44" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="H44" s="3">
-        <v>36700</v>
+        <v>34100</v>
       </c>
       <c r="I44" s="3">
-        <v>31100</v>
+        <v>35100</v>
       </c>
       <c r="J44" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K44" s="3">
         <v>31900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>21200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>24400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>28300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>31000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>31500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>32400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18500</v>
+        <v>10400</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>10500</v>
+        <v>11800</v>
       </c>
       <c r="G45" s="3">
-        <v>8000</v>
+        <v>10100</v>
       </c>
       <c r="H45" s="3">
-        <v>310500</v>
+        <v>7600</v>
       </c>
       <c r="I45" s="3">
-        <v>253200</v>
+        <v>296800</v>
       </c>
       <c r="J45" s="3">
+        <v>242100</v>
+      </c>
+      <c r="K45" s="3">
         <v>248100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>236300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1969700</v>
+        <v>1995000</v>
       </c>
       <c r="E46" s="3">
-        <v>2338000</v>
+        <v>1883100</v>
       </c>
       <c r="F46" s="3">
-        <v>2189900</v>
+        <v>2235100</v>
       </c>
       <c r="G46" s="3">
-        <v>2351200</v>
+        <v>2093500</v>
       </c>
       <c r="H46" s="3">
-        <v>1987000</v>
+        <v>2247800</v>
       </c>
       <c r="I46" s="3">
-        <v>2237500</v>
+        <v>1899500</v>
       </c>
       <c r="J46" s="3">
+        <v>2139100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2232400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1966800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1711400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1557400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1460800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1265900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1170900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1272600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1191300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1041100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1418100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1403100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1461800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1544300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1315900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1106000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1051200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3368200</v>
+        <v>3117300</v>
       </c>
       <c r="E47" s="3">
-        <v>3348500</v>
+        <v>3220000</v>
       </c>
       <c r="F47" s="3">
-        <v>3344100</v>
+        <v>3201200</v>
       </c>
       <c r="G47" s="3">
-        <v>3482000</v>
+        <v>3196900</v>
       </c>
       <c r="H47" s="3">
-        <v>3463400</v>
+        <v>3328800</v>
       </c>
       <c r="I47" s="3">
-        <v>3182300</v>
+        <v>3311000</v>
       </c>
       <c r="J47" s="3">
+        <v>3042300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3112200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3150700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3172100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2118100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1965000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1907700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1719500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1797400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1694600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1658500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1984400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1901700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2179100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2122700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2046500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1961300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1862100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2054300</v>
+        <v>1953300</v>
       </c>
       <c r="E48" s="3">
-        <v>2039100</v>
+        <v>1964000</v>
       </c>
       <c r="F48" s="3">
-        <v>2024900</v>
+        <v>1949400</v>
       </c>
       <c r="G48" s="3">
-        <v>1860600</v>
+        <v>1935900</v>
       </c>
       <c r="H48" s="3">
-        <v>1881600</v>
+        <v>1778700</v>
       </c>
       <c r="I48" s="3">
-        <v>1877000</v>
+        <v>1798800</v>
       </c>
       <c r="J48" s="3">
+        <v>1794400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1884400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1862800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2049800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2076400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1973700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2038800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1927700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2037000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1934200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1986900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2438400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2373700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2521700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2477700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2397500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2252800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2235600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1825600</v>
+        <v>1770700</v>
       </c>
       <c r="E49" s="3">
-        <v>1808600</v>
+        <v>1745300</v>
       </c>
       <c r="F49" s="3">
-        <v>1803500</v>
+        <v>1729000</v>
       </c>
       <c r="G49" s="3">
-        <v>1712800</v>
+        <v>1724100</v>
       </c>
       <c r="H49" s="3">
-        <v>1370900</v>
+        <v>1637400</v>
       </c>
       <c r="I49" s="3">
-        <v>1353100</v>
+        <v>1310600</v>
       </c>
       <c r="J49" s="3">
+        <v>1293500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1356100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1266800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1267100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1251700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1169600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1173200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1096000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1138200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1075600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1218200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1511800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1509600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1654400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1682400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1672400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1609700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1602600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>427000</v>
+        <v>119700</v>
       </c>
       <c r="E52" s="3">
-        <v>311600</v>
+        <v>408200</v>
       </c>
       <c r="F52" s="3">
-        <v>332100</v>
+        <v>297900</v>
       </c>
       <c r="G52" s="3">
-        <v>345900</v>
+        <v>317500</v>
       </c>
       <c r="H52" s="3">
-        <v>568800</v>
+        <v>330700</v>
       </c>
       <c r="I52" s="3">
-        <v>587900</v>
+        <v>543800</v>
       </c>
       <c r="J52" s="3">
+        <v>562100</v>
+      </c>
+      <c r="K52" s="3">
         <v>570700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>523700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>537600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>543800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>507200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>503300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>499200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>540700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>514200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>562300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>699000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>685900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>752600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>776100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>746000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>744600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>767400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9644800</v>
+        <v>9327200</v>
       </c>
       <c r="E54" s="3">
-        <v>9845800</v>
+        <v>9220500</v>
       </c>
       <c r="F54" s="3">
-        <v>9694500</v>
+        <v>9412600</v>
       </c>
       <c r="G54" s="3">
-        <v>9752500</v>
+        <v>9268000</v>
       </c>
       <c r="H54" s="3">
-        <v>9271600</v>
+        <v>9323400</v>
       </c>
       <c r="I54" s="3">
-        <v>9237900</v>
+        <v>8863700</v>
       </c>
       <c r="J54" s="3">
+        <v>8831400</v>
+      </c>
+      <c r="K54" s="3">
         <v>9155800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8770900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8738000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7547400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7076300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6888900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6413200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6785900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6409900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6467100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8051800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7873900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8502200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8603300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8178300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7674400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7518900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>409200</v>
+        <v>388400</v>
       </c>
       <c r="E57" s="3">
-        <v>410800</v>
+        <v>391200</v>
       </c>
       <c r="F57" s="3">
-        <v>506000</v>
+        <v>392700</v>
       </c>
       <c r="G57" s="3">
-        <v>556700</v>
+        <v>483800</v>
       </c>
       <c r="H57" s="3">
-        <v>431700</v>
+        <v>532200</v>
       </c>
       <c r="I57" s="3">
-        <v>398600</v>
+        <v>412700</v>
       </c>
       <c r="J57" s="3">
+        <v>381100</v>
+      </c>
+      <c r="K57" s="3">
         <v>448400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>282800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>290000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>302100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>311300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>312300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>257200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>286300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>253200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>396600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>390700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>324400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>431600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>557600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>391700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>283700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>311500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>519500</v>
+        <v>516800</v>
       </c>
       <c r="E58" s="3">
-        <v>616900</v>
+        <v>496700</v>
       </c>
       <c r="F58" s="3">
-        <v>542400</v>
+        <v>589800</v>
       </c>
       <c r="G58" s="3">
-        <v>526800</v>
+        <v>518500</v>
       </c>
       <c r="H58" s="3">
-        <v>457000</v>
+        <v>503600</v>
       </c>
       <c r="I58" s="3">
-        <v>354500</v>
+        <v>436900</v>
       </c>
       <c r="J58" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K58" s="3">
         <v>516700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>406600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>251800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>298200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>268400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>317900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>488100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>671000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>588400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>611700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>925600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>619600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>840300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>755800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>681600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>645500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>535900</v>
+        <v>433700</v>
       </c>
       <c r="E59" s="3">
-        <v>597500</v>
+        <v>512300</v>
       </c>
       <c r="F59" s="3">
-        <v>513300</v>
+        <v>571300</v>
       </c>
       <c r="G59" s="3">
-        <v>839000</v>
+        <v>490700</v>
       </c>
       <c r="H59" s="3">
-        <v>1038600</v>
+        <v>802100</v>
       </c>
       <c r="I59" s="3">
-        <v>1243800</v>
+        <v>992900</v>
       </c>
       <c r="J59" s="3">
+        <v>1189100</v>
+      </c>
+      <c r="K59" s="3">
         <v>924300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>718000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>651900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>418100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>407600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>267600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>331400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>352900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>340300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>487500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>455500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>515200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>567600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>528000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>475300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>446200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1464600</v>
+        <v>1294000</v>
       </c>
       <c r="E60" s="3">
-        <v>1625200</v>
+        <v>1400200</v>
       </c>
       <c r="F60" s="3">
-        <v>1561700</v>
+        <v>1553700</v>
       </c>
       <c r="G60" s="3">
-        <v>1922500</v>
+        <v>1493000</v>
       </c>
       <c r="H60" s="3">
-        <v>1927400</v>
+        <v>1837900</v>
       </c>
       <c r="I60" s="3">
-        <v>1996900</v>
+        <v>1842600</v>
       </c>
       <c r="J60" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1889400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1407300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1193700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1018300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>987300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>913300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1012900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1288700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1194400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1348600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1803800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1380400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1566500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1965500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1675500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1440600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1403100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2058300</v>
+        <v>2074700</v>
       </c>
       <c r="E61" s="3">
-        <v>1744600</v>
+        <v>1967800</v>
       </c>
       <c r="F61" s="3">
-        <v>1813600</v>
+        <v>1667800</v>
       </c>
       <c r="G61" s="3">
-        <v>1559200</v>
+        <v>1733800</v>
       </c>
       <c r="H61" s="3">
-        <v>1464400</v>
+        <v>1490600</v>
       </c>
       <c r="I61" s="3">
-        <v>1570700</v>
+        <v>1400000</v>
       </c>
       <c r="J61" s="3">
+        <v>1501600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1456800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1627800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1895700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1929600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1886800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1753500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1515500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1463500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1474900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1229000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1452700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1826700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1900700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1602200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1672600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1530600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1546800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2022800</v>
+        <v>1692100</v>
       </c>
       <c r="E62" s="3">
-        <v>2006000</v>
+        <v>1933800</v>
       </c>
       <c r="F62" s="3">
-        <v>1979500</v>
+        <v>1917700</v>
       </c>
       <c r="G62" s="3">
-        <v>1981600</v>
+        <v>1892400</v>
       </c>
       <c r="H62" s="3">
-        <v>1867800</v>
+        <v>1894400</v>
       </c>
       <c r="I62" s="3">
+        <v>1785600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1765400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1846600</v>
       </c>
-      <c r="J62" s="3">
-        <v>1846600</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1776000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1776400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1030900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>951800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>884400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>842400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>882700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>826200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>830400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1016700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>969300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1058400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1005900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>903700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>885000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>848300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5614200</v>
+        <v>5404000</v>
       </c>
       <c r="E66" s="3">
-        <v>5442300</v>
+        <v>5367200</v>
       </c>
       <c r="F66" s="3">
-        <v>5421000</v>
+        <v>5202800</v>
       </c>
       <c r="G66" s="3">
-        <v>5532400</v>
+        <v>5182500</v>
       </c>
       <c r="H66" s="3">
-        <v>5324000</v>
+        <v>5289000</v>
       </c>
       <c r="I66" s="3">
-        <v>5473100</v>
+        <v>5089800</v>
       </c>
       <c r="J66" s="3">
+        <v>5232300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5249800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4864100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4920400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4046700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3889800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3615300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3424300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3692500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3549700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3464800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4345500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4248800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4603200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4639800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4320100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3919800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3863800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1837700</v>
+        <v>1826200</v>
       </c>
       <c r="E72" s="3">
-        <v>1940900</v>
+        <v>1756800</v>
       </c>
       <c r="F72" s="3">
-        <v>1808700</v>
+        <v>1855500</v>
       </c>
       <c r="G72" s="3">
-        <v>2053900</v>
+        <v>1729100</v>
       </c>
       <c r="H72" s="3">
-        <v>1772700</v>
+        <v>1963600</v>
       </c>
       <c r="I72" s="3">
-        <v>1584600</v>
+        <v>1694700</v>
       </c>
       <c r="J72" s="3">
+        <v>1514900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1428300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1696700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1578800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1259000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1082400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1109600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>943300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1469300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1309000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1383000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1658700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1573800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1641400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1692200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1582700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1547600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1445100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4030700</v>
+        <v>3923200</v>
       </c>
       <c r="E76" s="3">
-        <v>4403500</v>
+        <v>3853300</v>
       </c>
       <c r="F76" s="3">
-        <v>4273500</v>
+        <v>4209800</v>
       </c>
       <c r="G76" s="3">
-        <v>4220100</v>
+        <v>4085500</v>
       </c>
       <c r="H76" s="3">
-        <v>3947600</v>
+        <v>4034400</v>
       </c>
       <c r="I76" s="3">
-        <v>3764800</v>
+        <v>3773900</v>
       </c>
       <c r="J76" s="3">
+        <v>3599100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3906000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3906800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3817600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3500700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3186500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3273600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2989000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3093400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2860300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3002300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3706200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3625200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3899000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3963500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3858200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3754600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3655100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-105000</v>
+        <v>67900</v>
       </c>
       <c r="E81" s="3">
-        <v>130000</v>
+        <v>-100400</v>
       </c>
       <c r="F81" s="3">
-        <v>75900</v>
+        <v>124300</v>
       </c>
       <c r="G81" s="3">
-        <v>553700</v>
+        <v>72500</v>
       </c>
       <c r="H81" s="3">
-        <v>185900</v>
+        <v>529300</v>
       </c>
       <c r="I81" s="3">
-        <v>153800</v>
+        <v>177700</v>
       </c>
       <c r="J81" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K81" s="3">
         <v>215000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>133500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>316900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>150000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>93200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>104900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>35900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>101800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62900</v>
+        <v>60300</v>
       </c>
       <c r="E83" s="3">
-        <v>62700</v>
+        <v>60100</v>
       </c>
       <c r="F83" s="3">
-        <v>60400</v>
+        <v>59900</v>
       </c>
       <c r="G83" s="3">
-        <v>51300</v>
+        <v>57800</v>
       </c>
       <c r="H83" s="3">
-        <v>49800</v>
+        <v>49100</v>
       </c>
       <c r="I83" s="3">
-        <v>50300</v>
+        <v>47600</v>
       </c>
       <c r="J83" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K83" s="3">
         <v>52500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>34700</v>
       </c>
       <c r="S83" s="3">
         <v>34700</v>
       </c>
       <c r="T83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="U83" s="3">
         <v>44400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>46700</v>
       </c>
       <c r="W83" s="3">
         <v>46700</v>
       </c>
       <c r="X83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>47200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>45400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>199200</v>
+        <v>190500</v>
       </c>
       <c r="E89" s="3">
-        <v>231600</v>
+        <v>190400</v>
       </c>
       <c r="F89" s="3">
-        <v>86300</v>
+        <v>221400</v>
       </c>
       <c r="G89" s="3">
-        <v>379100</v>
+        <v>82500</v>
       </c>
       <c r="H89" s="3">
-        <v>94800</v>
+        <v>362500</v>
       </c>
       <c r="I89" s="3">
-        <v>102500</v>
+        <v>90700</v>
       </c>
       <c r="J89" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K89" s="3">
         <v>128900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>280200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>199600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>158700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>245300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>150300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>160800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>149800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-50000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>156000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>106000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>39800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35700</v>
+        <v>-19500</v>
       </c>
       <c r="E91" s="3">
-        <v>-33400</v>
+        <v>-34200</v>
       </c>
       <c r="F91" s="3">
-        <v>-39000</v>
+        <v>-32000</v>
       </c>
       <c r="G91" s="3">
-        <v>-14600</v>
+        <v>-37200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-13900</v>
       </c>
       <c r="I91" s="3">
-        <v>-10100</v>
+        <v>-2400</v>
       </c>
       <c r="J91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-52200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-65800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-117500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-115900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-90500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-695800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139000</v>
+        <v>-111600</v>
       </c>
       <c r="E94" s="3">
-        <v>-104500</v>
+        <v>-132900</v>
       </c>
       <c r="F94" s="3">
-        <v>-219500</v>
+        <v>-99900</v>
       </c>
       <c r="G94" s="3">
-        <v>381700</v>
+        <v>-209900</v>
       </c>
       <c r="H94" s="3">
-        <v>-71300</v>
+        <v>364900</v>
       </c>
       <c r="I94" s="3">
-        <v>-84700</v>
+        <v>-68200</v>
       </c>
       <c r="J94" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-102400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-120900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-99500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-115400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-102600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-52800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-105600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-144800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-98900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-148600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-317700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-303700</v>
       </c>
       <c r="F96" s="3">
-        <v>-278500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-234000</v>
+        <v>-266200</v>
       </c>
       <c r="H96" s="3">
-        <v>-244800</v>
+        <v>-223700</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>-234100</v>
       </c>
       <c r="J96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-57900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-58500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-49800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-77600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-129200</v>
+        <v>54200</v>
       </c>
       <c r="E100" s="3">
-        <v>-29600</v>
+        <v>-123500</v>
       </c>
       <c r="F100" s="3">
-        <v>-137000</v>
+        <v>-28300</v>
       </c>
       <c r="G100" s="3">
-        <v>-90800</v>
+        <v>-131000</v>
       </c>
       <c r="H100" s="3">
-        <v>-261300</v>
+        <v>-86800</v>
       </c>
       <c r="I100" s="3">
-        <v>-75400</v>
+        <v>-249800</v>
       </c>
       <c r="J100" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-91000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-140800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-82200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>114300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-47600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-115700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>285200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-107400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>106400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>34800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>37100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>111500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-69000</v>
+        <v>133000</v>
       </c>
       <c r="E102" s="3">
-        <v>97500</v>
+        <v>-66000</v>
       </c>
       <c r="F102" s="3">
-        <v>-270100</v>
+        <v>93200</v>
       </c>
       <c r="G102" s="3">
-        <v>670100</v>
+        <v>-258300</v>
       </c>
       <c r="H102" s="3">
-        <v>-237800</v>
+        <v>640600</v>
       </c>
       <c r="I102" s="3">
-        <v>-57600</v>
+        <v>-227300</v>
       </c>
       <c r="J102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-64500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>180600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>169100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>194600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-156600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>153500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-68000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-30400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>122600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-108100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1020500</v>
+        <v>1056200</v>
       </c>
       <c r="E8" s="3">
-        <v>983800</v>
+        <v>1018200</v>
       </c>
       <c r="F8" s="3">
-        <v>1045400</v>
+        <v>1081900</v>
       </c>
       <c r="G8" s="3">
-        <v>1233600</v>
+        <v>1276700</v>
       </c>
       <c r="H8" s="3">
-        <v>1305500</v>
+        <v>1351100</v>
       </c>
       <c r="I8" s="3">
-        <v>1015300</v>
+        <v>1050800</v>
       </c>
       <c r="J8" s="3">
-        <v>932800</v>
+        <v>965400</v>
       </c>
       <c r="K8" s="3">
         <v>1106700</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>818300</v>
+        <v>846900</v>
       </c>
       <c r="E9" s="3">
-        <v>740700</v>
+        <v>766600</v>
       </c>
       <c r="F9" s="3">
-        <v>781800</v>
+        <v>809100</v>
       </c>
       <c r="G9" s="3">
-        <v>1040200</v>
+        <v>1076500</v>
       </c>
       <c r="H9" s="3">
-        <v>1095400</v>
+        <v>1133700</v>
       </c>
       <c r="I9" s="3">
-        <v>744900</v>
+        <v>771000</v>
       </c>
       <c r="J9" s="3">
-        <v>696600</v>
+        <v>720900</v>
       </c>
       <c r="K9" s="3">
         <v>871000</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>202200</v>
+        <v>209300</v>
       </c>
       <c r="E10" s="3">
-        <v>243100</v>
+        <v>251600</v>
       </c>
       <c r="F10" s="3">
-        <v>263600</v>
+        <v>272800</v>
       </c>
       <c r="G10" s="3">
-        <v>193400</v>
+        <v>200200</v>
       </c>
       <c r="H10" s="3">
-        <v>210100</v>
+        <v>217400</v>
       </c>
       <c r="I10" s="3">
-        <v>270400</v>
+        <v>279800</v>
       </c>
       <c r="J10" s="3">
-        <v>236200</v>
+        <v>244500</v>
       </c>
       <c r="K10" s="3">
         <v>235700</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>340900</v>
+        <v>352800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1291,26 +1291,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F15" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H15" s="3">
         <v>3400</v>
       </c>
-      <c r="H15" s="3">
-        <v>3300</v>
-      </c>
       <c r="I15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K15" s="3">
         <v>3700</v>
@@ -1398,26 +1398,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>902800</v>
       </c>
       <c r="E17" s="3">
-        <v>1100500</v>
+        <v>1138900</v>
       </c>
       <c r="F17" s="3">
-        <v>826400</v>
+        <v>855300</v>
       </c>
       <c r="G17" s="3">
-        <v>1115000</v>
+        <v>1153900</v>
       </c>
       <c r="H17" s="3">
-        <v>836600</v>
+        <v>865900</v>
       </c>
       <c r="I17" s="3">
-        <v>779700</v>
+        <v>806900</v>
       </c>
       <c r="J17" s="3">
-        <v>737100</v>
+        <v>762800</v>
       </c>
       <c r="K17" s="3">
         <v>903000</v>
@@ -1478,26 +1478,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>153400</v>
       </c>
       <c r="E18" s="3">
-        <v>-116600</v>
+        <v>-120700</v>
       </c>
       <c r="F18" s="3">
-        <v>219000</v>
+        <v>226600</v>
       </c>
       <c r="G18" s="3">
-        <v>118600</v>
+        <v>122800</v>
       </c>
       <c r="H18" s="3">
-        <v>468900</v>
+        <v>485300</v>
       </c>
       <c r="I18" s="3">
-        <v>235600</v>
+        <v>243900</v>
       </c>
       <c r="J18" s="3">
-        <v>195700</v>
+        <v>202600</v>
       </c>
       <c r="K18" s="3">
         <v>203700</v>
@@ -1588,26 +1588,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>26600</v>
       </c>
       <c r="E20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>26100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I20" s="3">
         <v>28100</v>
       </c>
-      <c r="F20" s="3">
-        <v>25200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>25700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>27200</v>
-      </c>
       <c r="J20" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="K20" s="3">
         <v>28100</v>
@@ -1668,26 +1668,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>242500</v>
       </c>
       <c r="E21" s="3">
-        <v>-28400</v>
+        <v>-29400</v>
       </c>
       <c r="F21" s="3">
-        <v>304100</v>
+        <v>314700</v>
       </c>
       <c r="G21" s="3">
-        <v>193800</v>
+        <v>200600</v>
       </c>
       <c r="H21" s="3">
-        <v>543600</v>
+        <v>562600</v>
       </c>
       <c r="I21" s="3">
-        <v>310400</v>
+        <v>321300</v>
       </c>
       <c r="J21" s="3">
-        <v>271000</v>
+        <v>280500</v>
       </c>
       <c r="K21" s="3">
         <v>284200</v>
@@ -1748,26 +1748,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>66100</v>
       </c>
       <c r="E22" s="3">
-        <v>78100</v>
+        <v>80800</v>
       </c>
       <c r="F22" s="3">
-        <v>65100</v>
+        <v>67300</v>
       </c>
       <c r="G22" s="3">
-        <v>56200</v>
+        <v>58100</v>
       </c>
       <c r="H22" s="3">
-        <v>46300</v>
+        <v>48000</v>
       </c>
       <c r="I22" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="J22" s="3">
-        <v>30800</v>
+        <v>31900</v>
       </c>
       <c r="K22" s="3">
         <v>28400</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110100</v>
+        <v>113900</v>
       </c>
       <c r="E23" s="3">
-        <v>-166700</v>
+        <v>-172500</v>
       </c>
       <c r="F23" s="3">
-        <v>179100</v>
+        <v>185400</v>
       </c>
       <c r="G23" s="3">
-        <v>79900</v>
+        <v>82700</v>
       </c>
       <c r="H23" s="3">
-        <v>448200</v>
+        <v>463900</v>
       </c>
       <c r="I23" s="3">
-        <v>237400</v>
+        <v>245700</v>
       </c>
       <c r="J23" s="3">
-        <v>192200</v>
+        <v>198900</v>
       </c>
       <c r="K23" s="3">
         <v>203300</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="E24" s="3">
-        <v>-68900</v>
+        <v>-71400</v>
       </c>
       <c r="F24" s="3">
-        <v>53800</v>
+        <v>55700</v>
       </c>
       <c r="G24" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
-        <v>121400</v>
+        <v>125700</v>
       </c>
       <c r="I24" s="3">
-        <v>58400</v>
+        <v>60400</v>
       </c>
       <c r="J24" s="3">
-        <v>50100</v>
+        <v>51900</v>
       </c>
       <c r="K24" s="3">
         <v>-9600</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70800</v>
+        <v>73300</v>
       </c>
       <c r="E26" s="3">
-        <v>-97700</v>
+        <v>-101100</v>
       </c>
       <c r="F26" s="3">
-        <v>125300</v>
+        <v>129700</v>
       </c>
       <c r="G26" s="3">
-        <v>74100</v>
+        <v>76700</v>
       </c>
       <c r="H26" s="3">
-        <v>326800</v>
+        <v>338200</v>
       </c>
       <c r="I26" s="3">
-        <v>179000</v>
+        <v>185300</v>
       </c>
       <c r="J26" s="3">
-        <v>142000</v>
+        <v>147000</v>
       </c>
       <c r="K26" s="3">
         <v>213000</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67900</v>
+        <v>70300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100400</v>
+        <v>-103900</v>
       </c>
       <c r="F27" s="3">
-        <v>124300</v>
+        <v>128600</v>
       </c>
       <c r="G27" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="H27" s="3">
-        <v>322400</v>
+        <v>333700</v>
       </c>
       <c r="I27" s="3">
-        <v>168800</v>
+        <v>174700</v>
       </c>
       <c r="J27" s="3">
-        <v>140300</v>
+        <v>145200</v>
       </c>
       <c r="K27" s="3">
         <v>208100</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>206900</v>
+        <v>214100</v>
       </c>
       <c r="I29" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="J29" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="K29" s="3">
         <v>6900</v>
@@ -2548,26 +2548,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-26600</v>
       </c>
       <c r="E32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-28100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-25200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-27200</v>
-      </c>
       <c r="J32" s="3">
-        <v>-27200</v>
+        <v>-28200</v>
       </c>
       <c r="K32" s="3">
         <v>-28100</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67900</v>
+        <v>70300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100400</v>
+        <v>-103900</v>
       </c>
       <c r="F33" s="3">
-        <v>124300</v>
+        <v>128600</v>
       </c>
       <c r="G33" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="H33" s="3">
-        <v>529300</v>
+        <v>547800</v>
       </c>
       <c r="I33" s="3">
-        <v>177700</v>
+        <v>183900</v>
       </c>
       <c r="J33" s="3">
-        <v>147000</v>
+        <v>152200</v>
       </c>
       <c r="K33" s="3">
         <v>215000</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67900</v>
+        <v>70300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100400</v>
+        <v>-103900</v>
       </c>
       <c r="F35" s="3">
-        <v>124300</v>
+        <v>128600</v>
       </c>
       <c r="G35" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="H35" s="3">
-        <v>529300</v>
+        <v>547800</v>
       </c>
       <c r="I35" s="3">
-        <v>177700</v>
+        <v>183900</v>
       </c>
       <c r="J35" s="3">
-        <v>147000</v>
+        <v>152200</v>
       </c>
       <c r="K35" s="3">
         <v>215000</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>810000</v>
+        <v>838300</v>
       </c>
       <c r="E41" s="3">
-        <v>676900</v>
+        <v>700600</v>
       </c>
       <c r="F41" s="3">
-        <v>742900</v>
+        <v>768900</v>
       </c>
       <c r="G41" s="3">
-        <v>649700</v>
+        <v>672400</v>
       </c>
       <c r="H41" s="3">
-        <v>908000</v>
+        <v>939700</v>
       </c>
       <c r="I41" s="3">
-        <v>269000</v>
+        <v>278400</v>
       </c>
       <c r="J41" s="3">
-        <v>547100</v>
+        <v>566200</v>
       </c>
       <c r="K41" s="3">
         <v>630700</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
-        <v>124100</v>
+        <v>128400</v>
       </c>
       <c r="G42" s="3">
-        <v>74800</v>
+        <v>77400</v>
       </c>
       <c r="H42" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>72900</v>
+        <v>75500</v>
       </c>
       <c r="K42" s="3">
         <v>34200</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1172800</v>
+        <v>1174100</v>
       </c>
       <c r="E43" s="3">
-        <v>1147000</v>
+        <v>1187100</v>
       </c>
       <c r="F43" s="3">
-        <v>1316600</v>
+        <v>1362600</v>
       </c>
       <c r="G43" s="3">
-        <v>1321900</v>
+        <v>1368100</v>
       </c>
       <c r="H43" s="3">
-        <v>1257700</v>
+        <v>1301600</v>
       </c>
       <c r="I43" s="3">
-        <v>1298400</v>
+        <v>1343700</v>
       </c>
       <c r="J43" s="3">
-        <v>1247200</v>
+        <v>1290800</v>
       </c>
       <c r="K43" s="3">
         <v>1287600</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37600</v>
+        <v>38900</v>
       </c>
       <c r="E44" s="3">
-        <v>38700</v>
+        <v>40000</v>
       </c>
       <c r="F44" s="3">
-        <v>39700</v>
+        <v>41000</v>
       </c>
       <c r="G44" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="H44" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="I44" s="3">
-        <v>35100</v>
+        <v>36300</v>
       </c>
       <c r="J44" s="3">
-        <v>29800</v>
+        <v>30800</v>
       </c>
       <c r="K44" s="3">
         <v>31900</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10100</v>
-      </c>
       <c r="H45" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="I45" s="3">
-        <v>296800</v>
+        <v>307200</v>
       </c>
       <c r="J45" s="3">
-        <v>242100</v>
+        <v>250500</v>
       </c>
       <c r="K45" s="3">
         <v>248100</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1995000</v>
+        <v>2064800</v>
       </c>
       <c r="E46" s="3">
-        <v>1883100</v>
+        <v>1948900</v>
       </c>
       <c r="F46" s="3">
-        <v>2235100</v>
+        <v>2313200</v>
       </c>
       <c r="G46" s="3">
-        <v>2093500</v>
+        <v>2166700</v>
       </c>
       <c r="H46" s="3">
-        <v>2247800</v>
+        <v>2326400</v>
       </c>
       <c r="I46" s="3">
-        <v>1899500</v>
+        <v>1965900</v>
       </c>
       <c r="J46" s="3">
-        <v>2139100</v>
+        <v>2213800</v>
       </c>
       <c r="K46" s="3">
         <v>2232400</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3117300</v>
+        <v>3312900</v>
       </c>
       <c r="E47" s="3">
-        <v>3220000</v>
+        <v>3332500</v>
       </c>
       <c r="F47" s="3">
-        <v>3201200</v>
+        <v>3313100</v>
       </c>
       <c r="G47" s="3">
-        <v>3196900</v>
+        <v>3308700</v>
       </c>
       <c r="H47" s="3">
-        <v>3328800</v>
+        <v>3445200</v>
       </c>
       <c r="I47" s="3">
-        <v>3311000</v>
+        <v>3426700</v>
       </c>
       <c r="J47" s="3">
-        <v>3042300</v>
+        <v>3148700</v>
       </c>
       <c r="K47" s="3">
         <v>3112200</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1953300</v>
+        <v>2021600</v>
       </c>
       <c r="E48" s="3">
-        <v>1964000</v>
+        <v>2032600</v>
       </c>
       <c r="F48" s="3">
-        <v>1949400</v>
+        <v>2017500</v>
       </c>
       <c r="G48" s="3">
-        <v>1935900</v>
+        <v>2003500</v>
       </c>
       <c r="H48" s="3">
-        <v>1778700</v>
+        <v>1840900</v>
       </c>
       <c r="I48" s="3">
-        <v>1798800</v>
+        <v>1861700</v>
       </c>
       <c r="J48" s="3">
-        <v>1794400</v>
+        <v>1857200</v>
       </c>
       <c r="K48" s="3">
         <v>1884400</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1770700</v>
+        <v>1832600</v>
       </c>
       <c r="E49" s="3">
-        <v>1745300</v>
+        <v>1806300</v>
       </c>
       <c r="F49" s="3">
-        <v>1729000</v>
+        <v>1789500</v>
       </c>
       <c r="G49" s="3">
-        <v>1724100</v>
+        <v>1784400</v>
       </c>
       <c r="H49" s="3">
-        <v>1637400</v>
+        <v>1694700</v>
       </c>
       <c r="I49" s="3">
-        <v>1310600</v>
+        <v>1356400</v>
       </c>
       <c r="J49" s="3">
-        <v>1293500</v>
+        <v>1338800</v>
       </c>
       <c r="K49" s="3">
         <v>1356100</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119700</v>
+        <v>421300</v>
       </c>
       <c r="E52" s="3">
-        <v>408200</v>
+        <v>422500</v>
       </c>
       <c r="F52" s="3">
-        <v>297900</v>
+        <v>308300</v>
       </c>
       <c r="G52" s="3">
-        <v>317500</v>
+        <v>328600</v>
       </c>
       <c r="H52" s="3">
-        <v>330700</v>
+        <v>342300</v>
       </c>
       <c r="I52" s="3">
-        <v>543800</v>
+        <v>562800</v>
       </c>
       <c r="J52" s="3">
-        <v>562100</v>
+        <v>581700</v>
       </c>
       <c r="K52" s="3">
         <v>570700</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9327200</v>
+        <v>9653300</v>
       </c>
       <c r="E54" s="3">
-        <v>9220500</v>
+        <v>9542800</v>
       </c>
       <c r="F54" s="3">
-        <v>9412600</v>
+        <v>9741600</v>
       </c>
       <c r="G54" s="3">
-        <v>9268000</v>
+        <v>9592000</v>
       </c>
       <c r="H54" s="3">
-        <v>9323400</v>
+        <v>9649300</v>
       </c>
       <c r="I54" s="3">
-        <v>8863700</v>
+        <v>9173500</v>
       </c>
       <c r="J54" s="3">
-        <v>8831400</v>
+        <v>9140100</v>
       </c>
       <c r="K54" s="3">
         <v>9155800</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>388400</v>
+        <v>402000</v>
       </c>
       <c r="E57" s="3">
-        <v>391200</v>
+        <v>404900</v>
       </c>
       <c r="F57" s="3">
-        <v>392700</v>
+        <v>406400</v>
       </c>
       <c r="G57" s="3">
-        <v>483800</v>
+        <v>500700</v>
       </c>
       <c r="H57" s="3">
-        <v>532200</v>
+        <v>550800</v>
       </c>
       <c r="I57" s="3">
-        <v>412700</v>
+        <v>427200</v>
       </c>
       <c r="J57" s="3">
-        <v>381100</v>
+        <v>394400</v>
       </c>
       <c r="K57" s="3">
         <v>448400</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>516800</v>
+        <v>488400</v>
       </c>
       <c r="E58" s="3">
-        <v>496700</v>
+        <v>514000</v>
       </c>
       <c r="F58" s="3">
-        <v>589800</v>
+        <v>610400</v>
       </c>
       <c r="G58" s="3">
-        <v>518500</v>
+        <v>536600</v>
       </c>
       <c r="H58" s="3">
-        <v>503600</v>
+        <v>521200</v>
       </c>
       <c r="I58" s="3">
-        <v>436900</v>
+        <v>452200</v>
       </c>
       <c r="J58" s="3">
-        <v>338900</v>
+        <v>350700</v>
       </c>
       <c r="K58" s="3">
         <v>516700</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>433700</v>
+        <v>448800</v>
       </c>
       <c r="E59" s="3">
-        <v>512300</v>
+        <v>530200</v>
       </c>
       <c r="F59" s="3">
-        <v>571300</v>
+        <v>591200</v>
       </c>
       <c r="G59" s="3">
-        <v>490700</v>
+        <v>507800</v>
       </c>
       <c r="H59" s="3">
-        <v>802100</v>
+        <v>830100</v>
       </c>
       <c r="I59" s="3">
-        <v>992900</v>
+        <v>1027600</v>
       </c>
       <c r="J59" s="3">
-        <v>1189100</v>
+        <v>1230600</v>
       </c>
       <c r="K59" s="3">
         <v>924300</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1294000</v>
+        <v>1339200</v>
       </c>
       <c r="E60" s="3">
-        <v>1400200</v>
+        <v>1449100</v>
       </c>
       <c r="F60" s="3">
-        <v>1553700</v>
+        <v>1608000</v>
       </c>
       <c r="G60" s="3">
-        <v>1493000</v>
+        <v>1545200</v>
       </c>
       <c r="H60" s="3">
-        <v>1837900</v>
+        <v>1902100</v>
       </c>
       <c r="I60" s="3">
-        <v>1842600</v>
+        <v>1907000</v>
       </c>
       <c r="J60" s="3">
-        <v>1909000</v>
+        <v>1975800</v>
       </c>
       <c r="K60" s="3">
         <v>1889400</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2074700</v>
+        <v>2147200</v>
       </c>
       <c r="E61" s="3">
-        <v>1967800</v>
+        <v>2036500</v>
       </c>
       <c r="F61" s="3">
-        <v>1667800</v>
+        <v>1726100</v>
       </c>
       <c r="G61" s="3">
-        <v>1733800</v>
+        <v>1794400</v>
       </c>
       <c r="H61" s="3">
-        <v>1490600</v>
+        <v>1542700</v>
       </c>
       <c r="I61" s="3">
-        <v>1400000</v>
+        <v>1448900</v>
       </c>
       <c r="J61" s="3">
-        <v>1501600</v>
+        <v>1554100</v>
       </c>
       <c r="K61" s="3">
         <v>1456800</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1692100</v>
+        <v>2036700</v>
       </c>
       <c r="E62" s="3">
-        <v>1933800</v>
+        <v>2001400</v>
       </c>
       <c r="F62" s="3">
-        <v>1917700</v>
+        <v>1984800</v>
       </c>
       <c r="G62" s="3">
-        <v>1892400</v>
+        <v>1958600</v>
       </c>
       <c r="H62" s="3">
-        <v>1894400</v>
+        <v>1960700</v>
       </c>
       <c r="I62" s="3">
-        <v>1785600</v>
+        <v>1848000</v>
       </c>
       <c r="J62" s="3">
-        <v>1765400</v>
+        <v>1827100</v>
       </c>
       <c r="K62" s="3">
         <v>1846600</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5404000</v>
+        <v>5592900</v>
       </c>
       <c r="E66" s="3">
-        <v>5367200</v>
+        <v>5554800</v>
       </c>
       <c r="F66" s="3">
-        <v>5202800</v>
+        <v>5384700</v>
       </c>
       <c r="G66" s="3">
-        <v>5182500</v>
+        <v>5363600</v>
       </c>
       <c r="H66" s="3">
-        <v>5289000</v>
+        <v>5473900</v>
       </c>
       <c r="I66" s="3">
-        <v>5089800</v>
+        <v>5267700</v>
       </c>
       <c r="J66" s="3">
-        <v>5232300</v>
+        <v>5415200</v>
       </c>
       <c r="K66" s="3">
         <v>5249800</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1826200</v>
+        <v>1890100</v>
       </c>
       <c r="E72" s="3">
-        <v>1756800</v>
+        <v>1818200</v>
       </c>
       <c r="F72" s="3">
-        <v>1855500</v>
+        <v>1920400</v>
       </c>
       <c r="G72" s="3">
-        <v>1729100</v>
+        <v>1789600</v>
       </c>
       <c r="H72" s="3">
-        <v>1963600</v>
+        <v>2032200</v>
       </c>
       <c r="I72" s="3">
-        <v>1694700</v>
+        <v>1754000</v>
       </c>
       <c r="J72" s="3">
-        <v>1514900</v>
+        <v>1567800</v>
       </c>
       <c r="K72" s="3">
         <v>1428300</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3923200</v>
+        <v>4060400</v>
       </c>
       <c r="E76" s="3">
-        <v>3853300</v>
+        <v>3988000</v>
       </c>
       <c r="F76" s="3">
-        <v>4209800</v>
+        <v>4356900</v>
       </c>
       <c r="G76" s="3">
-        <v>4085500</v>
+        <v>4228300</v>
       </c>
       <c r="H76" s="3">
-        <v>4034400</v>
+        <v>4175500</v>
       </c>
       <c r="I76" s="3">
-        <v>3773900</v>
+        <v>3905800</v>
       </c>
       <c r="J76" s="3">
-        <v>3599100</v>
+        <v>3725000</v>
       </c>
       <c r="K76" s="3">
         <v>3906000</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67900</v>
+        <v>70300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100400</v>
+        <v>-103900</v>
       </c>
       <c r="F81" s="3">
-        <v>124300</v>
+        <v>128600</v>
       </c>
       <c r="G81" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="H81" s="3">
-        <v>529300</v>
+        <v>547800</v>
       </c>
       <c r="I81" s="3">
-        <v>177700</v>
+        <v>183900</v>
       </c>
       <c r="J81" s="3">
-        <v>147000</v>
+        <v>152200</v>
       </c>
       <c r="K81" s="3">
         <v>215000</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60300</v>
+        <v>62400</v>
       </c>
       <c r="E83" s="3">
-        <v>60100</v>
+        <v>62300</v>
       </c>
       <c r="F83" s="3">
-        <v>59900</v>
+        <v>62000</v>
       </c>
       <c r="G83" s="3">
-        <v>57800</v>
+        <v>59800</v>
       </c>
       <c r="H83" s="3">
-        <v>49100</v>
+        <v>50800</v>
       </c>
       <c r="I83" s="3">
-        <v>47600</v>
+        <v>49300</v>
       </c>
       <c r="J83" s="3">
-        <v>48100</v>
+        <v>49800</v>
       </c>
       <c r="K83" s="3">
         <v>52500</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>190500</v>
+        <v>197100</v>
       </c>
       <c r="E89" s="3">
-        <v>190400</v>
+        <v>197100</v>
       </c>
       <c r="F89" s="3">
-        <v>221400</v>
+        <v>229200</v>
       </c>
       <c r="G89" s="3">
-        <v>82500</v>
+        <v>85400</v>
       </c>
       <c r="H89" s="3">
-        <v>362500</v>
+        <v>375100</v>
       </c>
       <c r="I89" s="3">
-        <v>90700</v>
+        <v>93800</v>
       </c>
       <c r="J89" s="3">
-        <v>98000</v>
+        <v>101400</v>
       </c>
       <c r="K89" s="3">
         <v>128900</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19500</v>
+        <v>-20100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34200</v>
+        <v>-35400</v>
       </c>
       <c r="F91" s="3">
-        <v>-32000</v>
+        <v>-33100</v>
       </c>
       <c r="G91" s="3">
-        <v>-37200</v>
+        <v>-38500</v>
       </c>
       <c r="H91" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="K91" s="3">
         <v>-10400</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-111600</v>
+        <v>-115500</v>
       </c>
       <c r="E94" s="3">
-        <v>-132900</v>
+        <v>-137600</v>
       </c>
       <c r="F94" s="3">
-        <v>-99900</v>
+        <v>-103400</v>
       </c>
       <c r="G94" s="3">
-        <v>-209900</v>
+        <v>-217200</v>
       </c>
       <c r="H94" s="3">
-        <v>364900</v>
+        <v>377700</v>
       </c>
       <c r="I94" s="3">
-        <v>-68200</v>
+        <v>-70500</v>
       </c>
       <c r="J94" s="3">
-        <v>-81000</v>
+        <v>-83800</v>
       </c>
       <c r="K94" s="3">
         <v>-102400</v>
@@ -6962,22 +6962,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-303700</v>
+        <v>-314300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-266200</v>
+        <v>-275500</v>
       </c>
       <c r="H96" s="3">
-        <v>-223700</v>
+        <v>-231500</v>
       </c>
       <c r="I96" s="3">
-        <v>-234100</v>
+        <v>-242200</v>
       </c>
       <c r="J96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>-6200</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>54200</v>
+        <v>56100</v>
       </c>
       <c r="E100" s="3">
-        <v>-123500</v>
+        <v>-127800</v>
       </c>
       <c r="F100" s="3">
-        <v>-28300</v>
+        <v>-29300</v>
       </c>
       <c r="G100" s="3">
-        <v>-131000</v>
+        <v>-135500</v>
       </c>
       <c r="H100" s="3">
-        <v>-86800</v>
+        <v>-89900</v>
       </c>
       <c r="I100" s="3">
-        <v>-249800</v>
+        <v>-258500</v>
       </c>
       <c r="J100" s="3">
-        <v>-72100</v>
+        <v>-74600</v>
       </c>
       <c r="K100" s="3">
         <v>-91000</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>133000</v>
+        <v>137700</v>
       </c>
       <c r="E102" s="3">
-        <v>-66000</v>
+        <v>-68300</v>
       </c>
       <c r="F102" s="3">
-        <v>93200</v>
+        <v>96500</v>
       </c>
       <c r="G102" s="3">
-        <v>-258300</v>
+        <v>-267300</v>
       </c>
       <c r="H102" s="3">
-        <v>640600</v>
+        <v>663000</v>
       </c>
       <c r="I102" s="3">
-        <v>-227300</v>
+        <v>-235200</v>
       </c>
       <c r="J102" s="3">
-        <v>-55000</v>
+        <v>-57000</v>
       </c>
       <c r="K102" s="3">
         <v>-64500</v>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1056200</v>
+        <v>1113900</v>
       </c>
       <c r="E8" s="3">
-        <v>1018200</v>
+        <v>1133200</v>
       </c>
       <c r="F8" s="3">
-        <v>1081900</v>
+        <v>1098600</v>
       </c>
       <c r="G8" s="3">
-        <v>1276700</v>
+        <v>1059100</v>
       </c>
       <c r="H8" s="3">
-        <v>1351100</v>
+        <v>1125400</v>
       </c>
       <c r="I8" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1405300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1050800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>965400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1106700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>843400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>902900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>801400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>798600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>783900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1304300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>729100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>654900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>797300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>842000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>782000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1002600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>934200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>813500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>817900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>817900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>846900</v>
+        <v>826300</v>
       </c>
       <c r="E9" s="3">
-        <v>766600</v>
+        <v>889500</v>
       </c>
       <c r="F9" s="3">
-        <v>809100</v>
+        <v>880900</v>
       </c>
       <c r="G9" s="3">
-        <v>1076500</v>
+        <v>797300</v>
       </c>
       <c r="H9" s="3">
-        <v>1133700</v>
+        <v>841600</v>
       </c>
       <c r="I9" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1179200</v>
+      </c>
+      <c r="K9" s="3">
         <v>771000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>720900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>871000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>608600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>556100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>581400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>599500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>543800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>941900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>511000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>510200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>640200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>635600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>574500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>802800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>729000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>627300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>556700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>776200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>209300</v>
+        <v>287600</v>
       </c>
       <c r="E10" s="3">
-        <v>251600</v>
+        <v>243700</v>
       </c>
       <c r="F10" s="3">
-        <v>272800</v>
+        <v>217600</v>
       </c>
       <c r="G10" s="3">
-        <v>200200</v>
+        <v>261700</v>
       </c>
       <c r="H10" s="3">
-        <v>217400</v>
+        <v>283800</v>
       </c>
       <c r="I10" s="3">
+        <v>208200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K10" s="3">
         <v>279800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>244500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>235700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>234800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>346700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>220000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>199100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>240100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>362400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>218100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>144700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>157200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>206400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>207500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>199800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>205100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>186200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>261200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>41800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,22 +1239,28 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>352800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>366900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1235,11 +1274,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1286,88 +1325,100 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="E15" s="3">
         <v>4300</v>
       </c>
       <c r="F15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA15" s="3">
         <v>3400</v>
       </c>
-      <c r="G15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="AB15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="AC15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5100</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="AD15" s="3">
         <v>2800</v>
       </c>
-      <c r="S15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>902800</v>
+        <v>869300</v>
       </c>
       <c r="E17" s="3">
-        <v>1138900</v>
+        <v>1019300</v>
       </c>
       <c r="F17" s="3">
-        <v>855300</v>
+        <v>939000</v>
       </c>
       <c r="G17" s="3">
-        <v>1153900</v>
+        <v>1184600</v>
       </c>
       <c r="H17" s="3">
-        <v>865900</v>
+        <v>889600</v>
       </c>
       <c r="I17" s="3">
+        <v>1200200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>900600</v>
+      </c>
+      <c r="K17" s="3">
         <v>806900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>762800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>903000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>670400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>611600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>634500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>657800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>588900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1038600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>566400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>554700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>673700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>691200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>640300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>914100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>817300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>679400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>613800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>830600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>153400</v>
+        <v>244600</v>
       </c>
       <c r="E18" s="3">
-        <v>-120700</v>
+        <v>113900</v>
       </c>
       <c r="F18" s="3">
-        <v>226600</v>
+        <v>159600</v>
       </c>
       <c r="G18" s="3">
-        <v>122800</v>
+        <v>-125600</v>
       </c>
       <c r="H18" s="3">
-        <v>485300</v>
+        <v>235700</v>
       </c>
       <c r="I18" s="3">
+        <v>127700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>504700</v>
+      </c>
+      <c r="K18" s="3">
         <v>243900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>202600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>203700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>172900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>291200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>166900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>140800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>195000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>265700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>162700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>123600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>150900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>141700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>88500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>116900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>134100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>204200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26600</v>
+        <v>26900</v>
       </c>
       <c r="E20" s="3">
-        <v>29000</v>
+        <v>20600</v>
       </c>
       <c r="F20" s="3">
-        <v>26100</v>
+        <v>27700</v>
       </c>
       <c r="G20" s="3">
-        <v>18000</v>
+        <v>30200</v>
       </c>
       <c r="H20" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="I20" s="3">
-        <v>28100</v>
+        <v>18700</v>
       </c>
       <c r="J20" s="3">
-        <v>28200</v>
+        <v>27600</v>
       </c>
       <c r="K20" s="3">
         <v>28100</v>
       </c>
       <c r="L20" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>28100</v>
+      </c>
+      <c r="N20" s="3">
         <v>60500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>268600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>66700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>50600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>58900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>84100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>27000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>15400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>15800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>27500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>33500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>35700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>28800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-18800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>242500</v>
+        <v>342500</v>
       </c>
       <c r="E21" s="3">
-        <v>-29400</v>
+        <v>202300</v>
       </c>
       <c r="F21" s="3">
-        <v>314700</v>
+        <v>252200</v>
       </c>
       <c r="G21" s="3">
-        <v>200600</v>
+        <v>-30600</v>
       </c>
       <c r="H21" s="3">
-        <v>562600</v>
+        <v>327300</v>
       </c>
       <c r="I21" s="3">
+        <v>208600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>585200</v>
+      </c>
+      <c r="K21" s="3">
         <v>321300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>280500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>284200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>267800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>615000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>289800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>256900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>301900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>435400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>231400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>150400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>174100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>222800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>216600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>133100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>199300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>179400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>278400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>12300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66100</v>
+        <v>94000</v>
       </c>
       <c r="E22" s="3">
-        <v>80800</v>
+        <v>75000</v>
       </c>
       <c r="F22" s="3">
-        <v>67300</v>
+        <v>68800</v>
       </c>
       <c r="G22" s="3">
-        <v>58100</v>
+        <v>84100</v>
       </c>
       <c r="H22" s="3">
-        <v>48000</v>
+        <v>70000</v>
       </c>
       <c r="I22" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K22" s="3">
         <v>26300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>31900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>28400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>51400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>90100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>83400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>73000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>82600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>120800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>45400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>40000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>39100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>52000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>49700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>58400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>61300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>65400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>67500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>71300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>113900</v>
+        <v>177500</v>
       </c>
       <c r="E23" s="3">
-        <v>-172500</v>
+        <v>59500</v>
       </c>
       <c r="F23" s="3">
-        <v>185400</v>
+        <v>118500</v>
       </c>
       <c r="G23" s="3">
-        <v>82700</v>
+        <v>-179400</v>
       </c>
       <c r="H23" s="3">
-        <v>463900</v>
+        <v>192800</v>
       </c>
       <c r="I23" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K23" s="3">
         <v>245700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>198900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>203300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>182100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>469700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>150200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>118400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>171200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>228900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>144300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>75700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>100300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>126400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>125400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>28000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>91300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>66900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>165500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-102700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40600</v>
+        <v>49500</v>
       </c>
       <c r="E24" s="3">
-        <v>-71400</v>
+        <v>-66100</v>
       </c>
       <c r="F24" s="3">
-        <v>55700</v>
+        <v>42300</v>
       </c>
       <c r="G24" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>57900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>60400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>159700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
-        <v>125700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>51900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>52000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>159700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>50700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>43200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>81600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>20600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>43400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>42300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-6200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>28200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>61900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-36300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73300</v>
+        <v>128000</v>
       </c>
       <c r="E26" s="3">
-        <v>-101100</v>
+        <v>125600</v>
       </c>
       <c r="F26" s="3">
-        <v>129700</v>
+        <v>76200</v>
       </c>
       <c r="G26" s="3">
-        <v>76700</v>
+        <v>-105200</v>
       </c>
       <c r="H26" s="3">
-        <v>338200</v>
+        <v>134900</v>
       </c>
       <c r="I26" s="3">
+        <v>79800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>351800</v>
+      </c>
+      <c r="K26" s="3">
         <v>185300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>147000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>213000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>130100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>310000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>99500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>121300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>147300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>94700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>69700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>79700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>83000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>83100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>34200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>106800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>38700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>103500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-66400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70300</v>
+        <v>126200</v>
       </c>
       <c r="E27" s="3">
-        <v>-103900</v>
+        <v>125100</v>
       </c>
       <c r="F27" s="3">
-        <v>128600</v>
+        <v>73100</v>
       </c>
       <c r="G27" s="3">
-        <v>75100</v>
+        <v>-108100</v>
       </c>
       <c r="H27" s="3">
-        <v>333700</v>
+        <v>133800</v>
       </c>
       <c r="I27" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>347000</v>
+      </c>
+      <c r="K27" s="3">
         <v>174700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>145200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>208100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>131100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>312600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>99700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>116600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>120200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>146300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>93200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>66500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>78600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>81700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>81400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>19000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>104900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>35900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>101800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-52400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2418,19 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2321,44 +2442,44 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>214100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>222700</v>
+      </c>
+      <c r="K29" s="3">
         <v>9200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>7000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>6900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>2400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>4300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-11100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>3700</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26600</v>
+        <v>-26900</v>
       </c>
       <c r="E32" s="3">
-        <v>-29000</v>
+        <v>-20600</v>
       </c>
       <c r="F32" s="3">
-        <v>-26100</v>
+        <v>-27700</v>
       </c>
       <c r="G32" s="3">
-        <v>-18000</v>
+        <v>-30200</v>
       </c>
       <c r="H32" s="3">
-        <v>-26600</v>
+        <v>-27100</v>
       </c>
       <c r="I32" s="3">
-        <v>-28100</v>
+        <v>-18700</v>
       </c>
       <c r="J32" s="3">
-        <v>-28200</v>
+        <v>-27600</v>
       </c>
       <c r="K32" s="3">
         <v>-28100</v>
       </c>
       <c r="L32" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-60500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-268600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-66700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-50600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-84100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-27000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-15400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-15800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-27500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-33500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-35700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-28800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>18800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70300</v>
+        <v>126200</v>
       </c>
       <c r="E33" s="3">
-        <v>-103900</v>
+        <v>125100</v>
       </c>
       <c r="F33" s="3">
-        <v>128600</v>
+        <v>73100</v>
       </c>
       <c r="G33" s="3">
-        <v>75100</v>
+        <v>-108100</v>
       </c>
       <c r="H33" s="3">
-        <v>547800</v>
+        <v>133800</v>
       </c>
       <c r="I33" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>569800</v>
+      </c>
+      <c r="K33" s="3">
         <v>183900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>152200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>215000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>133500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>316900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>105500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>107200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>150000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>93200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>66500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>78600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>81700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>81400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>19000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>104900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>35900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>101800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-52400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70300</v>
+        <v>126200</v>
       </c>
       <c r="E35" s="3">
-        <v>-103900</v>
+        <v>125100</v>
       </c>
       <c r="F35" s="3">
-        <v>128600</v>
+        <v>73100</v>
       </c>
       <c r="G35" s="3">
-        <v>75100</v>
+        <v>-108100</v>
       </c>
       <c r="H35" s="3">
-        <v>547800</v>
+        <v>133800</v>
       </c>
       <c r="I35" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>569800</v>
+      </c>
+      <c r="K35" s="3">
         <v>183900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>152200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>215000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>133500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>316900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>105500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>107200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>150000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>93200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>66500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>78600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>81700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>81400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>19000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>104900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>35900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>101800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-52400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>838300</v>
+        <v>586300</v>
       </c>
       <c r="E41" s="3">
-        <v>700600</v>
+        <v>539400</v>
       </c>
       <c r="F41" s="3">
-        <v>768900</v>
+        <v>871900</v>
       </c>
       <c r="G41" s="3">
-        <v>672400</v>
+        <v>728700</v>
       </c>
       <c r="H41" s="3">
-        <v>939700</v>
+        <v>799800</v>
       </c>
       <c r="I41" s="3">
+        <v>699400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>977400</v>
+      </c>
+      <c r="K41" s="3">
         <v>278400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>566200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>630700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>701100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>571900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>594100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>543300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>380100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>337600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>384400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>347600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>158700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>398000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>396400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>266700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>334700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>365100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>234600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>243600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2700</v>
+        <v>65900</v>
       </c>
       <c r="E42" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F42" s="3">
         <v>2800</v>
       </c>
-      <c r="F42" s="3">
-        <v>128400</v>
-      </c>
       <c r="G42" s="3">
-        <v>77400</v>
+        <v>3000</v>
       </c>
       <c r="H42" s="3">
-        <v>41800</v>
+        <v>133600</v>
       </c>
       <c r="I42" s="3">
+        <v>80500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>34200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>106000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>61700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>66200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>86500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>92800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>106900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>97400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>75800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>78300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>76700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>44300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>38300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>14700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>22100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>33900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1174100</v>
+        <v>1295200</v>
       </c>
       <c r="E43" s="3">
-        <v>1187100</v>
+        <v>1249300</v>
       </c>
       <c r="F43" s="3">
-        <v>1362600</v>
+        <v>1221200</v>
       </c>
       <c r="G43" s="3">
-        <v>1368100</v>
+        <v>1234700</v>
       </c>
       <c r="H43" s="3">
-        <v>1301600</v>
+        <v>1417300</v>
       </c>
       <c r="I43" s="3">
+        <v>1423000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1353900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1343700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1290800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1287600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>998800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>998900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>868700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>820900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>769300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>705600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>741500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>718300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>765200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>897800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>887400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1097100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1115800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>895600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>808500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>731200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38900</v>
+        <v>45000</v>
       </c>
       <c r="E44" s="3">
-        <v>40000</v>
+        <v>39200</v>
       </c>
       <c r="F44" s="3">
-        <v>41000</v>
+        <v>40400</v>
       </c>
       <c r="G44" s="3">
-        <v>38300</v>
+        <v>41600</v>
       </c>
       <c r="H44" s="3">
-        <v>35300</v>
+        <v>42700</v>
       </c>
       <c r="I44" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K44" s="3">
         <v>36300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>30800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>31900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>28300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>29700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>27600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>24100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>22300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>21100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>21200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>20700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>21600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>26000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>24400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>28300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>29900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>31000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>31500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>32400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
-        <v>18400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K45" s="3">
         <v>307200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>250500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>248100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>236300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>13700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>18600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>19800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>18100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>18300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>25400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>25600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>9500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>9400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>10000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2064800</v>
+        <v>2006500</v>
       </c>
       <c r="E46" s="3">
-        <v>1948900</v>
+        <v>1878500</v>
       </c>
       <c r="F46" s="3">
-        <v>2313200</v>
+        <v>2147600</v>
       </c>
       <c r="G46" s="3">
-        <v>2166700</v>
+        <v>2027100</v>
       </c>
       <c r="H46" s="3">
-        <v>2326400</v>
+        <v>2406000</v>
       </c>
       <c r="I46" s="3">
+        <v>2253600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2419700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1965900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2213800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2232400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1966800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1711400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1557400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1460800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1265900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1170900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1272600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1191300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1041100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1418100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1403100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1461800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1544300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1315900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1106000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1051200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3312900</v>
+        <v>3647900</v>
       </c>
       <c r="E47" s="3">
-        <v>3332500</v>
+        <v>3522600</v>
       </c>
       <c r="F47" s="3">
-        <v>3313100</v>
+        <v>3445900</v>
       </c>
       <c r="G47" s="3">
-        <v>3308700</v>
+        <v>3466300</v>
       </c>
       <c r="H47" s="3">
-        <v>3445200</v>
+        <v>3446000</v>
       </c>
       <c r="I47" s="3">
+        <v>3441500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3583400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3426700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3148700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3112200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3150700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3172100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2118100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1965000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1907700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1719500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1797400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1694600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1658500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1984400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1901700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2179100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>2122700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>2046500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1961300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1862100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2021600</v>
+        <v>2304900</v>
       </c>
       <c r="E48" s="3">
-        <v>2032600</v>
+        <v>2080700</v>
       </c>
       <c r="F48" s="3">
-        <v>2017500</v>
+        <v>2102800</v>
       </c>
       <c r="G48" s="3">
-        <v>2003500</v>
+        <v>2114200</v>
       </c>
       <c r="H48" s="3">
-        <v>1840900</v>
+        <v>2098500</v>
       </c>
       <c r="I48" s="3">
+        <v>2083900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1914700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1861700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1857200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1884400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1862800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2049800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2076400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1973700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2038800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1927700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2037000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1934200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1986900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2438400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2373700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2521700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2477700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2397500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2252800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2235600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1832600</v>
+        <v>2270700</v>
       </c>
       <c r="E49" s="3">
-        <v>1806300</v>
+        <v>2069900</v>
       </c>
       <c r="F49" s="3">
-        <v>1789500</v>
+        <v>1906200</v>
       </c>
       <c r="G49" s="3">
-        <v>1784400</v>
+        <v>1878800</v>
       </c>
       <c r="H49" s="3">
-        <v>1694700</v>
+        <v>1861300</v>
       </c>
       <c r="I49" s="3">
+        <v>1856000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1762700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1356400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1338800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1356100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1266800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1267100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1251700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1169600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1173200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1096000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1138200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1075600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1218200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1511800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1509600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1654400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1682400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1672400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1609700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1602600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>421300</v>
+        <v>457200</v>
       </c>
       <c r="E52" s="3">
-        <v>422500</v>
+        <v>458500</v>
       </c>
       <c r="F52" s="3">
-        <v>308300</v>
+        <v>438200</v>
       </c>
       <c r="G52" s="3">
-        <v>328600</v>
+        <v>439400</v>
       </c>
       <c r="H52" s="3">
-        <v>342300</v>
+        <v>320700</v>
       </c>
       <c r="I52" s="3">
+        <v>341800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>356000</v>
+      </c>
+      <c r="K52" s="3">
         <v>562800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>581700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>570700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>523700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>537600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>543800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>507200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>503300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>499200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>540700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>514200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>562300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>699000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>685900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>752600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>776100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>746000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>744600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>767400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9653300</v>
+        <v>10687200</v>
       </c>
       <c r="E54" s="3">
-        <v>9542800</v>
+        <v>10010300</v>
       </c>
       <c r="F54" s="3">
-        <v>9741600</v>
+        <v>10040600</v>
       </c>
       <c r="G54" s="3">
-        <v>9592000</v>
+        <v>9925800</v>
       </c>
       <c r="H54" s="3">
-        <v>9649300</v>
+        <v>10132600</v>
       </c>
       <c r="I54" s="3">
+        <v>9976900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10036500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9173500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9140100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9155800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8770900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8738000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7547400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7076300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6888900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6413200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6785900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6409900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6467100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8051800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7873900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8502200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8603300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>8178300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7674400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>7518900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>402000</v>
+        <v>395200</v>
       </c>
       <c r="E57" s="3">
-        <v>404900</v>
+        <v>420900</v>
       </c>
       <c r="F57" s="3">
-        <v>406400</v>
+        <v>418100</v>
       </c>
       <c r="G57" s="3">
-        <v>500700</v>
+        <v>421100</v>
       </c>
       <c r="H57" s="3">
-        <v>550800</v>
+        <v>422700</v>
       </c>
       <c r="I57" s="3">
+        <v>520800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K57" s="3">
         <v>427200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>394400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>448400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>282800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>290000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>302100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>311300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>312300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>257200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>286300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>253200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>396600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>390700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>324400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>431600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>557600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>391700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>283700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>311500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>488400</v>
+        <v>376800</v>
       </c>
       <c r="E58" s="3">
-        <v>514000</v>
+        <v>340400</v>
       </c>
       <c r="F58" s="3">
-        <v>610400</v>
+        <v>508000</v>
       </c>
       <c r="G58" s="3">
-        <v>536600</v>
+        <v>534700</v>
       </c>
       <c r="H58" s="3">
-        <v>521200</v>
+        <v>634900</v>
       </c>
       <c r="I58" s="3">
+        <v>558200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>542100</v>
+      </c>
+      <c r="K58" s="3">
         <v>452200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>350700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>516700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>406600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>251800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>298200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>268400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>317900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>488100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>671000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>588400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>611700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>925600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>600500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>619600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>840300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>755800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>681600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>645500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>448800</v>
+        <v>710800</v>
       </c>
       <c r="E59" s="3">
-        <v>530200</v>
+        <v>680000</v>
       </c>
       <c r="F59" s="3">
-        <v>591200</v>
+        <v>466800</v>
       </c>
       <c r="G59" s="3">
-        <v>507800</v>
+        <v>551500</v>
       </c>
       <c r="H59" s="3">
-        <v>830100</v>
+        <v>614900</v>
       </c>
       <c r="I59" s="3">
+        <v>528200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>863400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1027600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1230600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>924300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>718000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>651900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>418100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>407600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>283000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>267600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>331400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>352900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>340300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>487500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>455500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>515200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>567600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>528000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>475300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>446200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1339200</v>
+        <v>1482800</v>
       </c>
       <c r="E60" s="3">
-        <v>1449100</v>
+        <v>1441300</v>
       </c>
       <c r="F60" s="3">
-        <v>1608000</v>
+        <v>1392900</v>
       </c>
       <c r="G60" s="3">
-        <v>1545200</v>
+        <v>1507300</v>
       </c>
       <c r="H60" s="3">
-        <v>1902100</v>
+        <v>1672500</v>
       </c>
       <c r="I60" s="3">
+        <v>1607200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1978500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1907000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1975800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1889400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1407300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1193700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1018300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>987300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>913300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1012900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1288700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1194400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1348600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1803800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1380400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1566500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1965500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1675500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1440600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1403100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2147200</v>
+        <v>2643300</v>
       </c>
       <c r="E61" s="3">
-        <v>2036500</v>
+        <v>2223000</v>
       </c>
       <c r="F61" s="3">
-        <v>1726100</v>
+        <v>2233400</v>
       </c>
       <c r="G61" s="3">
-        <v>1794400</v>
+        <v>2118300</v>
       </c>
       <c r="H61" s="3">
-        <v>1542700</v>
+        <v>1795400</v>
       </c>
       <c r="I61" s="3">
+        <v>1866400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1604600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1448900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1554100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1456800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1627800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1895700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1929600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1886800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1753500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1515500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1463500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1474900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1229000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1452700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1826700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1900700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1602200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1672600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1530600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1546800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2036700</v>
+        <v>2177300</v>
       </c>
       <c r="E62" s="3">
-        <v>2001400</v>
+        <v>2090100</v>
       </c>
       <c r="F62" s="3">
-        <v>1984800</v>
+        <v>2118400</v>
       </c>
       <c r="G62" s="3">
-        <v>1958600</v>
+        <v>2081700</v>
       </c>
       <c r="H62" s="3">
-        <v>1960700</v>
+        <v>2064400</v>
       </c>
       <c r="I62" s="3">
+        <v>2037200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2039300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1848000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1827100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1846600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1776000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1776400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1030900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>951800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>884400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>842400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>882700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>826200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>830400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1016700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>969300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1058400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1005900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>903700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>885000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>848300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5592900</v>
+        <v>6368400</v>
       </c>
       <c r="E66" s="3">
-        <v>5554800</v>
+        <v>5817700</v>
       </c>
       <c r="F66" s="3">
-        <v>5384700</v>
+        <v>5817300</v>
       </c>
       <c r="G66" s="3">
-        <v>5363600</v>
+        <v>5777700</v>
       </c>
       <c r="H66" s="3">
-        <v>5473900</v>
+        <v>5600800</v>
       </c>
       <c r="I66" s="3">
+        <v>5578900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5693500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5267700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5415200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5249800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4864100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4920400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4046700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3889800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3615300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3424300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3692500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3549700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3464800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4345500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4248800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4603200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4639800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4320100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3919800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3863800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1890100</v>
+        <v>2025800</v>
       </c>
       <c r="E72" s="3">
-        <v>1818200</v>
+        <v>1898000</v>
       </c>
       <c r="F72" s="3">
-        <v>1920400</v>
+        <v>1965900</v>
       </c>
       <c r="G72" s="3">
-        <v>1789600</v>
+        <v>1891200</v>
       </c>
       <c r="H72" s="3">
-        <v>2032200</v>
+        <v>1997400</v>
       </c>
       <c r="I72" s="3">
+        <v>1861400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2113700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1754000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1567800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1428300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1696700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1578800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1259000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1082400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1109600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>943300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1469300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1309000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1383000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1658700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1573800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1641400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1692200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1582700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1547600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1445100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4060400</v>
+        <v>4318800</v>
       </c>
       <c r="E76" s="3">
-        <v>3988000</v>
+        <v>4192600</v>
       </c>
       <c r="F76" s="3">
-        <v>4356900</v>
+        <v>4223300</v>
       </c>
       <c r="G76" s="3">
-        <v>4228300</v>
+        <v>4148100</v>
       </c>
       <c r="H76" s="3">
-        <v>4175500</v>
+        <v>4531800</v>
       </c>
       <c r="I76" s="3">
+        <v>4398000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4343000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3905800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3725000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3906000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3906800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3817600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3500700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3186500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3273600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2989000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3093400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2860300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3002300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3706200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3625200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3899000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3963500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3858200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3754600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3655100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70300</v>
+        <v>126200</v>
       </c>
       <c r="E81" s="3">
-        <v>-103900</v>
+        <v>125100</v>
       </c>
       <c r="F81" s="3">
-        <v>128600</v>
+        <v>73100</v>
       </c>
       <c r="G81" s="3">
-        <v>75100</v>
+        <v>-108100</v>
       </c>
       <c r="H81" s="3">
-        <v>547800</v>
+        <v>133800</v>
       </c>
       <c r="I81" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>569800</v>
+      </c>
+      <c r="K81" s="3">
         <v>183900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>152200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>215000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>133500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>316900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>105500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>107200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>150000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>93200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>66500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>78600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>81700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>81400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>19000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>104900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>35900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>101800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-52400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62400</v>
+        <v>71000</v>
       </c>
       <c r="E83" s="3">
-        <v>62300</v>
+        <v>67800</v>
       </c>
       <c r="F83" s="3">
-        <v>62000</v>
+        <v>65000</v>
       </c>
       <c r="G83" s="3">
-        <v>59800</v>
+        <v>64700</v>
       </c>
       <c r="H83" s="3">
-        <v>50800</v>
+        <v>64500</v>
       </c>
       <c r="I83" s="3">
+        <v>62200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K83" s="3">
         <v>49300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>49800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>52500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>55200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>56300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>65500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>85600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>34700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>34700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>44400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>41400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>46700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>46700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>47200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>45400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>43700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>197100</v>
+        <v>34700</v>
       </c>
       <c r="E89" s="3">
-        <v>197100</v>
+        <v>137600</v>
       </c>
       <c r="F89" s="3">
-        <v>229200</v>
+        <v>205100</v>
       </c>
       <c r="G89" s="3">
-        <v>85400</v>
+        <v>205000</v>
       </c>
       <c r="H89" s="3">
-        <v>375100</v>
+        <v>238400</v>
       </c>
       <c r="I89" s="3">
+        <v>88900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K89" s="3">
         <v>93800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>101400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>128900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>280200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>199600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>163700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>158700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>131400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>245300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>150300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>30200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>50300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>160800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>149800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-50000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>38100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>156000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>106000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>39800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20100</v>
+        <v>-21700</v>
       </c>
       <c r="E91" s="3">
-        <v>-35400</v>
+        <v>-493600</v>
       </c>
       <c r="F91" s="3">
-        <v>-33100</v>
+        <v>-106700</v>
       </c>
       <c r="G91" s="3">
-        <v>-38500</v>
+        <v>-184600</v>
       </c>
       <c r="H91" s="3">
-        <v>-14400</v>
+        <v>-172400</v>
       </c>
       <c r="I91" s="3">
+        <v>-202300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-30100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-21200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-52200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-65800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-78800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-117500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-115900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-48500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-90500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-695800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115500</v>
+        <v>-230800</v>
       </c>
       <c r="E94" s="3">
-        <v>-137600</v>
+        <v>-188100</v>
       </c>
       <c r="F94" s="3">
-        <v>-103400</v>
+        <v>-120200</v>
       </c>
       <c r="G94" s="3">
-        <v>-217200</v>
+        <v>-143100</v>
       </c>
       <c r="H94" s="3">
-        <v>377700</v>
+        <v>-107600</v>
       </c>
       <c r="I94" s="3">
+        <v>-225900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>392900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-70500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-83800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-102400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-76500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-81100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-67100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-104000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-61400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-137000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-68000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-120900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-99500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-115400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-102600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-52800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-105600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-144800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-98900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-148600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,79 +7429,85 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-314300</v>
+        <v>-109600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-275500</v>
+        <v>-326900</v>
       </c>
       <c r="H96" s="3">
-        <v>-231500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-286600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-240800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-242200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-6200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-57900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-58500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-66100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-2800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-49800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-3300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-77600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>56100</v>
+        <v>243000</v>
       </c>
       <c r="E100" s="3">
-        <v>-127800</v>
+        <v>-282000</v>
       </c>
       <c r="F100" s="3">
-        <v>-29300</v>
+        <v>58300</v>
       </c>
       <c r="G100" s="3">
-        <v>-135500</v>
+        <v>-133000</v>
       </c>
       <c r="H100" s="3">
-        <v>-89900</v>
+        <v>-30500</v>
       </c>
       <c r="I100" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-258500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-74600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-91000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-23100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-140800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-82200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>114300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-115700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-62600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>285200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-107400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-43800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>106400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>34800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>37100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>111500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>137700</v>
+        <v>46900</v>
       </c>
       <c r="E102" s="3">
-        <v>-68300</v>
+        <v>-332500</v>
       </c>
       <c r="F102" s="3">
-        <v>96500</v>
+        <v>143200</v>
       </c>
       <c r="G102" s="3">
-        <v>-267300</v>
+        <v>-71100</v>
       </c>
       <c r="H102" s="3">
-        <v>663000</v>
+        <v>100300</v>
       </c>
       <c r="I102" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>689600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-235200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-57000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-64500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>180600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-22300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>169100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>22400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>19800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>194600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-156600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>153500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-68000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-30400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>122600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-108100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1113900</v>
+        <v>1081800</v>
       </c>
       <c r="E8" s="3">
-        <v>1133200</v>
+        <v>1116300</v>
       </c>
       <c r="F8" s="3">
-        <v>1098600</v>
+        <v>1135700</v>
       </c>
       <c r="G8" s="3">
-        <v>1059100</v>
+        <v>1101000</v>
       </c>
       <c r="H8" s="3">
-        <v>1125400</v>
+        <v>1061400</v>
       </c>
       <c r="I8" s="3">
-        <v>1328000</v>
+        <v>1127800</v>
       </c>
       <c r="J8" s="3">
+        <v>1330900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1405300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>965400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1106700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>843400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>902900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>801400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>798600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>783900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1304300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>729100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>654900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>797300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>842000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>782000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1002600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>934200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>813500</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>817900</v>
       </c>
       <c r="AC8" s="3">
         <v>817900</v>
       </c>
       <c r="AD8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="AE8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>826300</v>
+        <v>873100</v>
       </c>
       <c r="E9" s="3">
-        <v>889500</v>
+        <v>828100</v>
       </c>
       <c r="F9" s="3">
-        <v>880900</v>
+        <v>891400</v>
       </c>
       <c r="G9" s="3">
-        <v>797300</v>
+        <v>882900</v>
       </c>
       <c r="H9" s="3">
-        <v>841600</v>
+        <v>799100</v>
       </c>
       <c r="I9" s="3">
-        <v>1119700</v>
+        <v>843400</v>
       </c>
       <c r="J9" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1179200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>771000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>720900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>871000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>608600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>556100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>581400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>599500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>543800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>941900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>511000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>510200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>640200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>635600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>574500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>802800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>729000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>627300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>556700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>776200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>287600</v>
+        <v>208700</v>
       </c>
       <c r="E10" s="3">
-        <v>243700</v>
+        <v>288200</v>
       </c>
       <c r="F10" s="3">
-        <v>217600</v>
+        <v>244200</v>
       </c>
       <c r="G10" s="3">
-        <v>261700</v>
+        <v>218100</v>
       </c>
       <c r="H10" s="3">
-        <v>283800</v>
+        <v>262300</v>
       </c>
       <c r="I10" s="3">
-        <v>208200</v>
+        <v>284400</v>
       </c>
       <c r="J10" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K10" s="3">
         <v>226100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>279800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>244500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>235700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>234800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>346700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>220000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>199100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>240100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>362400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>144700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>157200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>206400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>207500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>199800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>205100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>186200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>261200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>41800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,25 +1262,28 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>366900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>367700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G15" s="3">
         <v>4300</v>
       </c>
-      <c r="F15" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2700</v>
       </c>
       <c r="R15" s="3">
         <v>2700</v>
       </c>
       <c r="S15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T15" s="3">
         <v>5100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3000</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>2800</v>
       </c>
       <c r="AD15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>869300</v>
+        <v>930200</v>
       </c>
       <c r="E17" s="3">
-        <v>1019300</v>
+        <v>871200</v>
       </c>
       <c r="F17" s="3">
-        <v>939000</v>
+        <v>1021500</v>
       </c>
       <c r="G17" s="3">
-        <v>1184600</v>
+        <v>941100</v>
       </c>
       <c r="H17" s="3">
-        <v>889600</v>
+        <v>1187200</v>
       </c>
       <c r="I17" s="3">
-        <v>1200200</v>
+        <v>891600</v>
       </c>
       <c r="J17" s="3">
+        <v>1202900</v>
+      </c>
+      <c r="K17" s="3">
         <v>900600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>806900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>762800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>903000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>670400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>611600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>634500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>657800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>588900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1038600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>566400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>554700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>673700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>691200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>640300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>914100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>817300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>679400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>613800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>830600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>244600</v>
+        <v>151600</v>
       </c>
       <c r="E18" s="3">
-        <v>113900</v>
+        <v>245100</v>
       </c>
       <c r="F18" s="3">
-        <v>159600</v>
+        <v>114100</v>
       </c>
       <c r="G18" s="3">
-        <v>-125600</v>
+        <v>159900</v>
       </c>
       <c r="H18" s="3">
-        <v>235700</v>
+        <v>-125800</v>
       </c>
       <c r="I18" s="3">
-        <v>127700</v>
+        <v>236200</v>
       </c>
       <c r="J18" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K18" s="3">
         <v>504700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>202600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>203700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>172900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>291200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>166900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>140800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>195000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>265700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>162700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>123600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>150900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>141700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>88500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>116900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>134100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>204200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-12700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26900</v>
+        <v>40700</v>
       </c>
       <c r="E20" s="3">
-        <v>20600</v>
+        <v>27000</v>
       </c>
       <c r="F20" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G20" s="3">
         <v>27700</v>
       </c>
-      <c r="G20" s="3">
-        <v>30200</v>
-      </c>
       <c r="H20" s="3">
-        <v>27100</v>
+        <v>30300</v>
       </c>
       <c r="I20" s="3">
-        <v>18700</v>
+        <v>27200</v>
       </c>
       <c r="J20" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K20" s="3">
         <v>27600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>60500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>268600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>66700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>50600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>58900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>84100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>27500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>33500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>35700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>28800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-18800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>342500</v>
+        <v>264500</v>
       </c>
       <c r="E21" s="3">
-        <v>202300</v>
+        <v>343300</v>
       </c>
       <c r="F21" s="3">
-        <v>252200</v>
+        <v>202800</v>
       </c>
       <c r="G21" s="3">
-        <v>-30600</v>
+        <v>252700</v>
       </c>
       <c r="H21" s="3">
-        <v>327300</v>
+        <v>-30700</v>
       </c>
       <c r="I21" s="3">
-        <v>208600</v>
+        <v>328100</v>
       </c>
       <c r="J21" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K21" s="3">
         <v>585200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>321300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>280500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>284200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>267800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>615000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>289800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>256900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>301900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>435400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>231400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>150400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>174100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>222800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>216600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>133100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>199300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>179400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>278400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>12300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94000</v>
+        <v>89800</v>
       </c>
       <c r="E22" s="3">
-        <v>75000</v>
+        <v>94200</v>
       </c>
       <c r="F22" s="3">
-        <v>68800</v>
+        <v>75200</v>
       </c>
       <c r="G22" s="3">
-        <v>84100</v>
+        <v>68900</v>
       </c>
       <c r="H22" s="3">
-        <v>70000</v>
+        <v>84300</v>
       </c>
       <c r="I22" s="3">
-        <v>60500</v>
+        <v>70200</v>
       </c>
       <c r="J22" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K22" s="3">
         <v>49900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>90100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>83400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>82600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>120800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>40000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>39100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>52000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>49700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>58400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>61300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>65400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>67500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>71300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>177500</v>
+        <v>102400</v>
       </c>
       <c r="E23" s="3">
-        <v>59500</v>
+        <v>177800</v>
       </c>
       <c r="F23" s="3">
-        <v>118500</v>
+        <v>59700</v>
       </c>
       <c r="G23" s="3">
-        <v>-179400</v>
+        <v>118700</v>
       </c>
       <c r="H23" s="3">
-        <v>192800</v>
+        <v>-179800</v>
       </c>
       <c r="I23" s="3">
-        <v>86000</v>
+        <v>193200</v>
       </c>
       <c r="J23" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K23" s="3">
         <v>482500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>245700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>198900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>203300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>182100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>469700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>150200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>171200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>228900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>144300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>75700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>126400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>125400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>28000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>91300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>66900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>165500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-102700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49500</v>
+        <v>40300</v>
       </c>
       <c r="E24" s="3">
-        <v>-66100</v>
+        <v>49600</v>
       </c>
       <c r="F24" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>42400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>60400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>159700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="V24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="X24" s="3">
+        <v>43400</v>
+      </c>
+      <c r="Y24" s="3">
         <v>42300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-74200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>57900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>130700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>60400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>51900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>52000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>159700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>50700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>43200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>81600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="U24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>20600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>43400</v>
-      </c>
-      <c r="X24" s="3">
-        <v>42300</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>61900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-36300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>125800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>76400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>135200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>351800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>185300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>147000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>213000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>130100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>310000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>99500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>121300</v>
+      </c>
+      <c r="S26" s="3">
         <v>128000</v>
       </c>
-      <c r="E26" s="3">
-        <v>125600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>76200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-105200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>134900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>79800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>351800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>185300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>147000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>213000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>130100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>310000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>99500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>121300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>128000</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>147300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>69700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>83000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>83100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>106800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>103500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-66400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>126200</v>
+        <v>64100</v>
       </c>
       <c r="E27" s="3">
-        <v>125100</v>
+        <v>126500</v>
       </c>
       <c r="F27" s="3">
-        <v>73100</v>
+        <v>125400</v>
       </c>
       <c r="G27" s="3">
-        <v>-108100</v>
+        <v>73300</v>
       </c>
       <c r="H27" s="3">
-        <v>133800</v>
+        <v>-108300</v>
       </c>
       <c r="I27" s="3">
-        <v>78100</v>
+        <v>134100</v>
       </c>
       <c r="J27" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K27" s="3">
         <v>347000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>174700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>131100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>312600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>120200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>146300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>93200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>78600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>81700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>104900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>35900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>101800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-52400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2448,41 +2509,41 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>222700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>4300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-11100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-13000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3700</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26900</v>
+        <v>-40700</v>
       </c>
       <c r="E32" s="3">
-        <v>-20600</v>
+        <v>-27000</v>
       </c>
       <c r="F32" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-27700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-30200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-27100</v>
+        <v>-30300</v>
       </c>
       <c r="I32" s="3">
-        <v>-18700</v>
+        <v>-27200</v>
       </c>
       <c r="J32" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-60500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-268600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-66700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-50600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-58900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-84100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-27500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-33500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-35700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-28800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>18800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126200</v>
+        <v>64100</v>
       </c>
       <c r="E33" s="3">
-        <v>125100</v>
+        <v>126500</v>
       </c>
       <c r="F33" s="3">
-        <v>73100</v>
+        <v>125400</v>
       </c>
       <c r="G33" s="3">
-        <v>-108100</v>
+        <v>73300</v>
       </c>
       <c r="H33" s="3">
-        <v>133800</v>
+        <v>-108300</v>
       </c>
       <c r="I33" s="3">
-        <v>78100</v>
+        <v>134100</v>
       </c>
       <c r="J33" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K33" s="3">
         <v>569800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>183900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>133500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>105500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>150000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>93200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>78600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>81700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>104900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>35900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>101800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-52400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126200</v>
+        <v>64100</v>
       </c>
       <c r="E35" s="3">
-        <v>125100</v>
+        <v>126500</v>
       </c>
       <c r="F35" s="3">
-        <v>73100</v>
+        <v>125400</v>
       </c>
       <c r="G35" s="3">
-        <v>-108100</v>
+        <v>73300</v>
       </c>
       <c r="H35" s="3">
-        <v>133800</v>
+        <v>-108300</v>
       </c>
       <c r="I35" s="3">
-        <v>78100</v>
+        <v>134100</v>
       </c>
       <c r="J35" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K35" s="3">
         <v>569800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>183900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>133500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>105500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>150000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>93200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>78600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>81700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>104900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>35900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>101800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-52400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>586300</v>
+        <v>897700</v>
       </c>
       <c r="E41" s="3">
-        <v>539400</v>
+        <v>587600</v>
       </c>
       <c r="F41" s="3">
-        <v>871900</v>
+        <v>540600</v>
       </c>
       <c r="G41" s="3">
-        <v>728700</v>
+        <v>873800</v>
       </c>
       <c r="H41" s="3">
-        <v>799800</v>
+        <v>730300</v>
       </c>
       <c r="I41" s="3">
-        <v>699400</v>
+        <v>801500</v>
       </c>
       <c r="J41" s="3">
+        <v>701000</v>
+      </c>
+      <c r="K41" s="3">
         <v>977400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>278400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>566200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>630700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>701100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>571900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>594100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>543300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>380100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>337600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>384400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>347600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>158700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>398000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>396400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>266700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>334700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>365100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>234600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>243600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65900</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>38400</v>
+        <v>66000</v>
       </c>
       <c r="F42" s="3">
+        <v>38500</v>
+      </c>
+      <c r="G42" s="3">
         <v>2800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3">
-        <v>133600</v>
-      </c>
       <c r="I42" s="3">
-        <v>80500</v>
+        <v>133900</v>
       </c>
       <c r="J42" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K42" s="3">
         <v>43400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>106000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>66200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>92800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>106900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>97400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>75800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>78300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>76700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>44300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>38300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>22100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>33900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1295200</v>
+        <v>1288800</v>
       </c>
       <c r="E43" s="3">
-        <v>1249300</v>
+        <v>1298000</v>
       </c>
       <c r="F43" s="3">
-        <v>1221200</v>
+        <v>1252000</v>
       </c>
       <c r="G43" s="3">
-        <v>1234700</v>
+        <v>1223900</v>
       </c>
       <c r="H43" s="3">
-        <v>1417300</v>
+        <v>1237400</v>
       </c>
       <c r="I43" s="3">
-        <v>1423000</v>
+        <v>1420400</v>
       </c>
       <c r="J43" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1353900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1343700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1290800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1287600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>998800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>998900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>868700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>820900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>769300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>705600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>741500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>718300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>765200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>897800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>887400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1097100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1115800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>895600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>808500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>731200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>45000</v>
+        <v>43700</v>
       </c>
       <c r="E44" s="3">
-        <v>39200</v>
+        <v>45100</v>
       </c>
       <c r="F44" s="3">
-        <v>40400</v>
+        <v>39300</v>
       </c>
       <c r="G44" s="3">
-        <v>41600</v>
+        <v>40500</v>
       </c>
       <c r="H44" s="3">
-        <v>42700</v>
+        <v>41700</v>
       </c>
       <c r="I44" s="3">
-        <v>39800</v>
+        <v>42800</v>
       </c>
       <c r="J44" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K44" s="3">
         <v>36700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>27600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>21200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>20700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>21600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>24400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>28300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>29900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>31000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>31500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>32400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
-        <v>12100</v>
-      </c>
       <c r="F45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
-        <v>10800</v>
-      </c>
       <c r="J45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>307200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>248100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>236300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>25400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>25600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>10000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2006500</v>
+        <v>2242100</v>
       </c>
       <c r="E46" s="3">
-        <v>1878500</v>
+        <v>2010800</v>
       </c>
       <c r="F46" s="3">
-        <v>2147600</v>
+        <v>1882600</v>
       </c>
       <c r="G46" s="3">
-        <v>2027100</v>
+        <v>2152300</v>
       </c>
       <c r="H46" s="3">
-        <v>2406000</v>
+        <v>2031500</v>
       </c>
       <c r="I46" s="3">
-        <v>2253600</v>
+        <v>2411300</v>
       </c>
       <c r="J46" s="3">
+        <v>2258600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2419700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1965900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2213800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2232400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1966800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1711400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1557400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1460800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1265900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1170900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1272600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1191300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1041100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1418100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1403100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1461800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1544300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1315900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1106000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1051200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3647900</v>
+        <v>3621600</v>
       </c>
       <c r="E47" s="3">
-        <v>3522600</v>
+        <v>3655800</v>
       </c>
       <c r="F47" s="3">
-        <v>3445900</v>
+        <v>3530300</v>
       </c>
       <c r="G47" s="3">
-        <v>3466300</v>
+        <v>3453400</v>
       </c>
       <c r="H47" s="3">
-        <v>3446000</v>
+        <v>3473900</v>
       </c>
       <c r="I47" s="3">
-        <v>3441500</v>
+        <v>3453600</v>
       </c>
       <c r="J47" s="3">
+        <v>3449000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3583400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3426700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3148700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3112200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3150700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3172100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2118100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1965000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1907700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1719500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1797400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1694600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1658500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1984400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1901700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2179100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2122700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2046500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1961300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1862100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2304900</v>
+        <v>2264300</v>
       </c>
       <c r="E48" s="3">
-        <v>2080700</v>
+        <v>2310000</v>
       </c>
       <c r="F48" s="3">
-        <v>2102800</v>
+        <v>2085300</v>
       </c>
       <c r="G48" s="3">
-        <v>2114200</v>
+        <v>2107300</v>
       </c>
       <c r="H48" s="3">
-        <v>2098500</v>
+        <v>2118800</v>
       </c>
       <c r="I48" s="3">
-        <v>2083900</v>
+        <v>2103100</v>
       </c>
       <c r="J48" s="3">
+        <v>2088500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1914700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1861700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1857200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1884400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1862800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2049800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2076400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1973700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2038800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1927700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2037000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1934200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1986900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2438400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2373700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2521700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2477700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2397500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2252800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2235600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2270700</v>
+        <v>2315200</v>
       </c>
       <c r="E49" s="3">
-        <v>2069900</v>
+        <v>2275700</v>
       </c>
       <c r="F49" s="3">
-        <v>1906200</v>
+        <v>2074500</v>
       </c>
       <c r="G49" s="3">
-        <v>1878800</v>
+        <v>1910300</v>
       </c>
       <c r="H49" s="3">
-        <v>1861300</v>
+        <v>1882900</v>
       </c>
       <c r="I49" s="3">
-        <v>1856000</v>
+        <v>1865300</v>
       </c>
       <c r="J49" s="3">
+        <v>1860100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1762700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1356400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1338800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1356100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1266800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1267100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1251700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1169600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1173200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1096000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1138200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1075600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1218200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1511800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1509600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1654400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1682400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1672400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1609700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1602600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>457200</v>
+        <v>457500</v>
       </c>
       <c r="E52" s="3">
-        <v>458500</v>
+        <v>458200</v>
       </c>
       <c r="F52" s="3">
-        <v>438200</v>
+        <v>459500</v>
       </c>
       <c r="G52" s="3">
-        <v>439400</v>
+        <v>439200</v>
       </c>
       <c r="H52" s="3">
-        <v>320700</v>
+        <v>440400</v>
       </c>
       <c r="I52" s="3">
-        <v>341800</v>
+        <v>321400</v>
       </c>
       <c r="J52" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K52" s="3">
         <v>356000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>562800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>581700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>570700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>523700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>537600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>543800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>507200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>503300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>499200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>540700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>514200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>562300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>699000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>685900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>752600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>776100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>746000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>744600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>767400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10687200</v>
+        <v>10900800</v>
       </c>
       <c r="E54" s="3">
-        <v>10010300</v>
+        <v>10710500</v>
       </c>
       <c r="F54" s="3">
-        <v>10040600</v>
+        <v>10032200</v>
       </c>
       <c r="G54" s="3">
-        <v>9925800</v>
+        <v>10062600</v>
       </c>
       <c r="H54" s="3">
-        <v>10132600</v>
+        <v>9947400</v>
       </c>
       <c r="I54" s="3">
-        <v>9976900</v>
+        <v>10154700</v>
       </c>
       <c r="J54" s="3">
+        <v>9998700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10036500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9173500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9140100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9155800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8770900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8738000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7547400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7076300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6888900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6413200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6785900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6409900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6467100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8051800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7873900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8502200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8603300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8178300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7674400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>7518900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>395200</v>
+        <v>420500</v>
       </c>
       <c r="E57" s="3">
-        <v>420900</v>
+        <v>396100</v>
       </c>
       <c r="F57" s="3">
-        <v>418100</v>
+        <v>421900</v>
       </c>
       <c r="G57" s="3">
-        <v>421100</v>
+        <v>419000</v>
       </c>
       <c r="H57" s="3">
-        <v>422700</v>
+        <v>422100</v>
       </c>
       <c r="I57" s="3">
-        <v>520800</v>
+        <v>423600</v>
       </c>
       <c r="J57" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K57" s="3">
         <v>572900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>427200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>394400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>448400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>282800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>290000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>302100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>311300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>312300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>257200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>286300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>253200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>396600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>390700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>324400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>431600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>557600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>391700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>283700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>311500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376800</v>
+        <v>474400</v>
       </c>
       <c r="E58" s="3">
-        <v>340400</v>
+        <v>377600</v>
       </c>
       <c r="F58" s="3">
-        <v>508000</v>
+        <v>341100</v>
       </c>
       <c r="G58" s="3">
-        <v>534700</v>
+        <v>509100</v>
       </c>
       <c r="H58" s="3">
-        <v>634900</v>
+        <v>535800</v>
       </c>
       <c r="I58" s="3">
-        <v>558200</v>
+        <v>636300</v>
       </c>
       <c r="J58" s="3">
+        <v>559400</v>
+      </c>
+      <c r="K58" s="3">
         <v>542100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>452200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>350700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>516700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>406600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>251800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>298200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>268400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>317900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>488100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>671000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>588400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>611700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>925600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>619600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>840300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>755800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>681600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>645500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>710800</v>
+        <v>633200</v>
       </c>
       <c r="E59" s="3">
-        <v>680000</v>
+        <v>712300</v>
       </c>
       <c r="F59" s="3">
-        <v>466800</v>
+        <v>681500</v>
       </c>
       <c r="G59" s="3">
-        <v>551500</v>
+        <v>467900</v>
       </c>
       <c r="H59" s="3">
-        <v>614900</v>
+        <v>552700</v>
       </c>
       <c r="I59" s="3">
-        <v>528200</v>
+        <v>616300</v>
       </c>
       <c r="J59" s="3">
+        <v>529400</v>
+      </c>
+      <c r="K59" s="3">
         <v>863400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1027600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1230600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>924300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>718000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>651900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>418100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>407600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>283000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>267600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>331400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>352900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>340300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>487500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>455500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>515200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>567600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>528000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>475300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>446200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1482800</v>
+        <v>1528200</v>
       </c>
       <c r="E60" s="3">
-        <v>1441300</v>
+        <v>1486100</v>
       </c>
       <c r="F60" s="3">
-        <v>1392900</v>
+        <v>1444500</v>
       </c>
       <c r="G60" s="3">
-        <v>1507300</v>
+        <v>1396000</v>
       </c>
       <c r="H60" s="3">
-        <v>1672500</v>
+        <v>1510600</v>
       </c>
       <c r="I60" s="3">
-        <v>1607200</v>
+        <v>1676200</v>
       </c>
       <c r="J60" s="3">
+        <v>1610700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1978500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1907000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1975800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1889400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1407300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1193700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1018300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>987300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>913300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1012900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1288700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1194400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1348600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1803800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1380400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1566500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1965500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1675500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1440600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1403100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2643300</v>
+        <v>2873800</v>
       </c>
       <c r="E61" s="3">
-        <v>2223000</v>
+        <v>2649100</v>
       </c>
       <c r="F61" s="3">
-        <v>2233400</v>
+        <v>2227900</v>
       </c>
       <c r="G61" s="3">
-        <v>2118300</v>
+        <v>2238300</v>
       </c>
       <c r="H61" s="3">
-        <v>1795400</v>
+        <v>2122900</v>
       </c>
       <c r="I61" s="3">
-        <v>1866400</v>
+        <v>1799300</v>
       </c>
       <c r="J61" s="3">
+        <v>1870500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1604600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1448900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1554100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1456800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1627800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1895700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1929600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1886800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1753500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1515500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1463500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1474900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1229000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1452700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1826700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1900700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1602200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1672600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1530600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1546800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2177300</v>
+        <v>2056100</v>
       </c>
       <c r="E62" s="3">
-        <v>2090100</v>
+        <v>2182100</v>
       </c>
       <c r="F62" s="3">
-        <v>2118400</v>
+        <v>2094700</v>
       </c>
       <c r="G62" s="3">
-        <v>2081700</v>
+        <v>2123000</v>
       </c>
       <c r="H62" s="3">
-        <v>2064400</v>
+        <v>2086300</v>
       </c>
       <c r="I62" s="3">
-        <v>2037200</v>
+        <v>2068900</v>
       </c>
       <c r="J62" s="3">
+        <v>2041600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2039300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1848000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1827100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1846600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1776000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1776400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1030900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>951800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>884400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>842400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>882700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>826200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>830400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1016700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>969300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1058400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1005900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>903700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>885000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>848300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6368400</v>
+        <v>6508600</v>
       </c>
       <c r="E66" s="3">
-        <v>5817700</v>
+        <v>6382300</v>
       </c>
       <c r="F66" s="3">
-        <v>5817300</v>
+        <v>5830400</v>
       </c>
       <c r="G66" s="3">
-        <v>5777700</v>
+        <v>5830000</v>
       </c>
       <c r="H66" s="3">
-        <v>5600800</v>
+        <v>5790300</v>
       </c>
       <c r="I66" s="3">
-        <v>5578900</v>
+        <v>5613000</v>
       </c>
       <c r="J66" s="3">
+        <v>5591100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5693500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5267700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5415200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5249800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4864100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4920400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4046700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3889800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3615300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3424300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3692500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3549700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3464800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4345500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4248800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4603200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4639800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4320100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3919800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3863800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2025800</v>
+        <v>2096100</v>
       </c>
       <c r="E72" s="3">
-        <v>1898000</v>
+        <v>2030300</v>
       </c>
       <c r="F72" s="3">
-        <v>1965900</v>
+        <v>1902100</v>
       </c>
       <c r="G72" s="3">
-        <v>1891200</v>
+        <v>1970200</v>
       </c>
       <c r="H72" s="3">
-        <v>1997400</v>
+        <v>1895300</v>
       </c>
       <c r="I72" s="3">
-        <v>1861400</v>
+        <v>2001800</v>
       </c>
       <c r="J72" s="3">
+        <v>1865400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2113700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1754000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1567800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1428300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1696700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1578800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1259000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1082400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1109600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>943300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1469300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1309000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1383000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1658700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1573800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1641400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1692200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1582700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1547600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1445100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4318800</v>
+        <v>4392200</v>
       </c>
       <c r="E76" s="3">
-        <v>4192600</v>
+        <v>4328200</v>
       </c>
       <c r="F76" s="3">
-        <v>4223300</v>
+        <v>4201800</v>
       </c>
       <c r="G76" s="3">
-        <v>4148100</v>
+        <v>4232500</v>
       </c>
       <c r="H76" s="3">
-        <v>4531800</v>
+        <v>4157100</v>
       </c>
       <c r="I76" s="3">
-        <v>4398000</v>
+        <v>4541700</v>
       </c>
       <c r="J76" s="3">
+        <v>4407600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4343000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3905800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3725000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3906000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3906800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3817600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3500700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3186500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3273600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2989000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3093400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2860300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3002300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3706200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3625200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3899000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3963500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3858200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3754600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3655100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126200</v>
+        <v>64100</v>
       </c>
       <c r="E81" s="3">
-        <v>125100</v>
+        <v>126500</v>
       </c>
       <c r="F81" s="3">
-        <v>73100</v>
+        <v>125400</v>
       </c>
       <c r="G81" s="3">
-        <v>-108100</v>
+        <v>73300</v>
       </c>
       <c r="H81" s="3">
-        <v>133800</v>
+        <v>-108300</v>
       </c>
       <c r="I81" s="3">
-        <v>78100</v>
+        <v>134100</v>
       </c>
       <c r="J81" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K81" s="3">
         <v>569800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>183900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>133500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>105500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>150000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>93200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>78600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>81700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>104900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>35900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>101800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-52400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71000</v>
+        <v>72200</v>
       </c>
       <c r="E83" s="3">
-        <v>67800</v>
+        <v>71200</v>
       </c>
       <c r="F83" s="3">
-        <v>65000</v>
+        <v>67900</v>
       </c>
       <c r="G83" s="3">
+        <v>65100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>64900</v>
+      </c>
+      <c r="I83" s="3">
         <v>64700</v>
       </c>
-      <c r="H83" s="3">
-        <v>64500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>62200</v>
-      </c>
       <c r="J83" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K83" s="3">
         <v>52800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>65500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>85600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>34700</v>
       </c>
       <c r="V83" s="3">
         <v>34700</v>
       </c>
       <c r="W83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="X83" s="3">
         <v>44400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41400</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>46700</v>
       </c>
       <c r="Z83" s="3">
         <v>46700</v>
       </c>
       <c r="AA83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="AB83" s="3">
         <v>47200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>45400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>43700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34700</v>
+        <v>262400</v>
       </c>
       <c r="E89" s="3">
-        <v>137600</v>
+        <v>34800</v>
       </c>
       <c r="F89" s="3">
-        <v>205100</v>
+        <v>137900</v>
       </c>
       <c r="G89" s="3">
-        <v>205000</v>
+        <v>205500</v>
       </c>
       <c r="H89" s="3">
-        <v>238400</v>
+        <v>205400</v>
       </c>
       <c r="I89" s="3">
-        <v>88900</v>
+        <v>238900</v>
       </c>
       <c r="J89" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K89" s="3">
         <v>390200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>280200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>199600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>158700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>245300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>150300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>160800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>149800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>38100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>156000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>106000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>39800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-493600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-106700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-184600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-172400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-202300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-52200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-65800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-117500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-115900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-48500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-94000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-90500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-695800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-230800</v>
+        <v>-186300</v>
       </c>
       <c r="E94" s="3">
-        <v>-188100</v>
+        <v>-231300</v>
       </c>
       <c r="F94" s="3">
-        <v>-120200</v>
+        <v>-188500</v>
       </c>
       <c r="G94" s="3">
-        <v>-143100</v>
+        <v>-120400</v>
       </c>
       <c r="H94" s="3">
-        <v>-107600</v>
+        <v>-143400</v>
       </c>
       <c r="I94" s="3">
-        <v>-225900</v>
+        <v>-107800</v>
       </c>
       <c r="J94" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K94" s="3">
         <v>392900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-81100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-137000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-68000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-120900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-115400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-102600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-52800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-105600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-144800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-98900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-148600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-72000</v>
       </c>
       <c r="E96" s="3">
-        <v>-109600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-109900</v>
       </c>
       <c r="G96" s="3">
-        <v>-326900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-327600</v>
       </c>
       <c r="I96" s="3">
-        <v>-286600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-287200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-240800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-242200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-57900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-66100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-49800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-49900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>243000</v>
+        <v>234000</v>
       </c>
       <c r="E100" s="3">
-        <v>-282000</v>
+        <v>243500</v>
       </c>
       <c r="F100" s="3">
-        <v>58300</v>
+        <v>-282600</v>
       </c>
       <c r="G100" s="3">
-        <v>-133000</v>
+        <v>58500</v>
       </c>
       <c r="H100" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-30500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-141000</v>
-      </c>
       <c r="J100" s="3">
+        <v>-141300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-93500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-258500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-140800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-82200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>114300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-47600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-115700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>285200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-107400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-43800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>106400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>34800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>37100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>111500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46900</v>
+        <v>310100</v>
       </c>
       <c r="E102" s="3">
-        <v>-332500</v>
+        <v>47000</v>
       </c>
       <c r="F102" s="3">
-        <v>143200</v>
+        <v>-333200</v>
       </c>
       <c r="G102" s="3">
-        <v>-71100</v>
+        <v>143500</v>
       </c>
       <c r="H102" s="3">
-        <v>100300</v>
+        <v>-71200</v>
       </c>
       <c r="I102" s="3">
-        <v>-278000</v>
+        <v>100500</v>
       </c>
       <c r="J102" s="3">
+        <v>-278600</v>
+      </c>
+      <c r="K102" s="3">
         <v>689600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-235200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-64500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>180600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>169100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>194600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-156600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>153500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-30400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>122600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-108100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1081800</v>
+        <v>1140000</v>
       </c>
       <c r="E8" s="3">
-        <v>1116300</v>
+        <v>2131900</v>
       </c>
       <c r="F8" s="3">
-        <v>1135700</v>
+        <v>1137300</v>
       </c>
       <c r="G8" s="3">
-        <v>1101000</v>
+        <v>1157000</v>
       </c>
       <c r="H8" s="3">
-        <v>1061400</v>
+        <v>1050400</v>
       </c>
       <c r="I8" s="3">
-        <v>1127800</v>
+        <v>1081300</v>
       </c>
       <c r="J8" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1330900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1405300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1050800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>965400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1106700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>843400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>902900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>801400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>798600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>783900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1304300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>729100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>654900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>797300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>842000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>782000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1002600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>934200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>813500</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>817900</v>
       </c>
       <c r="AD8" s="3">
         <v>817900</v>
       </c>
       <c r="AE8" s="3">
+        <v>817900</v>
+      </c>
+      <c r="AF8" s="3">
         <v>722900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>873100</v>
+        <v>941700</v>
       </c>
       <c r="E9" s="3">
-        <v>828100</v>
+        <v>1652100</v>
       </c>
       <c r="F9" s="3">
-        <v>891400</v>
+        <v>843600</v>
       </c>
       <c r="G9" s="3">
-        <v>882900</v>
+        <v>908200</v>
       </c>
       <c r="H9" s="3">
-        <v>799100</v>
+        <v>1731700</v>
       </c>
       <c r="I9" s="3">
-        <v>843400</v>
+        <v>814100</v>
       </c>
       <c r="J9" s="3">
+        <v>859300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1122200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1179200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>771000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>720900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>871000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>608600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>556100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>581400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>599500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>543800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>941900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>511000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>510200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>640200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>635600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>574500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>802800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>729000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>627300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>556700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>776200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>596400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>198300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>479800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>293700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>248800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-681200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>267200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>289700</v>
+      </c>
+      <c r="K10" s="3">
         <v>208700</v>
       </c>
-      <c r="E10" s="3">
-        <v>288200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>244200</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
+        <v>226100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>279800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>244500</v>
+      </c>
+      <c r="O10" s="3">
+        <v>235700</v>
+      </c>
+      <c r="P10" s="3">
+        <v>234800</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>346700</v>
+      </c>
+      <c r="R10" s="3">
+        <v>220000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>199100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>240100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>362400</v>
+      </c>
+      <c r="V10" s="3">
         <v>218100</v>
       </c>
-      <c r="H10" s="3">
-        <v>262300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>284400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>208700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>226100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>279800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>244500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>235700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>234800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>346700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>220000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>199100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>240100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>362400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>218100</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>144700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>157200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>206400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>207500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>199800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>205100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>186200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>261200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>41800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>126500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,28 +1282,31 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>367700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>374600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1354,97 +1374,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="E15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2700</v>
       </c>
       <c r="S15" s="3">
         <v>2700</v>
       </c>
       <c r="T15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U15" s="3">
         <v>5100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>2800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3000</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>2800</v>
       </c>
       <c r="AE15" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>930200</v>
+        <v>1047200</v>
       </c>
       <c r="E17" s="3">
-        <v>871200</v>
+        <v>1708900</v>
       </c>
       <c r="F17" s="3">
-        <v>1021500</v>
+        <v>887600</v>
       </c>
       <c r="G17" s="3">
-        <v>941100</v>
+        <v>1040700</v>
       </c>
       <c r="H17" s="3">
-        <v>1187200</v>
+        <v>887600</v>
       </c>
       <c r="I17" s="3">
-        <v>891600</v>
+        <v>1209500</v>
       </c>
       <c r="J17" s="3">
+        <v>908300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1202900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>806900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>762800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>903000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>670400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>611600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>634500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>657800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>588900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1038600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>566400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>554700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>673700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>691200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>640300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>914100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>817300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>679400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>613800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>830600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>151600</v>
+        <v>92900</v>
       </c>
       <c r="E18" s="3">
-        <v>245100</v>
+        <v>423100</v>
       </c>
       <c r="F18" s="3">
-        <v>114100</v>
+        <v>249700</v>
       </c>
       <c r="G18" s="3">
-        <v>159900</v>
+        <v>116300</v>
       </c>
       <c r="H18" s="3">
-        <v>-125800</v>
+        <v>162900</v>
       </c>
       <c r="I18" s="3">
-        <v>236200</v>
+        <v>-128200</v>
       </c>
       <c r="J18" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K18" s="3">
         <v>128000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>504700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>243900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>202600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>203700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>291200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>166900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>140800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>195000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>265700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>162700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>123600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>150900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>141700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>88500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>116900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>134100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>204200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-12700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40700</v>
+        <v>25900</v>
       </c>
       <c r="E20" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>95800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>18800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>27600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>28100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>28200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>28100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>60500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>268600</v>
+      </c>
+      <c r="R20" s="3">
+        <v>66700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>50600</v>
+      </c>
+      <c r="T20" s="3">
+        <v>58900</v>
+      </c>
+      <c r="U20" s="3">
+        <v>84100</v>
+      </c>
+      <c r="V20" s="3">
         <v>27000</v>
       </c>
-      <c r="F20" s="3">
-        <v>20700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>27700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>30300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>27200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>18800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>27600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>28100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>28200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>28100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>60500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>268600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>66700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>50600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>58900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>84100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>27000</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>27500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>33500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>35700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>28800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-18800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>264500</v>
+        <v>183900</v>
       </c>
       <c r="E21" s="3">
-        <v>343300</v>
+        <v>640500</v>
       </c>
       <c r="F21" s="3">
-        <v>202800</v>
+        <v>350900</v>
       </c>
       <c r="G21" s="3">
-        <v>252700</v>
+        <v>206600</v>
       </c>
       <c r="H21" s="3">
-        <v>-30700</v>
+        <v>325000</v>
       </c>
       <c r="I21" s="3">
-        <v>328100</v>
+        <v>-31200</v>
       </c>
       <c r="J21" s="3">
+        <v>334200</v>
+      </c>
+      <c r="K21" s="3">
         <v>209100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>585200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>321300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>280500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>284200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>267800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>615000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>289800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>256900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>301900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>435400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>231400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>174100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>222800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>216600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>133100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>199300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>179400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>278400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>12300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>124900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89800</v>
+        <v>92200</v>
       </c>
       <c r="E22" s="3">
-        <v>94200</v>
+        <v>189900</v>
       </c>
       <c r="F22" s="3">
-        <v>75200</v>
+        <v>97200</v>
       </c>
       <c r="G22" s="3">
-        <v>68900</v>
+        <v>76600</v>
       </c>
       <c r="H22" s="3">
-        <v>84300</v>
+        <v>140300</v>
       </c>
       <c r="I22" s="3">
-        <v>70200</v>
+        <v>85800</v>
       </c>
       <c r="J22" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K22" s="3">
         <v>60600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>90100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>83400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>73000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>82600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>120800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>40000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>39100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>52000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>49700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>58400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>61300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>65400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>67500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>71300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102400</v>
+        <v>26500</v>
       </c>
       <c r="E23" s="3">
-        <v>177800</v>
+        <v>304500</v>
       </c>
       <c r="F23" s="3">
-        <v>59700</v>
+        <v>181200</v>
       </c>
       <c r="G23" s="3">
-        <v>118700</v>
+        <v>60800</v>
       </c>
       <c r="H23" s="3">
-        <v>-179800</v>
+        <v>118400</v>
       </c>
       <c r="I23" s="3">
-        <v>193200</v>
+        <v>-183200</v>
       </c>
       <c r="J23" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K23" s="3">
         <v>86200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>482500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>245700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>198900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>203300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>182100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>469700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>150200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>171200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>228900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>144300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>75700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>126400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>125400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>28000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>91300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>66900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>165500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-102700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40300</v>
+        <v>-63400</v>
       </c>
       <c r="E24" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>40100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>60400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>159700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="V24" s="3">
         <v>49600</v>
       </c>
-      <c r="F24" s="3">
-        <v>-66200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-74400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>58000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>130700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>60400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>51900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>159700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>50700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>43200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>81600</v>
-      </c>
-      <c r="U24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>42300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>61900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-36300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62100</v>
+        <v>89800</v>
       </c>
       <c r="E26" s="3">
-        <v>128300</v>
+        <v>222000</v>
       </c>
       <c r="F26" s="3">
-        <v>125800</v>
+        <v>130700</v>
       </c>
       <c r="G26" s="3">
-        <v>76400</v>
+        <v>128200</v>
       </c>
       <c r="H26" s="3">
-        <v>-105400</v>
+        <v>78300</v>
       </c>
       <c r="I26" s="3">
-        <v>135200</v>
+        <v>-107400</v>
       </c>
       <c r="J26" s="3">
+        <v>137700</v>
+      </c>
+      <c r="K26" s="3">
         <v>80000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>351800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>213000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>130100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>310000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>121300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>128000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>147300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>69700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>83000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>83100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>34200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>106800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>103500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-66400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64100</v>
+        <v>88700</v>
       </c>
       <c r="E27" s="3">
-        <v>126500</v>
+        <v>222300</v>
       </c>
       <c r="F27" s="3">
-        <v>125400</v>
+        <v>128800</v>
       </c>
       <c r="G27" s="3">
-        <v>73300</v>
+        <v>127800</v>
       </c>
       <c r="H27" s="3">
-        <v>-108300</v>
+        <v>75100</v>
       </c>
       <c r="I27" s="3">
-        <v>134100</v>
+        <v>-110300</v>
       </c>
       <c r="J27" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K27" s="3">
         <v>78200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>347000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>174700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>208100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>312600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>120200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>146300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>93200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>78600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>81400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>104900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>35900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>101800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-52400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,68 +2543,71 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>900</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>222700</v>
+      </c>
+      <c r="M29" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N29" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O29" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="U29" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>222700</v>
-      </c>
-      <c r="L29" s="3">
-        <v>9200</v>
-      </c>
-      <c r="M29" s="3">
-        <v>7000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>6900</v>
-      </c>
-      <c r="O29" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P29" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="T29" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40700</v>
+        <v>-25900</v>
       </c>
       <c r="E32" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-268600</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-27000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-28200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-60500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-268600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-66700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-84100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-33500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-35700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-28800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>18800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64100</v>
+        <v>89500</v>
       </c>
       <c r="E33" s="3">
-        <v>126500</v>
+        <v>194200</v>
       </c>
       <c r="F33" s="3">
-        <v>125400</v>
+        <v>128800</v>
       </c>
       <c r="G33" s="3">
-        <v>73300</v>
+        <v>127800</v>
       </c>
       <c r="H33" s="3">
-        <v>-108300</v>
+        <v>74600</v>
       </c>
       <c r="I33" s="3">
-        <v>134100</v>
+        <v>-110300</v>
       </c>
       <c r="J33" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K33" s="3">
         <v>78200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>569800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>183900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>215000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>133500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>150000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>93200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>78600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>81400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>104900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>35900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>101800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-52400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64100</v>
+        <v>89500</v>
       </c>
       <c r="E35" s="3">
-        <v>126500</v>
+        <v>194200</v>
       </c>
       <c r="F35" s="3">
-        <v>125400</v>
+        <v>128800</v>
       </c>
       <c r="G35" s="3">
-        <v>73300</v>
+        <v>127800</v>
       </c>
       <c r="H35" s="3">
-        <v>-108300</v>
+        <v>74600</v>
       </c>
       <c r="I35" s="3">
-        <v>134100</v>
+        <v>-110300</v>
       </c>
       <c r="J35" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K35" s="3">
         <v>78200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>569800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>183900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>215000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>133500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>150000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>93200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>78600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>81400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>104900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>35900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>101800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-52400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>897700</v>
+        <v>1142800</v>
       </c>
       <c r="E41" s="3">
-        <v>587600</v>
+        <v>914500</v>
       </c>
       <c r="F41" s="3">
-        <v>540600</v>
+        <v>598600</v>
       </c>
       <c r="G41" s="3">
-        <v>873800</v>
+        <v>550800</v>
       </c>
       <c r="H41" s="3">
-        <v>730300</v>
+        <v>890200</v>
       </c>
       <c r="I41" s="3">
-        <v>801500</v>
+        <v>744000</v>
       </c>
       <c r="J41" s="3">
+        <v>816600</v>
+      </c>
+      <c r="K41" s="3">
         <v>701000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>977400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>278400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>566200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>630700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>701100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>571900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>594100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>543300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>380100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>337600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>384400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>347600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>158700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>398000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>396400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>266700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>334700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>365100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>234600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>243600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E42" s="3">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>38500</v>
+        <v>67300</v>
       </c>
       <c r="G42" s="3">
-        <v>2800</v>
+        <v>39200</v>
       </c>
       <c r="H42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="I42" s="3">
-        <v>133900</v>
-      </c>
       <c r="J42" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K42" s="3">
         <v>80700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>106000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>66200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>86500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>92800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>106900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>97400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>75800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>78300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>76700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>44300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>38300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>22100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>33900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1288800</v>
+        <v>1274600</v>
       </c>
       <c r="E43" s="3">
-        <v>1298000</v>
+        <v>1313000</v>
       </c>
       <c r="F43" s="3">
-        <v>1252000</v>
+        <v>1322400</v>
       </c>
       <c r="G43" s="3">
-        <v>1223900</v>
+        <v>1275500</v>
       </c>
       <c r="H43" s="3">
-        <v>1237400</v>
+        <v>1246900</v>
       </c>
       <c r="I43" s="3">
-        <v>1420400</v>
+        <v>1260600</v>
       </c>
       <c r="J43" s="3">
+        <v>1447100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1426100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1353900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1343700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1290800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1287600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>998800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>998900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>868700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>820900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>769300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>705600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>741500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>718300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>765200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>897800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>887400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1097100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1115800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>895600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>808500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>731200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>730600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43700</v>
+        <v>38200</v>
       </c>
       <c r="E44" s="3">
-        <v>45100</v>
+        <v>44500</v>
       </c>
       <c r="F44" s="3">
-        <v>39300</v>
+        <v>45900</v>
       </c>
       <c r="G44" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="H44" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="I44" s="3">
-        <v>42800</v>
+        <v>42500</v>
       </c>
       <c r="J44" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K44" s="3">
         <v>39900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>27600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>24100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>21100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>21200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>20700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>21600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>24400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>28300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>29900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>31000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>31500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>32400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>274100</v>
       </c>
       <c r="E45" s="3">
-        <v>14100</v>
+        <v>12100</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>14400</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>19100</v>
+        <v>11500</v>
       </c>
       <c r="I45" s="3">
-        <v>12700</v>
+        <v>19500</v>
       </c>
       <c r="J45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>307200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>248100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>236300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>25400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>25600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>9400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>10000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2242100</v>
+        <v>2737700</v>
       </c>
       <c r="E46" s="3">
-        <v>2010800</v>
+        <v>2284200</v>
       </c>
       <c r="F46" s="3">
-        <v>1882600</v>
+        <v>2048600</v>
       </c>
       <c r="G46" s="3">
-        <v>2152300</v>
+        <v>1918000</v>
       </c>
       <c r="H46" s="3">
-        <v>2031500</v>
+        <v>2192700</v>
       </c>
       <c r="I46" s="3">
-        <v>2411300</v>
+        <v>2069700</v>
       </c>
       <c r="J46" s="3">
+        <v>2456600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2258600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2419700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1965900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2213800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2232400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1966800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1711400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1557400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1460800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1265900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1170900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1272600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1191300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1041100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1418100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1403100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1461800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1544300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1315900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1106000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1051200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1211100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3621600</v>
+        <v>3699700</v>
       </c>
       <c r="E47" s="3">
-        <v>3655800</v>
+        <v>3689600</v>
       </c>
       <c r="F47" s="3">
-        <v>3530300</v>
+        <v>3724500</v>
       </c>
       <c r="G47" s="3">
-        <v>3453400</v>
+        <v>3596600</v>
       </c>
       <c r="H47" s="3">
-        <v>3473900</v>
+        <v>3518300</v>
       </c>
       <c r="I47" s="3">
-        <v>3453600</v>
+        <v>3539100</v>
       </c>
       <c r="J47" s="3">
+        <v>3518400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3449000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3583400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3426700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3148700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3112200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3150700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3172100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2118100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1965000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1907700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1719500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1797400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1694600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1658500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1984400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1901700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2179100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2122700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2046500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1961300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1862100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1567900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2264300</v>
+        <v>2272700</v>
       </c>
       <c r="E48" s="3">
-        <v>2310000</v>
+        <v>2306800</v>
       </c>
       <c r="F48" s="3">
-        <v>2085300</v>
+        <v>2353400</v>
       </c>
       <c r="G48" s="3">
-        <v>2107300</v>
+        <v>2124400</v>
       </c>
       <c r="H48" s="3">
-        <v>2118800</v>
+        <v>2146900</v>
       </c>
       <c r="I48" s="3">
-        <v>2103100</v>
+        <v>2158600</v>
       </c>
       <c r="J48" s="3">
+        <v>2142600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2088500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1914700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1861700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1857200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1884400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1862800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2049800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2076400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1973700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2038800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1927700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2037000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1934200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1986900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2438400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2373700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2521700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2477700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2397500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2252800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2235600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2475300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2315200</v>
+        <v>2243600</v>
       </c>
       <c r="E49" s="3">
-        <v>2275700</v>
+        <v>2358700</v>
       </c>
       <c r="F49" s="3">
-        <v>2074500</v>
+        <v>2318400</v>
       </c>
       <c r="G49" s="3">
-        <v>1910300</v>
+        <v>2113400</v>
       </c>
       <c r="H49" s="3">
-        <v>1882900</v>
+        <v>1946200</v>
       </c>
       <c r="I49" s="3">
-        <v>1865300</v>
+        <v>1918300</v>
       </c>
       <c r="J49" s="3">
+        <v>1900400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1860100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1762700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1356400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1338800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1356100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1266800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1267100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1251700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1169600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1173200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1096000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1138200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1075600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1218200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1511800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1509600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1654400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1682400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1672400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1609700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1602600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1592500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>457500</v>
+        <v>500200</v>
       </c>
       <c r="E52" s="3">
-        <v>458200</v>
+        <v>466100</v>
       </c>
       <c r="F52" s="3">
-        <v>459500</v>
+        <v>466800</v>
       </c>
       <c r="G52" s="3">
-        <v>439200</v>
+        <v>468200</v>
       </c>
       <c r="H52" s="3">
-        <v>440400</v>
+        <v>447400</v>
       </c>
       <c r="I52" s="3">
-        <v>321400</v>
+        <v>448600</v>
       </c>
       <c r="J52" s="3">
+        <v>327400</v>
+      </c>
+      <c r="K52" s="3">
         <v>342600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>356000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>562800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>581700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>570700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>523700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>537600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>543800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>507200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>503300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>499200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>540700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>514200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>562300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>699000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>685900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>752600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>776100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>746000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>744600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>767400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>719100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10900800</v>
+        <v>11453900</v>
       </c>
       <c r="E54" s="3">
-        <v>10710500</v>
+        <v>11105500</v>
       </c>
       <c r="F54" s="3">
-        <v>10032200</v>
+        <v>10911600</v>
       </c>
       <c r="G54" s="3">
-        <v>10062600</v>
+        <v>10220600</v>
       </c>
       <c r="H54" s="3">
-        <v>9947400</v>
+        <v>10251500</v>
       </c>
       <c r="I54" s="3">
-        <v>10154700</v>
+        <v>10134200</v>
       </c>
       <c r="J54" s="3">
+        <v>10345400</v>
+      </c>
+      <c r="K54" s="3">
         <v>9998700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10036500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9173500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9140100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9155800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8770900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8738000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7547400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7076300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6888900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6413200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6785900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6409900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6467100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8051800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7873900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8502200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8603300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8178300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>7674400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>7518900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>7565800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>420500</v>
+        <v>447700</v>
       </c>
       <c r="E57" s="3">
-        <v>396100</v>
+        <v>428400</v>
       </c>
       <c r="F57" s="3">
-        <v>421900</v>
+        <v>403500</v>
       </c>
       <c r="G57" s="3">
-        <v>419000</v>
+        <v>429800</v>
       </c>
       <c r="H57" s="3">
-        <v>422100</v>
+        <v>426900</v>
       </c>
       <c r="I57" s="3">
-        <v>423600</v>
+        <v>430000</v>
       </c>
       <c r="J57" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K57" s="3">
         <v>521900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>572900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>427200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>394400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>448400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>282800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>290000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>302100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>311300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>312300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>257200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>286300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>253200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>396600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>390700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>324400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>431600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>557600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>391700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>283700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>311500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>299300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>474400</v>
+        <v>352600</v>
       </c>
       <c r="E58" s="3">
-        <v>377600</v>
+        <v>483300</v>
       </c>
       <c r="F58" s="3">
-        <v>341100</v>
+        <v>384700</v>
       </c>
       <c r="G58" s="3">
-        <v>509100</v>
+        <v>347500</v>
       </c>
       <c r="H58" s="3">
-        <v>535800</v>
+        <v>518700</v>
       </c>
       <c r="I58" s="3">
-        <v>636300</v>
+        <v>545900</v>
       </c>
       <c r="J58" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K58" s="3">
         <v>559400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>542100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>452200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>350700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>516700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>406600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>251800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>298200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>268400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>317900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>488100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>671000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>588400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>611700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>925600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>619600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>840300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>755800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>681600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>645500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>490800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>633200</v>
+        <v>1049400</v>
       </c>
       <c r="E59" s="3">
-        <v>712300</v>
+        <v>645100</v>
       </c>
       <c r="F59" s="3">
-        <v>681500</v>
+        <v>725700</v>
       </c>
       <c r="G59" s="3">
-        <v>467900</v>
+        <v>694300</v>
       </c>
       <c r="H59" s="3">
-        <v>552700</v>
+        <v>476700</v>
       </c>
       <c r="I59" s="3">
-        <v>616300</v>
+        <v>563000</v>
       </c>
       <c r="J59" s="3">
+        <v>627900</v>
+      </c>
+      <c r="K59" s="3">
         <v>529400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>863400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1027600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1230600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>924300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>718000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>651900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>418100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>407600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>283000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>267600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>331400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>352900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>340300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>487500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>455500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>515200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>567600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>528000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>475300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>446200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>359100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1528200</v>
+        <v>1849700</v>
       </c>
       <c r="E60" s="3">
-        <v>1486100</v>
+        <v>1556900</v>
       </c>
       <c r="F60" s="3">
-        <v>1444500</v>
+        <v>1514000</v>
       </c>
       <c r="G60" s="3">
-        <v>1396000</v>
+        <v>1471600</v>
       </c>
       <c r="H60" s="3">
-        <v>1510600</v>
+        <v>1422200</v>
       </c>
       <c r="I60" s="3">
-        <v>1676200</v>
+        <v>1538900</v>
       </c>
       <c r="J60" s="3">
+        <v>1707700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1610700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1978500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1907000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1975800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1889400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1407300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1193700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1018300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>987300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>913300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1012900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1288700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1194400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1348600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1803800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1380400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1566500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1965500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1675500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1440600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1403100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1149100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2873800</v>
+        <v>2813300</v>
       </c>
       <c r="E61" s="3">
-        <v>2649100</v>
+        <v>2927700</v>
       </c>
       <c r="F61" s="3">
-        <v>2227900</v>
+        <v>2698800</v>
       </c>
       <c r="G61" s="3">
-        <v>2238300</v>
+        <v>2269700</v>
       </c>
       <c r="H61" s="3">
-        <v>2122900</v>
+        <v>2280300</v>
       </c>
       <c r="I61" s="3">
-        <v>1799300</v>
+        <v>2162800</v>
       </c>
       <c r="J61" s="3">
+        <v>1833100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1870500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1604600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1448900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1554100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1456800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1627800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1895700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1929600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1886800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1753500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1515500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1463500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1474900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1229000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1452700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1826700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1900700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1602200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1672600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1530600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1546800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1682700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2056100</v>
+        <v>1956900</v>
       </c>
       <c r="E62" s="3">
-        <v>2182100</v>
+        <v>2094800</v>
       </c>
       <c r="F62" s="3">
-        <v>2094700</v>
+        <v>2223000</v>
       </c>
       <c r="G62" s="3">
-        <v>2123000</v>
+        <v>2134000</v>
       </c>
       <c r="H62" s="3">
-        <v>2086300</v>
+        <v>2162900</v>
       </c>
       <c r="I62" s="3">
-        <v>2068900</v>
+        <v>2125500</v>
       </c>
       <c r="J62" s="3">
+        <v>2107800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2041600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2039300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1848000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1827100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1846600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1776000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1776400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1030900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>951800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>884400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>842400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>882700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>826200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>830400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1016700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>969300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1058400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1005900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>903700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>885000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>848300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>861700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6508600</v>
+        <v>6672400</v>
       </c>
       <c r="E66" s="3">
-        <v>6382300</v>
+        <v>6630800</v>
       </c>
       <c r="F66" s="3">
-        <v>5830400</v>
+        <v>6502200</v>
       </c>
       <c r="G66" s="3">
-        <v>5830000</v>
+        <v>5939900</v>
       </c>
       <c r="H66" s="3">
-        <v>5790300</v>
+        <v>5939500</v>
       </c>
       <c r="I66" s="3">
-        <v>5613000</v>
+        <v>5899000</v>
       </c>
       <c r="J66" s="3">
+        <v>5718400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5591100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5693500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5267700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5415200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5249800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4864100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4920400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4046700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3889800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3615300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3424300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3692500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3549700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3464800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4345500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4248800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4603200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4639800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4320100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3919800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3863800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3774000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2096100</v>
+        <v>2029700</v>
       </c>
       <c r="E72" s="3">
-        <v>2030300</v>
+        <v>2135500</v>
       </c>
       <c r="F72" s="3">
-        <v>1902100</v>
+        <v>2068400</v>
       </c>
       <c r="G72" s="3">
-        <v>1970200</v>
+        <v>1937900</v>
       </c>
       <c r="H72" s="3">
-        <v>1895300</v>
+        <v>2007200</v>
       </c>
       <c r="I72" s="3">
-        <v>2001800</v>
+        <v>1930900</v>
       </c>
       <c r="J72" s="3">
+        <v>2039400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1865400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2113700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1754000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1567800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1428300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1696700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1578800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1259000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1082400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1109600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>943300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1469300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1309000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1383000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1658700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1573800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1641400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1692200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1582700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1547600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1445100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1813800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4392200</v>
+        <v>4781500</v>
       </c>
       <c r="E76" s="3">
-        <v>4328200</v>
+        <v>4474700</v>
       </c>
       <c r="F76" s="3">
-        <v>4201800</v>
+        <v>4409500</v>
       </c>
       <c r="G76" s="3">
-        <v>4232500</v>
+        <v>4280700</v>
       </c>
       <c r="H76" s="3">
-        <v>4157100</v>
+        <v>4312000</v>
       </c>
       <c r="I76" s="3">
-        <v>4541700</v>
+        <v>4235200</v>
       </c>
       <c r="J76" s="3">
+        <v>4627000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4407600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4343000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3905800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3725000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3906000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3906800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3817600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3500700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3186500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3273600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2989000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3093400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2860300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3002300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3706200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3625200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3899000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3963500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3858200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3754600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3655100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3791800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64100</v>
+        <v>89500</v>
       </c>
       <c r="E81" s="3">
-        <v>126500</v>
+        <v>194200</v>
       </c>
       <c r="F81" s="3">
-        <v>125400</v>
+        <v>128800</v>
       </c>
       <c r="G81" s="3">
-        <v>73300</v>
+        <v>127800</v>
       </c>
       <c r="H81" s="3">
-        <v>-108300</v>
+        <v>74600</v>
       </c>
       <c r="I81" s="3">
-        <v>134100</v>
+        <v>-110300</v>
       </c>
       <c r="J81" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K81" s="3">
         <v>78200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>569800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>183900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>215000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>133500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>150000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>93200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>78600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>81400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>104900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>35900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>101800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-52400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72200</v>
+        <v>65200</v>
       </c>
       <c r="E83" s="3">
-        <v>71200</v>
+        <v>146100</v>
       </c>
       <c r="F83" s="3">
-        <v>67900</v>
+        <v>72500</v>
       </c>
       <c r="G83" s="3">
-        <v>65100</v>
+        <v>69200</v>
       </c>
       <c r="H83" s="3">
-        <v>64900</v>
+        <v>66300</v>
       </c>
       <c r="I83" s="3">
-        <v>64700</v>
+        <v>66100</v>
       </c>
       <c r="J83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K83" s="3">
         <v>62300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>65500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>85600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>34700</v>
       </c>
       <c r="W83" s="3">
         <v>34700</v>
       </c>
       <c r="X83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>44400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41400</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>46700</v>
       </c>
       <c r="AA83" s="3">
         <v>46700</v>
       </c>
       <c r="AB83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="AC83" s="3">
         <v>47200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>45400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>43700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262400</v>
+        <v>200600</v>
       </c>
       <c r="E89" s="3">
-        <v>34800</v>
+        <v>302800</v>
       </c>
       <c r="F89" s="3">
-        <v>137900</v>
+        <v>35500</v>
       </c>
       <c r="G89" s="3">
-        <v>205500</v>
+        <v>140500</v>
       </c>
       <c r="H89" s="3">
-        <v>205400</v>
+        <v>209400</v>
       </c>
       <c r="I89" s="3">
-        <v>238900</v>
+        <v>209300</v>
       </c>
       <c r="J89" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K89" s="3">
         <v>89100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>390200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>280200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>199600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>158700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>245300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>150300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>50300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>160800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>149800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-50000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>38100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>156000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>106000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>39800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>57800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-493600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-106700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-184600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-172400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-202300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-52200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-65800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-78800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-117500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-115900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-48500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-94000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-90500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-695800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-150400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186300</v>
+        <v>-114600</v>
       </c>
       <c r="E94" s="3">
-        <v>-231300</v>
+        <v>-425500</v>
       </c>
       <c r="F94" s="3">
-        <v>-188500</v>
+        <v>-235700</v>
       </c>
       <c r="G94" s="3">
-        <v>-120400</v>
+        <v>-192000</v>
       </c>
       <c r="H94" s="3">
-        <v>-143400</v>
+        <v>-122700</v>
       </c>
       <c r="I94" s="3">
-        <v>-107800</v>
+        <v>-146100</v>
       </c>
       <c r="J94" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-226400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>392900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-102400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-67100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-137000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-120900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-115400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-102600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-52800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-105600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-144800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-98900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-148600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-149900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-72000</v>
+        <v>4400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-73300</v>
       </c>
       <c r="F96" s="3">
-        <v>-109900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-111900</v>
       </c>
       <c r="H96" s="3">
-        <v>-327600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-333800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-287200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-240800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-242200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-57900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-66100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-49800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-77600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-49900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>234000</v>
+        <v>191500</v>
       </c>
       <c r="E100" s="3">
-        <v>243500</v>
+        <v>486500</v>
       </c>
       <c r="F100" s="3">
-        <v>-282600</v>
+        <v>248100</v>
       </c>
       <c r="G100" s="3">
-        <v>58500</v>
+        <v>-287900</v>
       </c>
       <c r="H100" s="3">
-        <v>-133300</v>
+        <v>59600</v>
       </c>
       <c r="I100" s="3">
-        <v>-30500</v>
+        <v>-135800</v>
       </c>
       <c r="J100" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-141300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-258500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-74600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-91000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-140800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-82200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>114300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-47600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-115700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-62600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>285200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-43800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>106400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>34800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>37100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>111500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>310100</v>
+        <v>277500</v>
       </c>
       <c r="E102" s="3">
-        <v>47000</v>
+        <v>363800</v>
       </c>
       <c r="F102" s="3">
-        <v>-333200</v>
+        <v>47900</v>
       </c>
       <c r="G102" s="3">
-        <v>143500</v>
+        <v>-339500</v>
       </c>
       <c r="H102" s="3">
-        <v>-71200</v>
+        <v>146200</v>
       </c>
       <c r="I102" s="3">
-        <v>100500</v>
+        <v>-72500</v>
       </c>
       <c r="J102" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-278600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>689600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-235200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-57000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>180600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>169100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>194600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-156600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>153500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-30400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>122600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-108100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>146200</v>
       </c>
     </row>
